--- a/ecad/MainBoard/MainBoard.xlsx
+++ b/ecad/MainBoard/MainBoard.xlsx
@@ -10,19 +10,19 @@
     <sheet name="MainBoard" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="arrow_part_data">'MainBoard'!$J$5:$N$35</definedName>
+    <definedName name="arrow_part_data">'MainBoard'!$J$5:$N$34</definedName>
     <definedName name="BoardQty">'MainBoard'!$I$1</definedName>
-    <definedName name="digikey_part_data">'MainBoard'!$O$5:$S$35</definedName>
-    <definedName name="farnell_part_data">'MainBoard'!$T$5:$X$35</definedName>
-    <definedName name="global_part_data">'MainBoard'!$A$5:$I$35</definedName>
-    <definedName name="lcsc_part_data">'MainBoard'!$Y$5:$AC$35</definedName>
-    <definedName name="mouser_part_data">'MainBoard'!$AD$5:$AH$35</definedName>
-    <definedName name="newark_part_data">'MainBoard'!$AI$5:$AM$35</definedName>
-    <definedName name="PURCHASE_DESCRIPTION">'MainBoard'!$I$38</definedName>
-    <definedName name="rs_part_data">'MainBoard'!$AN$5:$AR$35</definedName>
-    <definedName name="tme_part_data">'MainBoard'!$AS$5:$AW$35</definedName>
+    <definedName name="digikey_part_data">'MainBoard'!$O$5:$S$34</definedName>
+    <definedName name="farnell_part_data">'MainBoard'!$T$5:$X$34</definedName>
+    <definedName name="global_part_data">'MainBoard'!$A$5:$I$34</definedName>
+    <definedName name="lcsc_part_data">'MainBoard'!$Y$5:$AC$34</definedName>
+    <definedName name="mouser_part_data">'MainBoard'!$AD$5:$AH$34</definedName>
+    <definedName name="newark_part_data">'MainBoard'!$AI$5:$AM$34</definedName>
+    <definedName name="PURCHASE_DESCRIPTION">'MainBoard'!$I$37</definedName>
+    <definedName name="rs_part_data">'MainBoard'!$AN$5:$AR$34</definedName>
+    <definedName name="tme_part_data">'MainBoard'!$AS$5:$AW$34</definedName>
     <definedName name="TotalCost">'MainBoard'!$I$3</definedName>
-    <definedName name="USD_GBP">'MainBoard'!$C$38</definedName>
+    <definedName name="USD_GBP">'MainBoard'!$C$37</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -849,20 +849,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O22" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This part is listed but is not normally stocked.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q22" authorId="0">
+    <comment ref="Q8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -874,18 +861,58 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
-     1   $0.34      $0.34
-    10   $0.28      $2.81
-    25   $0.24      $5.89
-   100   $0.15     $14.92
-   500   $0.10     $49.09
-  1000   $0.07     $66.76
-  2500   $0.06    $150.55
-  5000   $0.05    $261.80</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="T22" authorId="0">
+     1   $0.10      $0.10
+    10   $0.03      $0.30
+    50   $0.02      $0.82
+   100   $0.01      $1.35
+   500   $0.01      $4.81
+  1000   $0.01      $7.56
+  2500   $0.01     $17.18
+  5000   $0.01     $31.60
+ 10000   $0.01     $57.70</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AF8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.10      $0.10
+    10   $0.02      $0.23
+    50   $0.02      $1.15
+   100   $0.02      $1.60
+  1000   $0.01      $9.00
+ 10000   $0.01     $60.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.10      $0.10
+    10   $0.08      $0.77
+  4000   $0.08    $306.24</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -898,7 +925,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V22" authorId="0">
+    <comment ref="V9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -910,15 +937,38 @@
           <t>Qty/Price Breaks (GBP):
   Qty  -  Unit£  -  Ext£
 ================
-     5   £0.31      £1.56
-    10   £0.22      £2.20
-   100   £0.09      £9.13
-   500   £0.07     £34.55
-  1000   £0.05     £46.80</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AD22" authorId="0">
+    10   £0.69      £6.88
+   100   £0.43     £43.00
+   500   £0.31    £156.50
+  1000   £0.26    £265.00
+  2000   £0.26    £520.00
+  4000   £0.26  £1,060.00
+ 20000   £0.26  £5,200.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AF9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.52      $0.52
+    10   $0.37      $3.66
+    50   $0.37     $18.30
+   100   $0.22     $22.00
+  1000   $0.15    $152.00
+ 10000   $0.15  $1,470.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AI9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -931,7 +981,918 @@
         </r>
       </text>
     </comment>
+    <comment ref="AK9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.62      $0.62
+    25   $0.44     $10.98
+    50   $0.35     $17.60
+   100   $0.26     $26.40
+   250   $0.23     $57.75
+  4000   $0.18    $704.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This part is listed but is not normally stocked.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
+================
+     1   $1.19      $1.19
+    10   $0.94      $9.39
+    50   $0.81     $40.71
+   100   $0.70     $70.46
+   500   $0.53    $266.17</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This part is listed but is not normally stocked.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AF10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
+================
+     1   $1.15      $1.15
+    10   $0.85      $8.53
+    50   $0.85     $42.65
+   100   $0.70     $70.50
+  1000   $0.60    $605.00
+ 10000   $0.47  $4,700.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AI10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This part is listed but is not normally stocked.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AK10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.59      $0.59
+   500   $0.59    $295.50
+  1000   $0.56    $559.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.10      $0.10
+    10   $0.01      $0.11
+    50   $0.01      $0.31
+   100   $0.01      $0.51
+   500   $0.00      $1.81
+  1000   $0.00      $2.85
+  2500   $0.00      $6.48
+  5000   $0.00     $11.90
+ 15000   $0.00     $31.05</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (GBP):
+  Qty  -  Unit£  -  Ext£
+================
+    10   £0.01      £0.06
+   100   £0.00      £0.50
+   150   £0.00      £0.75
+   500   £0.00      £1.45
+  2500   £0.00      £5.50
+  7500   £0.00     £15.75
+ 15000   £0.00     £24.00
+ 75000   £0.00    £112.50</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AF12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.10      $0.10
+    10   $0.01      $0.11
+    50   $0.01      $0.55
+   100   $0.01      $0.60
+  1000   $0.00      $3.00
+ 10000   $0.00     $30.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AK12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.10      $0.10
+    10   $0.02      $0.16
+    25   $0.01      $0.32
+    50   $0.01      $0.50
+   100   $0.01      $0.70
+   250   $0.01      $1.50
+   500   $0.00      $2.50
+  1000   $0.00      $4.00
+ 15000   $0.00     $30.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AP12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (GBP):
+  Qty  -  Unit£  -  Ext£
+================
+ 15000   £0.00     £30.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.10      $0.10
+    10   $0.02      $0.22
+   100   $0.02      $1.99
+   500   $0.02      $8.82
+ 10000   $0.01    $145.70</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This part is listed but is not normally stocked.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (GBP):
+  Qty  -  Unit£  -  Ext£
+================
+    10   £0.04      £0.37
+   100   £0.02      £2.41
+   150   £0.02      £3.61
+   500   £0.02      £8.90
+  2500   £0.02     £38.75
+  5000   £0.02     £76.00
+ 10000   £0.01    £118.00
+ 50000   £0.01    £495.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This part is listed but is not normally stocked.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AF13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.10      $0.10
+    10   $0.02      $0.23
+    50   $0.02      $1.15
+   100   $0.02      $2.10
+  1000   $0.02     $18.00
+ 10000   $0.02    $160.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AI13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This part is listed but is not normally stocked.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AK13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
+================
+    10   $0.03      $0.30
+    25   $0.03      $0.73
+    50   $0.03      $1.35
+   100   $0.03      $2.60</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.49      $0.49
+    10   $0.35      $3.46
+    50   $0.26     $13.09
+   100   $0.23     $22.79
+   500   $0.17     $84.42
+  1000   $0.14    $143.52
+  2000   $0.13    $267.68</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
+================
+     5   $0.63      $3.15
+    50   $0.47     $23.55
+   150   $0.44     $66.27
+   500   $0.41    $206.26
+  2500   $0.40    $998.72
+  5000   $0.39  $1,965.30</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AF14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.50      $0.50
+    10   $0.29      $2.89
+    50   $0.29     $14.45
+   100   $0.23     $23.10
+  1000   $0.16    $162.00
+ 10000   $0.16  $1,570.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AU14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (GBP):
+  Qty  -  Unit£  -  Ext£
+================
+    10   £0.20      £2.04
+   100   £0.14     £14.35
+  1000   £0.12    £117.96
+  2000   £0.10    £205.12
+ 10000   £0.10    £991.40</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.45      $0.45
+    10   $0.32      $3.15
+    50   $0.22     $11.03
+   100   $0.19     $18.91
+   500   $0.14     $70.90
+  1000   $0.12    $119.74
+  2500   $0.11    $283.60
+  5000   $0.11    $535.65
+ 15000   $0.10  $1,465.20</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AF15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.50      $0.50
+    10   $0.35      $3.46
+    50   $0.35     $17.30
+   100   $0.21     $20.80
+  1000   $0.13    $132.00
+ 10000   $0.09    $940.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AI15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This part is listed but is not normally stocked.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AK15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
+================
+ 15000   $0.11  $1,695.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.10      $0.10
+    10   $0.08      $0.84
+   100   $0.05      $4.55
+   500   $0.03     $13.99
+  1000   $0.02     $19.08
+  2000   $0.02     $32.44
+  5000   $0.01     $73.15
+ 10000   $0.01    $127.20
+ 50000   $0.01    $525.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (GBP):
+  Qty  -  Unit£  -  Ext£
+================
+     5   £0.12      £0.61
+    10   £0.08      £0.84
+   100   £0.03      £3.11
+   500   £0.02     £11.60
+  1000   £0.02     £15.20</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AF16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.10      $0.10
+    10   $0.09      $0.87
+    50   $0.09      $4.35
+   100   $0.05      $4.80
+  1000   $0.02     $20.00
+ 10000   $0.01    $130.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AK16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.12      $0.12
+     5   $0.12      $0.59
+    10   $0.07      $0.69
+    25   $0.03      $0.73
+    50   $0.03      $1.45
+   100   $0.04      $3.70
+   500   $0.03     $15.50
+  1000   $0.02     $21.00
+  2500   $0.02     $42.50</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AU16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (GBP):
+  Qty  -  Unit£  -  Ext£
+================
+    30   £0.02      £0.73
+   100   £0.01      £1.19
+   250   £0.01      £2.64
+  1000   £0.01      £8.97
+  5000   £0.01     £40.40</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.41      $0.41
+    10   $0.33      $3.34
+    25   $0.31      $7.63
+   100   $0.23     $22.73
+   250   $0.21     $51.49
+   500   $0.17     $85.22
+  1000   $0.13    $127.84
+  2500   $0.12    $293.12</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (GBP):
+  Qty  -  Unit£  -  Ext£
+================
+     1   £0.38      £0.38
+    10   £0.27      £2.72
+   100   £0.25     £24.60
+   500   £0.22    £110.00
+  1000   £0.19    £193.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AF18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.41      $0.41
+    10   $0.33      $3.34
+    50   $0.33     $16.70
+   100   $0.33     $33.40
+  1000   $0.33    $334.00
+ 10000   $0.33  $3,340.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AK18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.45      $0.45
+    10   $0.37      $3.67
+   100   $0.30     $29.60
+   500   $0.28    $138.00
+  1000   $0.26    $260.00
+  2500   $0.25    $615.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AU18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (GBP):
+  Qty  -  Unit£  -  Ext£
+================
+     3   £0.21      £0.62
+    25   £0.16      £4.04
+    75   £0.14     £10.39
+   300   £0.11     £32.38</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q22" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.10      $0.10
+    10   $0.02      $0.19
+   100   $0.01      $0.75
+  1000   $0.00      $3.38
+  2500   $0.00      $7.35
+  5000   $0.00     $12.15
+ 10000   $0.00     $21.10</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V22" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (GBP):
+  Qty  -  Unit£  -  Ext£
+================
+    10   £0.01      £0.14
+   100   £0.01      £0.57
+   150   £0.01      £0.86
+   500   £0.00      £1.40
+  2500   £0.00      £5.50
+  5000   £0.00      £9.00
+ 10000   £0.00     £16.00
+ 50000   £0.00     £70.00</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="AF22" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.10      $0.10
+    10   $0.02      $0.18
+    50   $0.02      $0.90
+   100   $0.01      $0.80
+  1000   $0.00      $4.00
+ 10000   $0.00     $20.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AK22" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.01      $0.01
+    10   $0.01      $0.06
+    25   $0.00      $0.12
+    50   $0.00      $0.25
+   100   $0.00      $0.40
+ 20000   $0.00     $40.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q23" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.43      $0.43
+    10   $0.33      $3.27
+   100   $0.14     $13.74
+  1000   $0.08     $75.81
+  4000   $0.07    $284.28</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V23" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (GBP):
+  Qty  -  Unit£  -  Ext£
+================
+    10   £0.33      £3.29
+   100   £0.13     £12.80
+   150   £0.13     £19.20
+   500   £0.11     £56.00
+  1000   £0.10     £95.80
+  2000   £0.09    £183.20
+  4000   £0.09    £364.00
+ 20000   £0.09  £1,806.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD23" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This part is listed but is not normally stocked.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AF23" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.43      $0.43
+    10   $0.33      $3.27
+    50   $0.33     $16.35
+   100   $0.14     $14.20
+  1000   $0.08     $76.00
+ 10000   $0.07    $700.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AK23" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.05      $0.05
+    10   $0.32      $3.21
+    25   $0.05      $1.20
+    50   $0.05      $2.40
+   100   $0.05      $4.80
+   250   $0.05     $12.00
+   500   $0.05     $24.00
+  1000   $0.05     $48.00
+  4000   $0.08    $304.00
+  8000   $0.07    $576.00
+ 16000   $0.07  $1,136.00
+ 24000   $0.07  $1,656.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q24" authorId="0">
       <text>
         <r>
           <rPr>
@@ -944,15 +1905,52 @@
   Qty  -  Unit$  -  Ext$
 ================
      1   $0.32      $0.32
-    10   $0.22      $2.23
-    50   $0.22     $11.15
-   100   $0.10      $9.70
-  1000   $0.07     $67.00
- 10000   $0.04    $440.00</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AK22" authorId="0">
+    10   $0.27      $2.70
+   100   $0.11     $10.55
+  1000   $0.04     $44.17
+  2500   $0.04    $101.22
+  5000   $0.04    $184.05
+ 20000   $0.03    $687.20</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This part is listed but is not normally stocked.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (GBP):
+  Qty  -  Unit£  -  Ext£
+================
+    10   £0.09      £0.89
+   150   £0.09     £13.29
+   250   £0.06     £14.88
+  1000   £0.04     £41.00
+  5000   £0.03    £149.00
+ 10000   £0.03    £264.00
+ 20000   £0.03    £506.00
+100000   £0.02  £2,410.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AF24" authorId="0">
       <text>
         <r>
           <rPr>
@@ -964,19 +1962,114 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
-     1   $0.03      $0.03
-     5   $0.35      $1.74
-    10   $0.03      $0.29
-    25   $0.03      $0.73
-    50   $0.03      $1.45
-   100   $0.03      $2.80
-   500   $0.03     $14.00
-  1000   $0.03     $28.00
-  2500   $0.06    $160.00</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AU22" authorId="0">
+     1   $0.32      $0.32
+    10   $0.27      $2.70
+    50   $0.27     $13.50
+   100   $0.11     $10.60
+  1000   $0.04     $45.00
+ 10000   $0.04    $370.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AI24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This part is listed but is not normally stocked.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AK24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
+================
+    10   $0.20      $1.95
+    25   $0.15      $3.80
+    50   $0.11      $5.50
+   100   $0.07      $6.80</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O26" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This part is listed but is not normally stocked.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q26" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
+================
+  1000   $0.07     $66.30
+  5000   $0.06    $277.90
+ 10000   $0.05    $530.40</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q29" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.10      $0.10
+    10   $0.08      $0.75
+   100   $0.03      $2.88
+  1000   $0.01     $12.65
+  2500   $0.01     $27.30
+  5000   $0.01     $48.90
+ 10000   $0.01     $87.70</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T29" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This part is listed but is not normally stocked.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V29" authorId="0">
       <text>
         <r>
           <rPr>
@@ -988,11 +2081,419 @@
           <t>Qty/Price Breaks (GBP):
   Qty  -  Unit£  -  Ext£
 ================
-    10   £0.08      £0.75
-    50   £0.04      £2.24
-   250   £0.04      £9.40
-  1000   £0.03     £30.40
-  5000   £0.03    £142.00</t>
+ 10000   £0.01     £72.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AI29" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This part is listed but is not normally stocked.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AK29" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
+================
+ 10000   $0.02    $210.00
+ 20000   $0.01    $220.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q31" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.10      $0.10
+    10   $0.04      $0.41
+    25   $0.04      $0.96
+    50   $0.03      $1.42
+   100   $0.02      $2.44
+   250   $0.02      $5.89
+   500   $0.02     $10.16
+  1000   $0.02     $18.29
+  2500   $0.02     $40.65
+  5000   $0.02     $77.25
+ 10000   $0.01    $146.40
+ 15000   $0.01    $213.45
+ 25000   $0.01    $325.25
+ 50000   $0.01    $589.50</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T31" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This part is listed but is not normally stocked.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V31" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (GBP):
+  Qty  -  Unit£  -  Ext£
+================
+    10   £0.03      £0.27
+   100   £0.02      £1.94
+   150   £0.02      £2.91
+   500   £0.02      £8.10
+  1000   £0.01     £13.50
+  2500   £0.01     £28.25
+  5000   £0.01     £50.00
+ 25000   £0.01    £195.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AF31" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.17      $0.17
+    10   $0.12      $1.15
+    50   $0.12      $5.75
+   100   $0.04      $4.50
+  1000   $0.02     $20.00
+ 10000   $0.01    $120.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AI31" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This part is listed but is not normally stocked.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AK31" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.01      $0.01
+  5000   $0.01     $50.00
+ 50000   $0.01    $450.00
+100000   $0.01    $800.00
+250000   $0.01  $2,000.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q32" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.10      $0.10
+    10   $0.04      $0.36
+   100   $0.01      $1.46
+  1000   $0.01      $6.55
+  2500   $0.01     $14.22
+  5000   $0.00     $23.50</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q33" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
+================
+     1   $7.41      $7.41
+    10   $6.67     $66.71
+    25   $6.34    $158.39
+    50   $6.07    $303.37
+   100   $5.87    $586.63
+   250   $5.56  $1,391.16
+   500   $5.10  $2,547.66
+  1000   $4.86  $4,860.68</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T33" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This part is listed but is not normally stocked.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V33" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (GBP):
+  Qty  -  Unit£  -  Ext£
+================
+     1   £5.62      £5.62
+     5   £5.35     £26.75
+    10   £5.06     £50.60
+    25   £4.81    £120.25
+    50   £4.61    £230.50
+   100   £4.46    £446.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD33" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This part is listed but is not normally stocked.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AF33" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
+================
+     1   $7.28      $7.28
+    10   $6.63     $66.30
+    50   $6.13    $306.50
+   100   $5.97    $597.00
+  1000   $4.81  $4,810.00
+ 10000   $4.81 $48,100.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AI33" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This part is listed but is not normally stocked.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AK33" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
+================
+     1   $6.79      $6.79
+     5   $6.46     $32.30
+    10   $6.12     $61.20
+    25   $5.81    $145.25
+    50   $5.57    $278.50
+   100   $5.40    $540.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H36" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This is the total of your cart across all distributors.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K36" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Copy the information below to the BOM import page of the distributor web site.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P36" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Copy the information below to the BOM import page of the distributor web site.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U36" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Copy the information below to the BOM import page of the distributor web site.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z36" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Copy the information below to the BOM import page of the distributor web site.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AE36" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Copy the information below to the BOM import page of the distributor web site.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AJ36" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Copy the information below to the BOM import page of the distributor web site.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AO36" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Copy the information below to the BOM import page of the distributor web site.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AT36" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Copy the information below to the BOM import page of the distributor web site.</t>
         </r>
       </text>
     </comment>
@@ -1005,128 +2506,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>This is the total of your cart across all distributors.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K37" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Copy the information below to the BOM import page of the distributor web site.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P37" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Copy the information below to the BOM import page of the distributor web site.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="U37" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Copy the information below to the BOM import page of the distributor web site.</t>
+          <t>This description will be added to all purchased parts label and may be used to distinguish the component of different projects.</t>
         </r>
       </text>
     </comment>
     <comment ref="Z37" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Copy the information below to the BOM import page of the distributor web site.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AE37" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Copy the information below to the BOM import page of the distributor web site.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AJ37" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Copy the information below to the BOM import page of the distributor web site.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AO37" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Copy the information below to the BOM import page of the distributor web site.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AT37" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Copy the information below to the BOM import page of the distributor web site.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H38" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This description will be added to all purchased parts label and may be used to distinguish the component of different projects.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Z38" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1144,7 +2528,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="184">
   <si>
     <t>Global Part Info</t>
   </si>
@@ -1185,40 +2569,52 @@
     <t>C_0805_2012Metric_Pad1.18x1.45mm_HandSolder</t>
   </si>
   <si>
+    <t>399-C0402C224M8RACTUTR-ND</t>
+  </si>
+  <si>
     <t>C10</t>
   </si>
   <si>
     <t>0u1</t>
   </si>
   <si>
+    <t>CL03A104MP3NNNC</t>
+  </si>
+  <si>
     <t>C11</t>
   </si>
   <si>
     <t>10u</t>
   </si>
   <si>
+    <t>0603ZD106KAT2A</t>
+  </si>
+  <si>
     <t>C12</t>
   </si>
   <si>
     <t>100u</t>
   </si>
   <si>
+    <t>LMK325ABJ107MM-T</t>
+  </si>
+  <si>
     <t>C2,C8</t>
   </si>
   <si>
     <t>1u</t>
   </si>
   <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>47p</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>51p</t>
+    <t>1276-1943-2-ND</t>
+  </si>
+  <si>
+    <t>C3,C4</t>
+  </si>
+  <si>
+    <t>50p</t>
+  </si>
+  <si>
+    <t>GRM0335C1E470JA01D</t>
   </si>
   <si>
     <t>C5</t>
@@ -1227,18 +2623,27 @@
     <t>0u22</t>
   </si>
   <si>
+    <t>885012105011</t>
+  </si>
+  <si>
     <t>C7</t>
   </si>
   <si>
     <t>47u</t>
   </si>
   <si>
+    <t>CL31A476MPHNNNE</t>
+  </si>
+  <si>
     <t>C9</t>
   </si>
   <si>
     <t>220n</t>
   </si>
   <si>
+    <t>12065C204KAT4A</t>
+  </si>
+  <si>
     <t>D1,D2,D5</t>
   </si>
   <si>
@@ -1248,9 +2653,6 @@
     <t>D_DO-35_SOD27_P2.54mm_Vertical_AnodeUp</t>
   </si>
   <si>
-    <t>http://www.vishay.com/docs/85622/1n914.pdf</t>
-  </si>
-  <si>
     <t>D4</t>
   </si>
   <si>
@@ -1269,7 +2671,7 @@
     <t>Texas_R-PDSO-G8_EP2.95x4.9mm_Mask2.4x3.1mm</t>
   </si>
   <si>
-    <t>http://www.ti.com/lit/ds/symlink/rc4558.pdf</t>
+    <t>RC4558D</t>
   </si>
   <si>
     <t>J1,J2</t>
@@ -1293,6 +2695,9 @@
     <t>CUI Inc.</t>
   </si>
   <si>
+    <t>CP-102A-ND</t>
+  </si>
+  <si>
     <t>Q1,Q2</t>
   </si>
   <si>
@@ -1308,6 +2713,9 @@
     <t>ON Semiconductor</t>
   </si>
   <si>
+    <t>2N4401-ND</t>
+  </si>
+  <si>
     <t>R1,R8,R17,R18,R23</t>
   </si>
   <si>
@@ -1317,18 +2725,27 @@
     <t>R_0805_2012Metric_Pad1.20x1.40mm_HandSolder</t>
   </si>
   <si>
+    <t>CRGCQ0402J1K0</t>
+  </si>
+  <si>
     <t>R11</t>
   </si>
   <si>
     <t>220</t>
   </si>
   <si>
+    <t>ERJ-1TYJ221U</t>
+  </si>
+  <si>
     <t>R15</t>
   </si>
   <si>
     <t>100</t>
   </si>
   <si>
+    <t>RC0100FR-07100RL</t>
+  </si>
+  <si>
     <t>R19</t>
   </si>
   <si>
@@ -1344,6 +2761,9 @@
     <t>501k</t>
   </si>
   <si>
+    <t>RN73R2ATTD5053F100</t>
+  </si>
+  <si>
     <t>R20</t>
   </si>
   <si>
@@ -1362,24 +2782,36 @@
     <t>1M5</t>
   </si>
   <si>
+    <t>ERJ-U02J155X</t>
+  </si>
+  <si>
     <t>R3,R5,R9,R10,R13,R14,R16</t>
   </si>
   <si>
     <t>10k</t>
   </si>
   <si>
+    <t>RG20N470KWTR-ND</t>
+  </si>
+  <si>
     <t>R6</t>
   </si>
   <si>
     <t>4k7</t>
   </si>
   <si>
+    <t>CRGH0805F4K7</t>
+  </si>
+  <si>
     <t>R7</t>
   </si>
   <si>
     <t>51k</t>
   </si>
   <si>
+    <t>RMCF1206FT51K0</t>
+  </si>
+  <si>
     <t>SW1</t>
   </si>
   <si>
@@ -1419,7 +2851,7 @@
     <t>Prj date:</t>
   </si>
   <si>
-    <t>Tue 03 Aug 2021 11:38:21 AM PDT</t>
+    <t>Thu 05 Aug 2021 10:51:37 PM PDT</t>
   </si>
   <si>
     <t>Board Qty:</t>
@@ -1434,7 +2866,7 @@
     <t>$ date:</t>
   </si>
   <si>
-    <t>2021-08-03 11:49:10</t>
+    <t>2021-08-05 22:52:49</t>
   </si>
   <si>
     <t>Arrow</t>
@@ -1452,37 +2884,199 @@
     <t>Digi-Key</t>
   </si>
   <si>
-    <t>2N4401-ND</t>
+    <t>1276-1321-1-ND</t>
+  </si>
+  <si>
+    <t>478-10766-1-ND</t>
+  </si>
+  <si>
+    <t>587-6152-1-ND</t>
   </si>
   <si>
     <t>NonStk</t>
   </si>
   <si>
+    <t>490-1256-1-ND</t>
+  </si>
+  <si>
+    <t>732-7488-1-ND</t>
+  </si>
+  <si>
+    <t>1276-3063-1-ND</t>
+  </si>
+  <si>
+    <t>478-12065C204KAT4ACT-ND</t>
+  </si>
+  <si>
+    <t>1N914FS-ND</t>
+  </si>
+  <si>
+    <t>296-9650-5-ND</t>
+  </si>
+  <si>
+    <t>A130048CT-ND</t>
+  </si>
+  <si>
+    <t>PT220XCT-ND</t>
+  </si>
+  <si>
+    <t>311-100DGCT-ND</t>
+  </si>
+  <si>
+    <t>2019-RN73R2ATTD5053F100CT-ND</t>
+  </si>
+  <si>
+    <t>10-ERJ-U02J155XCT-ND</t>
+  </si>
+  <si>
+    <t>A129546CT-ND</t>
+  </si>
+  <si>
+    <t>RMCF1206FT51K0CT-ND</t>
+  </si>
+  <si>
+    <t>EG5492-ND</t>
+  </si>
+  <si>
     <t>Farnell</t>
   </si>
   <si>
-    <t>1653588</t>
+    <t>3340860</t>
+  </si>
+  <si>
+    <t>2434638</t>
+  </si>
+  <si>
+    <t>2533929</t>
+  </si>
+  <si>
+    <t>9843817</t>
+  </si>
+  <si>
+    <t>3117712</t>
+  </si>
+  <si>
+    <t>2861821</t>
+  </si>
+  <si>
+    <t>2324195</t>
+  </si>
+  <si>
+    <t>3495400</t>
+  </si>
+  <si>
+    <t>3314778</t>
+  </si>
+  <si>
+    <t>2332080</t>
+  </si>
+  <si>
+    <t>2771200</t>
   </si>
   <si>
     <t>LCSC</t>
   </si>
   <si>
+    <t>C96123</t>
+  </si>
+  <si>
     <t>Mouser</t>
   </si>
   <si>
-    <t>5122N4401BU</t>
+    <t>187CL03A104MP3NNNC</t>
+  </si>
+  <si>
+    <t>5810603ZD106KAT2A</t>
+  </si>
+  <si>
+    <t>963LMK325ABJ107MMT</t>
+  </si>
+  <si>
+    <t>81GRM0335C1E470JA1D</t>
+  </si>
+  <si>
+    <t>710885012105011</t>
+  </si>
+  <si>
+    <t>187CL31A476MPHNNNE</t>
+  </si>
+  <si>
+    <t>58112065C204KAT4A</t>
+  </si>
+  <si>
+    <t>5121N914</t>
+  </si>
+  <si>
+    <t>595RC4558D</t>
+  </si>
+  <si>
+    <t>279CRGCQ0402J1K0</t>
+  </si>
+  <si>
+    <t>667ERJ1TYJ221U</t>
+  </si>
+  <si>
+    <t>603RC0100FR07100RL</t>
+  </si>
+  <si>
+    <t>279CRGH0805F4K7</t>
+  </si>
+  <si>
+    <t>612FS573PLT2B2M2QE</t>
   </si>
   <si>
     <t>Newark</t>
   </si>
   <si>
-    <t>26AC6356</t>
+    <t>50AH3279</t>
+  </si>
+  <si>
+    <t>23AC6249</t>
+  </si>
+  <si>
+    <t>80X8554</t>
+  </si>
+  <si>
+    <t>04AJ6147</t>
+  </si>
+  <si>
+    <t>55J9626</t>
+  </si>
+  <si>
+    <t>58K9617</t>
+  </si>
+  <si>
+    <t>26AJ8859</t>
+  </si>
+  <si>
+    <t>61AC6393</t>
+  </si>
+  <si>
+    <t>53W4065</t>
+  </si>
+  <si>
+    <t>82AH7756</t>
+  </si>
+  <si>
+    <t>51W3518</t>
+  </si>
+  <si>
+    <t>37AH9917</t>
+  </si>
+  <si>
+    <t>18AC1549</t>
   </si>
   <si>
     <t>RS Components</t>
   </si>
   <si>
+    <t>1138721</t>
+  </si>
+  <si>
     <t>TME</t>
+  </si>
+  <si>
+    <t>1N914ONS</t>
   </si>
   <si>
     <t>KiCost® v.1.1.4</t>
@@ -1562,18 +3156,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF909090"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -1655,7 +3249,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -1716,10 +3310,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2060,7 +3654,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AW67"/>
+  <dimension ref="A1:AW65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="9" ySplit="6" topLeftCell="J7" activePane="bottomRight" state="frozen"/>
@@ -2124,13 +3718,13 @@
   <sheetData>
     <row r="1" spans="1:49">
       <c r="A1" s="1" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="I1" s="3">
         <v>100</v>
@@ -2138,11 +3732,11 @@
     </row>
     <row r="2" spans="1:49">
       <c r="A2" s="1" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="B2" s="2"/>
       <c r="H2" s="1" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="I2" s="4">
         <f>TotalCost/BoardQty</f>
@@ -2151,89 +3745,89 @@
     </row>
     <row r="3" spans="1:49">
       <c r="A3" s="1" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="I3" s="5">
-        <f>SUM(I7:I35)</f>
+        <f>SUM(I7:I34)</f>
         <v>0</v>
       </c>
       <c r="M3" s="5">
-        <f>SUM(M7:M35)</f>
+        <f>SUM(M7:M34)</f>
         <v>0</v>
       </c>
       <c r="N3" s="6">
-        <f>(COUNTA(M7:M35)&amp;" of "&amp;ROWS(M7:M35)&amp;" parts found"</f>
+        <f>(COUNTA(M7:M34)&amp;" of "&amp;ROWS(M7:M34)&amp;" parts found"</f>
         <v>0</v>
       </c>
       <c r="R3" s="5">
-        <f>SUM(R7:R35)</f>
+        <f>SUM(R7:R34)</f>
         <v>0</v>
       </c>
       <c r="S3" s="6">
-        <f>(COUNTA(R7:R35)&amp;" of "&amp;ROWS(R7:R35)&amp;" parts found"</f>
+        <f>(COUNTA(R7:R34)&amp;" of "&amp;ROWS(R7:R34)&amp;" parts found"</f>
         <v>0</v>
       </c>
       <c r="W3" s="5">
-        <f>SUM(W7:W35)</f>
+        <f>SUM(W7:W34)</f>
         <v>0</v>
       </c>
       <c r="X3" s="6">
-        <f>(COUNTA(W7:W35)&amp;" of "&amp;ROWS(W7:W35)&amp;" parts found"</f>
+        <f>(COUNTA(W7:W34)&amp;" of "&amp;ROWS(W7:W34)&amp;" parts found"</f>
         <v>0</v>
       </c>
       <c r="AB3" s="5">
-        <f>SUM(AB7:AB35)</f>
+        <f>SUM(AB7:AB34)</f>
         <v>0</v>
       </c>
       <c r="AC3" s="6">
-        <f>(COUNTA(AB7:AB35)&amp;" of "&amp;ROWS(AB7:AB35)&amp;" parts found"</f>
+        <f>(COUNTA(AB7:AB34)&amp;" of "&amp;ROWS(AB7:AB34)&amp;" parts found"</f>
         <v>0</v>
       </c>
       <c r="AG3" s="5">
-        <f>SUM(AG7:AG35)</f>
+        <f>SUM(AG7:AG34)</f>
         <v>0</v>
       </c>
       <c r="AH3" s="6">
-        <f>(COUNTA(AG7:AG35)&amp;" of "&amp;ROWS(AG7:AG35)&amp;" parts found"</f>
+        <f>(COUNTA(AG7:AG34)&amp;" of "&amp;ROWS(AG7:AG34)&amp;" parts found"</f>
         <v>0</v>
       </c>
       <c r="AL3" s="5">
-        <f>SUM(AL7:AL35)</f>
+        <f>SUM(AL7:AL34)</f>
         <v>0</v>
       </c>
       <c r="AM3" s="6">
-        <f>(COUNTA(AL7:AL35)&amp;" of "&amp;ROWS(AL7:AL35)&amp;" parts found"</f>
+        <f>(COUNTA(AL7:AL34)&amp;" of "&amp;ROWS(AL7:AL34)&amp;" parts found"</f>
         <v>0</v>
       </c>
       <c r="AQ3" s="5">
-        <f>SUM(AQ7:AQ35)</f>
+        <f>SUM(AQ7:AQ34)</f>
         <v>0</v>
       </c>
       <c r="AR3" s="6">
-        <f>(COUNTA(AQ7:AQ35)&amp;" of "&amp;ROWS(AQ7:AQ35)&amp;" parts found"</f>
+        <f>(COUNTA(AQ7:AQ34)&amp;" of "&amp;ROWS(AQ7:AQ34)&amp;" parts found"</f>
         <v>0</v>
       </c>
       <c r="AV3" s="5">
-        <f>SUM(AV7:AV35)</f>
+        <f>SUM(AV7:AV34)</f>
         <v>0</v>
       </c>
       <c r="AW3" s="6">
-        <f>(COUNTA(AV7:AV35)&amp;" of "&amp;ROWS(AV7:AV35)&amp;" parts found"</f>
+        <f>(COUNTA(AV7:AV34)&amp;" of "&amp;ROWS(AV7:AV34)&amp;" parts found"</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:49">
       <c r="A4" s="1" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:49">
@@ -2249,56 +3843,56 @@
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="8" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
       <c r="O5" s="9" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="P5" s="9"/>
       <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
       <c r="S5" s="9"/>
       <c r="T5" s="10" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="U5" s="10"/>
       <c r="V5" s="10"/>
       <c r="W5" s="10"/>
       <c r="X5" s="10"/>
       <c r="Y5" s="11" t="s">
-        <v>106</v>
+        <v>148</v>
       </c>
       <c r="Z5" s="11"/>
       <c r="AA5" s="11"/>
       <c r="AB5" s="11"/>
       <c r="AC5" s="11"/>
       <c r="AD5" s="12" t="s">
-        <v>107</v>
+        <v>150</v>
       </c>
       <c r="AE5" s="12"/>
       <c r="AF5" s="12"/>
       <c r="AG5" s="12"/>
       <c r="AH5" s="12"/>
       <c r="AI5" s="13" t="s">
-        <v>109</v>
+        <v>165</v>
       </c>
       <c r="AJ5" s="13"/>
       <c r="AK5" s="13"/>
       <c r="AL5" s="13"/>
       <c r="AM5" s="13"/>
       <c r="AN5" s="14" t="s">
-        <v>111</v>
+        <v>179</v>
       </c>
       <c r="AO5" s="14"/>
       <c r="AP5" s="14"/>
       <c r="AQ5" s="14"/>
       <c r="AR5" s="14"/>
       <c r="AS5" s="15" t="s">
-        <v>112</v>
+        <v>181</v>
       </c>
       <c r="AT5" s="15"/>
       <c r="AU5" s="15"/>
@@ -2334,10 +3928,10 @@
         <v>9</v>
       </c>
       <c r="J6" s="16" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="K6" s="16" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="L6" s="16" t="s">
         <v>8</v>
@@ -2346,13 +3940,13 @@
         <v>9</v>
       </c>
       <c r="N6" s="16" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="O6" s="16" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="P6" s="16" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="Q6" s="16" t="s">
         <v>8</v>
@@ -2361,13 +3955,13 @@
         <v>9</v>
       </c>
       <c r="S6" s="16" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="T6" s="16" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="U6" s="16" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="V6" s="16" t="s">
         <v>8</v>
@@ -2376,13 +3970,13 @@
         <v>9</v>
       </c>
       <c r="X6" s="16" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="Y6" s="16" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="Z6" s="16" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="AA6" s="16" t="s">
         <v>8</v>
@@ -2391,13 +3985,13 @@
         <v>9</v>
       </c>
       <c r="AC6" s="16" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="AD6" s="16" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="AE6" s="16" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="AF6" s="16" t="s">
         <v>8</v>
@@ -2406,13 +4000,13 @@
         <v>9</v>
       </c>
       <c r="AH6" s="16" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="AI6" s="16" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="AJ6" s="16" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="AK6" s="16" t="s">
         <v>8</v>
@@ -2421,13 +4015,13 @@
         <v>9</v>
       </c>
       <c r="AM6" s="16" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="AN6" s="16" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="AO6" s="16" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="AP6" s="16" t="s">
         <v>8</v>
@@ -2436,13 +4030,13 @@
         <v>9</v>
       </c>
       <c r="AR6" s="16" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="AS6" s="16" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="AT6" s="16" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="AU6" s="16" t="s">
         <v>8</v>
@@ -2451,7 +4045,7 @@
         <v>9</v>
       </c>
       <c r="AW6" s="16" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:49">
@@ -2464,6 +4058,9 @@
       <c r="D7" s="17" t="s">
         <v>12</v>
       </c>
+      <c r="F7" s="17" t="s">
+        <v>13</v>
+      </c>
       <c r="G7" s="17">
         <f>BoardQty*1</f>
         <v>0</v>
@@ -2479,14 +4076,17 @@
     </row>
     <row r="8" spans="1:49">
       <c r="A8" s="17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D8" s="17" t="s">
         <v>12</v>
       </c>
+      <c r="F8" s="17" t="s">
+        <v>16</v>
+      </c>
       <c r="G8" s="17">
         <f>BoardQty*1</f>
         <v>0</v>
@@ -2498,18 +4098,49 @@
       <c r="I8" s="18">
         <f>iferror(G8*H8,"")</f>
         <v>0</v>
+      </c>
+      <c r="O8" s="17">
+        <v>67747</v>
+      </c>
+      <c r="Q8" s="18">
+        <f>iferror(lookup(if(P8="",G8,P8),{0,1,10,50,100,500,1000,2500,5000,10000},{0.0,0.1,0.03,0.0164,0.0135,0.00962,0.00756,0.00687,0.00632,0.00577}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="R8" s="18">
+        <f>iferror(if(P8="",G8,P8)*Q8,"")</f>
+        <v>0</v>
+      </c>
+      <c r="S8" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="AD8" s="17">
+        <v>13088</v>
+      </c>
+      <c r="AF8" s="18">
+        <f>iferror(lookup(if(AE8="",G8,AE8),{0,1,10,50,100,1000,10000},{0.0,0.1,0.023,0.023,0.016,0.009,0.006}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AG8" s="18">
+        <f>iferror(if(AE8="",G8,AE8)*AF8,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AH8" s="19" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:49">
       <c r="A9" s="17" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D9" s="17" t="s">
         <v>12</v>
       </c>
+      <c r="F9" s="17" t="s">
+        <v>19</v>
+      </c>
       <c r="G9" s="17">
         <f>BoardQty*1</f>
         <v>0</v>
@@ -2521,18 +4152,77 @@
       <c r="I9" s="18">
         <f>iferror(G9*H9,"")</f>
         <v>0</v>
+      </c>
+      <c r="O9" s="17">
+        <v>32695</v>
+      </c>
+      <c r="Q9" s="18">
+        <f>iferror(lookup(if(P9="",G9,P9),{0,1,10,4000},{0.0,0.1,0.077,0.07656}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="R9" s="18">
+        <f>iferror(if(P9="",G9,P9)*Q9,"")</f>
+        <v>0</v>
+      </c>
+      <c r="S9" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="T9" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="V9" s="18">
+        <f>iferror(USD_GBP*lookup(if(U9="",G9,U9),{0,1,10,100,500,1000,2000,4000,20000},{0.0,0.688,0.688,0.43,0.313,0.265,0.26,0.265,0.26}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="W9" s="18">
+        <f>iferror(if(U9="",G9,U9)*V9,"")</f>
+        <v>0</v>
+      </c>
+      <c r="X9" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD9" s="17">
+        <v>23808</v>
+      </c>
+      <c r="AF9" s="18">
+        <f>iferror(lookup(if(AE9="",G9,AE9),{0,1,10,50,100,1000,10000},{0.0,0.52,0.366,0.366,0.22,0.152,0.147}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AG9" s="18">
+        <f>iferror(if(AE9="",G9,AE9)*AF9,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AH9" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="AI9" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK9" s="18">
+        <f>iferror(lookup(if(AJ9="",G9,AJ9),{0,1,25,50,100,250,4000},{0.0,0.624,0.439,0.352,0.264,0.231,0.176}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AL9" s="18">
+        <f>iferror(if(AJ9="",G9,AJ9)*AK9,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AM9" s="19" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:49">
       <c r="A10" s="17" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>12</v>
       </c>
+      <c r="F10" s="17" t="s">
+        <v>22</v>
+      </c>
       <c r="G10" s="17">
         <f>BoardQty*1</f>
         <v>0</v>
@@ -2544,17 +4234,62 @@
       <c r="I10" s="18">
         <f>iferror(G10*H10,"")</f>
         <v>0</v>
+      </c>
+      <c r="O10" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q10" s="18">
+        <f>iferror(lookup(if(P10="",G10,P10),{0,1,10,50,100,500},{0.0,1.19,0.939,0.8142,0.7046,0.53234}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="R10" s="18">
+        <f>iferror(if(P10="",G10,P10)*Q10,"")</f>
+        <v>0</v>
+      </c>
+      <c r="S10" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD10" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF10" s="18">
+        <f>iferror(lookup(if(AE10="",G10,AE10),{0,1,10,50,100,1000,10000},{0.0,1.15,0.853,0.853,0.705,0.605,0.47}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AG10" s="18">
+        <f>iferror(if(AE10="",G10,AE10)*AF10,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AH10" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="AI10" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK10" s="18">
+        <f>iferror(lookup(if(AJ10="",G10,AJ10),{0,1,500,1000},{0.0,0.591,0.591,0.559}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AL10" s="18">
+        <f>iferror(if(AJ10="",G10,AJ10)*AK10,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AM10" s="19" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:49">
       <c r="A11" s="17" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D11" s="17" t="s">
         <v>12</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>25</v>
       </c>
       <c r="G11" s="17">
         <f>BoardQty*2</f>
@@ -2571,13 +4306,19 @@
     </row>
     <row r="12" spans="1:49">
       <c r="A12" s="17" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>22</v>
+        <v>27</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>28</v>
       </c>
       <c r="G12" s="17">
-        <f>BoardQty*1</f>
+        <f>BoardQty*2</f>
         <v>0</v>
       </c>
       <c r="H12" s="18">
@@ -2587,18 +4328,91 @@
       <c r="I12" s="18">
         <f>iferror(G12*H12,"")</f>
         <v>0</v>
+      </c>
+      <c r="O12" s="17">
+        <v>3692476</v>
+      </c>
+      <c r="Q12" s="18">
+        <f>iferror(lookup(if(P12="",G12,P12),{0,1,10,50,100,500,1000,2500,5000,15000},{0.0,0.1,0.011,0.0062,0.0051,0.00362,0.00285,0.00259,0.00238,0.00207}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="R12" s="18">
+        <f>iferror(if(P12="",G12,P12)*Q12,"")</f>
+        <v>0</v>
+      </c>
+      <c r="S12" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="T12" s="17">
+        <v>19433</v>
+      </c>
+      <c r="V12" s="18">
+        <f>iferror(USD_GBP*lookup(if(U12="",G12,U12),{0,1,10,100,150,500,2500,7500,15000,75000},{0.0,0.0062,0.0062,0.005,0.005,0.0029,0.0022,0.0021,0.0016,0.0015}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="W12" s="18">
+        <f>iferror(if(U12="",G12,U12)*V12,"")</f>
+        <v>0</v>
+      </c>
+      <c r="X12" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD12" s="17">
+        <v>102911</v>
+      </c>
+      <c r="AF12" s="18">
+        <f>iferror(lookup(if(AE12="",G12,AE12),{0,1,10,50,100,1000,10000},{0.0,0.1,0.011,0.011,0.006,0.003,0.003}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AG12" s="18">
+        <f>iferror(if(AE12="",G12,AE12)*AF12,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AH12" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="AI12" s="17">
+        <v>17998</v>
+      </c>
+      <c r="AK12" s="18">
+        <f>iferror(lookup(if(AJ12="",G12,AJ12),{0,1,10,25,50,100,250,500,1000,15000},{0.0,0.101,0.016,0.013,0.01,0.007,0.006,0.005,0.004,0.002}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AL12" s="18">
+        <f>iferror(if(AJ12="",G12,AJ12)*AK12,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AM12" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="AN12" s="17">
+        <v>30000</v>
+      </c>
+      <c r="AP12" s="18">
+        <f>iferror(USD_GBP*lookup(if(AO12="",G12,AO12),{0,1,15000},{0.0,0.002,0.002}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AQ12" s="18">
+        <f>iferror(if(AO12="",G12,AO12)*AP12,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AR12" s="19" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:49">
       <c r="A13" s="17" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D13" s="17" t="s">
         <v>12</v>
       </c>
+      <c r="F13" s="17" t="s">
+        <v>31</v>
+      </c>
       <c r="G13" s="17">
         <f>BoardQty*1</f>
         <v>0</v>
@@ -2610,18 +4424,77 @@
       <c r="I13" s="18">
         <f>iferror(G13*H13,"")</f>
         <v>0</v>
+      </c>
+      <c r="O13" s="17">
+        <v>270</v>
+      </c>
+      <c r="Q13" s="18">
+        <f>iferror(lookup(if(P13="",G13,P13),{0,1,10,100,500,10000},{0.0,0.1,0.022,0.0199,0.01764,0.01457}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="R13" s="18">
+        <f>iferror(if(P13="",G13,P13)*Q13,"")</f>
+        <v>0</v>
+      </c>
+      <c r="S13" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="T13" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="V13" s="18">
+        <f>iferror(USD_GBP*lookup(if(U13="",G13,U13),{0,1,10,100,150,500,2500,5000,10000,50000},{0.0,0.0369,0.0369,0.0241,0.0241,0.0178,0.0155,0.0152,0.0118,0.0099}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="W13" s="18">
+        <f>iferror(if(U13="",G13,U13)*V13,"")</f>
+        <v>0</v>
+      </c>
+      <c r="X13" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD13" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF13" s="18">
+        <f>iferror(lookup(if(AE13="",G13,AE13),{0,1,10,50,100,1000,10000},{0.0,0.1,0.023,0.023,0.021,0.018,0.016}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AG13" s="18">
+        <f>iferror(if(AE13="",G13,AE13)*AF13,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AH13" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI13" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK13" s="18">
+        <f>iferror(lookup(if(AJ13="",G13,AJ13),{0,1,10,25,50,100},{0.0,0.03,0.03,0.029,0.027,0.026}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AL13" s="18">
+        <f>iferror(if(AJ13="",G13,AJ13)*AK13,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AM13" s="19" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:49">
       <c r="A14" s="17" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>12</v>
       </c>
+      <c r="F14" s="17" t="s">
+        <v>34</v>
+      </c>
       <c r="G14" s="17">
         <f>BoardQty*1</f>
         <v>0</v>
@@ -2633,18 +4506,77 @@
       <c r="I14" s="18">
         <f>iferror(G14*H14,"")</f>
         <v>0</v>
+      </c>
+      <c r="O14" s="17">
+        <v>1817</v>
+      </c>
+      <c r="Q14" s="18">
+        <f>iferror(lookup(if(P14="",G14,P14),{0,1,10,50,100,500,1000,2000},{0.0,0.49,0.346,0.2618,0.2279,0.16884,0.14352,0.13384}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="R14" s="18">
+        <f>iferror(if(P14="",G14,P14)*Q14,"")</f>
+        <v>0</v>
+      </c>
+      <c r="S14" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y14" s="17">
+        <v>34860</v>
+      </c>
+      <c r="AA14" s="18">
+        <f>iferror(lookup(if(Z14="",G14,Z14),{0,1,5,50,150,500,2500,5000},{0.0,0.63057,0.63057,0.47109,0.4418,0.41251,0.39949,0.39306}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AB14" s="18">
+        <f>iferror(if(Z14="",G14,Z14)*AA14,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AC14" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="AD14" s="17">
+        <v>19881</v>
+      </c>
+      <c r="AF14" s="18">
+        <f>iferror(lookup(if(AE14="",G14,AE14),{0,1,10,50,100,1000,10000},{0.0,0.5,0.289,0.289,0.231,0.162,0.157}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AG14" s="18">
+        <f>iferror(if(AE14="",G14,AE14)*AF14,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AH14" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="AS14" s="17">
+        <v>640</v>
+      </c>
+      <c r="AU14" s="18">
+        <f>iferror(USD_GBP*lookup(if(AT14="",G14,AT14),{0,1,10,100,1000,2000,10000},{0.0,0.204,0.204,0.1435,0.11796,0.10256,0.09914}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AV14" s="18">
+        <f>iferror(if(AT14="",G14,AT14)*AU14,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AW14" s="19" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:49">
       <c r="A15" s="17" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D15" s="17" t="s">
         <v>12</v>
       </c>
+      <c r="F15" s="17" t="s">
+        <v>37</v>
+      </c>
       <c r="G15" s="17">
         <f>BoardQty*1</f>
         <v>0</v>
@@ -2656,20 +4588,65 @@
       <c r="I15" s="18">
         <f>iferror(G15*H15,"")</f>
         <v>0</v>
+      </c>
+      <c r="O15" s="17">
+        <v>13346</v>
+      </c>
+      <c r="Q15" s="18">
+        <f>iferror(lookup(if(P15="",G15,P15),{0,1,10,50,100,500,1000,2500,5000,15000},{0.0,0.45,0.315,0.2206,0.1891,0.1418,0.11974,0.11344,0.10713,0.09768}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="R15" s="18">
+        <f>iferror(if(P15="",G15,P15)*Q15,"")</f>
+        <v>0</v>
+      </c>
+      <c r="S15" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD15" s="17">
+        <v>21586</v>
+      </c>
+      <c r="AF15" s="18">
+        <f>iferror(lookup(if(AE15="",G15,AE15),{0,1,10,50,100,1000,10000},{0.0,0.5,0.346,0.346,0.208,0.132,0.094}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AG15" s="18">
+        <f>iferror(if(AE15="",G15,AE15)*AF15,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AH15" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="AI15" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK15" s="18">
+        <f>iferror(lookup(if(AJ15="",G15,AJ15),{0,1,15000},{0.0,0.113,0.113}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AL15" s="18">
+        <f>iferror(if(AJ15="",G15,AJ15)*AK15,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AM15" s="19" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:49">
       <c r="A16" s="17" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>12</v>
+        <v>40</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>39</v>
       </c>
       <c r="G16" s="17">
-        <f>BoardQty*1</f>
+        <f>BoardQty*3</f>
         <v>0</v>
       </c>
       <c r="H16" s="18">
@@ -2679,23 +4656,93 @@
       <c r="I16" s="18">
         <f>iferror(G16*H16,"")</f>
         <v>0</v>
+      </c>
+      <c r="O16" s="17">
+        <v>51710</v>
+      </c>
+      <c r="Q16" s="18">
+        <f>iferror(lookup(if(P16="",G16,P16),{0,1,10,100,500,1000,2000,5000,10000,50000},{0.0,0.1,0.084,0.0455,0.02798,0.01908,0.01622,0.01463,0.01272,0.0105}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="R16" s="18">
+        <f>iferror(if(P16="",G16,P16)*Q16,"")</f>
+        <v>0</v>
+      </c>
+      <c r="S16" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="T16" s="17">
+        <v>130101</v>
+      </c>
+      <c r="V16" s="18">
+        <f>iferror(USD_GBP*lookup(if(U16="",G16,U16),{0,1,5,10,100,500,1000},{0.0,0.122,0.122,0.0835,0.0311,0.0232,0.0152}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="W16" s="18">
+        <f>iferror(if(U16="",G16,U16)*V16,"")</f>
+        <v>0</v>
+      </c>
+      <c r="X16" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="AD16" s="17">
+        <v>113391</v>
+      </c>
+      <c r="AF16" s="18">
+        <f>iferror(lookup(if(AE16="",G16,AE16),{0,1,10,50,100,1000,10000},{0.0,0.1,0.087,0.087,0.048,0.02,0.013}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AG16" s="18">
+        <f>iferror(if(AE16="",G16,AE16)*AF16,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AH16" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI16" s="17">
+        <v>156395</v>
+      </c>
+      <c r="AK16" s="18">
+        <f>iferror(lookup(if(AJ16="",G16,AJ16),{0,1,5,10,25,50,100,500,1000,2500},{0.0,0.117,0.118,0.069,0.029,0.029,0.037,0.031,0.021,0.017}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AL16" s="18">
+        <f>iferror(if(AJ16="",G16,AJ16)*AK16,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AM16" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="AS16" s="17">
+        <v>5650</v>
+      </c>
+      <c r="AU16" s="18">
+        <f>iferror(USD_GBP*lookup(if(AT16="",G16,AT16),{0,1,30,100,250,1000,5000},{0.0,0.02433,0.02433,0.0119,0.01056,0.00897,0.00808}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AV16" s="18">
+        <f>iferror(if(AT16="",G16,AT16)*AU16,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AW16" s="19" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:49">
       <c r="A17" s="17" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G17" s="17">
-        <f>BoardQty*3</f>
+        <f>BoardQty*1</f>
         <v>0</v>
       </c>
       <c r="H17" s="18">
@@ -2709,13 +4756,16 @@
     </row>
     <row r="18" spans="1:49">
       <c r="A18" s="17" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>37</v>
+        <v>46</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>47</v>
       </c>
       <c r="G18" s="17">
         <f>BoardQty*1</f>
@@ -2728,23 +4778,90 @@
       <c r="I18" s="18">
         <f>iferror(G18*H18,"")</f>
         <v>0</v>
+      </c>
+      <c r="O18" s="17">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="18">
+        <f>iferror(lookup(if(P18="",G18,P18),{0,1,10,25,100,250,500,1000,2500},{0.0,0.41,0.334,0.3052,0.2273,0.20596,0.17044,0.12784,0.11725}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="R18" s="18">
+        <f>iferror(if(P18="",G18,P18)*Q18,"")</f>
+        <v>0</v>
+      </c>
+      <c r="S18" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="T18" s="17">
+        <v>59</v>
+      </c>
+      <c r="V18" s="18">
+        <f>iferror(USD_GBP*lookup(if(U18="",G18,U18),{0,1,10,100,500,1000},{0.0,0.379,0.272,0.246,0.22,0.193}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="W18" s="18">
+        <f>iferror(if(U18="",G18,U18)*V18,"")</f>
+        <v>0</v>
+      </c>
+      <c r="X18" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="AD18" s="17">
+        <v>7050</v>
+      </c>
+      <c r="AF18" s="18">
+        <f>iferror(lookup(if(AE18="",G18,AE18),{0,1,10,50,100,1000,10000},{0.0,0.41,0.334,0.334,0.334,0.334,0.334}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AG18" s="18">
+        <f>iferror(if(AE18="",G18,AE18)*AF18,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AH18" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="AI18" s="17">
+        <v>59</v>
+      </c>
+      <c r="AK18" s="18">
+        <f>iferror(lookup(if(AJ18="",G18,AJ18),{0,1,10,100,500,1000,2500},{0.0,0.451,0.367,0.296,0.276,0.26,0.246}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AL18" s="18">
+        <f>iferror(if(AJ18="",G18,AJ18)*AK18,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AM18" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="AS18" s="17">
+        <v>496</v>
+      </c>
+      <c r="AU18" s="18">
+        <f>iferror(USD_GBP*lookup(if(AT18="",G18,AT18),{0,1,3,25,75,300},{0.0,0.20667,0.20667,0.1616,0.13853,0.10793}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AV18" s="18">
+        <f>iferror(if(AT18="",G18,AT18)*AU18,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AW18" s="19" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:49">
       <c r="A19" s="17" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="17" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G19" s="17">
-        <f>BoardQty*1</f>
+        <f>BoardQty*2</f>
         <v>0</v>
       </c>
       <c r="H19" s="18">
@@ -2758,16 +4875,25 @@
     </row>
     <row r="20" spans="1:49">
       <c r="A20" s="17" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>43</v>
+        <v>51</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>52</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>43</v>
+        <v>53</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>55</v>
       </c>
       <c r="G20" s="17">
-        <f>BoardQty*2</f>
+        <f>BoardQty*1</f>
         <v>0</v>
       </c>
       <c r="H20" s="18">
@@ -2781,25 +4907,25 @@
     </row>
     <row r="21" spans="1:49">
       <c r="A21" s="17" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="G21" s="17">
-        <f>BoardQty*1</f>
+        <f>BoardQty*2</f>
         <v>0</v>
       </c>
       <c r="H21" s="18">
@@ -2813,25 +4939,19 @@
     </row>
     <row r="22" spans="1:49">
       <c r="A22" s="17" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E22" s="17" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="G22" s="17">
-        <f>BoardQty*2</f>
+        <f>BoardQty*5</f>
         <v>0</v>
       </c>
       <c r="H22" s="18">
@@ -2842,89 +4962,78 @@
         <f>iferror(G22*H22,"")</f>
         <v>0</v>
       </c>
-      <c r="O22" s="19" t="s">
-        <v>103</v>
+      <c r="O22" s="17">
+        <v>67151</v>
       </c>
       <c r="Q22" s="18">
-        <f>iferror(lookup(if(P22="",G22,P22),{0,1,10,25,100,500,1000,2500,5000},{0.0,0.34,0.281,0.2356,0.1492,0.09818,0.06676,0.06022,0.05236}),"")</f>
+        <f>iferror(lookup(if(P22="",G22,P22),{0,1,10,100,1000,2500,5000,10000},{0.0,0.1,0.019,0.0075,0.00338,0.00294,0.00243,0.00211}),"")</f>
         <v>0</v>
       </c>
       <c r="R22" s="18">
         <f>iferror(if(P22="",G22,P22)*Q22,"")</f>
         <v>0</v>
       </c>
-      <c r="S22" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="T22" s="19" t="s">
-        <v>103</v>
+      <c r="S22" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="T22" s="17">
+        <v>10056</v>
       </c>
       <c r="V22" s="18">
-        <f>iferror(USD_GBP*lookup(if(U22="",G22,U22),{0,1,5,10,100,500,1000},{0.0,0.312,0.312,0.22,0.0913,0.0691,0.0468}),"")</f>
+        <f>iferror(USD_GBP*lookup(if(U22="",G22,U22),{0,1,10,100,150,500,2500,5000,10000,50000},{0.0,0.0138,0.0138,0.0057,0.0057,0.0028,0.0022,0.0018,0.0016,0.0014}),"")</f>
         <v>0</v>
       </c>
       <c r="W22" s="18">
         <f>iferror(if(U22="",G22,U22)*V22,"")</f>
         <v>0</v>
       </c>
-      <c r="X22" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="AD22" s="19" t="s">
-        <v>103</v>
+      <c r="X22" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="AD22" s="17">
+        <v>28670</v>
       </c>
       <c r="AF22" s="18">
-        <f>iferror(lookup(if(AE22="",G22,AE22),{0,1,10,50,100,1000,10000},{0.0,0.32,0.223,0.223,0.097,0.067,0.044}),"")</f>
+        <f>iferror(lookup(if(AE22="",G22,AE22),{0,1,10,50,100,1000,10000},{0.0,0.1,0.018,0.018,0.008,0.004,0.002}),"")</f>
         <v>0</v>
       </c>
       <c r="AG22" s="18">
         <f>iferror(if(AE22="",G22,AE22)*AF22,"")</f>
         <v>0</v>
       </c>
-      <c r="AH22" s="20" t="s">
-        <v>108</v>
+      <c r="AH22" s="19" t="s">
+        <v>160</v>
       </c>
       <c r="AI22" s="17">
-        <v>100</v>
+        <v>6431</v>
       </c>
       <c r="AK22" s="18">
-        <f>iferror(lookup(if(AJ22="",G22,AJ22),{0,1,5,10,25,50,100,500,1000,2500},{0.0,0.029,0.348,0.029,0.029,0.029,0.028,0.028,0.028,0.064}),"")</f>
+        <f>iferror(lookup(if(AJ22="",G22,AJ22),{0,1,10,25,50,100,20000},{0.0,0.007,0.006,0.005,0.005,0.004,0.002}),"")</f>
         <v>0</v>
       </c>
       <c r="AL22" s="18">
         <f>iferror(if(AJ22="",G22,AJ22)*AK22,"")</f>
         <v>0</v>
       </c>
-      <c r="AM22" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="AS22" s="17">
-        <v>1</v>
-      </c>
-      <c r="AU22" s="18">
-        <f>iferror(USD_GBP*lookup(if(AT22="",G22,AT22),{0,1,10,50,250,1000,5000},{0.0,0.075,0.075,0.0448,0.0376,0.0304,0.0284}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AV22" s="18">
-        <f>iferror(if(AT22="",G22,AT22)*AU22,"")</f>
-        <v>0</v>
-      </c>
-      <c r="AW22" s="20" t="s">
-        <v>50</v>
+      <c r="AM22" s="19" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="23" spans="1:49">
       <c r="A23" s="17" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>56</v>
+        <v>64</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>68</v>
       </c>
       <c r="G23" s="17">
-        <f>BoardQty*5</f>
+        <f>BoardQty*1</f>
         <v>0</v>
       </c>
       <c r="H23" s="18">
@@ -2934,17 +5043,76 @@
       <c r="I23" s="18">
         <f>iferror(G23*H23,"")</f>
         <v>0</v>
+      </c>
+      <c r="O23" s="17">
+        <v>63876</v>
+      </c>
+      <c r="Q23" s="18">
+        <f>iferror(lookup(if(P23="",G23,P23),{0,1,10,100,1000,4000},{0.0,0.43,0.327,0.1374,0.07581,0.07107}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="R23" s="18">
+        <f>iferror(if(P23="",G23,P23)*Q23,"")</f>
+        <v>0</v>
+      </c>
+      <c r="S23" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="T23" s="17">
+        <v>18</v>
+      </c>
+      <c r="V23" s="18">
+        <f>iferror(USD_GBP*lookup(if(U23="",G23,U23),{0,1,10,100,150,500,1000,2000,4000,20000},{0.0,0.329,0.329,0.128,0.128,0.112,0.0958,0.0916,0.091,0.0903}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="W23" s="18">
+        <f>iferror(if(U23="",G23,U23)*V23,"")</f>
+        <v>0</v>
+      </c>
+      <c r="X23" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD23" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF23" s="18">
+        <f>iferror(lookup(if(AE23="",G23,AE23),{0,1,10,50,100,1000,10000},{0.0,0.43,0.327,0.327,0.142,0.076,0.07}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AG23" s="18">
+        <f>iferror(if(AE23="",G23,AE23)*AF23,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AH23" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="AI23" s="17">
+        <v>8000</v>
+      </c>
+      <c r="AK23" s="18">
+        <f>iferror(lookup(if(AJ23="",G23,AJ23),{0,1,10,25,50,100,250,500,1000,4000,8000,16000,24000},{0.0,0.048,0.321,0.048,0.048,0.048,0.048,0.048,0.048,0.076,0.072,0.071,0.069}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AL23" s="18">
+        <f>iferror(if(AJ23="",G23,AJ23)*AK23,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AM23" s="19" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="24" spans="1:49">
       <c r="A24" s="17" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>56</v>
+        <v>64</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>71</v>
       </c>
       <c r="G24" s="17">
         <f>BoardQty*1</f>
@@ -2957,17 +5125,73 @@
       <c r="I24" s="18">
         <f>iferror(G24*H24,"")</f>
         <v>0</v>
+      </c>
+      <c r="O24" s="17">
+        <v>40000</v>
+      </c>
+      <c r="Q24" s="18">
+        <f>iferror(lookup(if(P24="",G24,P24),{0,1,10,100,1000,2500,5000,20000},{0.0,0.32,0.27,0.1055,0.04417,0.04049,0.03681,0.03436}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="R24" s="18">
+        <f>iferror(if(P24="",G24,P24)*Q24,"")</f>
+        <v>0</v>
+      </c>
+      <c r="S24" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="T24" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="V24" s="18">
+        <f>iferror(USD_GBP*lookup(if(U24="",G24,U24),{0,1,10,150,250,1000,5000,10000,20000,100000},{0.0,0.0886,0.0886,0.0886,0.0595,0.041,0.0298,0.0264,0.0253,0.0241}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="W24" s="18">
+        <f>iferror(if(U24="",G24,U24)*V24,"")</f>
+        <v>0</v>
+      </c>
+      <c r="X24" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD24" s="17">
+        <v>197316</v>
+      </c>
+      <c r="AF24" s="18">
+        <f>iferror(lookup(if(AE24="",G24,AE24),{0,1,10,50,100,1000,10000},{0.0,0.32,0.27,0.27,0.106,0.045,0.037}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AG24" s="18">
+        <f>iferror(if(AE24="",G24,AE24)*AF24,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AH24" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="AI24" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK24" s="18">
+        <f>iferror(lookup(if(AJ24="",G24,AJ24),{0,1,10,25,50,100},{0.0,0.195,0.195,0.152,0.11,0.068}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AL24" s="18">
+        <f>iferror(if(AJ24="",G24,AJ24)*AK24,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AM24" s="19" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:49">
       <c r="A25" s="17" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="G25" s="17">
         <f>BoardQty*1</f>
@@ -2984,16 +5208,19 @@
     </row>
     <row r="26" spans="1:49">
       <c r="A26" s="17" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>77</v>
       </c>
       <c r="G26" s="17">
-        <f>BoardQty*1</f>
+        <f>BoardQty*2</f>
         <v>0</v>
       </c>
       <c r="H26" s="18">
@@ -3003,20 +5230,34 @@
       <c r="I26" s="18">
         <f>iferror(G26*H26,"")</f>
         <v>0</v>
+      </c>
+      <c r="O26" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q26" s="18">
+        <f>iferror(lookup(if(P26="",G26,P26),{0,1,1000,5000,10000},{0.0,0.0663,0.0663,0.05558,0.05304}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="R26" s="18">
+        <f>iferror(if(P26="",G26,P26)*Q26,"")</f>
+        <v>0</v>
+      </c>
+      <c r="S26" s="19" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:49">
       <c r="A27" s="17" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="G27" s="17">
-        <f>BoardQty*2</f>
+        <f>BoardQty*1</f>
         <v>0</v>
       </c>
       <c r="H27" s="18">
@@ -3030,13 +5271,13 @@
     </row>
     <row r="28" spans="1:49">
       <c r="A28" s="17" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="G28" s="17">
         <f>BoardQty*1</f>
@@ -3053,13 +5294,16 @@
     </row>
     <row r="29" spans="1:49">
       <c r="A29" s="17" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>84</v>
       </c>
       <c r="G29" s="17">
         <f>BoardQty*1</f>
@@ -3072,20 +5316,65 @@
       <c r="I29" s="18">
         <f>iferror(G29*H29,"")</f>
         <v>0</v>
+      </c>
+      <c r="O29" s="17">
+        <v>9800</v>
+      </c>
+      <c r="Q29" s="18">
+        <f>iferror(lookup(if(P29="",G29,P29),{0,1,10,100,1000,2500,5000,10000},{0.0,0.1,0.075,0.0288,0.01265,0.01092,0.00978,0.00877}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="R29" s="18">
+        <f>iferror(if(P29="",G29,P29)*Q29,"")</f>
+        <v>0</v>
+      </c>
+      <c r="S29" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="T29" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="V29" s="18">
+        <f>iferror(USD_GBP*lookup(if(U29="",G29,U29),{0,1,10000},{0.0,0.0072,0.0072}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="W29" s="18">
+        <f>iferror(if(U29="",G29,U29)*V29,"")</f>
+        <v>0</v>
+      </c>
+      <c r="X29" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="AI29" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK29" s="18">
+        <f>iferror(lookup(if(AJ29="",G29,AJ29),{0,1,10000,20000},{0.0,0.021,0.021,0.011}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AL29" s="18">
+        <f>iferror(if(AJ29="",G29,AJ29)*AK29,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AM29" s="19" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="30" spans="1:49">
       <c r="A30" s="17" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>56</v>
+        <v>64</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>87</v>
       </c>
       <c r="G30" s="17">
-        <f>BoardQty*1</f>
+        <f>BoardQty*7</f>
         <v>0</v>
       </c>
       <c r="H30" s="18">
@@ -3099,16 +5388,19 @@
     </row>
     <row r="31" spans="1:49">
       <c r="A31" s="17" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>56</v>
+        <v>64</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>90</v>
       </c>
       <c r="G31" s="17">
-        <f>BoardQty*7</f>
+        <f>BoardQty*1</f>
         <v>0</v>
       </c>
       <c r="H31" s="18">
@@ -3118,17 +5410,76 @@
       <c r="I31" s="18">
         <f>iferror(G31*H31,"")</f>
         <v>0</v>
+      </c>
+      <c r="O31" s="17">
+        <v>6097</v>
+      </c>
+      <c r="Q31" s="18">
+        <f>iferror(lookup(if(P31="",G31,P31),{0,1,10,25,50,100,250,500,1000,2500,5000,10000,15000,25000,50000},{0.0,0.1,0.041,0.0384,0.0284,0.0244,0.02356,0.02032,0.01829,0.01626,0.01545,0.01464,0.01423,0.01301,0.01179}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="R31" s="18">
+        <f>iferror(if(P31="",G31,P31)*Q31,"")</f>
+        <v>0</v>
+      </c>
+      <c r="S31" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="T31" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="V31" s="18">
+        <f>iferror(USD_GBP*lookup(if(U31="",G31,U31),{0,1,10,100,150,500,1000,2500,5000,25000},{0.0,0.0271,0.0271,0.0194,0.0194,0.0162,0.0135,0.0113,0.01,0.0078}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="W31" s="18">
+        <f>iferror(if(U31="",G31,U31)*V31,"")</f>
+        <v>0</v>
+      </c>
+      <c r="X31" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="AD31" s="17">
+        <v>109</v>
+      </c>
+      <c r="AF31" s="18">
+        <f>iferror(lookup(if(AE31="",G31,AE31),{0,1,10,50,100,1000,10000},{0.0,0.17,0.115,0.115,0.045,0.02,0.012}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AG31" s="18">
+        <f>iferror(if(AE31="",G31,AE31)*AF31,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AH31" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="AI31" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK31" s="18">
+        <f>iferror(lookup(if(AJ31="",G31,AJ31),{0,1,5000,50000,100000,250000},{0.0,0.013,0.01,0.009,0.008,0.008}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AL31" s="18">
+        <f>iferror(if(AJ31="",G31,AJ31)*AK31,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AM31" s="19" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="32" spans="1:49">
       <c r="A32" s="17" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>56</v>
+        <v>64</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>93</v>
       </c>
       <c r="G32" s="17">
         <f>BoardQty*1</f>
@@ -3141,17 +5492,34 @@
       <c r="I32" s="18">
         <f>iferror(G32*H32,"")</f>
         <v>0</v>
+      </c>
+      <c r="O32" s="17">
+        <v>236</v>
+      </c>
+      <c r="Q32" s="18">
+        <f>iferror(lookup(if(P32="",G32,P32),{0,1,10,100,1000,2500,5000},{0.0,0.1,0.036,0.0146,0.00655,0.00569,0.0047}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="R32" s="18">
+        <f>iferror(if(P32="",G32,P32)*Q32,"")</f>
+        <v>0</v>
+      </c>
+      <c r="S32" s="19" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="33" spans="1:48">
       <c r="A33" s="17" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>56</v>
+        <v>96</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>95</v>
       </c>
       <c r="G33" s="17">
         <f>BoardQty*1</f>
@@ -3164,20 +5532,73 @@
       <c r="I33" s="18">
         <f>iferror(G33*H33,"")</f>
         <v>0</v>
+      </c>
+      <c r="O33" s="17">
+        <v>48</v>
+      </c>
+      <c r="Q33" s="18">
+        <f>iferror(lookup(if(P33="",G33,P33),{0,1,10,25,50,100,250,500,1000},{0.0,7.41,6.671,6.3356,6.0674,5.8663,5.56464,5.09532,4.86068}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="R33" s="18">
+        <f>iferror(if(P33="",G33,P33)*Q33,"")</f>
+        <v>0</v>
+      </c>
+      <c r="S33" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="T33" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="V33" s="18">
+        <f>iferror(USD_GBP*lookup(if(U33="",G33,U33),{0,1,5,10,25,50,100},{0.0,5.62,5.35,5.06,4.81,4.61,4.46}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="W33" s="18">
+        <f>iferror(if(U33="",G33,U33)*V33,"")</f>
+        <v>0</v>
+      </c>
+      <c r="X33" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="AD33" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF33" s="18">
+        <f>iferror(lookup(if(AE33="",G33,AE33),{0,1,10,50,100,1000,10000},{0.0,7.28,6.63,6.13,5.97,4.81,4.81}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AG33" s="18">
+        <f>iferror(if(AE33="",G33,AE33)*AF33,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AH33" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="AI33" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK33" s="18">
+        <f>iferror(lookup(if(AJ33="",G33,AJ33),{0,1,5,10,25,50,100},{0.0,6.79,6.46,6.12,5.81,5.57,5.4}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AL33" s="18">
+        <f>iferror(if(AJ33="",G33,AJ33)*AK33,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AM33" s="19" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="34" spans="1:48">
       <c r="A34" s="17" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="G34" s="17">
-        <f>BoardQty*1</f>
+        <f>BoardQty*2</f>
         <v>0</v>
       </c>
       <c r="H34" s="18">
@@ -3189,1103 +5610,1049 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:48">
-      <c r="A35" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="B35" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="G35" s="17">
-        <f>BoardQty*2</f>
-        <v>0</v>
-      </c>
-      <c r="H35" s="18">
-        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(arrow_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(lcsc_part_data)+2)))</f>
-        <v>0</v>
-      </c>
-      <c r="I35" s="18">
-        <f>iferror(G35*H35,"")</f>
+    <row r="36" spans="1:48">
+      <c r="B36" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I36" s="5">
+        <f>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(arrow_part_data)+3)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+3)),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+3)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+3)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+3)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+3)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+3)),INDIRECT(ADDRESS(ROW(),COLUMN(lcsc_part_data)+3)))</f>
+        <v>0</v>
+      </c>
+      <c r="K36" s="6">
+        <f>IFERROR(IF(OR(K7:K34),COUNTIFS(K7:K34,"&gt;0",M7:M34,"&lt;&gt;")&amp;" of "&amp;(ROWS(M7:M34)-COUNTBLANK(M7:M34))&amp;" parts purchased",""),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M36" s="5">
+        <f>SUMIF(K7:K34,"&gt;0",M7:M34)</f>
+        <v>0</v>
+      </c>
+      <c r="P36" s="6">
+        <f>IFERROR(IF(OR(P7:P34),COUNTIFS(P7:P34,"&gt;0",R7:R34,"&lt;&gt;")&amp;" of "&amp;(ROWS(R7:R34)-COUNTBLANK(R7:R34))&amp;" parts purchased",""),"")</f>
+        <v>0</v>
+      </c>
+      <c r="R36" s="5">
+        <f>SUMIF(P7:P34,"&gt;0",R7:R34)</f>
+        <v>0</v>
+      </c>
+      <c r="U36" s="6">
+        <f>IFERROR(IF(OR(U7:U34),COUNTIFS(U7:U34,"&gt;0",W7:W34,"&lt;&gt;")&amp;" of "&amp;(ROWS(W7:W34)-COUNTBLANK(W7:W34))&amp;" parts purchased",""),"")</f>
+        <v>0</v>
+      </c>
+      <c r="W36" s="5">
+        <f>SUMIF(U7:U34,"&gt;0",W7:W34)</f>
+        <v>0</v>
+      </c>
+      <c r="Z36" s="6">
+        <f>IFERROR(IF(OR(Z7:Z34),COUNTIFS(Z7:Z34,"&gt;0",AB7:AB34,"&lt;&gt;")&amp;" of "&amp;(ROWS(AB7:AB34)-COUNTBLANK(AB7:AB34))&amp;" parts purchased",""),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AB36" s="5">
+        <f>SUMIF(Z7:Z34,"&gt;0",AB7:AB34)</f>
+        <v>0</v>
+      </c>
+      <c r="AE36" s="6">
+        <f>IFERROR(IF(OR(AE7:AE34),COUNTIFS(AE7:AE34,"&gt;0",AG7:AG34,"&lt;&gt;")&amp;" of "&amp;(ROWS(AG7:AG34)-COUNTBLANK(AG7:AG34))&amp;" parts purchased",""),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AG36" s="5">
+        <f>SUMIF(AE7:AE34,"&gt;0",AG7:AG34)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ36" s="6">
+        <f>IFERROR(IF(OR(AJ7:AJ34),COUNTIFS(AJ7:AJ34,"&gt;0",AL7:AL34,"&lt;&gt;")&amp;" of "&amp;(ROWS(AL7:AL34)-COUNTBLANK(AL7:AL34))&amp;" parts purchased",""),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AL36" s="5">
+        <f>SUMIF(AJ7:AJ34,"&gt;0",AL7:AL34)</f>
+        <v>0</v>
+      </c>
+      <c r="AO36" s="6">
+        <f>IFERROR(IF(OR(AO7:AO34),COUNTIFS(AO7:AO34,"&gt;0",AQ7:AQ34,"&lt;&gt;")&amp;" of "&amp;(ROWS(AQ7:AQ34)-COUNTBLANK(AQ7:AQ34))&amp;" parts purchased",""),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AQ36" s="5">
+        <f>SUMIF(AO7:AO34,"&gt;0",AQ7:AQ34)</f>
+        <v>0</v>
+      </c>
+      <c r="AT36" s="6">
+        <f>IFERROR(IF(OR(AT7:AT34),COUNTIFS(AT7:AT34,"&gt;0",AV7:AV34,"&lt;&gt;")&amp;" of "&amp;(ROWS(AV7:AV34)-COUNTBLANK(AV7:AV34))&amp;" parts purchased",""),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AV36" s="5">
+        <f>SUMIF(AT7:AT34,"&gt;0",AV7:AV34)</f>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:48">
       <c r="B37" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="I37" s="5">
-        <f>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(arrow_part_data)+3)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+3)),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+3)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+3)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+3)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+3)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+3)),INDIRECT(ADDRESS(ROW(),COLUMN(lcsc_part_data)+3)))</f>
-        <v>0</v>
-      </c>
-      <c r="K37" s="6">
-        <f>IFERROR(IF(OR(K7:K35),COUNTIFS(K7:K35,"&gt;0",M7:M35,"&lt;&gt;")&amp;" of "&amp;(ROWS(M7:M35)-COUNTBLANK(M7:M35))&amp;" parts purchased",""),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M37" s="5">
-        <f>SUMIF(K7:K35,"&gt;0",M7:M35)</f>
-        <v>0</v>
-      </c>
-      <c r="P37" s="6">
-        <f>IFERROR(IF(OR(P7:P35),COUNTIFS(P7:P35,"&gt;0",R7:R35,"&lt;&gt;")&amp;" of "&amp;(ROWS(R7:R35)-COUNTBLANK(R7:R35))&amp;" parts purchased",""),"")</f>
-        <v>0</v>
-      </c>
-      <c r="R37" s="5">
-        <f>SUMIF(P7:P35,"&gt;0",R7:R35)</f>
-        <v>0</v>
-      </c>
-      <c r="U37" s="6">
-        <f>IFERROR(IF(OR(U7:U35),COUNTIFS(U7:U35,"&gt;0",W7:W35,"&lt;&gt;")&amp;" of "&amp;(ROWS(W7:W35)-COUNTBLANK(W7:W35))&amp;" parts purchased",""),"")</f>
-        <v>0</v>
-      </c>
-      <c r="W37" s="5">
-        <f>SUMIF(U7:U35,"&gt;0",W7:W35)</f>
+        <v>102</v>
+      </c>
+      <c r="C37">
+        <v>1.37471948652954</v>
+      </c>
+      <c r="H37" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="K37">
+        <f t="array" ref="K37">IFERROR(CONCATENATE(INDEX(N7:N34,SMALL(IF(ISNUMBER(K7:K34),IF(K7:K34&gt;0,IF(N7:N34&lt;&gt;"",ROW(K7:K34)-MIN(ROW(K7:K34))+1))),ROW()-ROW(A$37)+1)),",",TEXT(INDEX(K7:K34,SMALL(IF(ISNUMBER(K7:K34),IF(K7:K34&gt;0,IF(N7:N34&lt;&gt;"",ROW(K7:K34)-MIN(ROW(K7:K34))+1))),ROW()-ROW(A$37)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(K7:K34),IF(K7:K34&gt;0,IF(N7:N34&lt;&gt;"",ROW(K7:K34)-MIN(ROW(K7:K34))+1))),ROW()-ROW(A$37)+1)),",",";")),"")</f>
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <f t="array" ref="P37">IFERROR(CONCATENATE(TEXT(INDEX(P7:P34,SMALL(IF(ISNUMBER(P7:P34),IF(P7:P34&gt;0,IF(S7:S34&lt;&gt;"",ROW(P7:P34)-MIN(ROW(P7:P34))+1))),ROW()-ROW(A$37)+1)),"##0"),",",INDEX(S7:S34,SMALL(IF(ISNUMBER(P7:P34),IF(P7:P34&gt;0,IF(S7:S34&lt;&gt;"",ROW(P7:P34)-MIN(ROW(P7:P34))+1))),ROW()-ROW(A$37)+1)),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(P7:P34),IF(P7:P34&gt;0,IF(S7:S34&lt;&gt;"",ROW(P7:P34)-MIN(ROW(P7:P34))+1))),ROW()-ROW(A$37)+1)),",",";")),"")</f>
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <f t="array" ref="U37">IFERROR(CONCATENATE(INDEX(X7:X34,SMALL(IF(ISNUMBER(U7:U34),IF(U7:U34&gt;0,IF(X7:X34&lt;&gt;"",ROW(U7:U34)-MIN(ROW(U7:U34))+1))),ROW()-ROW(A$37)+1))," ",TEXT(INDEX(U7:U34,SMALL(IF(ISNUMBER(U7:U34),IF(U7:U34&gt;0,IF(X7:X34&lt;&gt;"",ROW(U7:U34)-MIN(ROW(U7:U34))+1))),ROW()-ROW(A$37)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(U7:U34),IF(U7:U34&gt;0,IF(X7:X34&lt;&gt;"",ROW(U7:U34)-MIN(ROW(U7:U34))+1))),ROW()-ROW(A$37)+1))," ",";")),"")</f>
         <v>0</v>
       </c>
       <c r="Z37" s="6">
-        <f>IFERROR(IF(OR(Z7:Z35),COUNTIFS(Z7:Z35,"&gt;0",AB7:AB35,"&lt;&gt;")&amp;" of "&amp;(ROWS(AB7:AB35)-COUNTBLANK(AB7:AB35))&amp;" parts purchased",""),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AB37" s="5">
-        <f>SUMIF(Z7:Z35,"&gt;0",AB7:AB35)</f>
-        <v>0</v>
-      </c>
-      <c r="AE37" s="6">
-        <f>IFERROR(IF(OR(AE7:AE35),COUNTIFS(AE7:AE35,"&gt;0",AG7:AG35,"&lt;&gt;")&amp;" of "&amp;(ROWS(AG7:AG35)-COUNTBLANK(AG7:AG35))&amp;" parts purchased",""),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AG37" s="5">
-        <f>SUMIF(AE7:AE35,"&gt;0",AG7:AG35)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ37" s="6">
-        <f>IFERROR(IF(OR(AJ7:AJ35),COUNTIFS(AJ7:AJ35,"&gt;0",AL7:AL35,"&lt;&gt;")&amp;" of "&amp;(ROWS(AL7:AL35)-COUNTBLANK(AL7:AL35))&amp;" parts purchased",""),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AL37" s="5">
-        <f>SUMIF(AJ7:AJ35,"&gt;0",AL7:AL35)</f>
-        <v>0</v>
-      </c>
-      <c r="AO37" s="6">
-        <f>IFERROR(IF(OR(AO7:AO35),COUNTIFS(AO7:AO35,"&gt;0",AQ7:AQ35,"&lt;&gt;")&amp;" of "&amp;(ROWS(AQ7:AQ35)-COUNTBLANK(AQ7:AQ35))&amp;" parts purchased",""),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AQ37" s="5">
-        <f>SUMIF(AO7:AO35,"&gt;0",AQ7:AQ35)</f>
-        <v>0</v>
-      </c>
-      <c r="AT37" s="6">
-        <f>IFERROR(IF(OR(AT7:AT35),COUNTIFS(AT7:AT35,"&gt;0",AV7:AV35,"&lt;&gt;")&amp;" of "&amp;(ROWS(AV7:AV35)-COUNTBLANK(AV7:AV35))&amp;" parts purchased",""),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AV37" s="5">
-        <f>SUMIF(AT7:AT35,"&gt;0",AV7:AV35)</f>
+        <f>IFERROR(IF(COUNTIFS(Z7:Z34,"&gt;0",AB7:AB34,"&lt;&gt;")&gt;0,"Quantity,Comment,Designator,Footprint,LCSC Part #(optional)",""),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <f t="array" ref="AE37">IFERROR(CONCATENATE(INDEX(AH7:AH34,SMALL(IF(ISNUMBER(AE7:AE34),IF(AE7:AE34&gt;0,IF(AH7:AH34&lt;&gt;"",ROW(AE7:AE34)-MIN(ROW(AE7:AE34))+1))),ROW()-ROW(A$37)+1)),"|",TEXT(INDEX(AE7:AE34,SMALL(IF(ISNUMBER(AE7:AE34),IF(AE7:AE34&gt;0,IF(AH7:AH34&lt;&gt;"",ROW(AE7:AE34)-MIN(ROW(AE7:AE34))+1))),ROW()-ROW(A$37)+1)),"##0"),"|",SUBSTITUTE(SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(AE7:AE34),IF(AE7:AE34&gt;0,IF(AH7:AH34&lt;&gt;"",ROW(AE7:AE34)-MIN(ROW(AE7:AE34))+1))),ROW()-ROW(A$37)+1)),"|",";")," ","_")),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AJ37">
+        <f t="array" ref="AJ37">IFERROR(CONCATENATE(INDEX(AM7:AM34,SMALL(IF(ISNUMBER(AJ7:AJ34),IF(AJ7:AJ34&gt;0,IF(AM7:AM34&lt;&gt;"",ROW(AJ7:AJ34)-MIN(ROW(AJ7:AJ34))+1))),ROW()-ROW(A$37)+1)),",",TEXT(INDEX(AJ7:AJ34,SMALL(IF(ISNUMBER(AJ7:AJ34),IF(AJ7:AJ34&gt;0,IF(AM7:AM34&lt;&gt;"",ROW(AJ7:AJ34)-MIN(ROW(AJ7:AJ34))+1))),ROW()-ROW(A$37)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(AJ7:AJ34),IF(AJ7:AJ34&gt;0,IF(AM7:AM34&lt;&gt;"",ROW(AJ7:AJ34)-MIN(ROW(AJ7:AJ34))+1))),ROW()-ROW(A$37)+1)),",",";")),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AO37">
+        <f t="array" ref="AO37">IFERROR(CONCATENATE(INDEX(AR7:AR34,SMALL(IF(ISNUMBER(AO7:AO34),IF(AO7:AO34&gt;0,IF(AR7:AR34&lt;&gt;"",ROW(AO7:AO34)-MIN(ROW(AO7:AO34))+1))),ROW()-ROW(A$37)+1))," ",TEXT(INDEX(AO7:AO34,SMALL(IF(ISNUMBER(AO7:AO34),IF(AO7:AO34&gt;0,IF(AR7:AR34&lt;&gt;"",ROW(AO7:AO34)-MIN(ROW(AO7:AO34))+1))),ROW()-ROW(A$37)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(AO7:AO34),IF(AO7:AO34&gt;0,IF(AR7:AR34&lt;&gt;"",ROW(AO7:AO34)-MIN(ROW(AO7:AO34))+1))),ROW()-ROW(A$37)+1))," ",";")),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AT37">
+        <f t="array" ref="AT37">IFERROR(CONCATENATE(INDEX(AW7:AW34,SMALL(IF(ISNUMBER(AT7:AT34),IF(AT7:AT34&gt;0,IF(AW7:AW34&lt;&gt;"",ROW(AT7:AT34)-MIN(ROW(AT7:AT34))+1))),ROW()-ROW(A$37)+1))," ",TEXT(INDEX(AT7:AT34,SMALL(IF(ISNUMBER(AT7:AT34),IF(AT7:AT34&gt;0,IF(AW7:AW34&lt;&gt;"",ROW(AT7:AT34)-MIN(ROW(AT7:AT34))+1))),ROW()-ROW(A$37)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(AT7:AT34),IF(AT7:AT34&gt;0,IF(AW7:AW34&lt;&gt;"",ROW(AT7:AT34)-MIN(ROW(AT7:AT34))+1))),ROW()-ROW(A$37)+1))," ",";")),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:48">
-      <c r="B38" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="C38">
-        <v>1.37471948652954</v>
-      </c>
-      <c r="H38" s="21" t="s">
-        <v>84</v>
-      </c>
       <c r="K38">
-        <f t="array" ref="K38">IFERROR(CONCATENATE(INDEX(N7:N35,SMALL(IF(ISNUMBER(K7:K35),IF(K7:K35&gt;0,IF(N7:N35&lt;&gt;"",ROW(K7:K35)-MIN(ROW(K7:K35))+1))),ROW()-ROW(A$38)+1)),",",TEXT(INDEX(K7:K35,SMALL(IF(ISNUMBER(K7:K35),IF(K7:K35&gt;0,IF(N7:N35&lt;&gt;"",ROW(K7:K35)-MIN(ROW(K7:K35))+1))),ROW()-ROW(A$38)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(K7:K35),IF(K7:K35&gt;0,IF(N7:N35&lt;&gt;"",ROW(K7:K35)-MIN(ROW(K7:K35))+1))),ROW()-ROW(A$38)+1)),",",";")),"")</f>
+        <f t="array" ref="K38">IFERROR(CONCATENATE(INDEX(N7:N34,SMALL(IF(ISNUMBER(K7:K34),IF(K7:K34&gt;0,IF(N7:N34&lt;&gt;"",ROW(K7:K34)-MIN(ROW(K7:K34))+1))),ROW()-ROW(A$37)+1)),",",TEXT(INDEX(K7:K34,SMALL(IF(ISNUMBER(K7:K34),IF(K7:K34&gt;0,IF(N7:N34&lt;&gt;"",ROW(K7:K34)-MIN(ROW(K7:K34))+1))),ROW()-ROW(A$37)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(K7:K34),IF(K7:K34&gt;0,IF(N7:N34&lt;&gt;"",ROW(K7:K34)-MIN(ROW(K7:K34))+1))),ROW()-ROW(A$37)+1)),",",";")),"")</f>
         <v>0</v>
       </c>
       <c r="P38">
-        <f t="array" ref="P38">IFERROR(CONCATENATE(TEXT(INDEX(P7:P35,SMALL(IF(ISNUMBER(P7:P35),IF(P7:P35&gt;0,IF(S7:S35&lt;&gt;"",ROW(P7:P35)-MIN(ROW(P7:P35))+1))),ROW()-ROW(A$38)+1)),"##0"),",",INDEX(S7:S35,SMALL(IF(ISNUMBER(P7:P35),IF(P7:P35&gt;0,IF(S7:S35&lt;&gt;"",ROW(P7:P35)-MIN(ROW(P7:P35))+1))),ROW()-ROW(A$38)+1)),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(P7:P35),IF(P7:P35&gt;0,IF(S7:S35&lt;&gt;"",ROW(P7:P35)-MIN(ROW(P7:P35))+1))),ROW()-ROW(A$38)+1)),",",";")),"")</f>
+        <f t="array" ref="P38">IFERROR(CONCATENATE(TEXT(INDEX(P7:P34,SMALL(IF(ISNUMBER(P7:P34),IF(P7:P34&gt;0,IF(S7:S34&lt;&gt;"",ROW(P7:P34)-MIN(ROW(P7:P34))+1))),ROW()-ROW(A$37)+1)),"##0"),",",INDEX(S7:S34,SMALL(IF(ISNUMBER(P7:P34),IF(P7:P34&gt;0,IF(S7:S34&lt;&gt;"",ROW(P7:P34)-MIN(ROW(P7:P34))+1))),ROW()-ROW(A$37)+1)),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(P7:P34),IF(P7:P34&gt;0,IF(S7:S34&lt;&gt;"",ROW(P7:P34)-MIN(ROW(P7:P34))+1))),ROW()-ROW(A$37)+1)),",",";")),"")</f>
         <v>0</v>
       </c>
       <c r="U38">
-        <f t="array" ref="U38">IFERROR(CONCATENATE(INDEX(X7:X35,SMALL(IF(ISNUMBER(U7:U35),IF(U7:U35&gt;0,IF(X7:X35&lt;&gt;"",ROW(U7:U35)-MIN(ROW(U7:U35))+1))),ROW()-ROW(A$38)+1))," ",TEXT(INDEX(U7:U35,SMALL(IF(ISNUMBER(U7:U35),IF(U7:U35&gt;0,IF(X7:X35&lt;&gt;"",ROW(U7:U35)-MIN(ROW(U7:U35))+1))),ROW()-ROW(A$38)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(U7:U35),IF(U7:U35&gt;0,IF(X7:X35&lt;&gt;"",ROW(U7:U35)-MIN(ROW(U7:U35))+1))),ROW()-ROW(A$38)+1))," ",";")),"")</f>
-        <v>0</v>
-      </c>
-      <c r="Z38" s="6">
-        <f>IFERROR(IF(COUNTIFS(Z7:Z35,"&gt;0",AB7:AB35,"&lt;&gt;")&gt;0,"Quantity,Comment,Designator,Footprint,LCSC Part #(optional)",""),"")</f>
+        <f t="array" ref="U38">IFERROR(CONCATENATE(INDEX(X7:X34,SMALL(IF(ISNUMBER(U7:U34),IF(U7:U34&gt;0,IF(X7:X34&lt;&gt;"",ROW(U7:U34)-MIN(ROW(U7:U34))+1))),ROW()-ROW(A$37)+1))," ",TEXT(INDEX(U7:U34,SMALL(IF(ISNUMBER(U7:U34),IF(U7:U34&gt;0,IF(X7:X34&lt;&gt;"",ROW(U7:U34)-MIN(ROW(U7:U34))+1))),ROW()-ROW(A$37)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(U7:U34),IF(U7:U34&gt;0,IF(X7:X34&lt;&gt;"",ROW(U7:U34)-MIN(ROW(U7:U34))+1))),ROW()-ROW(A$37)+1))," ",";")),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Z38">
+        <f t="array" ref="Z38">IFERROR(CONCATENATE(TEXT(INDEX(Z7:Z34,SMALL(IF(ISNUMBER(Z7:Z34),IF(Z7:Z34&gt;0,IF(AC7:AC34&lt;&gt;"",ROW(Z7:Z34)-MIN(ROW(Z7:Z34))+1))),ROW()-ROW(A$38)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(Z7:Z34),IF(Z7:Z34&gt;0,IF(AC7:AC34&lt;&gt;"",ROW(Z7:Z34)-MIN(ROW(Z7:Z34))+1))),ROW()-ROW(A$38)+1)),",",";"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;D7:D34,SMALL(IF(ISNUMBER(Z7:Z34),IF(Z7:Z34&gt;0,IF(AC7:AC34&lt;&gt;"",ROW(Z7:Z34)-MIN(ROW(Z7:Z34))+1))),ROW()-ROW(A$38)+1)),",",";"),",",INDEX(AC7:AC34,SMALL(IF(ISNUMBER(Z7:Z34),IF(Z7:Z34&gt;0,IF(AC7:AC34&lt;&gt;"",ROW(Z7:Z34)-MIN(ROW(Z7:Z34))+1))),ROW()-ROW(A$38)+1))),"")</f>
         <v>0</v>
       </c>
       <c r="AE38">
-        <f t="array" ref="AE38">IFERROR(CONCATENATE(INDEX(AH7:AH35,SMALL(IF(ISNUMBER(AE7:AE35),IF(AE7:AE35&gt;0,IF(AH7:AH35&lt;&gt;"",ROW(AE7:AE35)-MIN(ROW(AE7:AE35))+1))),ROW()-ROW(A$38)+1)),"|",TEXT(INDEX(AE7:AE35,SMALL(IF(ISNUMBER(AE7:AE35),IF(AE7:AE35&gt;0,IF(AH7:AH35&lt;&gt;"",ROW(AE7:AE35)-MIN(ROW(AE7:AE35))+1))),ROW()-ROW(A$38)+1)),"##0"),"|",SUBSTITUTE(SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(AE7:AE35),IF(AE7:AE35&gt;0,IF(AH7:AH35&lt;&gt;"",ROW(AE7:AE35)-MIN(ROW(AE7:AE35))+1))),ROW()-ROW(A$38)+1)),"|",";")," ","_")),"")</f>
+        <f t="array" ref="AE38">IFERROR(CONCATENATE(INDEX(AH7:AH34,SMALL(IF(ISNUMBER(AE7:AE34),IF(AE7:AE34&gt;0,IF(AH7:AH34&lt;&gt;"",ROW(AE7:AE34)-MIN(ROW(AE7:AE34))+1))),ROW()-ROW(A$37)+1)),"|",TEXT(INDEX(AE7:AE34,SMALL(IF(ISNUMBER(AE7:AE34),IF(AE7:AE34&gt;0,IF(AH7:AH34&lt;&gt;"",ROW(AE7:AE34)-MIN(ROW(AE7:AE34))+1))),ROW()-ROW(A$37)+1)),"##0"),"|",SUBSTITUTE(SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(AE7:AE34),IF(AE7:AE34&gt;0,IF(AH7:AH34&lt;&gt;"",ROW(AE7:AE34)-MIN(ROW(AE7:AE34))+1))),ROW()-ROW(A$37)+1)),"|",";")," ","_")),"")</f>
         <v>0</v>
       </c>
       <c r="AJ38">
-        <f t="array" ref="AJ38">IFERROR(CONCATENATE(INDEX(AM7:AM35,SMALL(IF(ISNUMBER(AJ7:AJ35),IF(AJ7:AJ35&gt;0,IF(AM7:AM35&lt;&gt;"",ROW(AJ7:AJ35)-MIN(ROW(AJ7:AJ35))+1))),ROW()-ROW(A$38)+1)),",",TEXT(INDEX(AJ7:AJ35,SMALL(IF(ISNUMBER(AJ7:AJ35),IF(AJ7:AJ35&gt;0,IF(AM7:AM35&lt;&gt;"",ROW(AJ7:AJ35)-MIN(ROW(AJ7:AJ35))+1))),ROW()-ROW(A$38)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(AJ7:AJ35),IF(AJ7:AJ35&gt;0,IF(AM7:AM35&lt;&gt;"",ROW(AJ7:AJ35)-MIN(ROW(AJ7:AJ35))+1))),ROW()-ROW(A$38)+1)),",",";")),"")</f>
+        <f t="array" ref="AJ38">IFERROR(CONCATENATE(INDEX(AM7:AM34,SMALL(IF(ISNUMBER(AJ7:AJ34),IF(AJ7:AJ34&gt;0,IF(AM7:AM34&lt;&gt;"",ROW(AJ7:AJ34)-MIN(ROW(AJ7:AJ34))+1))),ROW()-ROW(A$37)+1)),",",TEXT(INDEX(AJ7:AJ34,SMALL(IF(ISNUMBER(AJ7:AJ34),IF(AJ7:AJ34&gt;0,IF(AM7:AM34&lt;&gt;"",ROW(AJ7:AJ34)-MIN(ROW(AJ7:AJ34))+1))),ROW()-ROW(A$37)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(AJ7:AJ34),IF(AJ7:AJ34&gt;0,IF(AM7:AM34&lt;&gt;"",ROW(AJ7:AJ34)-MIN(ROW(AJ7:AJ34))+1))),ROW()-ROW(A$37)+1)),",",";")),"")</f>
         <v>0</v>
       </c>
       <c r="AO38">
-        <f t="array" ref="AO38">IFERROR(CONCATENATE(INDEX(AR7:AR35,SMALL(IF(ISNUMBER(AO7:AO35),IF(AO7:AO35&gt;0,IF(AR7:AR35&lt;&gt;"",ROW(AO7:AO35)-MIN(ROW(AO7:AO35))+1))),ROW()-ROW(A$38)+1))," ",TEXT(INDEX(AO7:AO35,SMALL(IF(ISNUMBER(AO7:AO35),IF(AO7:AO35&gt;0,IF(AR7:AR35&lt;&gt;"",ROW(AO7:AO35)-MIN(ROW(AO7:AO35))+1))),ROW()-ROW(A$38)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(AO7:AO35),IF(AO7:AO35&gt;0,IF(AR7:AR35&lt;&gt;"",ROW(AO7:AO35)-MIN(ROW(AO7:AO35))+1))),ROW()-ROW(A$38)+1))," ",";")),"")</f>
+        <f t="array" ref="AO38">IFERROR(CONCATENATE(INDEX(AR7:AR34,SMALL(IF(ISNUMBER(AO7:AO34),IF(AO7:AO34&gt;0,IF(AR7:AR34&lt;&gt;"",ROW(AO7:AO34)-MIN(ROW(AO7:AO34))+1))),ROW()-ROW(A$37)+1))," ",TEXT(INDEX(AO7:AO34,SMALL(IF(ISNUMBER(AO7:AO34),IF(AO7:AO34&gt;0,IF(AR7:AR34&lt;&gt;"",ROW(AO7:AO34)-MIN(ROW(AO7:AO34))+1))),ROW()-ROW(A$37)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(AO7:AO34),IF(AO7:AO34&gt;0,IF(AR7:AR34&lt;&gt;"",ROW(AO7:AO34)-MIN(ROW(AO7:AO34))+1))),ROW()-ROW(A$37)+1))," ",";")),"")</f>
         <v>0</v>
       </c>
       <c r="AT38">
-        <f t="array" ref="AT38">IFERROR(CONCATENATE(INDEX(AW7:AW35,SMALL(IF(ISNUMBER(AT7:AT35),IF(AT7:AT35&gt;0,IF(AW7:AW35&lt;&gt;"",ROW(AT7:AT35)-MIN(ROW(AT7:AT35))+1))),ROW()-ROW(A$38)+1))," ",TEXT(INDEX(AT7:AT35,SMALL(IF(ISNUMBER(AT7:AT35),IF(AT7:AT35&gt;0,IF(AW7:AW35&lt;&gt;"",ROW(AT7:AT35)-MIN(ROW(AT7:AT35))+1))),ROW()-ROW(A$38)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(AT7:AT35),IF(AT7:AT35&gt;0,IF(AW7:AW35&lt;&gt;"",ROW(AT7:AT35)-MIN(ROW(AT7:AT35))+1))),ROW()-ROW(A$38)+1))," ",";")),"")</f>
+        <f t="array" ref="AT38">IFERROR(CONCATENATE(INDEX(AW7:AW34,SMALL(IF(ISNUMBER(AT7:AT34),IF(AT7:AT34&gt;0,IF(AW7:AW34&lt;&gt;"",ROW(AT7:AT34)-MIN(ROW(AT7:AT34))+1))),ROW()-ROW(A$37)+1))," ",TEXT(INDEX(AT7:AT34,SMALL(IF(ISNUMBER(AT7:AT34),IF(AT7:AT34&gt;0,IF(AW7:AW34&lt;&gt;"",ROW(AT7:AT34)-MIN(ROW(AT7:AT34))+1))),ROW()-ROW(A$37)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(AT7:AT34),IF(AT7:AT34&gt;0,IF(AW7:AW34&lt;&gt;"",ROW(AT7:AT34)-MIN(ROW(AT7:AT34))+1))),ROW()-ROW(A$37)+1))," ",";")),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:48">
+      <c r="A39" s="2" t="s">
+        <v>183</v>
+      </c>
       <c r="K39">
-        <f t="array" ref="K39">IFERROR(CONCATENATE(INDEX(N7:N35,SMALL(IF(ISNUMBER(K7:K35),IF(K7:K35&gt;0,IF(N7:N35&lt;&gt;"",ROW(K7:K35)-MIN(ROW(K7:K35))+1))),ROW()-ROW(A$38)+1)),",",TEXT(INDEX(K7:K35,SMALL(IF(ISNUMBER(K7:K35),IF(K7:K35&gt;0,IF(N7:N35&lt;&gt;"",ROW(K7:K35)-MIN(ROW(K7:K35))+1))),ROW()-ROW(A$38)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(K7:K35),IF(K7:K35&gt;0,IF(N7:N35&lt;&gt;"",ROW(K7:K35)-MIN(ROW(K7:K35))+1))),ROW()-ROW(A$38)+1)),",",";")),"")</f>
+        <f t="array" ref="K39">IFERROR(CONCATENATE(INDEX(N7:N34,SMALL(IF(ISNUMBER(K7:K34),IF(K7:K34&gt;0,IF(N7:N34&lt;&gt;"",ROW(K7:K34)-MIN(ROW(K7:K34))+1))),ROW()-ROW(A$37)+1)),",",TEXT(INDEX(K7:K34,SMALL(IF(ISNUMBER(K7:K34),IF(K7:K34&gt;0,IF(N7:N34&lt;&gt;"",ROW(K7:K34)-MIN(ROW(K7:K34))+1))),ROW()-ROW(A$37)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(K7:K34),IF(K7:K34&gt;0,IF(N7:N34&lt;&gt;"",ROW(K7:K34)-MIN(ROW(K7:K34))+1))),ROW()-ROW(A$37)+1)),",",";")),"")</f>
         <v>0</v>
       </c>
       <c r="P39">
-        <f t="array" ref="P39">IFERROR(CONCATENATE(TEXT(INDEX(P7:P35,SMALL(IF(ISNUMBER(P7:P35),IF(P7:P35&gt;0,IF(S7:S35&lt;&gt;"",ROW(P7:P35)-MIN(ROW(P7:P35))+1))),ROW()-ROW(A$38)+1)),"##0"),",",INDEX(S7:S35,SMALL(IF(ISNUMBER(P7:P35),IF(P7:P35&gt;0,IF(S7:S35&lt;&gt;"",ROW(P7:P35)-MIN(ROW(P7:P35))+1))),ROW()-ROW(A$38)+1)),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(P7:P35),IF(P7:P35&gt;0,IF(S7:S35&lt;&gt;"",ROW(P7:P35)-MIN(ROW(P7:P35))+1))),ROW()-ROW(A$38)+1)),",",";")),"")</f>
+        <f t="array" ref="P39">IFERROR(CONCATENATE(TEXT(INDEX(P7:P34,SMALL(IF(ISNUMBER(P7:P34),IF(P7:P34&gt;0,IF(S7:S34&lt;&gt;"",ROW(P7:P34)-MIN(ROW(P7:P34))+1))),ROW()-ROW(A$37)+1)),"##0"),",",INDEX(S7:S34,SMALL(IF(ISNUMBER(P7:P34),IF(P7:P34&gt;0,IF(S7:S34&lt;&gt;"",ROW(P7:P34)-MIN(ROW(P7:P34))+1))),ROW()-ROW(A$37)+1)),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(P7:P34),IF(P7:P34&gt;0,IF(S7:S34&lt;&gt;"",ROW(P7:P34)-MIN(ROW(P7:P34))+1))),ROW()-ROW(A$37)+1)),",",";")),"")</f>
         <v>0</v>
       </c>
       <c r="U39">
-        <f t="array" ref="U39">IFERROR(CONCATENATE(INDEX(X7:X35,SMALL(IF(ISNUMBER(U7:U35),IF(U7:U35&gt;0,IF(X7:X35&lt;&gt;"",ROW(U7:U35)-MIN(ROW(U7:U35))+1))),ROW()-ROW(A$38)+1))," ",TEXT(INDEX(U7:U35,SMALL(IF(ISNUMBER(U7:U35),IF(U7:U35&gt;0,IF(X7:X35&lt;&gt;"",ROW(U7:U35)-MIN(ROW(U7:U35))+1))),ROW()-ROW(A$38)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(U7:U35),IF(U7:U35&gt;0,IF(X7:X35&lt;&gt;"",ROW(U7:U35)-MIN(ROW(U7:U35))+1))),ROW()-ROW(A$38)+1))," ",";")),"")</f>
+        <f t="array" ref="U39">IFERROR(CONCATENATE(INDEX(X7:X34,SMALL(IF(ISNUMBER(U7:U34),IF(U7:U34&gt;0,IF(X7:X34&lt;&gt;"",ROW(U7:U34)-MIN(ROW(U7:U34))+1))),ROW()-ROW(A$37)+1))," ",TEXT(INDEX(U7:U34,SMALL(IF(ISNUMBER(U7:U34),IF(U7:U34&gt;0,IF(X7:X34&lt;&gt;"",ROW(U7:U34)-MIN(ROW(U7:U34))+1))),ROW()-ROW(A$37)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(U7:U34),IF(U7:U34&gt;0,IF(X7:X34&lt;&gt;"",ROW(U7:U34)-MIN(ROW(U7:U34))+1))),ROW()-ROW(A$37)+1))," ",";")),"")</f>
         <v>0</v>
       </c>
       <c r="Z39">
-        <f t="array" ref="Z39">IFERROR(CONCATENATE(TEXT(INDEX(Z7:Z35,SMALL(IF(ISNUMBER(Z7:Z35),IF(Z7:Z35&gt;0,IF(AC7:AC35&lt;&gt;"",ROW(Z7:Z35)-MIN(ROW(Z7:Z35))+1))),ROW()-ROW(A$39)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(Z7:Z35),IF(Z7:Z35&gt;0,IF(AC7:AC35&lt;&gt;"",ROW(Z7:Z35)-MIN(ROW(Z7:Z35))+1))),ROW()-ROW(A$39)+1)),",",";"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;D7:D35,SMALL(IF(ISNUMBER(Z7:Z35),IF(Z7:Z35&gt;0,IF(AC7:AC35&lt;&gt;"",ROW(Z7:Z35)-MIN(ROW(Z7:Z35))+1))),ROW()-ROW(A$39)+1)),",",";"),",",INDEX(AC7:AC35,SMALL(IF(ISNUMBER(Z7:Z35),IF(Z7:Z35&gt;0,IF(AC7:AC35&lt;&gt;"",ROW(Z7:Z35)-MIN(ROW(Z7:Z35))+1))),ROW()-ROW(A$39)+1))),"")</f>
+        <f t="array" ref="Z39">IFERROR(CONCATENATE(TEXT(INDEX(Z7:Z34,SMALL(IF(ISNUMBER(Z7:Z34),IF(Z7:Z34&gt;0,IF(AC7:AC34&lt;&gt;"",ROW(Z7:Z34)-MIN(ROW(Z7:Z34))+1))),ROW()-ROW(A$38)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(Z7:Z34),IF(Z7:Z34&gt;0,IF(AC7:AC34&lt;&gt;"",ROW(Z7:Z34)-MIN(ROW(Z7:Z34))+1))),ROW()-ROW(A$38)+1)),",",";"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;D7:D34,SMALL(IF(ISNUMBER(Z7:Z34),IF(Z7:Z34&gt;0,IF(AC7:AC34&lt;&gt;"",ROW(Z7:Z34)-MIN(ROW(Z7:Z34))+1))),ROW()-ROW(A$38)+1)),",",";"),",",INDEX(AC7:AC34,SMALL(IF(ISNUMBER(Z7:Z34),IF(Z7:Z34&gt;0,IF(AC7:AC34&lt;&gt;"",ROW(Z7:Z34)-MIN(ROW(Z7:Z34))+1))),ROW()-ROW(A$38)+1))),"")</f>
         <v>0</v>
       </c>
       <c r="AE39">
-        <f t="array" ref="AE39">IFERROR(CONCATENATE(INDEX(AH7:AH35,SMALL(IF(ISNUMBER(AE7:AE35),IF(AE7:AE35&gt;0,IF(AH7:AH35&lt;&gt;"",ROW(AE7:AE35)-MIN(ROW(AE7:AE35))+1))),ROW()-ROW(A$38)+1)),"|",TEXT(INDEX(AE7:AE35,SMALL(IF(ISNUMBER(AE7:AE35),IF(AE7:AE35&gt;0,IF(AH7:AH35&lt;&gt;"",ROW(AE7:AE35)-MIN(ROW(AE7:AE35))+1))),ROW()-ROW(A$38)+1)),"##0"),"|",SUBSTITUTE(SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(AE7:AE35),IF(AE7:AE35&gt;0,IF(AH7:AH35&lt;&gt;"",ROW(AE7:AE35)-MIN(ROW(AE7:AE35))+1))),ROW()-ROW(A$38)+1)),"|",";")," ","_")),"")</f>
+        <f t="array" ref="AE39">IFERROR(CONCATENATE(INDEX(AH7:AH34,SMALL(IF(ISNUMBER(AE7:AE34),IF(AE7:AE34&gt;0,IF(AH7:AH34&lt;&gt;"",ROW(AE7:AE34)-MIN(ROW(AE7:AE34))+1))),ROW()-ROW(A$37)+1)),"|",TEXT(INDEX(AE7:AE34,SMALL(IF(ISNUMBER(AE7:AE34),IF(AE7:AE34&gt;0,IF(AH7:AH34&lt;&gt;"",ROW(AE7:AE34)-MIN(ROW(AE7:AE34))+1))),ROW()-ROW(A$37)+1)),"##0"),"|",SUBSTITUTE(SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(AE7:AE34),IF(AE7:AE34&gt;0,IF(AH7:AH34&lt;&gt;"",ROW(AE7:AE34)-MIN(ROW(AE7:AE34))+1))),ROW()-ROW(A$37)+1)),"|",";")," ","_")),"")</f>
         <v>0</v>
       </c>
       <c r="AJ39">
-        <f t="array" ref="AJ39">IFERROR(CONCATENATE(INDEX(AM7:AM35,SMALL(IF(ISNUMBER(AJ7:AJ35),IF(AJ7:AJ35&gt;0,IF(AM7:AM35&lt;&gt;"",ROW(AJ7:AJ35)-MIN(ROW(AJ7:AJ35))+1))),ROW()-ROW(A$38)+1)),",",TEXT(INDEX(AJ7:AJ35,SMALL(IF(ISNUMBER(AJ7:AJ35),IF(AJ7:AJ35&gt;0,IF(AM7:AM35&lt;&gt;"",ROW(AJ7:AJ35)-MIN(ROW(AJ7:AJ35))+1))),ROW()-ROW(A$38)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(AJ7:AJ35),IF(AJ7:AJ35&gt;0,IF(AM7:AM35&lt;&gt;"",ROW(AJ7:AJ35)-MIN(ROW(AJ7:AJ35))+1))),ROW()-ROW(A$38)+1)),",",";")),"")</f>
+        <f t="array" ref="AJ39">IFERROR(CONCATENATE(INDEX(AM7:AM34,SMALL(IF(ISNUMBER(AJ7:AJ34),IF(AJ7:AJ34&gt;0,IF(AM7:AM34&lt;&gt;"",ROW(AJ7:AJ34)-MIN(ROW(AJ7:AJ34))+1))),ROW()-ROW(A$37)+1)),",",TEXT(INDEX(AJ7:AJ34,SMALL(IF(ISNUMBER(AJ7:AJ34),IF(AJ7:AJ34&gt;0,IF(AM7:AM34&lt;&gt;"",ROW(AJ7:AJ34)-MIN(ROW(AJ7:AJ34))+1))),ROW()-ROW(A$37)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(AJ7:AJ34),IF(AJ7:AJ34&gt;0,IF(AM7:AM34&lt;&gt;"",ROW(AJ7:AJ34)-MIN(ROW(AJ7:AJ34))+1))),ROW()-ROW(A$37)+1)),",",";")),"")</f>
         <v>0</v>
       </c>
       <c r="AO39">
-        <f t="array" ref="AO39">IFERROR(CONCATENATE(INDEX(AR7:AR35,SMALL(IF(ISNUMBER(AO7:AO35),IF(AO7:AO35&gt;0,IF(AR7:AR35&lt;&gt;"",ROW(AO7:AO35)-MIN(ROW(AO7:AO35))+1))),ROW()-ROW(A$38)+1))," ",TEXT(INDEX(AO7:AO35,SMALL(IF(ISNUMBER(AO7:AO35),IF(AO7:AO35&gt;0,IF(AR7:AR35&lt;&gt;"",ROW(AO7:AO35)-MIN(ROW(AO7:AO35))+1))),ROW()-ROW(A$38)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(AO7:AO35),IF(AO7:AO35&gt;0,IF(AR7:AR35&lt;&gt;"",ROW(AO7:AO35)-MIN(ROW(AO7:AO35))+1))),ROW()-ROW(A$38)+1))," ",";")),"")</f>
+        <f t="array" ref="AO39">IFERROR(CONCATENATE(INDEX(AR7:AR34,SMALL(IF(ISNUMBER(AO7:AO34),IF(AO7:AO34&gt;0,IF(AR7:AR34&lt;&gt;"",ROW(AO7:AO34)-MIN(ROW(AO7:AO34))+1))),ROW()-ROW(A$37)+1))," ",TEXT(INDEX(AO7:AO34,SMALL(IF(ISNUMBER(AO7:AO34),IF(AO7:AO34&gt;0,IF(AR7:AR34&lt;&gt;"",ROW(AO7:AO34)-MIN(ROW(AO7:AO34))+1))),ROW()-ROW(A$37)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(AO7:AO34),IF(AO7:AO34&gt;0,IF(AR7:AR34&lt;&gt;"",ROW(AO7:AO34)-MIN(ROW(AO7:AO34))+1))),ROW()-ROW(A$37)+1))," ",";")),"")</f>
         <v>0</v>
       </c>
       <c r="AT39">
-        <f t="array" ref="AT39">IFERROR(CONCATENATE(INDEX(AW7:AW35,SMALL(IF(ISNUMBER(AT7:AT35),IF(AT7:AT35&gt;0,IF(AW7:AW35&lt;&gt;"",ROW(AT7:AT35)-MIN(ROW(AT7:AT35))+1))),ROW()-ROW(A$38)+1))," ",TEXT(INDEX(AT7:AT35,SMALL(IF(ISNUMBER(AT7:AT35),IF(AT7:AT35&gt;0,IF(AW7:AW35&lt;&gt;"",ROW(AT7:AT35)-MIN(ROW(AT7:AT35))+1))),ROW()-ROW(A$38)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(AT7:AT35),IF(AT7:AT35&gt;0,IF(AW7:AW35&lt;&gt;"",ROW(AT7:AT35)-MIN(ROW(AT7:AT35))+1))),ROW()-ROW(A$38)+1))," ",";")),"")</f>
+        <f t="array" ref="AT39">IFERROR(CONCATENATE(INDEX(AW7:AW34,SMALL(IF(ISNUMBER(AT7:AT34),IF(AT7:AT34&gt;0,IF(AW7:AW34&lt;&gt;"",ROW(AT7:AT34)-MIN(ROW(AT7:AT34))+1))),ROW()-ROW(A$37)+1))," ",TEXT(INDEX(AT7:AT34,SMALL(IF(ISNUMBER(AT7:AT34),IF(AT7:AT34&gt;0,IF(AW7:AW34&lt;&gt;"",ROW(AT7:AT34)-MIN(ROW(AT7:AT34))+1))),ROW()-ROW(A$37)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(AT7:AT34),IF(AT7:AT34&gt;0,IF(AW7:AW34&lt;&gt;"",ROW(AT7:AT34)-MIN(ROW(AT7:AT34))+1))),ROW()-ROW(A$37)+1))," ",";")),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:48">
-      <c r="A40" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="K40">
-        <f t="array" ref="K40">IFERROR(CONCATENATE(INDEX(N7:N35,SMALL(IF(ISNUMBER(K7:K35),IF(K7:K35&gt;0,IF(N7:N35&lt;&gt;"",ROW(K7:K35)-MIN(ROW(K7:K35))+1))),ROW()-ROW(A$38)+1)),",",TEXT(INDEX(K7:K35,SMALL(IF(ISNUMBER(K7:K35),IF(K7:K35&gt;0,IF(N7:N35&lt;&gt;"",ROW(K7:K35)-MIN(ROW(K7:K35))+1))),ROW()-ROW(A$38)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(K7:K35),IF(K7:K35&gt;0,IF(N7:N35&lt;&gt;"",ROW(K7:K35)-MIN(ROW(K7:K35))+1))),ROW()-ROW(A$38)+1)),",",";")),"")</f>
+        <f t="array" ref="K40">IFERROR(CONCATENATE(INDEX(N7:N34,SMALL(IF(ISNUMBER(K7:K34),IF(K7:K34&gt;0,IF(N7:N34&lt;&gt;"",ROW(K7:K34)-MIN(ROW(K7:K34))+1))),ROW()-ROW(A$37)+1)),",",TEXT(INDEX(K7:K34,SMALL(IF(ISNUMBER(K7:K34),IF(K7:K34&gt;0,IF(N7:N34&lt;&gt;"",ROW(K7:K34)-MIN(ROW(K7:K34))+1))),ROW()-ROW(A$37)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(K7:K34),IF(K7:K34&gt;0,IF(N7:N34&lt;&gt;"",ROW(K7:K34)-MIN(ROW(K7:K34))+1))),ROW()-ROW(A$37)+1)),",",";")),"")</f>
         <v>0</v>
       </c>
       <c r="P40">
-        <f t="array" ref="P40">IFERROR(CONCATENATE(TEXT(INDEX(P7:P35,SMALL(IF(ISNUMBER(P7:P35),IF(P7:P35&gt;0,IF(S7:S35&lt;&gt;"",ROW(P7:P35)-MIN(ROW(P7:P35))+1))),ROW()-ROW(A$38)+1)),"##0"),",",INDEX(S7:S35,SMALL(IF(ISNUMBER(P7:P35),IF(P7:P35&gt;0,IF(S7:S35&lt;&gt;"",ROW(P7:P35)-MIN(ROW(P7:P35))+1))),ROW()-ROW(A$38)+1)),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(P7:P35),IF(P7:P35&gt;0,IF(S7:S35&lt;&gt;"",ROW(P7:P35)-MIN(ROW(P7:P35))+1))),ROW()-ROW(A$38)+1)),",",";")),"")</f>
+        <f t="array" ref="P40">IFERROR(CONCATENATE(TEXT(INDEX(P7:P34,SMALL(IF(ISNUMBER(P7:P34),IF(P7:P34&gt;0,IF(S7:S34&lt;&gt;"",ROW(P7:P34)-MIN(ROW(P7:P34))+1))),ROW()-ROW(A$37)+1)),"##0"),",",INDEX(S7:S34,SMALL(IF(ISNUMBER(P7:P34),IF(P7:P34&gt;0,IF(S7:S34&lt;&gt;"",ROW(P7:P34)-MIN(ROW(P7:P34))+1))),ROW()-ROW(A$37)+1)),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(P7:P34),IF(P7:P34&gt;0,IF(S7:S34&lt;&gt;"",ROW(P7:P34)-MIN(ROW(P7:P34))+1))),ROW()-ROW(A$37)+1)),",",";")),"")</f>
         <v>0</v>
       </c>
       <c r="U40">
-        <f t="array" ref="U40">IFERROR(CONCATENATE(INDEX(X7:X35,SMALL(IF(ISNUMBER(U7:U35),IF(U7:U35&gt;0,IF(X7:X35&lt;&gt;"",ROW(U7:U35)-MIN(ROW(U7:U35))+1))),ROW()-ROW(A$38)+1))," ",TEXT(INDEX(U7:U35,SMALL(IF(ISNUMBER(U7:U35),IF(U7:U35&gt;0,IF(X7:X35&lt;&gt;"",ROW(U7:U35)-MIN(ROW(U7:U35))+1))),ROW()-ROW(A$38)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(U7:U35),IF(U7:U35&gt;0,IF(X7:X35&lt;&gt;"",ROW(U7:U35)-MIN(ROW(U7:U35))+1))),ROW()-ROW(A$38)+1))," ",";")),"")</f>
+        <f t="array" ref="U40">IFERROR(CONCATENATE(INDEX(X7:X34,SMALL(IF(ISNUMBER(U7:U34),IF(U7:U34&gt;0,IF(X7:X34&lt;&gt;"",ROW(U7:U34)-MIN(ROW(U7:U34))+1))),ROW()-ROW(A$37)+1))," ",TEXT(INDEX(U7:U34,SMALL(IF(ISNUMBER(U7:U34),IF(U7:U34&gt;0,IF(X7:X34&lt;&gt;"",ROW(U7:U34)-MIN(ROW(U7:U34))+1))),ROW()-ROW(A$37)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(U7:U34),IF(U7:U34&gt;0,IF(X7:X34&lt;&gt;"",ROW(U7:U34)-MIN(ROW(U7:U34))+1))),ROW()-ROW(A$37)+1))," ",";")),"")</f>
         <v>0</v>
       </c>
       <c r="Z40">
-        <f t="array" ref="Z40">IFERROR(CONCATENATE(TEXT(INDEX(Z7:Z35,SMALL(IF(ISNUMBER(Z7:Z35),IF(Z7:Z35&gt;0,IF(AC7:AC35&lt;&gt;"",ROW(Z7:Z35)-MIN(ROW(Z7:Z35))+1))),ROW()-ROW(A$39)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(Z7:Z35),IF(Z7:Z35&gt;0,IF(AC7:AC35&lt;&gt;"",ROW(Z7:Z35)-MIN(ROW(Z7:Z35))+1))),ROW()-ROW(A$39)+1)),",",";"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;D7:D35,SMALL(IF(ISNUMBER(Z7:Z35),IF(Z7:Z35&gt;0,IF(AC7:AC35&lt;&gt;"",ROW(Z7:Z35)-MIN(ROW(Z7:Z35))+1))),ROW()-ROW(A$39)+1)),",",";"),",",INDEX(AC7:AC35,SMALL(IF(ISNUMBER(Z7:Z35),IF(Z7:Z35&gt;0,IF(AC7:AC35&lt;&gt;"",ROW(Z7:Z35)-MIN(ROW(Z7:Z35))+1))),ROW()-ROW(A$39)+1))),"")</f>
+        <f t="array" ref="Z40">IFERROR(CONCATENATE(TEXT(INDEX(Z7:Z34,SMALL(IF(ISNUMBER(Z7:Z34),IF(Z7:Z34&gt;0,IF(AC7:AC34&lt;&gt;"",ROW(Z7:Z34)-MIN(ROW(Z7:Z34))+1))),ROW()-ROW(A$38)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(Z7:Z34),IF(Z7:Z34&gt;0,IF(AC7:AC34&lt;&gt;"",ROW(Z7:Z34)-MIN(ROW(Z7:Z34))+1))),ROW()-ROW(A$38)+1)),",",";"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;D7:D34,SMALL(IF(ISNUMBER(Z7:Z34),IF(Z7:Z34&gt;0,IF(AC7:AC34&lt;&gt;"",ROW(Z7:Z34)-MIN(ROW(Z7:Z34))+1))),ROW()-ROW(A$38)+1)),",",";"),",",INDEX(AC7:AC34,SMALL(IF(ISNUMBER(Z7:Z34),IF(Z7:Z34&gt;0,IF(AC7:AC34&lt;&gt;"",ROW(Z7:Z34)-MIN(ROW(Z7:Z34))+1))),ROW()-ROW(A$38)+1))),"")</f>
         <v>0</v>
       </c>
       <c r="AE40">
-        <f t="array" ref="AE40">IFERROR(CONCATENATE(INDEX(AH7:AH35,SMALL(IF(ISNUMBER(AE7:AE35),IF(AE7:AE35&gt;0,IF(AH7:AH35&lt;&gt;"",ROW(AE7:AE35)-MIN(ROW(AE7:AE35))+1))),ROW()-ROW(A$38)+1)),"|",TEXT(INDEX(AE7:AE35,SMALL(IF(ISNUMBER(AE7:AE35),IF(AE7:AE35&gt;0,IF(AH7:AH35&lt;&gt;"",ROW(AE7:AE35)-MIN(ROW(AE7:AE35))+1))),ROW()-ROW(A$38)+1)),"##0"),"|",SUBSTITUTE(SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(AE7:AE35),IF(AE7:AE35&gt;0,IF(AH7:AH35&lt;&gt;"",ROW(AE7:AE35)-MIN(ROW(AE7:AE35))+1))),ROW()-ROW(A$38)+1)),"|",";")," ","_")),"")</f>
+        <f t="array" ref="AE40">IFERROR(CONCATENATE(INDEX(AH7:AH34,SMALL(IF(ISNUMBER(AE7:AE34),IF(AE7:AE34&gt;0,IF(AH7:AH34&lt;&gt;"",ROW(AE7:AE34)-MIN(ROW(AE7:AE34))+1))),ROW()-ROW(A$37)+1)),"|",TEXT(INDEX(AE7:AE34,SMALL(IF(ISNUMBER(AE7:AE34),IF(AE7:AE34&gt;0,IF(AH7:AH34&lt;&gt;"",ROW(AE7:AE34)-MIN(ROW(AE7:AE34))+1))),ROW()-ROW(A$37)+1)),"##0"),"|",SUBSTITUTE(SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(AE7:AE34),IF(AE7:AE34&gt;0,IF(AH7:AH34&lt;&gt;"",ROW(AE7:AE34)-MIN(ROW(AE7:AE34))+1))),ROW()-ROW(A$37)+1)),"|",";")," ","_")),"")</f>
         <v>0</v>
       </c>
       <c r="AJ40">
-        <f t="array" ref="AJ40">IFERROR(CONCATENATE(INDEX(AM7:AM35,SMALL(IF(ISNUMBER(AJ7:AJ35),IF(AJ7:AJ35&gt;0,IF(AM7:AM35&lt;&gt;"",ROW(AJ7:AJ35)-MIN(ROW(AJ7:AJ35))+1))),ROW()-ROW(A$38)+1)),",",TEXT(INDEX(AJ7:AJ35,SMALL(IF(ISNUMBER(AJ7:AJ35),IF(AJ7:AJ35&gt;0,IF(AM7:AM35&lt;&gt;"",ROW(AJ7:AJ35)-MIN(ROW(AJ7:AJ35))+1))),ROW()-ROW(A$38)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(AJ7:AJ35),IF(AJ7:AJ35&gt;0,IF(AM7:AM35&lt;&gt;"",ROW(AJ7:AJ35)-MIN(ROW(AJ7:AJ35))+1))),ROW()-ROW(A$38)+1)),",",";")),"")</f>
+        <f t="array" ref="AJ40">IFERROR(CONCATENATE(INDEX(AM7:AM34,SMALL(IF(ISNUMBER(AJ7:AJ34),IF(AJ7:AJ34&gt;0,IF(AM7:AM34&lt;&gt;"",ROW(AJ7:AJ34)-MIN(ROW(AJ7:AJ34))+1))),ROW()-ROW(A$37)+1)),",",TEXT(INDEX(AJ7:AJ34,SMALL(IF(ISNUMBER(AJ7:AJ34),IF(AJ7:AJ34&gt;0,IF(AM7:AM34&lt;&gt;"",ROW(AJ7:AJ34)-MIN(ROW(AJ7:AJ34))+1))),ROW()-ROW(A$37)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(AJ7:AJ34),IF(AJ7:AJ34&gt;0,IF(AM7:AM34&lt;&gt;"",ROW(AJ7:AJ34)-MIN(ROW(AJ7:AJ34))+1))),ROW()-ROW(A$37)+1)),",",";")),"")</f>
         <v>0</v>
       </c>
       <c r="AO40">
-        <f t="array" ref="AO40">IFERROR(CONCATENATE(INDEX(AR7:AR35,SMALL(IF(ISNUMBER(AO7:AO35),IF(AO7:AO35&gt;0,IF(AR7:AR35&lt;&gt;"",ROW(AO7:AO35)-MIN(ROW(AO7:AO35))+1))),ROW()-ROW(A$38)+1))," ",TEXT(INDEX(AO7:AO35,SMALL(IF(ISNUMBER(AO7:AO35),IF(AO7:AO35&gt;0,IF(AR7:AR35&lt;&gt;"",ROW(AO7:AO35)-MIN(ROW(AO7:AO35))+1))),ROW()-ROW(A$38)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(AO7:AO35),IF(AO7:AO35&gt;0,IF(AR7:AR35&lt;&gt;"",ROW(AO7:AO35)-MIN(ROW(AO7:AO35))+1))),ROW()-ROW(A$38)+1))," ",";")),"")</f>
+        <f t="array" ref="AO40">IFERROR(CONCATENATE(INDEX(AR7:AR34,SMALL(IF(ISNUMBER(AO7:AO34),IF(AO7:AO34&gt;0,IF(AR7:AR34&lt;&gt;"",ROW(AO7:AO34)-MIN(ROW(AO7:AO34))+1))),ROW()-ROW(A$37)+1))," ",TEXT(INDEX(AO7:AO34,SMALL(IF(ISNUMBER(AO7:AO34),IF(AO7:AO34&gt;0,IF(AR7:AR34&lt;&gt;"",ROW(AO7:AO34)-MIN(ROW(AO7:AO34))+1))),ROW()-ROW(A$37)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(AO7:AO34),IF(AO7:AO34&gt;0,IF(AR7:AR34&lt;&gt;"",ROW(AO7:AO34)-MIN(ROW(AO7:AO34))+1))),ROW()-ROW(A$37)+1))," ",";")),"")</f>
         <v>0</v>
       </c>
       <c r="AT40">
-        <f t="array" ref="AT40">IFERROR(CONCATENATE(INDEX(AW7:AW35,SMALL(IF(ISNUMBER(AT7:AT35),IF(AT7:AT35&gt;0,IF(AW7:AW35&lt;&gt;"",ROW(AT7:AT35)-MIN(ROW(AT7:AT35))+1))),ROW()-ROW(A$38)+1))," ",TEXT(INDEX(AT7:AT35,SMALL(IF(ISNUMBER(AT7:AT35),IF(AT7:AT35&gt;0,IF(AW7:AW35&lt;&gt;"",ROW(AT7:AT35)-MIN(ROW(AT7:AT35))+1))),ROW()-ROW(A$38)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(AT7:AT35),IF(AT7:AT35&gt;0,IF(AW7:AW35&lt;&gt;"",ROW(AT7:AT35)-MIN(ROW(AT7:AT35))+1))),ROW()-ROW(A$38)+1))," ",";")),"")</f>
+        <f t="array" ref="AT40">IFERROR(CONCATENATE(INDEX(AW7:AW34,SMALL(IF(ISNUMBER(AT7:AT34),IF(AT7:AT34&gt;0,IF(AW7:AW34&lt;&gt;"",ROW(AT7:AT34)-MIN(ROW(AT7:AT34))+1))),ROW()-ROW(A$37)+1))," ",TEXT(INDEX(AT7:AT34,SMALL(IF(ISNUMBER(AT7:AT34),IF(AT7:AT34&gt;0,IF(AW7:AW34&lt;&gt;"",ROW(AT7:AT34)-MIN(ROW(AT7:AT34))+1))),ROW()-ROW(A$37)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(AT7:AT34),IF(AT7:AT34&gt;0,IF(AW7:AW34&lt;&gt;"",ROW(AT7:AT34)-MIN(ROW(AT7:AT34))+1))),ROW()-ROW(A$37)+1))," ",";")),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:48">
       <c r="K41">
-        <f t="array" ref="K41">IFERROR(CONCATENATE(INDEX(N7:N35,SMALL(IF(ISNUMBER(K7:K35),IF(K7:K35&gt;0,IF(N7:N35&lt;&gt;"",ROW(K7:K35)-MIN(ROW(K7:K35))+1))),ROW()-ROW(A$38)+1)),",",TEXT(INDEX(K7:K35,SMALL(IF(ISNUMBER(K7:K35),IF(K7:K35&gt;0,IF(N7:N35&lt;&gt;"",ROW(K7:K35)-MIN(ROW(K7:K35))+1))),ROW()-ROW(A$38)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(K7:K35),IF(K7:K35&gt;0,IF(N7:N35&lt;&gt;"",ROW(K7:K35)-MIN(ROW(K7:K35))+1))),ROW()-ROW(A$38)+1)),",",";")),"")</f>
+        <f t="array" ref="K41">IFERROR(CONCATENATE(INDEX(N7:N34,SMALL(IF(ISNUMBER(K7:K34),IF(K7:K34&gt;0,IF(N7:N34&lt;&gt;"",ROW(K7:K34)-MIN(ROW(K7:K34))+1))),ROW()-ROW(A$37)+1)),",",TEXT(INDEX(K7:K34,SMALL(IF(ISNUMBER(K7:K34),IF(K7:K34&gt;0,IF(N7:N34&lt;&gt;"",ROW(K7:K34)-MIN(ROW(K7:K34))+1))),ROW()-ROW(A$37)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(K7:K34),IF(K7:K34&gt;0,IF(N7:N34&lt;&gt;"",ROW(K7:K34)-MIN(ROW(K7:K34))+1))),ROW()-ROW(A$37)+1)),",",";")),"")</f>
         <v>0</v>
       </c>
       <c r="P41">
-        <f t="array" ref="P41">IFERROR(CONCATENATE(TEXT(INDEX(P7:P35,SMALL(IF(ISNUMBER(P7:P35),IF(P7:P35&gt;0,IF(S7:S35&lt;&gt;"",ROW(P7:P35)-MIN(ROW(P7:P35))+1))),ROW()-ROW(A$38)+1)),"##0"),",",INDEX(S7:S35,SMALL(IF(ISNUMBER(P7:P35),IF(P7:P35&gt;0,IF(S7:S35&lt;&gt;"",ROW(P7:P35)-MIN(ROW(P7:P35))+1))),ROW()-ROW(A$38)+1)),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(P7:P35),IF(P7:P35&gt;0,IF(S7:S35&lt;&gt;"",ROW(P7:P35)-MIN(ROW(P7:P35))+1))),ROW()-ROW(A$38)+1)),",",";")),"")</f>
+        <f t="array" ref="P41">IFERROR(CONCATENATE(TEXT(INDEX(P7:P34,SMALL(IF(ISNUMBER(P7:P34),IF(P7:P34&gt;0,IF(S7:S34&lt;&gt;"",ROW(P7:P34)-MIN(ROW(P7:P34))+1))),ROW()-ROW(A$37)+1)),"##0"),",",INDEX(S7:S34,SMALL(IF(ISNUMBER(P7:P34),IF(P7:P34&gt;0,IF(S7:S34&lt;&gt;"",ROW(P7:P34)-MIN(ROW(P7:P34))+1))),ROW()-ROW(A$37)+1)),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(P7:P34),IF(P7:P34&gt;0,IF(S7:S34&lt;&gt;"",ROW(P7:P34)-MIN(ROW(P7:P34))+1))),ROW()-ROW(A$37)+1)),",",";")),"")</f>
         <v>0</v>
       </c>
       <c r="U41">
-        <f t="array" ref="U41">IFERROR(CONCATENATE(INDEX(X7:X35,SMALL(IF(ISNUMBER(U7:U35),IF(U7:U35&gt;0,IF(X7:X35&lt;&gt;"",ROW(U7:U35)-MIN(ROW(U7:U35))+1))),ROW()-ROW(A$38)+1))," ",TEXT(INDEX(U7:U35,SMALL(IF(ISNUMBER(U7:U35),IF(U7:U35&gt;0,IF(X7:X35&lt;&gt;"",ROW(U7:U35)-MIN(ROW(U7:U35))+1))),ROW()-ROW(A$38)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(U7:U35),IF(U7:U35&gt;0,IF(X7:X35&lt;&gt;"",ROW(U7:U35)-MIN(ROW(U7:U35))+1))),ROW()-ROW(A$38)+1))," ",";")),"")</f>
+        <f t="array" ref="U41">IFERROR(CONCATENATE(INDEX(X7:X34,SMALL(IF(ISNUMBER(U7:U34),IF(U7:U34&gt;0,IF(X7:X34&lt;&gt;"",ROW(U7:U34)-MIN(ROW(U7:U34))+1))),ROW()-ROW(A$37)+1))," ",TEXT(INDEX(U7:U34,SMALL(IF(ISNUMBER(U7:U34),IF(U7:U34&gt;0,IF(X7:X34&lt;&gt;"",ROW(U7:U34)-MIN(ROW(U7:U34))+1))),ROW()-ROW(A$37)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(U7:U34),IF(U7:U34&gt;0,IF(X7:X34&lt;&gt;"",ROW(U7:U34)-MIN(ROW(U7:U34))+1))),ROW()-ROW(A$37)+1))," ",";")),"")</f>
         <v>0</v>
       </c>
       <c r="Z41">
-        <f t="array" ref="Z41">IFERROR(CONCATENATE(TEXT(INDEX(Z7:Z35,SMALL(IF(ISNUMBER(Z7:Z35),IF(Z7:Z35&gt;0,IF(AC7:AC35&lt;&gt;"",ROW(Z7:Z35)-MIN(ROW(Z7:Z35))+1))),ROW()-ROW(A$39)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(Z7:Z35),IF(Z7:Z35&gt;0,IF(AC7:AC35&lt;&gt;"",ROW(Z7:Z35)-MIN(ROW(Z7:Z35))+1))),ROW()-ROW(A$39)+1)),",",";"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;D7:D35,SMALL(IF(ISNUMBER(Z7:Z35),IF(Z7:Z35&gt;0,IF(AC7:AC35&lt;&gt;"",ROW(Z7:Z35)-MIN(ROW(Z7:Z35))+1))),ROW()-ROW(A$39)+1)),",",";"),",",INDEX(AC7:AC35,SMALL(IF(ISNUMBER(Z7:Z35),IF(Z7:Z35&gt;0,IF(AC7:AC35&lt;&gt;"",ROW(Z7:Z35)-MIN(ROW(Z7:Z35))+1))),ROW()-ROW(A$39)+1))),"")</f>
+        <f t="array" ref="Z41">IFERROR(CONCATENATE(TEXT(INDEX(Z7:Z34,SMALL(IF(ISNUMBER(Z7:Z34),IF(Z7:Z34&gt;0,IF(AC7:AC34&lt;&gt;"",ROW(Z7:Z34)-MIN(ROW(Z7:Z34))+1))),ROW()-ROW(A$38)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(Z7:Z34),IF(Z7:Z34&gt;0,IF(AC7:AC34&lt;&gt;"",ROW(Z7:Z34)-MIN(ROW(Z7:Z34))+1))),ROW()-ROW(A$38)+1)),",",";"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;D7:D34,SMALL(IF(ISNUMBER(Z7:Z34),IF(Z7:Z34&gt;0,IF(AC7:AC34&lt;&gt;"",ROW(Z7:Z34)-MIN(ROW(Z7:Z34))+1))),ROW()-ROW(A$38)+1)),",",";"),",",INDEX(AC7:AC34,SMALL(IF(ISNUMBER(Z7:Z34),IF(Z7:Z34&gt;0,IF(AC7:AC34&lt;&gt;"",ROW(Z7:Z34)-MIN(ROW(Z7:Z34))+1))),ROW()-ROW(A$38)+1))),"")</f>
         <v>0</v>
       </c>
       <c r="AE41">
-        <f t="array" ref="AE41">IFERROR(CONCATENATE(INDEX(AH7:AH35,SMALL(IF(ISNUMBER(AE7:AE35),IF(AE7:AE35&gt;0,IF(AH7:AH35&lt;&gt;"",ROW(AE7:AE35)-MIN(ROW(AE7:AE35))+1))),ROW()-ROW(A$38)+1)),"|",TEXT(INDEX(AE7:AE35,SMALL(IF(ISNUMBER(AE7:AE35),IF(AE7:AE35&gt;0,IF(AH7:AH35&lt;&gt;"",ROW(AE7:AE35)-MIN(ROW(AE7:AE35))+1))),ROW()-ROW(A$38)+1)),"##0"),"|",SUBSTITUTE(SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(AE7:AE35),IF(AE7:AE35&gt;0,IF(AH7:AH35&lt;&gt;"",ROW(AE7:AE35)-MIN(ROW(AE7:AE35))+1))),ROW()-ROW(A$38)+1)),"|",";")," ","_")),"")</f>
+        <f t="array" ref="AE41">IFERROR(CONCATENATE(INDEX(AH7:AH34,SMALL(IF(ISNUMBER(AE7:AE34),IF(AE7:AE34&gt;0,IF(AH7:AH34&lt;&gt;"",ROW(AE7:AE34)-MIN(ROW(AE7:AE34))+1))),ROW()-ROW(A$37)+1)),"|",TEXT(INDEX(AE7:AE34,SMALL(IF(ISNUMBER(AE7:AE34),IF(AE7:AE34&gt;0,IF(AH7:AH34&lt;&gt;"",ROW(AE7:AE34)-MIN(ROW(AE7:AE34))+1))),ROW()-ROW(A$37)+1)),"##0"),"|",SUBSTITUTE(SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(AE7:AE34),IF(AE7:AE34&gt;0,IF(AH7:AH34&lt;&gt;"",ROW(AE7:AE34)-MIN(ROW(AE7:AE34))+1))),ROW()-ROW(A$37)+1)),"|",";")," ","_")),"")</f>
         <v>0</v>
       </c>
       <c r="AJ41">
-        <f t="array" ref="AJ41">IFERROR(CONCATENATE(INDEX(AM7:AM35,SMALL(IF(ISNUMBER(AJ7:AJ35),IF(AJ7:AJ35&gt;0,IF(AM7:AM35&lt;&gt;"",ROW(AJ7:AJ35)-MIN(ROW(AJ7:AJ35))+1))),ROW()-ROW(A$38)+1)),",",TEXT(INDEX(AJ7:AJ35,SMALL(IF(ISNUMBER(AJ7:AJ35),IF(AJ7:AJ35&gt;0,IF(AM7:AM35&lt;&gt;"",ROW(AJ7:AJ35)-MIN(ROW(AJ7:AJ35))+1))),ROW()-ROW(A$38)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(AJ7:AJ35),IF(AJ7:AJ35&gt;0,IF(AM7:AM35&lt;&gt;"",ROW(AJ7:AJ35)-MIN(ROW(AJ7:AJ35))+1))),ROW()-ROW(A$38)+1)),",",";")),"")</f>
+        <f t="array" ref="AJ41">IFERROR(CONCATENATE(INDEX(AM7:AM34,SMALL(IF(ISNUMBER(AJ7:AJ34),IF(AJ7:AJ34&gt;0,IF(AM7:AM34&lt;&gt;"",ROW(AJ7:AJ34)-MIN(ROW(AJ7:AJ34))+1))),ROW()-ROW(A$37)+1)),",",TEXT(INDEX(AJ7:AJ34,SMALL(IF(ISNUMBER(AJ7:AJ34),IF(AJ7:AJ34&gt;0,IF(AM7:AM34&lt;&gt;"",ROW(AJ7:AJ34)-MIN(ROW(AJ7:AJ34))+1))),ROW()-ROW(A$37)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(AJ7:AJ34),IF(AJ7:AJ34&gt;0,IF(AM7:AM34&lt;&gt;"",ROW(AJ7:AJ34)-MIN(ROW(AJ7:AJ34))+1))),ROW()-ROW(A$37)+1)),",",";")),"")</f>
         <v>0</v>
       </c>
       <c r="AO41">
-        <f t="array" ref="AO41">IFERROR(CONCATENATE(INDEX(AR7:AR35,SMALL(IF(ISNUMBER(AO7:AO35),IF(AO7:AO35&gt;0,IF(AR7:AR35&lt;&gt;"",ROW(AO7:AO35)-MIN(ROW(AO7:AO35))+1))),ROW()-ROW(A$38)+1))," ",TEXT(INDEX(AO7:AO35,SMALL(IF(ISNUMBER(AO7:AO35),IF(AO7:AO35&gt;0,IF(AR7:AR35&lt;&gt;"",ROW(AO7:AO35)-MIN(ROW(AO7:AO35))+1))),ROW()-ROW(A$38)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(AO7:AO35),IF(AO7:AO35&gt;0,IF(AR7:AR35&lt;&gt;"",ROW(AO7:AO35)-MIN(ROW(AO7:AO35))+1))),ROW()-ROW(A$38)+1))," ",";")),"")</f>
+        <f t="array" ref="AO41">IFERROR(CONCATENATE(INDEX(AR7:AR34,SMALL(IF(ISNUMBER(AO7:AO34),IF(AO7:AO34&gt;0,IF(AR7:AR34&lt;&gt;"",ROW(AO7:AO34)-MIN(ROW(AO7:AO34))+1))),ROW()-ROW(A$37)+1))," ",TEXT(INDEX(AO7:AO34,SMALL(IF(ISNUMBER(AO7:AO34),IF(AO7:AO34&gt;0,IF(AR7:AR34&lt;&gt;"",ROW(AO7:AO34)-MIN(ROW(AO7:AO34))+1))),ROW()-ROW(A$37)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(AO7:AO34),IF(AO7:AO34&gt;0,IF(AR7:AR34&lt;&gt;"",ROW(AO7:AO34)-MIN(ROW(AO7:AO34))+1))),ROW()-ROW(A$37)+1))," ",";")),"")</f>
         <v>0</v>
       </c>
       <c r="AT41">
-        <f t="array" ref="AT41">IFERROR(CONCATENATE(INDEX(AW7:AW35,SMALL(IF(ISNUMBER(AT7:AT35),IF(AT7:AT35&gt;0,IF(AW7:AW35&lt;&gt;"",ROW(AT7:AT35)-MIN(ROW(AT7:AT35))+1))),ROW()-ROW(A$38)+1))," ",TEXT(INDEX(AT7:AT35,SMALL(IF(ISNUMBER(AT7:AT35),IF(AT7:AT35&gt;0,IF(AW7:AW35&lt;&gt;"",ROW(AT7:AT35)-MIN(ROW(AT7:AT35))+1))),ROW()-ROW(A$38)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(AT7:AT35),IF(AT7:AT35&gt;0,IF(AW7:AW35&lt;&gt;"",ROW(AT7:AT35)-MIN(ROW(AT7:AT35))+1))),ROW()-ROW(A$38)+1))," ",";")),"")</f>
+        <f t="array" ref="AT41">IFERROR(CONCATENATE(INDEX(AW7:AW34,SMALL(IF(ISNUMBER(AT7:AT34),IF(AT7:AT34&gt;0,IF(AW7:AW34&lt;&gt;"",ROW(AT7:AT34)-MIN(ROW(AT7:AT34))+1))),ROW()-ROW(A$37)+1))," ",TEXT(INDEX(AT7:AT34,SMALL(IF(ISNUMBER(AT7:AT34),IF(AT7:AT34&gt;0,IF(AW7:AW34&lt;&gt;"",ROW(AT7:AT34)-MIN(ROW(AT7:AT34))+1))),ROW()-ROW(A$37)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(AT7:AT34),IF(AT7:AT34&gt;0,IF(AW7:AW34&lt;&gt;"",ROW(AT7:AT34)-MIN(ROW(AT7:AT34))+1))),ROW()-ROW(A$37)+1))," ",";")),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:48">
       <c r="K42">
-        <f t="array" ref="K42">IFERROR(CONCATENATE(INDEX(N7:N35,SMALL(IF(ISNUMBER(K7:K35),IF(K7:K35&gt;0,IF(N7:N35&lt;&gt;"",ROW(K7:K35)-MIN(ROW(K7:K35))+1))),ROW()-ROW(A$38)+1)),",",TEXT(INDEX(K7:K35,SMALL(IF(ISNUMBER(K7:K35),IF(K7:K35&gt;0,IF(N7:N35&lt;&gt;"",ROW(K7:K35)-MIN(ROW(K7:K35))+1))),ROW()-ROW(A$38)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(K7:K35),IF(K7:K35&gt;0,IF(N7:N35&lt;&gt;"",ROW(K7:K35)-MIN(ROW(K7:K35))+1))),ROW()-ROW(A$38)+1)),",",";")),"")</f>
+        <f t="array" ref="K42">IFERROR(CONCATENATE(INDEX(N7:N34,SMALL(IF(ISNUMBER(K7:K34),IF(K7:K34&gt;0,IF(N7:N34&lt;&gt;"",ROW(K7:K34)-MIN(ROW(K7:K34))+1))),ROW()-ROW(A$37)+1)),",",TEXT(INDEX(K7:K34,SMALL(IF(ISNUMBER(K7:K34),IF(K7:K34&gt;0,IF(N7:N34&lt;&gt;"",ROW(K7:K34)-MIN(ROW(K7:K34))+1))),ROW()-ROW(A$37)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(K7:K34),IF(K7:K34&gt;0,IF(N7:N34&lt;&gt;"",ROW(K7:K34)-MIN(ROW(K7:K34))+1))),ROW()-ROW(A$37)+1)),",",";")),"")</f>
         <v>0</v>
       </c>
       <c r="P42">
-        <f t="array" ref="P42">IFERROR(CONCATENATE(TEXT(INDEX(P7:P35,SMALL(IF(ISNUMBER(P7:P35),IF(P7:P35&gt;0,IF(S7:S35&lt;&gt;"",ROW(P7:P35)-MIN(ROW(P7:P35))+1))),ROW()-ROW(A$38)+1)),"##0"),",",INDEX(S7:S35,SMALL(IF(ISNUMBER(P7:P35),IF(P7:P35&gt;0,IF(S7:S35&lt;&gt;"",ROW(P7:P35)-MIN(ROW(P7:P35))+1))),ROW()-ROW(A$38)+1)),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(P7:P35),IF(P7:P35&gt;0,IF(S7:S35&lt;&gt;"",ROW(P7:P35)-MIN(ROW(P7:P35))+1))),ROW()-ROW(A$38)+1)),",",";")),"")</f>
+        <f t="array" ref="P42">IFERROR(CONCATENATE(TEXT(INDEX(P7:P34,SMALL(IF(ISNUMBER(P7:P34),IF(P7:P34&gt;0,IF(S7:S34&lt;&gt;"",ROW(P7:P34)-MIN(ROW(P7:P34))+1))),ROW()-ROW(A$37)+1)),"##0"),",",INDEX(S7:S34,SMALL(IF(ISNUMBER(P7:P34),IF(P7:P34&gt;0,IF(S7:S34&lt;&gt;"",ROW(P7:P34)-MIN(ROW(P7:P34))+1))),ROW()-ROW(A$37)+1)),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(P7:P34),IF(P7:P34&gt;0,IF(S7:S34&lt;&gt;"",ROW(P7:P34)-MIN(ROW(P7:P34))+1))),ROW()-ROW(A$37)+1)),",",";")),"")</f>
         <v>0</v>
       </c>
       <c r="U42">
-        <f t="array" ref="U42">IFERROR(CONCATENATE(INDEX(X7:X35,SMALL(IF(ISNUMBER(U7:U35),IF(U7:U35&gt;0,IF(X7:X35&lt;&gt;"",ROW(U7:U35)-MIN(ROW(U7:U35))+1))),ROW()-ROW(A$38)+1))," ",TEXT(INDEX(U7:U35,SMALL(IF(ISNUMBER(U7:U35),IF(U7:U35&gt;0,IF(X7:X35&lt;&gt;"",ROW(U7:U35)-MIN(ROW(U7:U35))+1))),ROW()-ROW(A$38)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(U7:U35),IF(U7:U35&gt;0,IF(X7:X35&lt;&gt;"",ROW(U7:U35)-MIN(ROW(U7:U35))+1))),ROW()-ROW(A$38)+1))," ",";")),"")</f>
+        <f t="array" ref="U42">IFERROR(CONCATENATE(INDEX(X7:X34,SMALL(IF(ISNUMBER(U7:U34),IF(U7:U34&gt;0,IF(X7:X34&lt;&gt;"",ROW(U7:U34)-MIN(ROW(U7:U34))+1))),ROW()-ROW(A$37)+1))," ",TEXT(INDEX(U7:U34,SMALL(IF(ISNUMBER(U7:U34),IF(U7:U34&gt;0,IF(X7:X34&lt;&gt;"",ROW(U7:U34)-MIN(ROW(U7:U34))+1))),ROW()-ROW(A$37)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(U7:U34),IF(U7:U34&gt;0,IF(X7:X34&lt;&gt;"",ROW(U7:U34)-MIN(ROW(U7:U34))+1))),ROW()-ROW(A$37)+1))," ",";")),"")</f>
         <v>0</v>
       </c>
       <c r="Z42">
-        <f t="array" ref="Z42">IFERROR(CONCATENATE(TEXT(INDEX(Z7:Z35,SMALL(IF(ISNUMBER(Z7:Z35),IF(Z7:Z35&gt;0,IF(AC7:AC35&lt;&gt;"",ROW(Z7:Z35)-MIN(ROW(Z7:Z35))+1))),ROW()-ROW(A$39)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(Z7:Z35),IF(Z7:Z35&gt;0,IF(AC7:AC35&lt;&gt;"",ROW(Z7:Z35)-MIN(ROW(Z7:Z35))+1))),ROW()-ROW(A$39)+1)),",",";"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;D7:D35,SMALL(IF(ISNUMBER(Z7:Z35),IF(Z7:Z35&gt;0,IF(AC7:AC35&lt;&gt;"",ROW(Z7:Z35)-MIN(ROW(Z7:Z35))+1))),ROW()-ROW(A$39)+1)),",",";"),",",INDEX(AC7:AC35,SMALL(IF(ISNUMBER(Z7:Z35),IF(Z7:Z35&gt;0,IF(AC7:AC35&lt;&gt;"",ROW(Z7:Z35)-MIN(ROW(Z7:Z35))+1))),ROW()-ROW(A$39)+1))),"")</f>
+        <f t="array" ref="Z42">IFERROR(CONCATENATE(TEXT(INDEX(Z7:Z34,SMALL(IF(ISNUMBER(Z7:Z34),IF(Z7:Z34&gt;0,IF(AC7:AC34&lt;&gt;"",ROW(Z7:Z34)-MIN(ROW(Z7:Z34))+1))),ROW()-ROW(A$38)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(Z7:Z34),IF(Z7:Z34&gt;0,IF(AC7:AC34&lt;&gt;"",ROW(Z7:Z34)-MIN(ROW(Z7:Z34))+1))),ROW()-ROW(A$38)+1)),",",";"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;D7:D34,SMALL(IF(ISNUMBER(Z7:Z34),IF(Z7:Z34&gt;0,IF(AC7:AC34&lt;&gt;"",ROW(Z7:Z34)-MIN(ROW(Z7:Z34))+1))),ROW()-ROW(A$38)+1)),",",";"),",",INDEX(AC7:AC34,SMALL(IF(ISNUMBER(Z7:Z34),IF(Z7:Z34&gt;0,IF(AC7:AC34&lt;&gt;"",ROW(Z7:Z34)-MIN(ROW(Z7:Z34))+1))),ROW()-ROW(A$38)+1))),"")</f>
         <v>0</v>
       </c>
       <c r="AE42">
-        <f t="array" ref="AE42">IFERROR(CONCATENATE(INDEX(AH7:AH35,SMALL(IF(ISNUMBER(AE7:AE35),IF(AE7:AE35&gt;0,IF(AH7:AH35&lt;&gt;"",ROW(AE7:AE35)-MIN(ROW(AE7:AE35))+1))),ROW()-ROW(A$38)+1)),"|",TEXT(INDEX(AE7:AE35,SMALL(IF(ISNUMBER(AE7:AE35),IF(AE7:AE35&gt;0,IF(AH7:AH35&lt;&gt;"",ROW(AE7:AE35)-MIN(ROW(AE7:AE35))+1))),ROW()-ROW(A$38)+1)),"##0"),"|",SUBSTITUTE(SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(AE7:AE35),IF(AE7:AE35&gt;0,IF(AH7:AH35&lt;&gt;"",ROW(AE7:AE35)-MIN(ROW(AE7:AE35))+1))),ROW()-ROW(A$38)+1)),"|",";")," ","_")),"")</f>
+        <f t="array" ref="AE42">IFERROR(CONCATENATE(INDEX(AH7:AH34,SMALL(IF(ISNUMBER(AE7:AE34),IF(AE7:AE34&gt;0,IF(AH7:AH34&lt;&gt;"",ROW(AE7:AE34)-MIN(ROW(AE7:AE34))+1))),ROW()-ROW(A$37)+1)),"|",TEXT(INDEX(AE7:AE34,SMALL(IF(ISNUMBER(AE7:AE34),IF(AE7:AE34&gt;0,IF(AH7:AH34&lt;&gt;"",ROW(AE7:AE34)-MIN(ROW(AE7:AE34))+1))),ROW()-ROW(A$37)+1)),"##0"),"|",SUBSTITUTE(SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(AE7:AE34),IF(AE7:AE34&gt;0,IF(AH7:AH34&lt;&gt;"",ROW(AE7:AE34)-MIN(ROW(AE7:AE34))+1))),ROW()-ROW(A$37)+1)),"|",";")," ","_")),"")</f>
         <v>0</v>
       </c>
       <c r="AJ42">
-        <f t="array" ref="AJ42">IFERROR(CONCATENATE(INDEX(AM7:AM35,SMALL(IF(ISNUMBER(AJ7:AJ35),IF(AJ7:AJ35&gt;0,IF(AM7:AM35&lt;&gt;"",ROW(AJ7:AJ35)-MIN(ROW(AJ7:AJ35))+1))),ROW()-ROW(A$38)+1)),",",TEXT(INDEX(AJ7:AJ35,SMALL(IF(ISNUMBER(AJ7:AJ35),IF(AJ7:AJ35&gt;0,IF(AM7:AM35&lt;&gt;"",ROW(AJ7:AJ35)-MIN(ROW(AJ7:AJ35))+1))),ROW()-ROW(A$38)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(AJ7:AJ35),IF(AJ7:AJ35&gt;0,IF(AM7:AM35&lt;&gt;"",ROW(AJ7:AJ35)-MIN(ROW(AJ7:AJ35))+1))),ROW()-ROW(A$38)+1)),",",";")),"")</f>
+        <f t="array" ref="AJ42">IFERROR(CONCATENATE(INDEX(AM7:AM34,SMALL(IF(ISNUMBER(AJ7:AJ34),IF(AJ7:AJ34&gt;0,IF(AM7:AM34&lt;&gt;"",ROW(AJ7:AJ34)-MIN(ROW(AJ7:AJ34))+1))),ROW()-ROW(A$37)+1)),",",TEXT(INDEX(AJ7:AJ34,SMALL(IF(ISNUMBER(AJ7:AJ34),IF(AJ7:AJ34&gt;0,IF(AM7:AM34&lt;&gt;"",ROW(AJ7:AJ34)-MIN(ROW(AJ7:AJ34))+1))),ROW()-ROW(A$37)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(AJ7:AJ34),IF(AJ7:AJ34&gt;0,IF(AM7:AM34&lt;&gt;"",ROW(AJ7:AJ34)-MIN(ROW(AJ7:AJ34))+1))),ROW()-ROW(A$37)+1)),",",";")),"")</f>
         <v>0</v>
       </c>
       <c r="AO42">
-        <f t="array" ref="AO42">IFERROR(CONCATENATE(INDEX(AR7:AR35,SMALL(IF(ISNUMBER(AO7:AO35),IF(AO7:AO35&gt;0,IF(AR7:AR35&lt;&gt;"",ROW(AO7:AO35)-MIN(ROW(AO7:AO35))+1))),ROW()-ROW(A$38)+1))," ",TEXT(INDEX(AO7:AO35,SMALL(IF(ISNUMBER(AO7:AO35),IF(AO7:AO35&gt;0,IF(AR7:AR35&lt;&gt;"",ROW(AO7:AO35)-MIN(ROW(AO7:AO35))+1))),ROW()-ROW(A$38)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(AO7:AO35),IF(AO7:AO35&gt;0,IF(AR7:AR35&lt;&gt;"",ROW(AO7:AO35)-MIN(ROW(AO7:AO35))+1))),ROW()-ROW(A$38)+1))," ",";")),"")</f>
+        <f t="array" ref="AO42">IFERROR(CONCATENATE(INDEX(AR7:AR34,SMALL(IF(ISNUMBER(AO7:AO34),IF(AO7:AO34&gt;0,IF(AR7:AR34&lt;&gt;"",ROW(AO7:AO34)-MIN(ROW(AO7:AO34))+1))),ROW()-ROW(A$37)+1))," ",TEXT(INDEX(AO7:AO34,SMALL(IF(ISNUMBER(AO7:AO34),IF(AO7:AO34&gt;0,IF(AR7:AR34&lt;&gt;"",ROW(AO7:AO34)-MIN(ROW(AO7:AO34))+1))),ROW()-ROW(A$37)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(AO7:AO34),IF(AO7:AO34&gt;0,IF(AR7:AR34&lt;&gt;"",ROW(AO7:AO34)-MIN(ROW(AO7:AO34))+1))),ROW()-ROW(A$37)+1))," ",";")),"")</f>
         <v>0</v>
       </c>
       <c r="AT42">
-        <f t="array" ref="AT42">IFERROR(CONCATENATE(INDEX(AW7:AW35,SMALL(IF(ISNUMBER(AT7:AT35),IF(AT7:AT35&gt;0,IF(AW7:AW35&lt;&gt;"",ROW(AT7:AT35)-MIN(ROW(AT7:AT35))+1))),ROW()-ROW(A$38)+1))," ",TEXT(INDEX(AT7:AT35,SMALL(IF(ISNUMBER(AT7:AT35),IF(AT7:AT35&gt;0,IF(AW7:AW35&lt;&gt;"",ROW(AT7:AT35)-MIN(ROW(AT7:AT35))+1))),ROW()-ROW(A$38)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(AT7:AT35),IF(AT7:AT35&gt;0,IF(AW7:AW35&lt;&gt;"",ROW(AT7:AT35)-MIN(ROW(AT7:AT35))+1))),ROW()-ROW(A$38)+1))," ",";")),"")</f>
+        <f t="array" ref="AT42">IFERROR(CONCATENATE(INDEX(AW7:AW34,SMALL(IF(ISNUMBER(AT7:AT34),IF(AT7:AT34&gt;0,IF(AW7:AW34&lt;&gt;"",ROW(AT7:AT34)-MIN(ROW(AT7:AT34))+1))),ROW()-ROW(A$37)+1))," ",TEXT(INDEX(AT7:AT34,SMALL(IF(ISNUMBER(AT7:AT34),IF(AT7:AT34&gt;0,IF(AW7:AW34&lt;&gt;"",ROW(AT7:AT34)-MIN(ROW(AT7:AT34))+1))),ROW()-ROW(A$37)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(AT7:AT34),IF(AT7:AT34&gt;0,IF(AW7:AW34&lt;&gt;"",ROW(AT7:AT34)-MIN(ROW(AT7:AT34))+1))),ROW()-ROW(A$37)+1))," ",";")),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:48">
       <c r="K43">
-        <f t="array" ref="K43">IFERROR(CONCATENATE(INDEX(N7:N35,SMALL(IF(ISNUMBER(K7:K35),IF(K7:K35&gt;0,IF(N7:N35&lt;&gt;"",ROW(K7:K35)-MIN(ROW(K7:K35))+1))),ROW()-ROW(A$38)+1)),",",TEXT(INDEX(K7:K35,SMALL(IF(ISNUMBER(K7:K35),IF(K7:K35&gt;0,IF(N7:N35&lt;&gt;"",ROW(K7:K35)-MIN(ROW(K7:K35))+1))),ROW()-ROW(A$38)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(K7:K35),IF(K7:K35&gt;0,IF(N7:N35&lt;&gt;"",ROW(K7:K35)-MIN(ROW(K7:K35))+1))),ROW()-ROW(A$38)+1)),",",";")),"")</f>
+        <f t="array" ref="K43">IFERROR(CONCATENATE(INDEX(N7:N34,SMALL(IF(ISNUMBER(K7:K34),IF(K7:K34&gt;0,IF(N7:N34&lt;&gt;"",ROW(K7:K34)-MIN(ROW(K7:K34))+1))),ROW()-ROW(A$37)+1)),",",TEXT(INDEX(K7:K34,SMALL(IF(ISNUMBER(K7:K34),IF(K7:K34&gt;0,IF(N7:N34&lt;&gt;"",ROW(K7:K34)-MIN(ROW(K7:K34))+1))),ROW()-ROW(A$37)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(K7:K34),IF(K7:K34&gt;0,IF(N7:N34&lt;&gt;"",ROW(K7:K34)-MIN(ROW(K7:K34))+1))),ROW()-ROW(A$37)+1)),",",";")),"")</f>
         <v>0</v>
       </c>
       <c r="P43">
-        <f t="array" ref="P43">IFERROR(CONCATENATE(TEXT(INDEX(P7:P35,SMALL(IF(ISNUMBER(P7:P35),IF(P7:P35&gt;0,IF(S7:S35&lt;&gt;"",ROW(P7:P35)-MIN(ROW(P7:P35))+1))),ROW()-ROW(A$38)+1)),"##0"),",",INDEX(S7:S35,SMALL(IF(ISNUMBER(P7:P35),IF(P7:P35&gt;0,IF(S7:S35&lt;&gt;"",ROW(P7:P35)-MIN(ROW(P7:P35))+1))),ROW()-ROW(A$38)+1)),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(P7:P35),IF(P7:P35&gt;0,IF(S7:S35&lt;&gt;"",ROW(P7:P35)-MIN(ROW(P7:P35))+1))),ROW()-ROW(A$38)+1)),",",";")),"")</f>
+        <f t="array" ref="P43">IFERROR(CONCATENATE(TEXT(INDEX(P7:P34,SMALL(IF(ISNUMBER(P7:P34),IF(P7:P34&gt;0,IF(S7:S34&lt;&gt;"",ROW(P7:P34)-MIN(ROW(P7:P34))+1))),ROW()-ROW(A$37)+1)),"##0"),",",INDEX(S7:S34,SMALL(IF(ISNUMBER(P7:P34),IF(P7:P34&gt;0,IF(S7:S34&lt;&gt;"",ROW(P7:P34)-MIN(ROW(P7:P34))+1))),ROW()-ROW(A$37)+1)),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(P7:P34),IF(P7:P34&gt;0,IF(S7:S34&lt;&gt;"",ROW(P7:P34)-MIN(ROW(P7:P34))+1))),ROW()-ROW(A$37)+1)),",",";")),"")</f>
         <v>0</v>
       </c>
       <c r="U43">
-        <f t="array" ref="U43">IFERROR(CONCATENATE(INDEX(X7:X35,SMALL(IF(ISNUMBER(U7:U35),IF(U7:U35&gt;0,IF(X7:X35&lt;&gt;"",ROW(U7:U35)-MIN(ROW(U7:U35))+1))),ROW()-ROW(A$38)+1))," ",TEXT(INDEX(U7:U35,SMALL(IF(ISNUMBER(U7:U35),IF(U7:U35&gt;0,IF(X7:X35&lt;&gt;"",ROW(U7:U35)-MIN(ROW(U7:U35))+1))),ROW()-ROW(A$38)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(U7:U35),IF(U7:U35&gt;0,IF(X7:X35&lt;&gt;"",ROW(U7:U35)-MIN(ROW(U7:U35))+1))),ROW()-ROW(A$38)+1))," ",";")),"")</f>
+        <f t="array" ref="U43">IFERROR(CONCATENATE(INDEX(X7:X34,SMALL(IF(ISNUMBER(U7:U34),IF(U7:U34&gt;0,IF(X7:X34&lt;&gt;"",ROW(U7:U34)-MIN(ROW(U7:U34))+1))),ROW()-ROW(A$37)+1))," ",TEXT(INDEX(U7:U34,SMALL(IF(ISNUMBER(U7:U34),IF(U7:U34&gt;0,IF(X7:X34&lt;&gt;"",ROW(U7:U34)-MIN(ROW(U7:U34))+1))),ROW()-ROW(A$37)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(U7:U34),IF(U7:U34&gt;0,IF(X7:X34&lt;&gt;"",ROW(U7:U34)-MIN(ROW(U7:U34))+1))),ROW()-ROW(A$37)+1))," ",";")),"")</f>
         <v>0</v>
       </c>
       <c r="Z43">
-        <f t="array" ref="Z43">IFERROR(CONCATENATE(TEXT(INDEX(Z7:Z35,SMALL(IF(ISNUMBER(Z7:Z35),IF(Z7:Z35&gt;0,IF(AC7:AC35&lt;&gt;"",ROW(Z7:Z35)-MIN(ROW(Z7:Z35))+1))),ROW()-ROW(A$39)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(Z7:Z35),IF(Z7:Z35&gt;0,IF(AC7:AC35&lt;&gt;"",ROW(Z7:Z35)-MIN(ROW(Z7:Z35))+1))),ROW()-ROW(A$39)+1)),",",";"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;D7:D35,SMALL(IF(ISNUMBER(Z7:Z35),IF(Z7:Z35&gt;0,IF(AC7:AC35&lt;&gt;"",ROW(Z7:Z35)-MIN(ROW(Z7:Z35))+1))),ROW()-ROW(A$39)+1)),",",";"),",",INDEX(AC7:AC35,SMALL(IF(ISNUMBER(Z7:Z35),IF(Z7:Z35&gt;0,IF(AC7:AC35&lt;&gt;"",ROW(Z7:Z35)-MIN(ROW(Z7:Z35))+1))),ROW()-ROW(A$39)+1))),"")</f>
+        <f t="array" ref="Z43">IFERROR(CONCATENATE(TEXT(INDEX(Z7:Z34,SMALL(IF(ISNUMBER(Z7:Z34),IF(Z7:Z34&gt;0,IF(AC7:AC34&lt;&gt;"",ROW(Z7:Z34)-MIN(ROW(Z7:Z34))+1))),ROW()-ROW(A$38)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(Z7:Z34),IF(Z7:Z34&gt;0,IF(AC7:AC34&lt;&gt;"",ROW(Z7:Z34)-MIN(ROW(Z7:Z34))+1))),ROW()-ROW(A$38)+1)),",",";"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;D7:D34,SMALL(IF(ISNUMBER(Z7:Z34),IF(Z7:Z34&gt;0,IF(AC7:AC34&lt;&gt;"",ROW(Z7:Z34)-MIN(ROW(Z7:Z34))+1))),ROW()-ROW(A$38)+1)),",",";"),",",INDEX(AC7:AC34,SMALL(IF(ISNUMBER(Z7:Z34),IF(Z7:Z34&gt;0,IF(AC7:AC34&lt;&gt;"",ROW(Z7:Z34)-MIN(ROW(Z7:Z34))+1))),ROW()-ROW(A$38)+1))),"")</f>
         <v>0</v>
       </c>
       <c r="AE43">
-        <f t="array" ref="AE43">IFERROR(CONCATENATE(INDEX(AH7:AH35,SMALL(IF(ISNUMBER(AE7:AE35),IF(AE7:AE35&gt;0,IF(AH7:AH35&lt;&gt;"",ROW(AE7:AE35)-MIN(ROW(AE7:AE35))+1))),ROW()-ROW(A$38)+1)),"|",TEXT(INDEX(AE7:AE35,SMALL(IF(ISNUMBER(AE7:AE35),IF(AE7:AE35&gt;0,IF(AH7:AH35&lt;&gt;"",ROW(AE7:AE35)-MIN(ROW(AE7:AE35))+1))),ROW()-ROW(A$38)+1)),"##0"),"|",SUBSTITUTE(SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(AE7:AE35),IF(AE7:AE35&gt;0,IF(AH7:AH35&lt;&gt;"",ROW(AE7:AE35)-MIN(ROW(AE7:AE35))+1))),ROW()-ROW(A$38)+1)),"|",";")," ","_")),"")</f>
+        <f t="array" ref="AE43">IFERROR(CONCATENATE(INDEX(AH7:AH34,SMALL(IF(ISNUMBER(AE7:AE34),IF(AE7:AE34&gt;0,IF(AH7:AH34&lt;&gt;"",ROW(AE7:AE34)-MIN(ROW(AE7:AE34))+1))),ROW()-ROW(A$37)+1)),"|",TEXT(INDEX(AE7:AE34,SMALL(IF(ISNUMBER(AE7:AE34),IF(AE7:AE34&gt;0,IF(AH7:AH34&lt;&gt;"",ROW(AE7:AE34)-MIN(ROW(AE7:AE34))+1))),ROW()-ROW(A$37)+1)),"##0"),"|",SUBSTITUTE(SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(AE7:AE34),IF(AE7:AE34&gt;0,IF(AH7:AH34&lt;&gt;"",ROW(AE7:AE34)-MIN(ROW(AE7:AE34))+1))),ROW()-ROW(A$37)+1)),"|",";")," ","_")),"")</f>
         <v>0</v>
       </c>
       <c r="AJ43">
-        <f t="array" ref="AJ43">IFERROR(CONCATENATE(INDEX(AM7:AM35,SMALL(IF(ISNUMBER(AJ7:AJ35),IF(AJ7:AJ35&gt;0,IF(AM7:AM35&lt;&gt;"",ROW(AJ7:AJ35)-MIN(ROW(AJ7:AJ35))+1))),ROW()-ROW(A$38)+1)),",",TEXT(INDEX(AJ7:AJ35,SMALL(IF(ISNUMBER(AJ7:AJ35),IF(AJ7:AJ35&gt;0,IF(AM7:AM35&lt;&gt;"",ROW(AJ7:AJ35)-MIN(ROW(AJ7:AJ35))+1))),ROW()-ROW(A$38)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(AJ7:AJ35),IF(AJ7:AJ35&gt;0,IF(AM7:AM35&lt;&gt;"",ROW(AJ7:AJ35)-MIN(ROW(AJ7:AJ35))+1))),ROW()-ROW(A$38)+1)),",",";")),"")</f>
+        <f t="array" ref="AJ43">IFERROR(CONCATENATE(INDEX(AM7:AM34,SMALL(IF(ISNUMBER(AJ7:AJ34),IF(AJ7:AJ34&gt;0,IF(AM7:AM34&lt;&gt;"",ROW(AJ7:AJ34)-MIN(ROW(AJ7:AJ34))+1))),ROW()-ROW(A$37)+1)),",",TEXT(INDEX(AJ7:AJ34,SMALL(IF(ISNUMBER(AJ7:AJ34),IF(AJ7:AJ34&gt;0,IF(AM7:AM34&lt;&gt;"",ROW(AJ7:AJ34)-MIN(ROW(AJ7:AJ34))+1))),ROW()-ROW(A$37)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(AJ7:AJ34),IF(AJ7:AJ34&gt;0,IF(AM7:AM34&lt;&gt;"",ROW(AJ7:AJ34)-MIN(ROW(AJ7:AJ34))+1))),ROW()-ROW(A$37)+1)),",",";")),"")</f>
         <v>0</v>
       </c>
       <c r="AO43">
-        <f t="array" ref="AO43">IFERROR(CONCATENATE(INDEX(AR7:AR35,SMALL(IF(ISNUMBER(AO7:AO35),IF(AO7:AO35&gt;0,IF(AR7:AR35&lt;&gt;"",ROW(AO7:AO35)-MIN(ROW(AO7:AO35))+1))),ROW()-ROW(A$38)+1))," ",TEXT(INDEX(AO7:AO35,SMALL(IF(ISNUMBER(AO7:AO35),IF(AO7:AO35&gt;0,IF(AR7:AR35&lt;&gt;"",ROW(AO7:AO35)-MIN(ROW(AO7:AO35))+1))),ROW()-ROW(A$38)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(AO7:AO35),IF(AO7:AO35&gt;0,IF(AR7:AR35&lt;&gt;"",ROW(AO7:AO35)-MIN(ROW(AO7:AO35))+1))),ROW()-ROW(A$38)+1))," ",";")),"")</f>
+        <f t="array" ref="AO43">IFERROR(CONCATENATE(INDEX(AR7:AR34,SMALL(IF(ISNUMBER(AO7:AO34),IF(AO7:AO34&gt;0,IF(AR7:AR34&lt;&gt;"",ROW(AO7:AO34)-MIN(ROW(AO7:AO34))+1))),ROW()-ROW(A$37)+1))," ",TEXT(INDEX(AO7:AO34,SMALL(IF(ISNUMBER(AO7:AO34),IF(AO7:AO34&gt;0,IF(AR7:AR34&lt;&gt;"",ROW(AO7:AO34)-MIN(ROW(AO7:AO34))+1))),ROW()-ROW(A$37)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(AO7:AO34),IF(AO7:AO34&gt;0,IF(AR7:AR34&lt;&gt;"",ROW(AO7:AO34)-MIN(ROW(AO7:AO34))+1))),ROW()-ROW(A$37)+1))," ",";")),"")</f>
         <v>0</v>
       </c>
       <c r="AT43">
-        <f t="array" ref="AT43">IFERROR(CONCATENATE(INDEX(AW7:AW35,SMALL(IF(ISNUMBER(AT7:AT35),IF(AT7:AT35&gt;0,IF(AW7:AW35&lt;&gt;"",ROW(AT7:AT35)-MIN(ROW(AT7:AT35))+1))),ROW()-ROW(A$38)+1))," ",TEXT(INDEX(AT7:AT35,SMALL(IF(ISNUMBER(AT7:AT35),IF(AT7:AT35&gt;0,IF(AW7:AW35&lt;&gt;"",ROW(AT7:AT35)-MIN(ROW(AT7:AT35))+1))),ROW()-ROW(A$38)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(AT7:AT35),IF(AT7:AT35&gt;0,IF(AW7:AW35&lt;&gt;"",ROW(AT7:AT35)-MIN(ROW(AT7:AT35))+1))),ROW()-ROW(A$38)+1))," ",";")),"")</f>
+        <f t="array" ref="AT43">IFERROR(CONCATENATE(INDEX(AW7:AW34,SMALL(IF(ISNUMBER(AT7:AT34),IF(AT7:AT34&gt;0,IF(AW7:AW34&lt;&gt;"",ROW(AT7:AT34)-MIN(ROW(AT7:AT34))+1))),ROW()-ROW(A$37)+1))," ",TEXT(INDEX(AT7:AT34,SMALL(IF(ISNUMBER(AT7:AT34),IF(AT7:AT34&gt;0,IF(AW7:AW34&lt;&gt;"",ROW(AT7:AT34)-MIN(ROW(AT7:AT34))+1))),ROW()-ROW(A$37)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(AT7:AT34),IF(AT7:AT34&gt;0,IF(AW7:AW34&lt;&gt;"",ROW(AT7:AT34)-MIN(ROW(AT7:AT34))+1))),ROW()-ROW(A$37)+1))," ",";")),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:48">
       <c r="K44">
-        <f t="array" ref="K44">IFERROR(CONCATENATE(INDEX(N7:N35,SMALL(IF(ISNUMBER(K7:K35),IF(K7:K35&gt;0,IF(N7:N35&lt;&gt;"",ROW(K7:K35)-MIN(ROW(K7:K35))+1))),ROW()-ROW(A$38)+1)),",",TEXT(INDEX(K7:K35,SMALL(IF(ISNUMBER(K7:K35),IF(K7:K35&gt;0,IF(N7:N35&lt;&gt;"",ROW(K7:K35)-MIN(ROW(K7:K35))+1))),ROW()-ROW(A$38)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(K7:K35),IF(K7:K35&gt;0,IF(N7:N35&lt;&gt;"",ROW(K7:K35)-MIN(ROW(K7:K35))+1))),ROW()-ROW(A$38)+1)),",",";")),"")</f>
+        <f t="array" ref="K44">IFERROR(CONCATENATE(INDEX(N7:N34,SMALL(IF(ISNUMBER(K7:K34),IF(K7:K34&gt;0,IF(N7:N34&lt;&gt;"",ROW(K7:K34)-MIN(ROW(K7:K34))+1))),ROW()-ROW(A$37)+1)),",",TEXT(INDEX(K7:K34,SMALL(IF(ISNUMBER(K7:K34),IF(K7:K34&gt;0,IF(N7:N34&lt;&gt;"",ROW(K7:K34)-MIN(ROW(K7:K34))+1))),ROW()-ROW(A$37)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(K7:K34),IF(K7:K34&gt;0,IF(N7:N34&lt;&gt;"",ROW(K7:K34)-MIN(ROW(K7:K34))+1))),ROW()-ROW(A$37)+1)),",",";")),"")</f>
         <v>0</v>
       </c>
       <c r="P44">
-        <f t="array" ref="P44">IFERROR(CONCATENATE(TEXT(INDEX(P7:P35,SMALL(IF(ISNUMBER(P7:P35),IF(P7:P35&gt;0,IF(S7:S35&lt;&gt;"",ROW(P7:P35)-MIN(ROW(P7:P35))+1))),ROW()-ROW(A$38)+1)),"##0"),",",INDEX(S7:S35,SMALL(IF(ISNUMBER(P7:P35),IF(P7:P35&gt;0,IF(S7:S35&lt;&gt;"",ROW(P7:P35)-MIN(ROW(P7:P35))+1))),ROW()-ROW(A$38)+1)),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(P7:P35),IF(P7:P35&gt;0,IF(S7:S35&lt;&gt;"",ROW(P7:P35)-MIN(ROW(P7:P35))+1))),ROW()-ROW(A$38)+1)),",",";")),"")</f>
+        <f t="array" ref="P44">IFERROR(CONCATENATE(TEXT(INDEX(P7:P34,SMALL(IF(ISNUMBER(P7:P34),IF(P7:P34&gt;0,IF(S7:S34&lt;&gt;"",ROW(P7:P34)-MIN(ROW(P7:P34))+1))),ROW()-ROW(A$37)+1)),"##0"),",",INDEX(S7:S34,SMALL(IF(ISNUMBER(P7:P34),IF(P7:P34&gt;0,IF(S7:S34&lt;&gt;"",ROW(P7:P34)-MIN(ROW(P7:P34))+1))),ROW()-ROW(A$37)+1)),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(P7:P34),IF(P7:P34&gt;0,IF(S7:S34&lt;&gt;"",ROW(P7:P34)-MIN(ROW(P7:P34))+1))),ROW()-ROW(A$37)+1)),",",";")),"")</f>
         <v>0</v>
       </c>
       <c r="U44">
-        <f t="array" ref="U44">IFERROR(CONCATENATE(INDEX(X7:X35,SMALL(IF(ISNUMBER(U7:U35),IF(U7:U35&gt;0,IF(X7:X35&lt;&gt;"",ROW(U7:U35)-MIN(ROW(U7:U35))+1))),ROW()-ROW(A$38)+1))," ",TEXT(INDEX(U7:U35,SMALL(IF(ISNUMBER(U7:U35),IF(U7:U35&gt;0,IF(X7:X35&lt;&gt;"",ROW(U7:U35)-MIN(ROW(U7:U35))+1))),ROW()-ROW(A$38)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(U7:U35),IF(U7:U35&gt;0,IF(X7:X35&lt;&gt;"",ROW(U7:U35)-MIN(ROW(U7:U35))+1))),ROW()-ROW(A$38)+1))," ",";")),"")</f>
+        <f t="array" ref="U44">IFERROR(CONCATENATE(INDEX(X7:X34,SMALL(IF(ISNUMBER(U7:U34),IF(U7:U34&gt;0,IF(X7:X34&lt;&gt;"",ROW(U7:U34)-MIN(ROW(U7:U34))+1))),ROW()-ROW(A$37)+1))," ",TEXT(INDEX(U7:U34,SMALL(IF(ISNUMBER(U7:U34),IF(U7:U34&gt;0,IF(X7:X34&lt;&gt;"",ROW(U7:U34)-MIN(ROW(U7:U34))+1))),ROW()-ROW(A$37)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(U7:U34),IF(U7:U34&gt;0,IF(X7:X34&lt;&gt;"",ROW(U7:U34)-MIN(ROW(U7:U34))+1))),ROW()-ROW(A$37)+1))," ",";")),"")</f>
         <v>0</v>
       </c>
       <c r="Z44">
-        <f t="array" ref="Z44">IFERROR(CONCATENATE(TEXT(INDEX(Z7:Z35,SMALL(IF(ISNUMBER(Z7:Z35),IF(Z7:Z35&gt;0,IF(AC7:AC35&lt;&gt;"",ROW(Z7:Z35)-MIN(ROW(Z7:Z35))+1))),ROW()-ROW(A$39)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(Z7:Z35),IF(Z7:Z35&gt;0,IF(AC7:AC35&lt;&gt;"",ROW(Z7:Z35)-MIN(ROW(Z7:Z35))+1))),ROW()-ROW(A$39)+1)),",",";"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;D7:D35,SMALL(IF(ISNUMBER(Z7:Z35),IF(Z7:Z35&gt;0,IF(AC7:AC35&lt;&gt;"",ROW(Z7:Z35)-MIN(ROW(Z7:Z35))+1))),ROW()-ROW(A$39)+1)),",",";"),",",INDEX(AC7:AC35,SMALL(IF(ISNUMBER(Z7:Z35),IF(Z7:Z35&gt;0,IF(AC7:AC35&lt;&gt;"",ROW(Z7:Z35)-MIN(ROW(Z7:Z35))+1))),ROW()-ROW(A$39)+1))),"")</f>
+        <f t="array" ref="Z44">IFERROR(CONCATENATE(TEXT(INDEX(Z7:Z34,SMALL(IF(ISNUMBER(Z7:Z34),IF(Z7:Z34&gt;0,IF(AC7:AC34&lt;&gt;"",ROW(Z7:Z34)-MIN(ROW(Z7:Z34))+1))),ROW()-ROW(A$38)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(Z7:Z34),IF(Z7:Z34&gt;0,IF(AC7:AC34&lt;&gt;"",ROW(Z7:Z34)-MIN(ROW(Z7:Z34))+1))),ROW()-ROW(A$38)+1)),",",";"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;D7:D34,SMALL(IF(ISNUMBER(Z7:Z34),IF(Z7:Z34&gt;0,IF(AC7:AC34&lt;&gt;"",ROW(Z7:Z34)-MIN(ROW(Z7:Z34))+1))),ROW()-ROW(A$38)+1)),",",";"),",",INDEX(AC7:AC34,SMALL(IF(ISNUMBER(Z7:Z34),IF(Z7:Z34&gt;0,IF(AC7:AC34&lt;&gt;"",ROW(Z7:Z34)-MIN(ROW(Z7:Z34))+1))),ROW()-ROW(A$38)+1))),"")</f>
         <v>0</v>
       </c>
       <c r="AE44">
-        <f t="array" ref="AE44">IFERROR(CONCATENATE(INDEX(AH7:AH35,SMALL(IF(ISNUMBER(AE7:AE35),IF(AE7:AE35&gt;0,IF(AH7:AH35&lt;&gt;"",ROW(AE7:AE35)-MIN(ROW(AE7:AE35))+1))),ROW()-ROW(A$38)+1)),"|",TEXT(INDEX(AE7:AE35,SMALL(IF(ISNUMBER(AE7:AE35),IF(AE7:AE35&gt;0,IF(AH7:AH35&lt;&gt;"",ROW(AE7:AE35)-MIN(ROW(AE7:AE35))+1))),ROW()-ROW(A$38)+1)),"##0"),"|",SUBSTITUTE(SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(AE7:AE35),IF(AE7:AE35&gt;0,IF(AH7:AH35&lt;&gt;"",ROW(AE7:AE35)-MIN(ROW(AE7:AE35))+1))),ROW()-ROW(A$38)+1)),"|",";")," ","_")),"")</f>
+        <f t="array" ref="AE44">IFERROR(CONCATENATE(INDEX(AH7:AH34,SMALL(IF(ISNUMBER(AE7:AE34),IF(AE7:AE34&gt;0,IF(AH7:AH34&lt;&gt;"",ROW(AE7:AE34)-MIN(ROW(AE7:AE34))+1))),ROW()-ROW(A$37)+1)),"|",TEXT(INDEX(AE7:AE34,SMALL(IF(ISNUMBER(AE7:AE34),IF(AE7:AE34&gt;0,IF(AH7:AH34&lt;&gt;"",ROW(AE7:AE34)-MIN(ROW(AE7:AE34))+1))),ROW()-ROW(A$37)+1)),"##0"),"|",SUBSTITUTE(SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(AE7:AE34),IF(AE7:AE34&gt;0,IF(AH7:AH34&lt;&gt;"",ROW(AE7:AE34)-MIN(ROW(AE7:AE34))+1))),ROW()-ROW(A$37)+1)),"|",";")," ","_")),"")</f>
         <v>0</v>
       </c>
       <c r="AJ44">
-        <f t="array" ref="AJ44">IFERROR(CONCATENATE(INDEX(AM7:AM35,SMALL(IF(ISNUMBER(AJ7:AJ35),IF(AJ7:AJ35&gt;0,IF(AM7:AM35&lt;&gt;"",ROW(AJ7:AJ35)-MIN(ROW(AJ7:AJ35))+1))),ROW()-ROW(A$38)+1)),",",TEXT(INDEX(AJ7:AJ35,SMALL(IF(ISNUMBER(AJ7:AJ35),IF(AJ7:AJ35&gt;0,IF(AM7:AM35&lt;&gt;"",ROW(AJ7:AJ35)-MIN(ROW(AJ7:AJ35))+1))),ROW()-ROW(A$38)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(AJ7:AJ35),IF(AJ7:AJ35&gt;0,IF(AM7:AM35&lt;&gt;"",ROW(AJ7:AJ35)-MIN(ROW(AJ7:AJ35))+1))),ROW()-ROW(A$38)+1)),",",";")),"")</f>
+        <f t="array" ref="AJ44">IFERROR(CONCATENATE(INDEX(AM7:AM34,SMALL(IF(ISNUMBER(AJ7:AJ34),IF(AJ7:AJ34&gt;0,IF(AM7:AM34&lt;&gt;"",ROW(AJ7:AJ34)-MIN(ROW(AJ7:AJ34))+1))),ROW()-ROW(A$37)+1)),",",TEXT(INDEX(AJ7:AJ34,SMALL(IF(ISNUMBER(AJ7:AJ34),IF(AJ7:AJ34&gt;0,IF(AM7:AM34&lt;&gt;"",ROW(AJ7:AJ34)-MIN(ROW(AJ7:AJ34))+1))),ROW()-ROW(A$37)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(AJ7:AJ34),IF(AJ7:AJ34&gt;0,IF(AM7:AM34&lt;&gt;"",ROW(AJ7:AJ34)-MIN(ROW(AJ7:AJ34))+1))),ROW()-ROW(A$37)+1)),",",";")),"")</f>
         <v>0</v>
       </c>
       <c r="AO44">
-        <f t="array" ref="AO44">IFERROR(CONCATENATE(INDEX(AR7:AR35,SMALL(IF(ISNUMBER(AO7:AO35),IF(AO7:AO35&gt;0,IF(AR7:AR35&lt;&gt;"",ROW(AO7:AO35)-MIN(ROW(AO7:AO35))+1))),ROW()-ROW(A$38)+1))," ",TEXT(INDEX(AO7:AO35,SMALL(IF(ISNUMBER(AO7:AO35),IF(AO7:AO35&gt;0,IF(AR7:AR35&lt;&gt;"",ROW(AO7:AO35)-MIN(ROW(AO7:AO35))+1))),ROW()-ROW(A$38)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(AO7:AO35),IF(AO7:AO35&gt;0,IF(AR7:AR35&lt;&gt;"",ROW(AO7:AO35)-MIN(ROW(AO7:AO35))+1))),ROW()-ROW(A$38)+1))," ",";")),"")</f>
+        <f t="array" ref="AO44">IFERROR(CONCATENATE(INDEX(AR7:AR34,SMALL(IF(ISNUMBER(AO7:AO34),IF(AO7:AO34&gt;0,IF(AR7:AR34&lt;&gt;"",ROW(AO7:AO34)-MIN(ROW(AO7:AO34))+1))),ROW()-ROW(A$37)+1))," ",TEXT(INDEX(AO7:AO34,SMALL(IF(ISNUMBER(AO7:AO34),IF(AO7:AO34&gt;0,IF(AR7:AR34&lt;&gt;"",ROW(AO7:AO34)-MIN(ROW(AO7:AO34))+1))),ROW()-ROW(A$37)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(AO7:AO34),IF(AO7:AO34&gt;0,IF(AR7:AR34&lt;&gt;"",ROW(AO7:AO34)-MIN(ROW(AO7:AO34))+1))),ROW()-ROW(A$37)+1))," ",";")),"")</f>
         <v>0</v>
       </c>
       <c r="AT44">
-        <f t="array" ref="AT44">IFERROR(CONCATENATE(INDEX(AW7:AW35,SMALL(IF(ISNUMBER(AT7:AT35),IF(AT7:AT35&gt;0,IF(AW7:AW35&lt;&gt;"",ROW(AT7:AT35)-MIN(ROW(AT7:AT35))+1))),ROW()-ROW(A$38)+1))," ",TEXT(INDEX(AT7:AT35,SMALL(IF(ISNUMBER(AT7:AT35),IF(AT7:AT35&gt;0,IF(AW7:AW35&lt;&gt;"",ROW(AT7:AT35)-MIN(ROW(AT7:AT35))+1))),ROW()-ROW(A$38)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(AT7:AT35),IF(AT7:AT35&gt;0,IF(AW7:AW35&lt;&gt;"",ROW(AT7:AT35)-MIN(ROW(AT7:AT35))+1))),ROW()-ROW(A$38)+1))," ",";")),"")</f>
+        <f t="array" ref="AT44">IFERROR(CONCATENATE(INDEX(AW7:AW34,SMALL(IF(ISNUMBER(AT7:AT34),IF(AT7:AT34&gt;0,IF(AW7:AW34&lt;&gt;"",ROW(AT7:AT34)-MIN(ROW(AT7:AT34))+1))),ROW()-ROW(A$37)+1))," ",TEXT(INDEX(AT7:AT34,SMALL(IF(ISNUMBER(AT7:AT34),IF(AT7:AT34&gt;0,IF(AW7:AW34&lt;&gt;"",ROW(AT7:AT34)-MIN(ROW(AT7:AT34))+1))),ROW()-ROW(A$37)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(AT7:AT34),IF(AT7:AT34&gt;0,IF(AW7:AW34&lt;&gt;"",ROW(AT7:AT34)-MIN(ROW(AT7:AT34))+1))),ROW()-ROW(A$37)+1))," ",";")),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:48">
       <c r="K45">
-        <f t="array" ref="K45">IFERROR(CONCATENATE(INDEX(N7:N35,SMALL(IF(ISNUMBER(K7:K35),IF(K7:K35&gt;0,IF(N7:N35&lt;&gt;"",ROW(K7:K35)-MIN(ROW(K7:K35))+1))),ROW()-ROW(A$38)+1)),",",TEXT(INDEX(K7:K35,SMALL(IF(ISNUMBER(K7:K35),IF(K7:K35&gt;0,IF(N7:N35&lt;&gt;"",ROW(K7:K35)-MIN(ROW(K7:K35))+1))),ROW()-ROW(A$38)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(K7:K35),IF(K7:K35&gt;0,IF(N7:N35&lt;&gt;"",ROW(K7:K35)-MIN(ROW(K7:K35))+1))),ROW()-ROW(A$38)+1)),",",";")),"")</f>
+        <f t="array" ref="K45">IFERROR(CONCATENATE(INDEX(N7:N34,SMALL(IF(ISNUMBER(K7:K34),IF(K7:K34&gt;0,IF(N7:N34&lt;&gt;"",ROW(K7:K34)-MIN(ROW(K7:K34))+1))),ROW()-ROW(A$37)+1)),",",TEXT(INDEX(K7:K34,SMALL(IF(ISNUMBER(K7:K34),IF(K7:K34&gt;0,IF(N7:N34&lt;&gt;"",ROW(K7:K34)-MIN(ROW(K7:K34))+1))),ROW()-ROW(A$37)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(K7:K34),IF(K7:K34&gt;0,IF(N7:N34&lt;&gt;"",ROW(K7:K34)-MIN(ROW(K7:K34))+1))),ROW()-ROW(A$37)+1)),",",";")),"")</f>
         <v>0</v>
       </c>
       <c r="P45">
-        <f t="array" ref="P45">IFERROR(CONCATENATE(TEXT(INDEX(P7:P35,SMALL(IF(ISNUMBER(P7:P35),IF(P7:P35&gt;0,IF(S7:S35&lt;&gt;"",ROW(P7:P35)-MIN(ROW(P7:P35))+1))),ROW()-ROW(A$38)+1)),"##0"),",",INDEX(S7:S35,SMALL(IF(ISNUMBER(P7:P35),IF(P7:P35&gt;0,IF(S7:S35&lt;&gt;"",ROW(P7:P35)-MIN(ROW(P7:P35))+1))),ROW()-ROW(A$38)+1)),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(P7:P35),IF(P7:P35&gt;0,IF(S7:S35&lt;&gt;"",ROW(P7:P35)-MIN(ROW(P7:P35))+1))),ROW()-ROW(A$38)+1)),",",";")),"")</f>
+        <f t="array" ref="P45">IFERROR(CONCATENATE(TEXT(INDEX(P7:P34,SMALL(IF(ISNUMBER(P7:P34),IF(P7:P34&gt;0,IF(S7:S34&lt;&gt;"",ROW(P7:P34)-MIN(ROW(P7:P34))+1))),ROW()-ROW(A$37)+1)),"##0"),",",INDEX(S7:S34,SMALL(IF(ISNUMBER(P7:P34),IF(P7:P34&gt;0,IF(S7:S34&lt;&gt;"",ROW(P7:P34)-MIN(ROW(P7:P34))+1))),ROW()-ROW(A$37)+1)),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(P7:P34),IF(P7:P34&gt;0,IF(S7:S34&lt;&gt;"",ROW(P7:P34)-MIN(ROW(P7:P34))+1))),ROW()-ROW(A$37)+1)),",",";")),"")</f>
         <v>0</v>
       </c>
       <c r="U45">
-        <f t="array" ref="U45">IFERROR(CONCATENATE(INDEX(X7:X35,SMALL(IF(ISNUMBER(U7:U35),IF(U7:U35&gt;0,IF(X7:X35&lt;&gt;"",ROW(U7:U35)-MIN(ROW(U7:U35))+1))),ROW()-ROW(A$38)+1))," ",TEXT(INDEX(U7:U35,SMALL(IF(ISNUMBER(U7:U35),IF(U7:U35&gt;0,IF(X7:X35&lt;&gt;"",ROW(U7:U35)-MIN(ROW(U7:U35))+1))),ROW()-ROW(A$38)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(U7:U35),IF(U7:U35&gt;0,IF(X7:X35&lt;&gt;"",ROW(U7:U35)-MIN(ROW(U7:U35))+1))),ROW()-ROW(A$38)+1))," ",";")),"")</f>
+        <f t="array" ref="U45">IFERROR(CONCATENATE(INDEX(X7:X34,SMALL(IF(ISNUMBER(U7:U34),IF(U7:U34&gt;0,IF(X7:X34&lt;&gt;"",ROW(U7:U34)-MIN(ROW(U7:U34))+1))),ROW()-ROW(A$37)+1))," ",TEXT(INDEX(U7:U34,SMALL(IF(ISNUMBER(U7:U34),IF(U7:U34&gt;0,IF(X7:X34&lt;&gt;"",ROW(U7:U34)-MIN(ROW(U7:U34))+1))),ROW()-ROW(A$37)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(U7:U34),IF(U7:U34&gt;0,IF(X7:X34&lt;&gt;"",ROW(U7:U34)-MIN(ROW(U7:U34))+1))),ROW()-ROW(A$37)+1))," ",";")),"")</f>
         <v>0</v>
       </c>
       <c r="Z45">
-        <f t="array" ref="Z45">IFERROR(CONCATENATE(TEXT(INDEX(Z7:Z35,SMALL(IF(ISNUMBER(Z7:Z35),IF(Z7:Z35&gt;0,IF(AC7:AC35&lt;&gt;"",ROW(Z7:Z35)-MIN(ROW(Z7:Z35))+1))),ROW()-ROW(A$39)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(Z7:Z35),IF(Z7:Z35&gt;0,IF(AC7:AC35&lt;&gt;"",ROW(Z7:Z35)-MIN(ROW(Z7:Z35))+1))),ROW()-ROW(A$39)+1)),",",";"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;D7:D35,SMALL(IF(ISNUMBER(Z7:Z35),IF(Z7:Z35&gt;0,IF(AC7:AC35&lt;&gt;"",ROW(Z7:Z35)-MIN(ROW(Z7:Z35))+1))),ROW()-ROW(A$39)+1)),",",";"),",",INDEX(AC7:AC35,SMALL(IF(ISNUMBER(Z7:Z35),IF(Z7:Z35&gt;0,IF(AC7:AC35&lt;&gt;"",ROW(Z7:Z35)-MIN(ROW(Z7:Z35))+1))),ROW()-ROW(A$39)+1))),"")</f>
+        <f t="array" ref="Z45">IFERROR(CONCATENATE(TEXT(INDEX(Z7:Z34,SMALL(IF(ISNUMBER(Z7:Z34),IF(Z7:Z34&gt;0,IF(AC7:AC34&lt;&gt;"",ROW(Z7:Z34)-MIN(ROW(Z7:Z34))+1))),ROW()-ROW(A$38)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(Z7:Z34),IF(Z7:Z34&gt;0,IF(AC7:AC34&lt;&gt;"",ROW(Z7:Z34)-MIN(ROW(Z7:Z34))+1))),ROW()-ROW(A$38)+1)),",",";"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;D7:D34,SMALL(IF(ISNUMBER(Z7:Z34),IF(Z7:Z34&gt;0,IF(AC7:AC34&lt;&gt;"",ROW(Z7:Z34)-MIN(ROW(Z7:Z34))+1))),ROW()-ROW(A$38)+1)),",",";"),",",INDEX(AC7:AC34,SMALL(IF(ISNUMBER(Z7:Z34),IF(Z7:Z34&gt;0,IF(AC7:AC34&lt;&gt;"",ROW(Z7:Z34)-MIN(ROW(Z7:Z34))+1))),ROW()-ROW(A$38)+1))),"")</f>
         <v>0</v>
       </c>
       <c r="AE45">
-        <f t="array" ref="AE45">IFERROR(CONCATENATE(INDEX(AH7:AH35,SMALL(IF(ISNUMBER(AE7:AE35),IF(AE7:AE35&gt;0,IF(AH7:AH35&lt;&gt;"",ROW(AE7:AE35)-MIN(ROW(AE7:AE35))+1))),ROW()-ROW(A$38)+1)),"|",TEXT(INDEX(AE7:AE35,SMALL(IF(ISNUMBER(AE7:AE35),IF(AE7:AE35&gt;0,IF(AH7:AH35&lt;&gt;"",ROW(AE7:AE35)-MIN(ROW(AE7:AE35))+1))),ROW()-ROW(A$38)+1)),"##0"),"|",SUBSTITUTE(SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(AE7:AE35),IF(AE7:AE35&gt;0,IF(AH7:AH35&lt;&gt;"",ROW(AE7:AE35)-MIN(ROW(AE7:AE35))+1))),ROW()-ROW(A$38)+1)),"|",";")," ","_")),"")</f>
+        <f t="array" ref="AE45">IFERROR(CONCATENATE(INDEX(AH7:AH34,SMALL(IF(ISNUMBER(AE7:AE34),IF(AE7:AE34&gt;0,IF(AH7:AH34&lt;&gt;"",ROW(AE7:AE34)-MIN(ROW(AE7:AE34))+1))),ROW()-ROW(A$37)+1)),"|",TEXT(INDEX(AE7:AE34,SMALL(IF(ISNUMBER(AE7:AE34),IF(AE7:AE34&gt;0,IF(AH7:AH34&lt;&gt;"",ROW(AE7:AE34)-MIN(ROW(AE7:AE34))+1))),ROW()-ROW(A$37)+1)),"##0"),"|",SUBSTITUTE(SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(AE7:AE34),IF(AE7:AE34&gt;0,IF(AH7:AH34&lt;&gt;"",ROW(AE7:AE34)-MIN(ROW(AE7:AE34))+1))),ROW()-ROW(A$37)+1)),"|",";")," ","_")),"")</f>
         <v>0</v>
       </c>
       <c r="AJ45">
-        <f t="array" ref="AJ45">IFERROR(CONCATENATE(INDEX(AM7:AM35,SMALL(IF(ISNUMBER(AJ7:AJ35),IF(AJ7:AJ35&gt;0,IF(AM7:AM35&lt;&gt;"",ROW(AJ7:AJ35)-MIN(ROW(AJ7:AJ35))+1))),ROW()-ROW(A$38)+1)),",",TEXT(INDEX(AJ7:AJ35,SMALL(IF(ISNUMBER(AJ7:AJ35),IF(AJ7:AJ35&gt;0,IF(AM7:AM35&lt;&gt;"",ROW(AJ7:AJ35)-MIN(ROW(AJ7:AJ35))+1))),ROW()-ROW(A$38)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(AJ7:AJ35),IF(AJ7:AJ35&gt;0,IF(AM7:AM35&lt;&gt;"",ROW(AJ7:AJ35)-MIN(ROW(AJ7:AJ35))+1))),ROW()-ROW(A$38)+1)),",",";")),"")</f>
+        <f t="array" ref="AJ45">IFERROR(CONCATENATE(INDEX(AM7:AM34,SMALL(IF(ISNUMBER(AJ7:AJ34),IF(AJ7:AJ34&gt;0,IF(AM7:AM34&lt;&gt;"",ROW(AJ7:AJ34)-MIN(ROW(AJ7:AJ34))+1))),ROW()-ROW(A$37)+1)),",",TEXT(INDEX(AJ7:AJ34,SMALL(IF(ISNUMBER(AJ7:AJ34),IF(AJ7:AJ34&gt;0,IF(AM7:AM34&lt;&gt;"",ROW(AJ7:AJ34)-MIN(ROW(AJ7:AJ34))+1))),ROW()-ROW(A$37)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(AJ7:AJ34),IF(AJ7:AJ34&gt;0,IF(AM7:AM34&lt;&gt;"",ROW(AJ7:AJ34)-MIN(ROW(AJ7:AJ34))+1))),ROW()-ROW(A$37)+1)),",",";")),"")</f>
         <v>0</v>
       </c>
       <c r="AO45">
-        <f t="array" ref="AO45">IFERROR(CONCATENATE(INDEX(AR7:AR35,SMALL(IF(ISNUMBER(AO7:AO35),IF(AO7:AO35&gt;0,IF(AR7:AR35&lt;&gt;"",ROW(AO7:AO35)-MIN(ROW(AO7:AO35))+1))),ROW()-ROW(A$38)+1))," ",TEXT(INDEX(AO7:AO35,SMALL(IF(ISNUMBER(AO7:AO35),IF(AO7:AO35&gt;0,IF(AR7:AR35&lt;&gt;"",ROW(AO7:AO35)-MIN(ROW(AO7:AO35))+1))),ROW()-ROW(A$38)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(AO7:AO35),IF(AO7:AO35&gt;0,IF(AR7:AR35&lt;&gt;"",ROW(AO7:AO35)-MIN(ROW(AO7:AO35))+1))),ROW()-ROW(A$38)+1))," ",";")),"")</f>
+        <f t="array" ref="AO45">IFERROR(CONCATENATE(INDEX(AR7:AR34,SMALL(IF(ISNUMBER(AO7:AO34),IF(AO7:AO34&gt;0,IF(AR7:AR34&lt;&gt;"",ROW(AO7:AO34)-MIN(ROW(AO7:AO34))+1))),ROW()-ROW(A$37)+1))," ",TEXT(INDEX(AO7:AO34,SMALL(IF(ISNUMBER(AO7:AO34),IF(AO7:AO34&gt;0,IF(AR7:AR34&lt;&gt;"",ROW(AO7:AO34)-MIN(ROW(AO7:AO34))+1))),ROW()-ROW(A$37)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(AO7:AO34),IF(AO7:AO34&gt;0,IF(AR7:AR34&lt;&gt;"",ROW(AO7:AO34)-MIN(ROW(AO7:AO34))+1))),ROW()-ROW(A$37)+1))," ",";")),"")</f>
         <v>0</v>
       </c>
       <c r="AT45">
-        <f t="array" ref="AT45">IFERROR(CONCATENATE(INDEX(AW7:AW35,SMALL(IF(ISNUMBER(AT7:AT35),IF(AT7:AT35&gt;0,IF(AW7:AW35&lt;&gt;"",ROW(AT7:AT35)-MIN(ROW(AT7:AT35))+1))),ROW()-ROW(A$38)+1))," ",TEXT(INDEX(AT7:AT35,SMALL(IF(ISNUMBER(AT7:AT35),IF(AT7:AT35&gt;0,IF(AW7:AW35&lt;&gt;"",ROW(AT7:AT35)-MIN(ROW(AT7:AT35))+1))),ROW()-ROW(A$38)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(AT7:AT35),IF(AT7:AT35&gt;0,IF(AW7:AW35&lt;&gt;"",ROW(AT7:AT35)-MIN(ROW(AT7:AT35))+1))),ROW()-ROW(A$38)+1))," ",";")),"")</f>
+        <f t="array" ref="AT45">IFERROR(CONCATENATE(INDEX(AW7:AW34,SMALL(IF(ISNUMBER(AT7:AT34),IF(AT7:AT34&gt;0,IF(AW7:AW34&lt;&gt;"",ROW(AT7:AT34)-MIN(ROW(AT7:AT34))+1))),ROW()-ROW(A$37)+1))," ",TEXT(INDEX(AT7:AT34,SMALL(IF(ISNUMBER(AT7:AT34),IF(AT7:AT34&gt;0,IF(AW7:AW34&lt;&gt;"",ROW(AT7:AT34)-MIN(ROW(AT7:AT34))+1))),ROW()-ROW(A$37)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(AT7:AT34),IF(AT7:AT34&gt;0,IF(AW7:AW34&lt;&gt;"",ROW(AT7:AT34)-MIN(ROW(AT7:AT34))+1))),ROW()-ROW(A$37)+1))," ",";")),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:48">
       <c r="K46">
-        <f t="array" ref="K46">IFERROR(CONCATENATE(INDEX(N7:N35,SMALL(IF(ISNUMBER(K7:K35),IF(K7:K35&gt;0,IF(N7:N35&lt;&gt;"",ROW(K7:K35)-MIN(ROW(K7:K35))+1))),ROW()-ROW(A$38)+1)),",",TEXT(INDEX(K7:K35,SMALL(IF(ISNUMBER(K7:K35),IF(K7:K35&gt;0,IF(N7:N35&lt;&gt;"",ROW(K7:K35)-MIN(ROW(K7:K35))+1))),ROW()-ROW(A$38)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(K7:K35),IF(K7:K35&gt;0,IF(N7:N35&lt;&gt;"",ROW(K7:K35)-MIN(ROW(K7:K35))+1))),ROW()-ROW(A$38)+1)),",",";")),"")</f>
+        <f t="array" ref="K46">IFERROR(CONCATENATE(INDEX(N7:N34,SMALL(IF(ISNUMBER(K7:K34),IF(K7:K34&gt;0,IF(N7:N34&lt;&gt;"",ROW(K7:K34)-MIN(ROW(K7:K34))+1))),ROW()-ROW(A$37)+1)),",",TEXT(INDEX(K7:K34,SMALL(IF(ISNUMBER(K7:K34),IF(K7:K34&gt;0,IF(N7:N34&lt;&gt;"",ROW(K7:K34)-MIN(ROW(K7:K34))+1))),ROW()-ROW(A$37)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(K7:K34),IF(K7:K34&gt;0,IF(N7:N34&lt;&gt;"",ROW(K7:K34)-MIN(ROW(K7:K34))+1))),ROW()-ROW(A$37)+1)),",",";")),"")</f>
         <v>0</v>
       </c>
       <c r="P46">
-        <f t="array" ref="P46">IFERROR(CONCATENATE(TEXT(INDEX(P7:P35,SMALL(IF(ISNUMBER(P7:P35),IF(P7:P35&gt;0,IF(S7:S35&lt;&gt;"",ROW(P7:P35)-MIN(ROW(P7:P35))+1))),ROW()-ROW(A$38)+1)),"##0"),",",INDEX(S7:S35,SMALL(IF(ISNUMBER(P7:P35),IF(P7:P35&gt;0,IF(S7:S35&lt;&gt;"",ROW(P7:P35)-MIN(ROW(P7:P35))+1))),ROW()-ROW(A$38)+1)),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(P7:P35),IF(P7:P35&gt;0,IF(S7:S35&lt;&gt;"",ROW(P7:P35)-MIN(ROW(P7:P35))+1))),ROW()-ROW(A$38)+1)),",",";")),"")</f>
+        <f t="array" ref="P46">IFERROR(CONCATENATE(TEXT(INDEX(P7:P34,SMALL(IF(ISNUMBER(P7:P34),IF(P7:P34&gt;0,IF(S7:S34&lt;&gt;"",ROW(P7:P34)-MIN(ROW(P7:P34))+1))),ROW()-ROW(A$37)+1)),"##0"),",",INDEX(S7:S34,SMALL(IF(ISNUMBER(P7:P34),IF(P7:P34&gt;0,IF(S7:S34&lt;&gt;"",ROW(P7:P34)-MIN(ROW(P7:P34))+1))),ROW()-ROW(A$37)+1)),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(P7:P34),IF(P7:P34&gt;0,IF(S7:S34&lt;&gt;"",ROW(P7:P34)-MIN(ROW(P7:P34))+1))),ROW()-ROW(A$37)+1)),",",";")),"")</f>
         <v>0</v>
       </c>
       <c r="U46">
-        <f t="array" ref="U46">IFERROR(CONCATENATE(INDEX(X7:X35,SMALL(IF(ISNUMBER(U7:U35),IF(U7:U35&gt;0,IF(X7:X35&lt;&gt;"",ROW(U7:U35)-MIN(ROW(U7:U35))+1))),ROW()-ROW(A$38)+1))," ",TEXT(INDEX(U7:U35,SMALL(IF(ISNUMBER(U7:U35),IF(U7:U35&gt;0,IF(X7:X35&lt;&gt;"",ROW(U7:U35)-MIN(ROW(U7:U35))+1))),ROW()-ROW(A$38)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(U7:U35),IF(U7:U35&gt;0,IF(X7:X35&lt;&gt;"",ROW(U7:U35)-MIN(ROW(U7:U35))+1))),ROW()-ROW(A$38)+1))," ",";")),"")</f>
+        <f t="array" ref="U46">IFERROR(CONCATENATE(INDEX(X7:X34,SMALL(IF(ISNUMBER(U7:U34),IF(U7:U34&gt;0,IF(X7:X34&lt;&gt;"",ROW(U7:U34)-MIN(ROW(U7:U34))+1))),ROW()-ROW(A$37)+1))," ",TEXT(INDEX(U7:U34,SMALL(IF(ISNUMBER(U7:U34),IF(U7:U34&gt;0,IF(X7:X34&lt;&gt;"",ROW(U7:U34)-MIN(ROW(U7:U34))+1))),ROW()-ROW(A$37)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(U7:U34),IF(U7:U34&gt;0,IF(X7:X34&lt;&gt;"",ROW(U7:U34)-MIN(ROW(U7:U34))+1))),ROW()-ROW(A$37)+1))," ",";")),"")</f>
         <v>0</v>
       </c>
       <c r="Z46">
-        <f t="array" ref="Z46">IFERROR(CONCATENATE(TEXT(INDEX(Z7:Z35,SMALL(IF(ISNUMBER(Z7:Z35),IF(Z7:Z35&gt;0,IF(AC7:AC35&lt;&gt;"",ROW(Z7:Z35)-MIN(ROW(Z7:Z35))+1))),ROW()-ROW(A$39)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(Z7:Z35),IF(Z7:Z35&gt;0,IF(AC7:AC35&lt;&gt;"",ROW(Z7:Z35)-MIN(ROW(Z7:Z35))+1))),ROW()-ROW(A$39)+1)),",",";"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;D7:D35,SMALL(IF(ISNUMBER(Z7:Z35),IF(Z7:Z35&gt;0,IF(AC7:AC35&lt;&gt;"",ROW(Z7:Z35)-MIN(ROW(Z7:Z35))+1))),ROW()-ROW(A$39)+1)),",",";"),",",INDEX(AC7:AC35,SMALL(IF(ISNUMBER(Z7:Z35),IF(Z7:Z35&gt;0,IF(AC7:AC35&lt;&gt;"",ROW(Z7:Z35)-MIN(ROW(Z7:Z35))+1))),ROW()-ROW(A$39)+1))),"")</f>
+        <f t="array" ref="Z46">IFERROR(CONCATENATE(TEXT(INDEX(Z7:Z34,SMALL(IF(ISNUMBER(Z7:Z34),IF(Z7:Z34&gt;0,IF(AC7:AC34&lt;&gt;"",ROW(Z7:Z34)-MIN(ROW(Z7:Z34))+1))),ROW()-ROW(A$38)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(Z7:Z34),IF(Z7:Z34&gt;0,IF(AC7:AC34&lt;&gt;"",ROW(Z7:Z34)-MIN(ROW(Z7:Z34))+1))),ROW()-ROW(A$38)+1)),",",";"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;D7:D34,SMALL(IF(ISNUMBER(Z7:Z34),IF(Z7:Z34&gt;0,IF(AC7:AC34&lt;&gt;"",ROW(Z7:Z34)-MIN(ROW(Z7:Z34))+1))),ROW()-ROW(A$38)+1)),",",";"),",",INDEX(AC7:AC34,SMALL(IF(ISNUMBER(Z7:Z34),IF(Z7:Z34&gt;0,IF(AC7:AC34&lt;&gt;"",ROW(Z7:Z34)-MIN(ROW(Z7:Z34))+1))),ROW()-ROW(A$38)+1))),"")</f>
         <v>0</v>
       </c>
       <c r="AE46">
-        <f t="array" ref="AE46">IFERROR(CONCATENATE(INDEX(AH7:AH35,SMALL(IF(ISNUMBER(AE7:AE35),IF(AE7:AE35&gt;0,IF(AH7:AH35&lt;&gt;"",ROW(AE7:AE35)-MIN(ROW(AE7:AE35))+1))),ROW()-ROW(A$38)+1)),"|",TEXT(INDEX(AE7:AE35,SMALL(IF(ISNUMBER(AE7:AE35),IF(AE7:AE35&gt;0,IF(AH7:AH35&lt;&gt;"",ROW(AE7:AE35)-MIN(ROW(AE7:AE35))+1))),ROW()-ROW(A$38)+1)),"##0"),"|",SUBSTITUTE(SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(AE7:AE35),IF(AE7:AE35&gt;0,IF(AH7:AH35&lt;&gt;"",ROW(AE7:AE35)-MIN(ROW(AE7:AE35))+1))),ROW()-ROW(A$38)+1)),"|",";")," ","_")),"")</f>
+        <f t="array" ref="AE46">IFERROR(CONCATENATE(INDEX(AH7:AH34,SMALL(IF(ISNUMBER(AE7:AE34),IF(AE7:AE34&gt;0,IF(AH7:AH34&lt;&gt;"",ROW(AE7:AE34)-MIN(ROW(AE7:AE34))+1))),ROW()-ROW(A$37)+1)),"|",TEXT(INDEX(AE7:AE34,SMALL(IF(ISNUMBER(AE7:AE34),IF(AE7:AE34&gt;0,IF(AH7:AH34&lt;&gt;"",ROW(AE7:AE34)-MIN(ROW(AE7:AE34))+1))),ROW()-ROW(A$37)+1)),"##0"),"|",SUBSTITUTE(SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(AE7:AE34),IF(AE7:AE34&gt;0,IF(AH7:AH34&lt;&gt;"",ROW(AE7:AE34)-MIN(ROW(AE7:AE34))+1))),ROW()-ROW(A$37)+1)),"|",";")," ","_")),"")</f>
         <v>0</v>
       </c>
       <c r="AJ46">
-        <f t="array" ref="AJ46">IFERROR(CONCATENATE(INDEX(AM7:AM35,SMALL(IF(ISNUMBER(AJ7:AJ35),IF(AJ7:AJ35&gt;0,IF(AM7:AM35&lt;&gt;"",ROW(AJ7:AJ35)-MIN(ROW(AJ7:AJ35))+1))),ROW()-ROW(A$38)+1)),",",TEXT(INDEX(AJ7:AJ35,SMALL(IF(ISNUMBER(AJ7:AJ35),IF(AJ7:AJ35&gt;0,IF(AM7:AM35&lt;&gt;"",ROW(AJ7:AJ35)-MIN(ROW(AJ7:AJ35))+1))),ROW()-ROW(A$38)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(AJ7:AJ35),IF(AJ7:AJ35&gt;0,IF(AM7:AM35&lt;&gt;"",ROW(AJ7:AJ35)-MIN(ROW(AJ7:AJ35))+1))),ROW()-ROW(A$38)+1)),",",";")),"")</f>
+        <f t="array" ref="AJ46">IFERROR(CONCATENATE(INDEX(AM7:AM34,SMALL(IF(ISNUMBER(AJ7:AJ34),IF(AJ7:AJ34&gt;0,IF(AM7:AM34&lt;&gt;"",ROW(AJ7:AJ34)-MIN(ROW(AJ7:AJ34))+1))),ROW()-ROW(A$37)+1)),",",TEXT(INDEX(AJ7:AJ34,SMALL(IF(ISNUMBER(AJ7:AJ34),IF(AJ7:AJ34&gt;0,IF(AM7:AM34&lt;&gt;"",ROW(AJ7:AJ34)-MIN(ROW(AJ7:AJ34))+1))),ROW()-ROW(A$37)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(AJ7:AJ34),IF(AJ7:AJ34&gt;0,IF(AM7:AM34&lt;&gt;"",ROW(AJ7:AJ34)-MIN(ROW(AJ7:AJ34))+1))),ROW()-ROW(A$37)+1)),",",";")),"")</f>
         <v>0</v>
       </c>
       <c r="AO46">
-        <f t="array" ref="AO46">IFERROR(CONCATENATE(INDEX(AR7:AR35,SMALL(IF(ISNUMBER(AO7:AO35),IF(AO7:AO35&gt;0,IF(AR7:AR35&lt;&gt;"",ROW(AO7:AO35)-MIN(ROW(AO7:AO35))+1))),ROW()-ROW(A$38)+1))," ",TEXT(INDEX(AO7:AO35,SMALL(IF(ISNUMBER(AO7:AO35),IF(AO7:AO35&gt;0,IF(AR7:AR35&lt;&gt;"",ROW(AO7:AO35)-MIN(ROW(AO7:AO35))+1))),ROW()-ROW(A$38)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(AO7:AO35),IF(AO7:AO35&gt;0,IF(AR7:AR35&lt;&gt;"",ROW(AO7:AO35)-MIN(ROW(AO7:AO35))+1))),ROW()-ROW(A$38)+1))," ",";")),"")</f>
+        <f t="array" ref="AO46">IFERROR(CONCATENATE(INDEX(AR7:AR34,SMALL(IF(ISNUMBER(AO7:AO34),IF(AO7:AO34&gt;0,IF(AR7:AR34&lt;&gt;"",ROW(AO7:AO34)-MIN(ROW(AO7:AO34))+1))),ROW()-ROW(A$37)+1))," ",TEXT(INDEX(AO7:AO34,SMALL(IF(ISNUMBER(AO7:AO34),IF(AO7:AO34&gt;0,IF(AR7:AR34&lt;&gt;"",ROW(AO7:AO34)-MIN(ROW(AO7:AO34))+1))),ROW()-ROW(A$37)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(AO7:AO34),IF(AO7:AO34&gt;0,IF(AR7:AR34&lt;&gt;"",ROW(AO7:AO34)-MIN(ROW(AO7:AO34))+1))),ROW()-ROW(A$37)+1))," ",";")),"")</f>
         <v>0</v>
       </c>
       <c r="AT46">
-        <f t="array" ref="AT46">IFERROR(CONCATENATE(INDEX(AW7:AW35,SMALL(IF(ISNUMBER(AT7:AT35),IF(AT7:AT35&gt;0,IF(AW7:AW35&lt;&gt;"",ROW(AT7:AT35)-MIN(ROW(AT7:AT35))+1))),ROW()-ROW(A$38)+1))," ",TEXT(INDEX(AT7:AT35,SMALL(IF(ISNUMBER(AT7:AT35),IF(AT7:AT35&gt;0,IF(AW7:AW35&lt;&gt;"",ROW(AT7:AT35)-MIN(ROW(AT7:AT35))+1))),ROW()-ROW(A$38)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(AT7:AT35),IF(AT7:AT35&gt;0,IF(AW7:AW35&lt;&gt;"",ROW(AT7:AT35)-MIN(ROW(AT7:AT35))+1))),ROW()-ROW(A$38)+1))," ",";")),"")</f>
+        <f t="array" ref="AT46">IFERROR(CONCATENATE(INDEX(AW7:AW34,SMALL(IF(ISNUMBER(AT7:AT34),IF(AT7:AT34&gt;0,IF(AW7:AW34&lt;&gt;"",ROW(AT7:AT34)-MIN(ROW(AT7:AT34))+1))),ROW()-ROW(A$37)+1))," ",TEXT(INDEX(AT7:AT34,SMALL(IF(ISNUMBER(AT7:AT34),IF(AT7:AT34&gt;0,IF(AW7:AW34&lt;&gt;"",ROW(AT7:AT34)-MIN(ROW(AT7:AT34))+1))),ROW()-ROW(A$37)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(AT7:AT34),IF(AT7:AT34&gt;0,IF(AW7:AW34&lt;&gt;"",ROW(AT7:AT34)-MIN(ROW(AT7:AT34))+1))),ROW()-ROW(A$37)+1))," ",";")),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:48">
       <c r="K47">
-        <f t="array" ref="K47">IFERROR(CONCATENATE(INDEX(N7:N35,SMALL(IF(ISNUMBER(K7:K35),IF(K7:K35&gt;0,IF(N7:N35&lt;&gt;"",ROW(K7:K35)-MIN(ROW(K7:K35))+1))),ROW()-ROW(A$38)+1)),",",TEXT(INDEX(K7:K35,SMALL(IF(ISNUMBER(K7:K35),IF(K7:K35&gt;0,IF(N7:N35&lt;&gt;"",ROW(K7:K35)-MIN(ROW(K7:K35))+1))),ROW()-ROW(A$38)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(K7:K35),IF(K7:K35&gt;0,IF(N7:N35&lt;&gt;"",ROW(K7:K35)-MIN(ROW(K7:K35))+1))),ROW()-ROW(A$38)+1)),",",";")),"")</f>
+        <f t="array" ref="K47">IFERROR(CONCATENATE(INDEX(N7:N34,SMALL(IF(ISNUMBER(K7:K34),IF(K7:K34&gt;0,IF(N7:N34&lt;&gt;"",ROW(K7:K34)-MIN(ROW(K7:K34))+1))),ROW()-ROW(A$37)+1)),",",TEXT(INDEX(K7:K34,SMALL(IF(ISNUMBER(K7:K34),IF(K7:K34&gt;0,IF(N7:N34&lt;&gt;"",ROW(K7:K34)-MIN(ROW(K7:K34))+1))),ROW()-ROW(A$37)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(K7:K34),IF(K7:K34&gt;0,IF(N7:N34&lt;&gt;"",ROW(K7:K34)-MIN(ROW(K7:K34))+1))),ROW()-ROW(A$37)+1)),",",";")),"")</f>
         <v>0</v>
       </c>
       <c r="P47">
-        <f t="array" ref="P47">IFERROR(CONCATENATE(TEXT(INDEX(P7:P35,SMALL(IF(ISNUMBER(P7:P35),IF(P7:P35&gt;0,IF(S7:S35&lt;&gt;"",ROW(P7:P35)-MIN(ROW(P7:P35))+1))),ROW()-ROW(A$38)+1)),"##0"),",",INDEX(S7:S35,SMALL(IF(ISNUMBER(P7:P35),IF(P7:P35&gt;0,IF(S7:S35&lt;&gt;"",ROW(P7:P35)-MIN(ROW(P7:P35))+1))),ROW()-ROW(A$38)+1)),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(P7:P35),IF(P7:P35&gt;0,IF(S7:S35&lt;&gt;"",ROW(P7:P35)-MIN(ROW(P7:P35))+1))),ROW()-ROW(A$38)+1)),",",";")),"")</f>
+        <f t="array" ref="P47">IFERROR(CONCATENATE(TEXT(INDEX(P7:P34,SMALL(IF(ISNUMBER(P7:P34),IF(P7:P34&gt;0,IF(S7:S34&lt;&gt;"",ROW(P7:P34)-MIN(ROW(P7:P34))+1))),ROW()-ROW(A$37)+1)),"##0"),",",INDEX(S7:S34,SMALL(IF(ISNUMBER(P7:P34),IF(P7:P34&gt;0,IF(S7:S34&lt;&gt;"",ROW(P7:P34)-MIN(ROW(P7:P34))+1))),ROW()-ROW(A$37)+1)),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(P7:P34),IF(P7:P34&gt;0,IF(S7:S34&lt;&gt;"",ROW(P7:P34)-MIN(ROW(P7:P34))+1))),ROW()-ROW(A$37)+1)),",",";")),"")</f>
         <v>0</v>
       </c>
       <c r="U47">
-        <f t="array" ref="U47">IFERROR(CONCATENATE(INDEX(X7:X35,SMALL(IF(ISNUMBER(U7:U35),IF(U7:U35&gt;0,IF(X7:X35&lt;&gt;"",ROW(U7:U35)-MIN(ROW(U7:U35))+1))),ROW()-ROW(A$38)+1))," ",TEXT(INDEX(U7:U35,SMALL(IF(ISNUMBER(U7:U35),IF(U7:U35&gt;0,IF(X7:X35&lt;&gt;"",ROW(U7:U35)-MIN(ROW(U7:U35))+1))),ROW()-ROW(A$38)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(U7:U35),IF(U7:U35&gt;0,IF(X7:X35&lt;&gt;"",ROW(U7:U35)-MIN(ROW(U7:U35))+1))),ROW()-ROW(A$38)+1))," ",";")),"")</f>
+        <f t="array" ref="U47">IFERROR(CONCATENATE(INDEX(X7:X34,SMALL(IF(ISNUMBER(U7:U34),IF(U7:U34&gt;0,IF(X7:X34&lt;&gt;"",ROW(U7:U34)-MIN(ROW(U7:U34))+1))),ROW()-ROW(A$37)+1))," ",TEXT(INDEX(U7:U34,SMALL(IF(ISNUMBER(U7:U34),IF(U7:U34&gt;0,IF(X7:X34&lt;&gt;"",ROW(U7:U34)-MIN(ROW(U7:U34))+1))),ROW()-ROW(A$37)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(U7:U34),IF(U7:U34&gt;0,IF(X7:X34&lt;&gt;"",ROW(U7:U34)-MIN(ROW(U7:U34))+1))),ROW()-ROW(A$37)+1))," ",";")),"")</f>
         <v>0</v>
       </c>
       <c r="Z47">
-        <f t="array" ref="Z47">IFERROR(CONCATENATE(TEXT(INDEX(Z7:Z35,SMALL(IF(ISNUMBER(Z7:Z35),IF(Z7:Z35&gt;0,IF(AC7:AC35&lt;&gt;"",ROW(Z7:Z35)-MIN(ROW(Z7:Z35))+1))),ROW()-ROW(A$39)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(Z7:Z35),IF(Z7:Z35&gt;0,IF(AC7:AC35&lt;&gt;"",ROW(Z7:Z35)-MIN(ROW(Z7:Z35))+1))),ROW()-ROW(A$39)+1)),",",";"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;D7:D35,SMALL(IF(ISNUMBER(Z7:Z35),IF(Z7:Z35&gt;0,IF(AC7:AC35&lt;&gt;"",ROW(Z7:Z35)-MIN(ROW(Z7:Z35))+1))),ROW()-ROW(A$39)+1)),",",";"),",",INDEX(AC7:AC35,SMALL(IF(ISNUMBER(Z7:Z35),IF(Z7:Z35&gt;0,IF(AC7:AC35&lt;&gt;"",ROW(Z7:Z35)-MIN(ROW(Z7:Z35))+1))),ROW()-ROW(A$39)+1))),"")</f>
+        <f t="array" ref="Z47">IFERROR(CONCATENATE(TEXT(INDEX(Z7:Z34,SMALL(IF(ISNUMBER(Z7:Z34),IF(Z7:Z34&gt;0,IF(AC7:AC34&lt;&gt;"",ROW(Z7:Z34)-MIN(ROW(Z7:Z34))+1))),ROW()-ROW(A$38)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(Z7:Z34),IF(Z7:Z34&gt;0,IF(AC7:AC34&lt;&gt;"",ROW(Z7:Z34)-MIN(ROW(Z7:Z34))+1))),ROW()-ROW(A$38)+1)),",",";"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;D7:D34,SMALL(IF(ISNUMBER(Z7:Z34),IF(Z7:Z34&gt;0,IF(AC7:AC34&lt;&gt;"",ROW(Z7:Z34)-MIN(ROW(Z7:Z34))+1))),ROW()-ROW(A$38)+1)),",",";"),",",INDEX(AC7:AC34,SMALL(IF(ISNUMBER(Z7:Z34),IF(Z7:Z34&gt;0,IF(AC7:AC34&lt;&gt;"",ROW(Z7:Z34)-MIN(ROW(Z7:Z34))+1))),ROW()-ROW(A$38)+1))),"")</f>
         <v>0</v>
       </c>
       <c r="AE47">
-        <f t="array" ref="AE47">IFERROR(CONCATENATE(INDEX(AH7:AH35,SMALL(IF(ISNUMBER(AE7:AE35),IF(AE7:AE35&gt;0,IF(AH7:AH35&lt;&gt;"",ROW(AE7:AE35)-MIN(ROW(AE7:AE35))+1))),ROW()-ROW(A$38)+1)),"|",TEXT(INDEX(AE7:AE35,SMALL(IF(ISNUMBER(AE7:AE35),IF(AE7:AE35&gt;0,IF(AH7:AH35&lt;&gt;"",ROW(AE7:AE35)-MIN(ROW(AE7:AE35))+1))),ROW()-ROW(A$38)+1)),"##0"),"|",SUBSTITUTE(SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(AE7:AE35),IF(AE7:AE35&gt;0,IF(AH7:AH35&lt;&gt;"",ROW(AE7:AE35)-MIN(ROW(AE7:AE35))+1))),ROW()-ROW(A$38)+1)),"|",";")," ","_")),"")</f>
+        <f t="array" ref="AE47">IFERROR(CONCATENATE(INDEX(AH7:AH34,SMALL(IF(ISNUMBER(AE7:AE34),IF(AE7:AE34&gt;0,IF(AH7:AH34&lt;&gt;"",ROW(AE7:AE34)-MIN(ROW(AE7:AE34))+1))),ROW()-ROW(A$37)+1)),"|",TEXT(INDEX(AE7:AE34,SMALL(IF(ISNUMBER(AE7:AE34),IF(AE7:AE34&gt;0,IF(AH7:AH34&lt;&gt;"",ROW(AE7:AE34)-MIN(ROW(AE7:AE34))+1))),ROW()-ROW(A$37)+1)),"##0"),"|",SUBSTITUTE(SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(AE7:AE34),IF(AE7:AE34&gt;0,IF(AH7:AH34&lt;&gt;"",ROW(AE7:AE34)-MIN(ROW(AE7:AE34))+1))),ROW()-ROW(A$37)+1)),"|",";")," ","_")),"")</f>
         <v>0</v>
       </c>
       <c r="AJ47">
-        <f t="array" ref="AJ47">IFERROR(CONCATENATE(INDEX(AM7:AM35,SMALL(IF(ISNUMBER(AJ7:AJ35),IF(AJ7:AJ35&gt;0,IF(AM7:AM35&lt;&gt;"",ROW(AJ7:AJ35)-MIN(ROW(AJ7:AJ35))+1))),ROW()-ROW(A$38)+1)),",",TEXT(INDEX(AJ7:AJ35,SMALL(IF(ISNUMBER(AJ7:AJ35),IF(AJ7:AJ35&gt;0,IF(AM7:AM35&lt;&gt;"",ROW(AJ7:AJ35)-MIN(ROW(AJ7:AJ35))+1))),ROW()-ROW(A$38)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(AJ7:AJ35),IF(AJ7:AJ35&gt;0,IF(AM7:AM35&lt;&gt;"",ROW(AJ7:AJ35)-MIN(ROW(AJ7:AJ35))+1))),ROW()-ROW(A$38)+1)),",",";")),"")</f>
+        <f t="array" ref="AJ47">IFERROR(CONCATENATE(INDEX(AM7:AM34,SMALL(IF(ISNUMBER(AJ7:AJ34),IF(AJ7:AJ34&gt;0,IF(AM7:AM34&lt;&gt;"",ROW(AJ7:AJ34)-MIN(ROW(AJ7:AJ34))+1))),ROW()-ROW(A$37)+1)),",",TEXT(INDEX(AJ7:AJ34,SMALL(IF(ISNUMBER(AJ7:AJ34),IF(AJ7:AJ34&gt;0,IF(AM7:AM34&lt;&gt;"",ROW(AJ7:AJ34)-MIN(ROW(AJ7:AJ34))+1))),ROW()-ROW(A$37)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(AJ7:AJ34),IF(AJ7:AJ34&gt;0,IF(AM7:AM34&lt;&gt;"",ROW(AJ7:AJ34)-MIN(ROW(AJ7:AJ34))+1))),ROW()-ROW(A$37)+1)),",",";")),"")</f>
         <v>0</v>
       </c>
       <c r="AO47">
-        <f t="array" ref="AO47">IFERROR(CONCATENATE(INDEX(AR7:AR35,SMALL(IF(ISNUMBER(AO7:AO35),IF(AO7:AO35&gt;0,IF(AR7:AR35&lt;&gt;"",ROW(AO7:AO35)-MIN(ROW(AO7:AO35))+1))),ROW()-ROW(A$38)+1))," ",TEXT(INDEX(AO7:AO35,SMALL(IF(ISNUMBER(AO7:AO35),IF(AO7:AO35&gt;0,IF(AR7:AR35&lt;&gt;"",ROW(AO7:AO35)-MIN(ROW(AO7:AO35))+1))),ROW()-ROW(A$38)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(AO7:AO35),IF(AO7:AO35&gt;0,IF(AR7:AR35&lt;&gt;"",ROW(AO7:AO35)-MIN(ROW(AO7:AO35))+1))),ROW()-ROW(A$38)+1))," ",";")),"")</f>
+        <f t="array" ref="AO47">IFERROR(CONCATENATE(INDEX(AR7:AR34,SMALL(IF(ISNUMBER(AO7:AO34),IF(AO7:AO34&gt;0,IF(AR7:AR34&lt;&gt;"",ROW(AO7:AO34)-MIN(ROW(AO7:AO34))+1))),ROW()-ROW(A$37)+1))," ",TEXT(INDEX(AO7:AO34,SMALL(IF(ISNUMBER(AO7:AO34),IF(AO7:AO34&gt;0,IF(AR7:AR34&lt;&gt;"",ROW(AO7:AO34)-MIN(ROW(AO7:AO34))+1))),ROW()-ROW(A$37)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(AO7:AO34),IF(AO7:AO34&gt;0,IF(AR7:AR34&lt;&gt;"",ROW(AO7:AO34)-MIN(ROW(AO7:AO34))+1))),ROW()-ROW(A$37)+1))," ",";")),"")</f>
         <v>0</v>
       </c>
       <c r="AT47">
-        <f t="array" ref="AT47">IFERROR(CONCATENATE(INDEX(AW7:AW35,SMALL(IF(ISNUMBER(AT7:AT35),IF(AT7:AT35&gt;0,IF(AW7:AW35&lt;&gt;"",ROW(AT7:AT35)-MIN(ROW(AT7:AT35))+1))),ROW()-ROW(A$38)+1))," ",TEXT(INDEX(AT7:AT35,SMALL(IF(ISNUMBER(AT7:AT35),IF(AT7:AT35&gt;0,IF(AW7:AW35&lt;&gt;"",ROW(AT7:AT35)-MIN(ROW(AT7:AT35))+1))),ROW()-ROW(A$38)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(AT7:AT35),IF(AT7:AT35&gt;0,IF(AW7:AW35&lt;&gt;"",ROW(AT7:AT35)-MIN(ROW(AT7:AT35))+1))),ROW()-ROW(A$38)+1))," ",";")),"")</f>
+        <f t="array" ref="AT47">IFERROR(CONCATENATE(INDEX(AW7:AW34,SMALL(IF(ISNUMBER(AT7:AT34),IF(AT7:AT34&gt;0,IF(AW7:AW34&lt;&gt;"",ROW(AT7:AT34)-MIN(ROW(AT7:AT34))+1))),ROW()-ROW(A$37)+1))," ",TEXT(INDEX(AT7:AT34,SMALL(IF(ISNUMBER(AT7:AT34),IF(AT7:AT34&gt;0,IF(AW7:AW34&lt;&gt;"",ROW(AT7:AT34)-MIN(ROW(AT7:AT34))+1))),ROW()-ROW(A$37)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(AT7:AT34),IF(AT7:AT34&gt;0,IF(AW7:AW34&lt;&gt;"",ROW(AT7:AT34)-MIN(ROW(AT7:AT34))+1))),ROW()-ROW(A$37)+1))," ",";")),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:48">
       <c r="K48">
-        <f t="array" ref="K48">IFERROR(CONCATENATE(INDEX(N7:N35,SMALL(IF(ISNUMBER(K7:K35),IF(K7:K35&gt;0,IF(N7:N35&lt;&gt;"",ROW(K7:K35)-MIN(ROW(K7:K35))+1))),ROW()-ROW(A$38)+1)),",",TEXT(INDEX(K7:K35,SMALL(IF(ISNUMBER(K7:K35),IF(K7:K35&gt;0,IF(N7:N35&lt;&gt;"",ROW(K7:K35)-MIN(ROW(K7:K35))+1))),ROW()-ROW(A$38)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(K7:K35),IF(K7:K35&gt;0,IF(N7:N35&lt;&gt;"",ROW(K7:K35)-MIN(ROW(K7:K35))+1))),ROW()-ROW(A$38)+1)),",",";")),"")</f>
+        <f t="array" ref="K48">IFERROR(CONCATENATE(INDEX(N7:N34,SMALL(IF(ISNUMBER(K7:K34),IF(K7:K34&gt;0,IF(N7:N34&lt;&gt;"",ROW(K7:K34)-MIN(ROW(K7:K34))+1))),ROW()-ROW(A$37)+1)),",",TEXT(INDEX(K7:K34,SMALL(IF(ISNUMBER(K7:K34),IF(K7:K34&gt;0,IF(N7:N34&lt;&gt;"",ROW(K7:K34)-MIN(ROW(K7:K34))+1))),ROW()-ROW(A$37)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(K7:K34),IF(K7:K34&gt;0,IF(N7:N34&lt;&gt;"",ROW(K7:K34)-MIN(ROW(K7:K34))+1))),ROW()-ROW(A$37)+1)),",",";")),"")</f>
         <v>0</v>
       </c>
       <c r="P48">
-        <f t="array" ref="P48">IFERROR(CONCATENATE(TEXT(INDEX(P7:P35,SMALL(IF(ISNUMBER(P7:P35),IF(P7:P35&gt;0,IF(S7:S35&lt;&gt;"",ROW(P7:P35)-MIN(ROW(P7:P35))+1))),ROW()-ROW(A$38)+1)),"##0"),",",INDEX(S7:S35,SMALL(IF(ISNUMBER(P7:P35),IF(P7:P35&gt;0,IF(S7:S35&lt;&gt;"",ROW(P7:P35)-MIN(ROW(P7:P35))+1))),ROW()-ROW(A$38)+1)),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(P7:P35),IF(P7:P35&gt;0,IF(S7:S35&lt;&gt;"",ROW(P7:P35)-MIN(ROW(P7:P35))+1))),ROW()-ROW(A$38)+1)),",",";")),"")</f>
+        <f t="array" ref="P48">IFERROR(CONCATENATE(TEXT(INDEX(P7:P34,SMALL(IF(ISNUMBER(P7:P34),IF(P7:P34&gt;0,IF(S7:S34&lt;&gt;"",ROW(P7:P34)-MIN(ROW(P7:P34))+1))),ROW()-ROW(A$37)+1)),"##0"),",",INDEX(S7:S34,SMALL(IF(ISNUMBER(P7:P34),IF(P7:P34&gt;0,IF(S7:S34&lt;&gt;"",ROW(P7:P34)-MIN(ROW(P7:P34))+1))),ROW()-ROW(A$37)+1)),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(P7:P34),IF(P7:P34&gt;0,IF(S7:S34&lt;&gt;"",ROW(P7:P34)-MIN(ROW(P7:P34))+1))),ROW()-ROW(A$37)+1)),",",";")),"")</f>
         <v>0</v>
       </c>
       <c r="U48">
-        <f t="array" ref="U48">IFERROR(CONCATENATE(INDEX(X7:X35,SMALL(IF(ISNUMBER(U7:U35),IF(U7:U35&gt;0,IF(X7:X35&lt;&gt;"",ROW(U7:U35)-MIN(ROW(U7:U35))+1))),ROW()-ROW(A$38)+1))," ",TEXT(INDEX(U7:U35,SMALL(IF(ISNUMBER(U7:U35),IF(U7:U35&gt;0,IF(X7:X35&lt;&gt;"",ROW(U7:U35)-MIN(ROW(U7:U35))+1))),ROW()-ROW(A$38)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(U7:U35),IF(U7:U35&gt;0,IF(X7:X35&lt;&gt;"",ROW(U7:U35)-MIN(ROW(U7:U35))+1))),ROW()-ROW(A$38)+1))," ",";")),"")</f>
+        <f t="array" ref="U48">IFERROR(CONCATENATE(INDEX(X7:X34,SMALL(IF(ISNUMBER(U7:U34),IF(U7:U34&gt;0,IF(X7:X34&lt;&gt;"",ROW(U7:U34)-MIN(ROW(U7:U34))+1))),ROW()-ROW(A$37)+1))," ",TEXT(INDEX(U7:U34,SMALL(IF(ISNUMBER(U7:U34),IF(U7:U34&gt;0,IF(X7:X34&lt;&gt;"",ROW(U7:U34)-MIN(ROW(U7:U34))+1))),ROW()-ROW(A$37)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(U7:U34),IF(U7:U34&gt;0,IF(X7:X34&lt;&gt;"",ROW(U7:U34)-MIN(ROW(U7:U34))+1))),ROW()-ROW(A$37)+1))," ",";")),"")</f>
         <v>0</v>
       </c>
       <c r="Z48">
-        <f t="array" ref="Z48">IFERROR(CONCATENATE(TEXT(INDEX(Z7:Z35,SMALL(IF(ISNUMBER(Z7:Z35),IF(Z7:Z35&gt;0,IF(AC7:AC35&lt;&gt;"",ROW(Z7:Z35)-MIN(ROW(Z7:Z35))+1))),ROW()-ROW(A$39)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(Z7:Z35),IF(Z7:Z35&gt;0,IF(AC7:AC35&lt;&gt;"",ROW(Z7:Z35)-MIN(ROW(Z7:Z35))+1))),ROW()-ROW(A$39)+1)),",",";"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;D7:D35,SMALL(IF(ISNUMBER(Z7:Z35),IF(Z7:Z35&gt;0,IF(AC7:AC35&lt;&gt;"",ROW(Z7:Z35)-MIN(ROW(Z7:Z35))+1))),ROW()-ROW(A$39)+1)),",",";"),",",INDEX(AC7:AC35,SMALL(IF(ISNUMBER(Z7:Z35),IF(Z7:Z35&gt;0,IF(AC7:AC35&lt;&gt;"",ROW(Z7:Z35)-MIN(ROW(Z7:Z35))+1))),ROW()-ROW(A$39)+1))),"")</f>
+        <f t="array" ref="Z48">IFERROR(CONCATENATE(TEXT(INDEX(Z7:Z34,SMALL(IF(ISNUMBER(Z7:Z34),IF(Z7:Z34&gt;0,IF(AC7:AC34&lt;&gt;"",ROW(Z7:Z34)-MIN(ROW(Z7:Z34))+1))),ROW()-ROW(A$38)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(Z7:Z34),IF(Z7:Z34&gt;0,IF(AC7:AC34&lt;&gt;"",ROW(Z7:Z34)-MIN(ROW(Z7:Z34))+1))),ROW()-ROW(A$38)+1)),",",";"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;D7:D34,SMALL(IF(ISNUMBER(Z7:Z34),IF(Z7:Z34&gt;0,IF(AC7:AC34&lt;&gt;"",ROW(Z7:Z34)-MIN(ROW(Z7:Z34))+1))),ROW()-ROW(A$38)+1)),",",";"),",",INDEX(AC7:AC34,SMALL(IF(ISNUMBER(Z7:Z34),IF(Z7:Z34&gt;0,IF(AC7:AC34&lt;&gt;"",ROW(Z7:Z34)-MIN(ROW(Z7:Z34))+1))),ROW()-ROW(A$38)+1))),"")</f>
         <v>0</v>
       </c>
       <c r="AE48">
-        <f t="array" ref="AE48">IFERROR(CONCATENATE(INDEX(AH7:AH35,SMALL(IF(ISNUMBER(AE7:AE35),IF(AE7:AE35&gt;0,IF(AH7:AH35&lt;&gt;"",ROW(AE7:AE35)-MIN(ROW(AE7:AE35))+1))),ROW()-ROW(A$38)+1)),"|",TEXT(INDEX(AE7:AE35,SMALL(IF(ISNUMBER(AE7:AE35),IF(AE7:AE35&gt;0,IF(AH7:AH35&lt;&gt;"",ROW(AE7:AE35)-MIN(ROW(AE7:AE35))+1))),ROW()-ROW(A$38)+1)),"##0"),"|",SUBSTITUTE(SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(AE7:AE35),IF(AE7:AE35&gt;0,IF(AH7:AH35&lt;&gt;"",ROW(AE7:AE35)-MIN(ROW(AE7:AE35))+1))),ROW()-ROW(A$38)+1)),"|",";")," ","_")),"")</f>
+        <f t="array" ref="AE48">IFERROR(CONCATENATE(INDEX(AH7:AH34,SMALL(IF(ISNUMBER(AE7:AE34),IF(AE7:AE34&gt;0,IF(AH7:AH34&lt;&gt;"",ROW(AE7:AE34)-MIN(ROW(AE7:AE34))+1))),ROW()-ROW(A$37)+1)),"|",TEXT(INDEX(AE7:AE34,SMALL(IF(ISNUMBER(AE7:AE34),IF(AE7:AE34&gt;0,IF(AH7:AH34&lt;&gt;"",ROW(AE7:AE34)-MIN(ROW(AE7:AE34))+1))),ROW()-ROW(A$37)+1)),"##0"),"|",SUBSTITUTE(SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(AE7:AE34),IF(AE7:AE34&gt;0,IF(AH7:AH34&lt;&gt;"",ROW(AE7:AE34)-MIN(ROW(AE7:AE34))+1))),ROW()-ROW(A$37)+1)),"|",";")," ","_")),"")</f>
         <v>0</v>
       </c>
       <c r="AJ48">
-        <f t="array" ref="AJ48">IFERROR(CONCATENATE(INDEX(AM7:AM35,SMALL(IF(ISNUMBER(AJ7:AJ35),IF(AJ7:AJ35&gt;0,IF(AM7:AM35&lt;&gt;"",ROW(AJ7:AJ35)-MIN(ROW(AJ7:AJ35))+1))),ROW()-ROW(A$38)+1)),",",TEXT(INDEX(AJ7:AJ35,SMALL(IF(ISNUMBER(AJ7:AJ35),IF(AJ7:AJ35&gt;0,IF(AM7:AM35&lt;&gt;"",ROW(AJ7:AJ35)-MIN(ROW(AJ7:AJ35))+1))),ROW()-ROW(A$38)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(AJ7:AJ35),IF(AJ7:AJ35&gt;0,IF(AM7:AM35&lt;&gt;"",ROW(AJ7:AJ35)-MIN(ROW(AJ7:AJ35))+1))),ROW()-ROW(A$38)+1)),",",";")),"")</f>
+        <f t="array" ref="AJ48">IFERROR(CONCATENATE(INDEX(AM7:AM34,SMALL(IF(ISNUMBER(AJ7:AJ34),IF(AJ7:AJ34&gt;0,IF(AM7:AM34&lt;&gt;"",ROW(AJ7:AJ34)-MIN(ROW(AJ7:AJ34))+1))),ROW()-ROW(A$37)+1)),",",TEXT(INDEX(AJ7:AJ34,SMALL(IF(ISNUMBER(AJ7:AJ34),IF(AJ7:AJ34&gt;0,IF(AM7:AM34&lt;&gt;"",ROW(AJ7:AJ34)-MIN(ROW(AJ7:AJ34))+1))),ROW()-ROW(A$37)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(AJ7:AJ34),IF(AJ7:AJ34&gt;0,IF(AM7:AM34&lt;&gt;"",ROW(AJ7:AJ34)-MIN(ROW(AJ7:AJ34))+1))),ROW()-ROW(A$37)+1)),",",";")),"")</f>
         <v>0</v>
       </c>
       <c r="AO48">
-        <f t="array" ref="AO48">IFERROR(CONCATENATE(INDEX(AR7:AR35,SMALL(IF(ISNUMBER(AO7:AO35),IF(AO7:AO35&gt;0,IF(AR7:AR35&lt;&gt;"",ROW(AO7:AO35)-MIN(ROW(AO7:AO35))+1))),ROW()-ROW(A$38)+1))," ",TEXT(INDEX(AO7:AO35,SMALL(IF(ISNUMBER(AO7:AO35),IF(AO7:AO35&gt;0,IF(AR7:AR35&lt;&gt;"",ROW(AO7:AO35)-MIN(ROW(AO7:AO35))+1))),ROW()-ROW(A$38)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(AO7:AO35),IF(AO7:AO35&gt;0,IF(AR7:AR35&lt;&gt;"",ROW(AO7:AO35)-MIN(ROW(AO7:AO35))+1))),ROW()-ROW(A$38)+1))," ",";")),"")</f>
+        <f t="array" ref="AO48">IFERROR(CONCATENATE(INDEX(AR7:AR34,SMALL(IF(ISNUMBER(AO7:AO34),IF(AO7:AO34&gt;0,IF(AR7:AR34&lt;&gt;"",ROW(AO7:AO34)-MIN(ROW(AO7:AO34))+1))),ROW()-ROW(A$37)+1))," ",TEXT(INDEX(AO7:AO34,SMALL(IF(ISNUMBER(AO7:AO34),IF(AO7:AO34&gt;0,IF(AR7:AR34&lt;&gt;"",ROW(AO7:AO34)-MIN(ROW(AO7:AO34))+1))),ROW()-ROW(A$37)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(AO7:AO34),IF(AO7:AO34&gt;0,IF(AR7:AR34&lt;&gt;"",ROW(AO7:AO34)-MIN(ROW(AO7:AO34))+1))),ROW()-ROW(A$37)+1))," ",";")),"")</f>
         <v>0</v>
       </c>
       <c r="AT48">
-        <f t="array" ref="AT48">IFERROR(CONCATENATE(INDEX(AW7:AW35,SMALL(IF(ISNUMBER(AT7:AT35),IF(AT7:AT35&gt;0,IF(AW7:AW35&lt;&gt;"",ROW(AT7:AT35)-MIN(ROW(AT7:AT35))+1))),ROW()-ROW(A$38)+1))," ",TEXT(INDEX(AT7:AT35,SMALL(IF(ISNUMBER(AT7:AT35),IF(AT7:AT35&gt;0,IF(AW7:AW35&lt;&gt;"",ROW(AT7:AT35)-MIN(ROW(AT7:AT35))+1))),ROW()-ROW(A$38)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(AT7:AT35),IF(AT7:AT35&gt;0,IF(AW7:AW35&lt;&gt;"",ROW(AT7:AT35)-MIN(ROW(AT7:AT35))+1))),ROW()-ROW(A$38)+1))," ",";")),"")</f>
+        <f t="array" ref="AT48">IFERROR(CONCATENATE(INDEX(AW7:AW34,SMALL(IF(ISNUMBER(AT7:AT34),IF(AT7:AT34&gt;0,IF(AW7:AW34&lt;&gt;"",ROW(AT7:AT34)-MIN(ROW(AT7:AT34))+1))),ROW()-ROW(A$37)+1))," ",TEXT(INDEX(AT7:AT34,SMALL(IF(ISNUMBER(AT7:AT34),IF(AT7:AT34&gt;0,IF(AW7:AW34&lt;&gt;"",ROW(AT7:AT34)-MIN(ROW(AT7:AT34))+1))),ROW()-ROW(A$37)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(AT7:AT34),IF(AT7:AT34&gt;0,IF(AW7:AW34&lt;&gt;"",ROW(AT7:AT34)-MIN(ROW(AT7:AT34))+1))),ROW()-ROW(A$37)+1))," ",";")),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="11:46">
       <c r="K49">
-        <f t="array" ref="K49">IFERROR(CONCATENATE(INDEX(N7:N35,SMALL(IF(ISNUMBER(K7:K35),IF(K7:K35&gt;0,IF(N7:N35&lt;&gt;"",ROW(K7:K35)-MIN(ROW(K7:K35))+1))),ROW()-ROW(A$38)+1)),",",TEXT(INDEX(K7:K35,SMALL(IF(ISNUMBER(K7:K35),IF(K7:K35&gt;0,IF(N7:N35&lt;&gt;"",ROW(K7:K35)-MIN(ROW(K7:K35))+1))),ROW()-ROW(A$38)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(K7:K35),IF(K7:K35&gt;0,IF(N7:N35&lt;&gt;"",ROW(K7:K35)-MIN(ROW(K7:K35))+1))),ROW()-ROW(A$38)+1)),",",";")),"")</f>
+        <f t="array" ref="K49">IFERROR(CONCATENATE(INDEX(N7:N34,SMALL(IF(ISNUMBER(K7:K34),IF(K7:K34&gt;0,IF(N7:N34&lt;&gt;"",ROW(K7:K34)-MIN(ROW(K7:K34))+1))),ROW()-ROW(A$37)+1)),",",TEXT(INDEX(K7:K34,SMALL(IF(ISNUMBER(K7:K34),IF(K7:K34&gt;0,IF(N7:N34&lt;&gt;"",ROW(K7:K34)-MIN(ROW(K7:K34))+1))),ROW()-ROW(A$37)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(K7:K34),IF(K7:K34&gt;0,IF(N7:N34&lt;&gt;"",ROW(K7:K34)-MIN(ROW(K7:K34))+1))),ROW()-ROW(A$37)+1)),",",";")),"")</f>
         <v>0</v>
       </c>
       <c r="P49">
-        <f t="array" ref="P49">IFERROR(CONCATENATE(TEXT(INDEX(P7:P35,SMALL(IF(ISNUMBER(P7:P35),IF(P7:P35&gt;0,IF(S7:S35&lt;&gt;"",ROW(P7:P35)-MIN(ROW(P7:P35))+1))),ROW()-ROW(A$38)+1)),"##0"),",",INDEX(S7:S35,SMALL(IF(ISNUMBER(P7:P35),IF(P7:P35&gt;0,IF(S7:S35&lt;&gt;"",ROW(P7:P35)-MIN(ROW(P7:P35))+1))),ROW()-ROW(A$38)+1)),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(P7:P35),IF(P7:P35&gt;0,IF(S7:S35&lt;&gt;"",ROW(P7:P35)-MIN(ROW(P7:P35))+1))),ROW()-ROW(A$38)+1)),",",";")),"")</f>
+        <f t="array" ref="P49">IFERROR(CONCATENATE(TEXT(INDEX(P7:P34,SMALL(IF(ISNUMBER(P7:P34),IF(P7:P34&gt;0,IF(S7:S34&lt;&gt;"",ROW(P7:P34)-MIN(ROW(P7:P34))+1))),ROW()-ROW(A$37)+1)),"##0"),",",INDEX(S7:S34,SMALL(IF(ISNUMBER(P7:P34),IF(P7:P34&gt;0,IF(S7:S34&lt;&gt;"",ROW(P7:P34)-MIN(ROW(P7:P34))+1))),ROW()-ROW(A$37)+1)),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(P7:P34),IF(P7:P34&gt;0,IF(S7:S34&lt;&gt;"",ROW(P7:P34)-MIN(ROW(P7:P34))+1))),ROW()-ROW(A$37)+1)),",",";")),"")</f>
         <v>0</v>
       </c>
       <c r="U49">
-        <f t="array" ref="U49">IFERROR(CONCATENATE(INDEX(X7:X35,SMALL(IF(ISNUMBER(U7:U35),IF(U7:U35&gt;0,IF(X7:X35&lt;&gt;"",ROW(U7:U35)-MIN(ROW(U7:U35))+1))),ROW()-ROW(A$38)+1))," ",TEXT(INDEX(U7:U35,SMALL(IF(ISNUMBER(U7:U35),IF(U7:U35&gt;0,IF(X7:X35&lt;&gt;"",ROW(U7:U35)-MIN(ROW(U7:U35))+1))),ROW()-ROW(A$38)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(U7:U35),IF(U7:U35&gt;0,IF(X7:X35&lt;&gt;"",ROW(U7:U35)-MIN(ROW(U7:U35))+1))),ROW()-ROW(A$38)+1))," ",";")),"")</f>
+        <f t="array" ref="U49">IFERROR(CONCATENATE(INDEX(X7:X34,SMALL(IF(ISNUMBER(U7:U34),IF(U7:U34&gt;0,IF(X7:X34&lt;&gt;"",ROW(U7:U34)-MIN(ROW(U7:U34))+1))),ROW()-ROW(A$37)+1))," ",TEXT(INDEX(U7:U34,SMALL(IF(ISNUMBER(U7:U34),IF(U7:U34&gt;0,IF(X7:X34&lt;&gt;"",ROW(U7:U34)-MIN(ROW(U7:U34))+1))),ROW()-ROW(A$37)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(U7:U34),IF(U7:U34&gt;0,IF(X7:X34&lt;&gt;"",ROW(U7:U34)-MIN(ROW(U7:U34))+1))),ROW()-ROW(A$37)+1))," ",";")),"")</f>
         <v>0</v>
       </c>
       <c r="Z49">
-        <f t="array" ref="Z49">IFERROR(CONCATENATE(TEXT(INDEX(Z7:Z35,SMALL(IF(ISNUMBER(Z7:Z35),IF(Z7:Z35&gt;0,IF(AC7:AC35&lt;&gt;"",ROW(Z7:Z35)-MIN(ROW(Z7:Z35))+1))),ROW()-ROW(A$39)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(Z7:Z35),IF(Z7:Z35&gt;0,IF(AC7:AC35&lt;&gt;"",ROW(Z7:Z35)-MIN(ROW(Z7:Z35))+1))),ROW()-ROW(A$39)+1)),",",";"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;D7:D35,SMALL(IF(ISNUMBER(Z7:Z35),IF(Z7:Z35&gt;0,IF(AC7:AC35&lt;&gt;"",ROW(Z7:Z35)-MIN(ROW(Z7:Z35))+1))),ROW()-ROW(A$39)+1)),",",";"),",",INDEX(AC7:AC35,SMALL(IF(ISNUMBER(Z7:Z35),IF(Z7:Z35&gt;0,IF(AC7:AC35&lt;&gt;"",ROW(Z7:Z35)-MIN(ROW(Z7:Z35))+1))),ROW()-ROW(A$39)+1))),"")</f>
+        <f t="array" ref="Z49">IFERROR(CONCATENATE(TEXT(INDEX(Z7:Z34,SMALL(IF(ISNUMBER(Z7:Z34),IF(Z7:Z34&gt;0,IF(AC7:AC34&lt;&gt;"",ROW(Z7:Z34)-MIN(ROW(Z7:Z34))+1))),ROW()-ROW(A$38)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(Z7:Z34),IF(Z7:Z34&gt;0,IF(AC7:AC34&lt;&gt;"",ROW(Z7:Z34)-MIN(ROW(Z7:Z34))+1))),ROW()-ROW(A$38)+1)),",",";"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;D7:D34,SMALL(IF(ISNUMBER(Z7:Z34),IF(Z7:Z34&gt;0,IF(AC7:AC34&lt;&gt;"",ROW(Z7:Z34)-MIN(ROW(Z7:Z34))+1))),ROW()-ROW(A$38)+1)),",",";"),",",INDEX(AC7:AC34,SMALL(IF(ISNUMBER(Z7:Z34),IF(Z7:Z34&gt;0,IF(AC7:AC34&lt;&gt;"",ROW(Z7:Z34)-MIN(ROW(Z7:Z34))+1))),ROW()-ROW(A$38)+1))),"")</f>
         <v>0</v>
       </c>
       <c r="AE49">
-        <f t="array" ref="AE49">IFERROR(CONCATENATE(INDEX(AH7:AH35,SMALL(IF(ISNUMBER(AE7:AE35),IF(AE7:AE35&gt;0,IF(AH7:AH35&lt;&gt;"",ROW(AE7:AE35)-MIN(ROW(AE7:AE35))+1))),ROW()-ROW(A$38)+1)),"|",TEXT(INDEX(AE7:AE35,SMALL(IF(ISNUMBER(AE7:AE35),IF(AE7:AE35&gt;0,IF(AH7:AH35&lt;&gt;"",ROW(AE7:AE35)-MIN(ROW(AE7:AE35))+1))),ROW()-ROW(A$38)+1)),"##0"),"|",SUBSTITUTE(SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(AE7:AE35),IF(AE7:AE35&gt;0,IF(AH7:AH35&lt;&gt;"",ROW(AE7:AE35)-MIN(ROW(AE7:AE35))+1))),ROW()-ROW(A$38)+1)),"|",";")," ","_")),"")</f>
+        <f t="array" ref="AE49">IFERROR(CONCATENATE(INDEX(AH7:AH34,SMALL(IF(ISNUMBER(AE7:AE34),IF(AE7:AE34&gt;0,IF(AH7:AH34&lt;&gt;"",ROW(AE7:AE34)-MIN(ROW(AE7:AE34))+1))),ROW()-ROW(A$37)+1)),"|",TEXT(INDEX(AE7:AE34,SMALL(IF(ISNUMBER(AE7:AE34),IF(AE7:AE34&gt;0,IF(AH7:AH34&lt;&gt;"",ROW(AE7:AE34)-MIN(ROW(AE7:AE34))+1))),ROW()-ROW(A$37)+1)),"##0"),"|",SUBSTITUTE(SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(AE7:AE34),IF(AE7:AE34&gt;0,IF(AH7:AH34&lt;&gt;"",ROW(AE7:AE34)-MIN(ROW(AE7:AE34))+1))),ROW()-ROW(A$37)+1)),"|",";")," ","_")),"")</f>
         <v>0</v>
       </c>
       <c r="AJ49">
-        <f t="array" ref="AJ49">IFERROR(CONCATENATE(INDEX(AM7:AM35,SMALL(IF(ISNUMBER(AJ7:AJ35),IF(AJ7:AJ35&gt;0,IF(AM7:AM35&lt;&gt;"",ROW(AJ7:AJ35)-MIN(ROW(AJ7:AJ35))+1))),ROW()-ROW(A$38)+1)),",",TEXT(INDEX(AJ7:AJ35,SMALL(IF(ISNUMBER(AJ7:AJ35),IF(AJ7:AJ35&gt;0,IF(AM7:AM35&lt;&gt;"",ROW(AJ7:AJ35)-MIN(ROW(AJ7:AJ35))+1))),ROW()-ROW(A$38)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(AJ7:AJ35),IF(AJ7:AJ35&gt;0,IF(AM7:AM35&lt;&gt;"",ROW(AJ7:AJ35)-MIN(ROW(AJ7:AJ35))+1))),ROW()-ROW(A$38)+1)),",",";")),"")</f>
+        <f t="array" ref="AJ49">IFERROR(CONCATENATE(INDEX(AM7:AM34,SMALL(IF(ISNUMBER(AJ7:AJ34),IF(AJ7:AJ34&gt;0,IF(AM7:AM34&lt;&gt;"",ROW(AJ7:AJ34)-MIN(ROW(AJ7:AJ34))+1))),ROW()-ROW(A$37)+1)),",",TEXT(INDEX(AJ7:AJ34,SMALL(IF(ISNUMBER(AJ7:AJ34),IF(AJ7:AJ34&gt;0,IF(AM7:AM34&lt;&gt;"",ROW(AJ7:AJ34)-MIN(ROW(AJ7:AJ34))+1))),ROW()-ROW(A$37)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(AJ7:AJ34),IF(AJ7:AJ34&gt;0,IF(AM7:AM34&lt;&gt;"",ROW(AJ7:AJ34)-MIN(ROW(AJ7:AJ34))+1))),ROW()-ROW(A$37)+1)),",",";")),"")</f>
         <v>0</v>
       </c>
       <c r="AO49">
-        <f t="array" ref="AO49">IFERROR(CONCATENATE(INDEX(AR7:AR35,SMALL(IF(ISNUMBER(AO7:AO35),IF(AO7:AO35&gt;0,IF(AR7:AR35&lt;&gt;"",ROW(AO7:AO35)-MIN(ROW(AO7:AO35))+1))),ROW()-ROW(A$38)+1))," ",TEXT(INDEX(AO7:AO35,SMALL(IF(ISNUMBER(AO7:AO35),IF(AO7:AO35&gt;0,IF(AR7:AR35&lt;&gt;"",ROW(AO7:AO35)-MIN(ROW(AO7:AO35))+1))),ROW()-ROW(A$38)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(AO7:AO35),IF(AO7:AO35&gt;0,IF(AR7:AR35&lt;&gt;"",ROW(AO7:AO35)-MIN(ROW(AO7:AO35))+1))),ROW()-ROW(A$38)+1))," ",";")),"")</f>
+        <f t="array" ref="AO49">IFERROR(CONCATENATE(INDEX(AR7:AR34,SMALL(IF(ISNUMBER(AO7:AO34),IF(AO7:AO34&gt;0,IF(AR7:AR34&lt;&gt;"",ROW(AO7:AO34)-MIN(ROW(AO7:AO34))+1))),ROW()-ROW(A$37)+1))," ",TEXT(INDEX(AO7:AO34,SMALL(IF(ISNUMBER(AO7:AO34),IF(AO7:AO34&gt;0,IF(AR7:AR34&lt;&gt;"",ROW(AO7:AO34)-MIN(ROW(AO7:AO34))+1))),ROW()-ROW(A$37)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(AO7:AO34),IF(AO7:AO34&gt;0,IF(AR7:AR34&lt;&gt;"",ROW(AO7:AO34)-MIN(ROW(AO7:AO34))+1))),ROW()-ROW(A$37)+1))," ",";")),"")</f>
         <v>0</v>
       </c>
       <c r="AT49">
-        <f t="array" ref="AT49">IFERROR(CONCATENATE(INDEX(AW7:AW35,SMALL(IF(ISNUMBER(AT7:AT35),IF(AT7:AT35&gt;0,IF(AW7:AW35&lt;&gt;"",ROW(AT7:AT35)-MIN(ROW(AT7:AT35))+1))),ROW()-ROW(A$38)+1))," ",TEXT(INDEX(AT7:AT35,SMALL(IF(ISNUMBER(AT7:AT35),IF(AT7:AT35&gt;0,IF(AW7:AW35&lt;&gt;"",ROW(AT7:AT35)-MIN(ROW(AT7:AT35))+1))),ROW()-ROW(A$38)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(AT7:AT35),IF(AT7:AT35&gt;0,IF(AW7:AW35&lt;&gt;"",ROW(AT7:AT35)-MIN(ROW(AT7:AT35))+1))),ROW()-ROW(A$38)+1))," ",";")),"")</f>
+        <f t="array" ref="AT49">IFERROR(CONCATENATE(INDEX(AW7:AW34,SMALL(IF(ISNUMBER(AT7:AT34),IF(AT7:AT34&gt;0,IF(AW7:AW34&lt;&gt;"",ROW(AT7:AT34)-MIN(ROW(AT7:AT34))+1))),ROW()-ROW(A$37)+1))," ",TEXT(INDEX(AT7:AT34,SMALL(IF(ISNUMBER(AT7:AT34),IF(AT7:AT34&gt;0,IF(AW7:AW34&lt;&gt;"",ROW(AT7:AT34)-MIN(ROW(AT7:AT34))+1))),ROW()-ROW(A$37)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(AT7:AT34),IF(AT7:AT34&gt;0,IF(AW7:AW34&lt;&gt;"",ROW(AT7:AT34)-MIN(ROW(AT7:AT34))+1))),ROW()-ROW(A$37)+1))," ",";")),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="11:46">
       <c r="K50">
-        <f t="array" ref="K50">IFERROR(CONCATENATE(INDEX(N7:N35,SMALL(IF(ISNUMBER(K7:K35),IF(K7:K35&gt;0,IF(N7:N35&lt;&gt;"",ROW(K7:K35)-MIN(ROW(K7:K35))+1))),ROW()-ROW(A$38)+1)),",",TEXT(INDEX(K7:K35,SMALL(IF(ISNUMBER(K7:K35),IF(K7:K35&gt;0,IF(N7:N35&lt;&gt;"",ROW(K7:K35)-MIN(ROW(K7:K35))+1))),ROW()-ROW(A$38)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(K7:K35),IF(K7:K35&gt;0,IF(N7:N35&lt;&gt;"",ROW(K7:K35)-MIN(ROW(K7:K35))+1))),ROW()-ROW(A$38)+1)),",",";")),"")</f>
+        <f t="array" ref="K50">IFERROR(CONCATENATE(INDEX(N7:N34,SMALL(IF(ISNUMBER(K7:K34),IF(K7:K34&gt;0,IF(N7:N34&lt;&gt;"",ROW(K7:K34)-MIN(ROW(K7:K34))+1))),ROW()-ROW(A$37)+1)),",",TEXT(INDEX(K7:K34,SMALL(IF(ISNUMBER(K7:K34),IF(K7:K34&gt;0,IF(N7:N34&lt;&gt;"",ROW(K7:K34)-MIN(ROW(K7:K34))+1))),ROW()-ROW(A$37)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(K7:K34),IF(K7:K34&gt;0,IF(N7:N34&lt;&gt;"",ROW(K7:K34)-MIN(ROW(K7:K34))+1))),ROW()-ROW(A$37)+1)),",",";")),"")</f>
         <v>0</v>
       </c>
       <c r="P50">
-        <f t="array" ref="P50">IFERROR(CONCATENATE(TEXT(INDEX(P7:P35,SMALL(IF(ISNUMBER(P7:P35),IF(P7:P35&gt;0,IF(S7:S35&lt;&gt;"",ROW(P7:P35)-MIN(ROW(P7:P35))+1))),ROW()-ROW(A$38)+1)),"##0"),",",INDEX(S7:S35,SMALL(IF(ISNUMBER(P7:P35),IF(P7:P35&gt;0,IF(S7:S35&lt;&gt;"",ROW(P7:P35)-MIN(ROW(P7:P35))+1))),ROW()-ROW(A$38)+1)),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(P7:P35),IF(P7:P35&gt;0,IF(S7:S35&lt;&gt;"",ROW(P7:P35)-MIN(ROW(P7:P35))+1))),ROW()-ROW(A$38)+1)),",",";")),"")</f>
+        <f t="array" ref="P50">IFERROR(CONCATENATE(TEXT(INDEX(P7:P34,SMALL(IF(ISNUMBER(P7:P34),IF(P7:P34&gt;0,IF(S7:S34&lt;&gt;"",ROW(P7:P34)-MIN(ROW(P7:P34))+1))),ROW()-ROW(A$37)+1)),"##0"),",",INDEX(S7:S34,SMALL(IF(ISNUMBER(P7:P34),IF(P7:P34&gt;0,IF(S7:S34&lt;&gt;"",ROW(P7:P34)-MIN(ROW(P7:P34))+1))),ROW()-ROW(A$37)+1)),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(P7:P34),IF(P7:P34&gt;0,IF(S7:S34&lt;&gt;"",ROW(P7:P34)-MIN(ROW(P7:P34))+1))),ROW()-ROW(A$37)+1)),",",";")),"")</f>
         <v>0</v>
       </c>
       <c r="U50">
-        <f t="array" ref="U50">IFERROR(CONCATENATE(INDEX(X7:X35,SMALL(IF(ISNUMBER(U7:U35),IF(U7:U35&gt;0,IF(X7:X35&lt;&gt;"",ROW(U7:U35)-MIN(ROW(U7:U35))+1))),ROW()-ROW(A$38)+1))," ",TEXT(INDEX(U7:U35,SMALL(IF(ISNUMBER(U7:U35),IF(U7:U35&gt;0,IF(X7:X35&lt;&gt;"",ROW(U7:U35)-MIN(ROW(U7:U35))+1))),ROW()-ROW(A$38)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(U7:U35),IF(U7:U35&gt;0,IF(X7:X35&lt;&gt;"",ROW(U7:U35)-MIN(ROW(U7:U35))+1))),ROW()-ROW(A$38)+1))," ",";")),"")</f>
+        <f t="array" ref="U50">IFERROR(CONCATENATE(INDEX(X7:X34,SMALL(IF(ISNUMBER(U7:U34),IF(U7:U34&gt;0,IF(X7:X34&lt;&gt;"",ROW(U7:U34)-MIN(ROW(U7:U34))+1))),ROW()-ROW(A$37)+1))," ",TEXT(INDEX(U7:U34,SMALL(IF(ISNUMBER(U7:U34),IF(U7:U34&gt;0,IF(X7:X34&lt;&gt;"",ROW(U7:U34)-MIN(ROW(U7:U34))+1))),ROW()-ROW(A$37)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(U7:U34),IF(U7:U34&gt;0,IF(X7:X34&lt;&gt;"",ROW(U7:U34)-MIN(ROW(U7:U34))+1))),ROW()-ROW(A$37)+1))," ",";")),"")</f>
         <v>0</v>
       </c>
       <c r="Z50">
-        <f t="array" ref="Z50">IFERROR(CONCATENATE(TEXT(INDEX(Z7:Z35,SMALL(IF(ISNUMBER(Z7:Z35),IF(Z7:Z35&gt;0,IF(AC7:AC35&lt;&gt;"",ROW(Z7:Z35)-MIN(ROW(Z7:Z35))+1))),ROW()-ROW(A$39)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(Z7:Z35),IF(Z7:Z35&gt;0,IF(AC7:AC35&lt;&gt;"",ROW(Z7:Z35)-MIN(ROW(Z7:Z35))+1))),ROW()-ROW(A$39)+1)),",",";"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;D7:D35,SMALL(IF(ISNUMBER(Z7:Z35),IF(Z7:Z35&gt;0,IF(AC7:AC35&lt;&gt;"",ROW(Z7:Z35)-MIN(ROW(Z7:Z35))+1))),ROW()-ROW(A$39)+1)),",",";"),",",INDEX(AC7:AC35,SMALL(IF(ISNUMBER(Z7:Z35),IF(Z7:Z35&gt;0,IF(AC7:AC35&lt;&gt;"",ROW(Z7:Z35)-MIN(ROW(Z7:Z35))+1))),ROW()-ROW(A$39)+1))),"")</f>
+        <f t="array" ref="Z50">IFERROR(CONCATENATE(TEXT(INDEX(Z7:Z34,SMALL(IF(ISNUMBER(Z7:Z34),IF(Z7:Z34&gt;0,IF(AC7:AC34&lt;&gt;"",ROW(Z7:Z34)-MIN(ROW(Z7:Z34))+1))),ROW()-ROW(A$38)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(Z7:Z34),IF(Z7:Z34&gt;0,IF(AC7:AC34&lt;&gt;"",ROW(Z7:Z34)-MIN(ROW(Z7:Z34))+1))),ROW()-ROW(A$38)+1)),",",";"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;D7:D34,SMALL(IF(ISNUMBER(Z7:Z34),IF(Z7:Z34&gt;0,IF(AC7:AC34&lt;&gt;"",ROW(Z7:Z34)-MIN(ROW(Z7:Z34))+1))),ROW()-ROW(A$38)+1)),",",";"),",",INDEX(AC7:AC34,SMALL(IF(ISNUMBER(Z7:Z34),IF(Z7:Z34&gt;0,IF(AC7:AC34&lt;&gt;"",ROW(Z7:Z34)-MIN(ROW(Z7:Z34))+1))),ROW()-ROW(A$38)+1))),"")</f>
         <v>0</v>
       </c>
       <c r="AE50">
-        <f t="array" ref="AE50">IFERROR(CONCATENATE(INDEX(AH7:AH35,SMALL(IF(ISNUMBER(AE7:AE35),IF(AE7:AE35&gt;0,IF(AH7:AH35&lt;&gt;"",ROW(AE7:AE35)-MIN(ROW(AE7:AE35))+1))),ROW()-ROW(A$38)+1)),"|",TEXT(INDEX(AE7:AE35,SMALL(IF(ISNUMBER(AE7:AE35),IF(AE7:AE35&gt;0,IF(AH7:AH35&lt;&gt;"",ROW(AE7:AE35)-MIN(ROW(AE7:AE35))+1))),ROW()-ROW(A$38)+1)),"##0"),"|",SUBSTITUTE(SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(AE7:AE35),IF(AE7:AE35&gt;0,IF(AH7:AH35&lt;&gt;"",ROW(AE7:AE35)-MIN(ROW(AE7:AE35))+1))),ROW()-ROW(A$38)+1)),"|",";")," ","_")),"")</f>
+        <f t="array" ref="AE50">IFERROR(CONCATENATE(INDEX(AH7:AH34,SMALL(IF(ISNUMBER(AE7:AE34),IF(AE7:AE34&gt;0,IF(AH7:AH34&lt;&gt;"",ROW(AE7:AE34)-MIN(ROW(AE7:AE34))+1))),ROW()-ROW(A$37)+1)),"|",TEXT(INDEX(AE7:AE34,SMALL(IF(ISNUMBER(AE7:AE34),IF(AE7:AE34&gt;0,IF(AH7:AH34&lt;&gt;"",ROW(AE7:AE34)-MIN(ROW(AE7:AE34))+1))),ROW()-ROW(A$37)+1)),"##0"),"|",SUBSTITUTE(SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(AE7:AE34),IF(AE7:AE34&gt;0,IF(AH7:AH34&lt;&gt;"",ROW(AE7:AE34)-MIN(ROW(AE7:AE34))+1))),ROW()-ROW(A$37)+1)),"|",";")," ","_")),"")</f>
         <v>0</v>
       </c>
       <c r="AJ50">
-        <f t="array" ref="AJ50">IFERROR(CONCATENATE(INDEX(AM7:AM35,SMALL(IF(ISNUMBER(AJ7:AJ35),IF(AJ7:AJ35&gt;0,IF(AM7:AM35&lt;&gt;"",ROW(AJ7:AJ35)-MIN(ROW(AJ7:AJ35))+1))),ROW()-ROW(A$38)+1)),",",TEXT(INDEX(AJ7:AJ35,SMALL(IF(ISNUMBER(AJ7:AJ35),IF(AJ7:AJ35&gt;0,IF(AM7:AM35&lt;&gt;"",ROW(AJ7:AJ35)-MIN(ROW(AJ7:AJ35))+1))),ROW()-ROW(A$38)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(AJ7:AJ35),IF(AJ7:AJ35&gt;0,IF(AM7:AM35&lt;&gt;"",ROW(AJ7:AJ35)-MIN(ROW(AJ7:AJ35))+1))),ROW()-ROW(A$38)+1)),",",";")),"")</f>
+        <f t="array" ref="AJ50">IFERROR(CONCATENATE(INDEX(AM7:AM34,SMALL(IF(ISNUMBER(AJ7:AJ34),IF(AJ7:AJ34&gt;0,IF(AM7:AM34&lt;&gt;"",ROW(AJ7:AJ34)-MIN(ROW(AJ7:AJ34))+1))),ROW()-ROW(A$37)+1)),",",TEXT(INDEX(AJ7:AJ34,SMALL(IF(ISNUMBER(AJ7:AJ34),IF(AJ7:AJ34&gt;0,IF(AM7:AM34&lt;&gt;"",ROW(AJ7:AJ34)-MIN(ROW(AJ7:AJ34))+1))),ROW()-ROW(A$37)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(AJ7:AJ34),IF(AJ7:AJ34&gt;0,IF(AM7:AM34&lt;&gt;"",ROW(AJ7:AJ34)-MIN(ROW(AJ7:AJ34))+1))),ROW()-ROW(A$37)+1)),",",";")),"")</f>
         <v>0</v>
       </c>
       <c r="AO50">
-        <f t="array" ref="AO50">IFERROR(CONCATENATE(INDEX(AR7:AR35,SMALL(IF(ISNUMBER(AO7:AO35),IF(AO7:AO35&gt;0,IF(AR7:AR35&lt;&gt;"",ROW(AO7:AO35)-MIN(ROW(AO7:AO35))+1))),ROW()-ROW(A$38)+1))," ",TEXT(INDEX(AO7:AO35,SMALL(IF(ISNUMBER(AO7:AO35),IF(AO7:AO35&gt;0,IF(AR7:AR35&lt;&gt;"",ROW(AO7:AO35)-MIN(ROW(AO7:AO35))+1))),ROW()-ROW(A$38)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(AO7:AO35),IF(AO7:AO35&gt;0,IF(AR7:AR35&lt;&gt;"",ROW(AO7:AO35)-MIN(ROW(AO7:AO35))+1))),ROW()-ROW(A$38)+1))," ",";")),"")</f>
+        <f t="array" ref="AO50">IFERROR(CONCATENATE(INDEX(AR7:AR34,SMALL(IF(ISNUMBER(AO7:AO34),IF(AO7:AO34&gt;0,IF(AR7:AR34&lt;&gt;"",ROW(AO7:AO34)-MIN(ROW(AO7:AO34))+1))),ROW()-ROW(A$37)+1))," ",TEXT(INDEX(AO7:AO34,SMALL(IF(ISNUMBER(AO7:AO34),IF(AO7:AO34&gt;0,IF(AR7:AR34&lt;&gt;"",ROW(AO7:AO34)-MIN(ROW(AO7:AO34))+1))),ROW()-ROW(A$37)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(AO7:AO34),IF(AO7:AO34&gt;0,IF(AR7:AR34&lt;&gt;"",ROW(AO7:AO34)-MIN(ROW(AO7:AO34))+1))),ROW()-ROW(A$37)+1))," ",";")),"")</f>
         <v>0</v>
       </c>
       <c r="AT50">
-        <f t="array" ref="AT50">IFERROR(CONCATENATE(INDEX(AW7:AW35,SMALL(IF(ISNUMBER(AT7:AT35),IF(AT7:AT35&gt;0,IF(AW7:AW35&lt;&gt;"",ROW(AT7:AT35)-MIN(ROW(AT7:AT35))+1))),ROW()-ROW(A$38)+1))," ",TEXT(INDEX(AT7:AT35,SMALL(IF(ISNUMBER(AT7:AT35),IF(AT7:AT35&gt;0,IF(AW7:AW35&lt;&gt;"",ROW(AT7:AT35)-MIN(ROW(AT7:AT35))+1))),ROW()-ROW(A$38)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(AT7:AT35),IF(AT7:AT35&gt;0,IF(AW7:AW35&lt;&gt;"",ROW(AT7:AT35)-MIN(ROW(AT7:AT35))+1))),ROW()-ROW(A$38)+1))," ",";")),"")</f>
+        <f t="array" ref="AT50">IFERROR(CONCATENATE(INDEX(AW7:AW34,SMALL(IF(ISNUMBER(AT7:AT34),IF(AT7:AT34&gt;0,IF(AW7:AW34&lt;&gt;"",ROW(AT7:AT34)-MIN(ROW(AT7:AT34))+1))),ROW()-ROW(A$37)+1))," ",TEXT(INDEX(AT7:AT34,SMALL(IF(ISNUMBER(AT7:AT34),IF(AT7:AT34&gt;0,IF(AW7:AW34&lt;&gt;"",ROW(AT7:AT34)-MIN(ROW(AT7:AT34))+1))),ROW()-ROW(A$37)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(AT7:AT34),IF(AT7:AT34&gt;0,IF(AW7:AW34&lt;&gt;"",ROW(AT7:AT34)-MIN(ROW(AT7:AT34))+1))),ROW()-ROW(A$37)+1))," ",";")),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="11:46">
       <c r="K51">
-        <f t="array" ref="K51">IFERROR(CONCATENATE(INDEX(N7:N35,SMALL(IF(ISNUMBER(K7:K35),IF(K7:K35&gt;0,IF(N7:N35&lt;&gt;"",ROW(K7:K35)-MIN(ROW(K7:K35))+1))),ROW()-ROW(A$38)+1)),",",TEXT(INDEX(K7:K35,SMALL(IF(ISNUMBER(K7:K35),IF(K7:K35&gt;0,IF(N7:N35&lt;&gt;"",ROW(K7:K35)-MIN(ROW(K7:K35))+1))),ROW()-ROW(A$38)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(K7:K35),IF(K7:K35&gt;0,IF(N7:N35&lt;&gt;"",ROW(K7:K35)-MIN(ROW(K7:K35))+1))),ROW()-ROW(A$38)+1)),",",";")),"")</f>
+        <f t="array" ref="K51">IFERROR(CONCATENATE(INDEX(N7:N34,SMALL(IF(ISNUMBER(K7:K34),IF(K7:K34&gt;0,IF(N7:N34&lt;&gt;"",ROW(K7:K34)-MIN(ROW(K7:K34))+1))),ROW()-ROW(A$37)+1)),",",TEXT(INDEX(K7:K34,SMALL(IF(ISNUMBER(K7:K34),IF(K7:K34&gt;0,IF(N7:N34&lt;&gt;"",ROW(K7:K34)-MIN(ROW(K7:K34))+1))),ROW()-ROW(A$37)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(K7:K34),IF(K7:K34&gt;0,IF(N7:N34&lt;&gt;"",ROW(K7:K34)-MIN(ROW(K7:K34))+1))),ROW()-ROW(A$37)+1)),",",";")),"")</f>
         <v>0</v>
       </c>
       <c r="P51">
-        <f t="array" ref="P51">IFERROR(CONCATENATE(TEXT(INDEX(P7:P35,SMALL(IF(ISNUMBER(P7:P35),IF(P7:P35&gt;0,IF(S7:S35&lt;&gt;"",ROW(P7:P35)-MIN(ROW(P7:P35))+1))),ROW()-ROW(A$38)+1)),"##0"),",",INDEX(S7:S35,SMALL(IF(ISNUMBER(P7:P35),IF(P7:P35&gt;0,IF(S7:S35&lt;&gt;"",ROW(P7:P35)-MIN(ROW(P7:P35))+1))),ROW()-ROW(A$38)+1)),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(P7:P35),IF(P7:P35&gt;0,IF(S7:S35&lt;&gt;"",ROW(P7:P35)-MIN(ROW(P7:P35))+1))),ROW()-ROW(A$38)+1)),",",";")),"")</f>
+        <f t="array" ref="P51">IFERROR(CONCATENATE(TEXT(INDEX(P7:P34,SMALL(IF(ISNUMBER(P7:P34),IF(P7:P34&gt;0,IF(S7:S34&lt;&gt;"",ROW(P7:P34)-MIN(ROW(P7:P34))+1))),ROW()-ROW(A$37)+1)),"##0"),",",INDEX(S7:S34,SMALL(IF(ISNUMBER(P7:P34),IF(P7:P34&gt;0,IF(S7:S34&lt;&gt;"",ROW(P7:P34)-MIN(ROW(P7:P34))+1))),ROW()-ROW(A$37)+1)),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(P7:P34),IF(P7:P34&gt;0,IF(S7:S34&lt;&gt;"",ROW(P7:P34)-MIN(ROW(P7:P34))+1))),ROW()-ROW(A$37)+1)),",",";")),"")</f>
         <v>0</v>
       </c>
       <c r="U51">
-        <f t="array" ref="U51">IFERROR(CONCATENATE(INDEX(X7:X35,SMALL(IF(ISNUMBER(U7:U35),IF(U7:U35&gt;0,IF(X7:X35&lt;&gt;"",ROW(U7:U35)-MIN(ROW(U7:U35))+1))),ROW()-ROW(A$38)+1))," ",TEXT(INDEX(U7:U35,SMALL(IF(ISNUMBER(U7:U35),IF(U7:U35&gt;0,IF(X7:X35&lt;&gt;"",ROW(U7:U35)-MIN(ROW(U7:U35))+1))),ROW()-ROW(A$38)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(U7:U35),IF(U7:U35&gt;0,IF(X7:X35&lt;&gt;"",ROW(U7:U35)-MIN(ROW(U7:U35))+1))),ROW()-ROW(A$38)+1))," ",";")),"")</f>
+        <f t="array" ref="U51">IFERROR(CONCATENATE(INDEX(X7:X34,SMALL(IF(ISNUMBER(U7:U34),IF(U7:U34&gt;0,IF(X7:X34&lt;&gt;"",ROW(U7:U34)-MIN(ROW(U7:U34))+1))),ROW()-ROW(A$37)+1))," ",TEXT(INDEX(U7:U34,SMALL(IF(ISNUMBER(U7:U34),IF(U7:U34&gt;0,IF(X7:X34&lt;&gt;"",ROW(U7:U34)-MIN(ROW(U7:U34))+1))),ROW()-ROW(A$37)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(U7:U34),IF(U7:U34&gt;0,IF(X7:X34&lt;&gt;"",ROW(U7:U34)-MIN(ROW(U7:U34))+1))),ROW()-ROW(A$37)+1))," ",";")),"")</f>
         <v>0</v>
       </c>
       <c r="Z51">
-        <f t="array" ref="Z51">IFERROR(CONCATENATE(TEXT(INDEX(Z7:Z35,SMALL(IF(ISNUMBER(Z7:Z35),IF(Z7:Z35&gt;0,IF(AC7:AC35&lt;&gt;"",ROW(Z7:Z35)-MIN(ROW(Z7:Z35))+1))),ROW()-ROW(A$39)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(Z7:Z35),IF(Z7:Z35&gt;0,IF(AC7:AC35&lt;&gt;"",ROW(Z7:Z35)-MIN(ROW(Z7:Z35))+1))),ROW()-ROW(A$39)+1)),",",";"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;D7:D35,SMALL(IF(ISNUMBER(Z7:Z35),IF(Z7:Z35&gt;0,IF(AC7:AC35&lt;&gt;"",ROW(Z7:Z35)-MIN(ROW(Z7:Z35))+1))),ROW()-ROW(A$39)+1)),",",";"),",",INDEX(AC7:AC35,SMALL(IF(ISNUMBER(Z7:Z35),IF(Z7:Z35&gt;0,IF(AC7:AC35&lt;&gt;"",ROW(Z7:Z35)-MIN(ROW(Z7:Z35))+1))),ROW()-ROW(A$39)+1))),"")</f>
+        <f t="array" ref="Z51">IFERROR(CONCATENATE(TEXT(INDEX(Z7:Z34,SMALL(IF(ISNUMBER(Z7:Z34),IF(Z7:Z34&gt;0,IF(AC7:AC34&lt;&gt;"",ROW(Z7:Z34)-MIN(ROW(Z7:Z34))+1))),ROW()-ROW(A$38)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(Z7:Z34),IF(Z7:Z34&gt;0,IF(AC7:AC34&lt;&gt;"",ROW(Z7:Z34)-MIN(ROW(Z7:Z34))+1))),ROW()-ROW(A$38)+1)),",",";"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;D7:D34,SMALL(IF(ISNUMBER(Z7:Z34),IF(Z7:Z34&gt;0,IF(AC7:AC34&lt;&gt;"",ROW(Z7:Z34)-MIN(ROW(Z7:Z34))+1))),ROW()-ROW(A$38)+1)),",",";"),",",INDEX(AC7:AC34,SMALL(IF(ISNUMBER(Z7:Z34),IF(Z7:Z34&gt;0,IF(AC7:AC34&lt;&gt;"",ROW(Z7:Z34)-MIN(ROW(Z7:Z34))+1))),ROW()-ROW(A$38)+1))),"")</f>
         <v>0</v>
       </c>
       <c r="AE51">
-        <f t="array" ref="AE51">IFERROR(CONCATENATE(INDEX(AH7:AH35,SMALL(IF(ISNUMBER(AE7:AE35),IF(AE7:AE35&gt;0,IF(AH7:AH35&lt;&gt;"",ROW(AE7:AE35)-MIN(ROW(AE7:AE35))+1))),ROW()-ROW(A$38)+1)),"|",TEXT(INDEX(AE7:AE35,SMALL(IF(ISNUMBER(AE7:AE35),IF(AE7:AE35&gt;0,IF(AH7:AH35&lt;&gt;"",ROW(AE7:AE35)-MIN(ROW(AE7:AE35))+1))),ROW()-ROW(A$38)+1)),"##0"),"|",SUBSTITUTE(SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(AE7:AE35),IF(AE7:AE35&gt;0,IF(AH7:AH35&lt;&gt;"",ROW(AE7:AE35)-MIN(ROW(AE7:AE35))+1))),ROW()-ROW(A$38)+1)),"|",";")," ","_")),"")</f>
+        <f t="array" ref="AE51">IFERROR(CONCATENATE(INDEX(AH7:AH34,SMALL(IF(ISNUMBER(AE7:AE34),IF(AE7:AE34&gt;0,IF(AH7:AH34&lt;&gt;"",ROW(AE7:AE34)-MIN(ROW(AE7:AE34))+1))),ROW()-ROW(A$37)+1)),"|",TEXT(INDEX(AE7:AE34,SMALL(IF(ISNUMBER(AE7:AE34),IF(AE7:AE34&gt;0,IF(AH7:AH34&lt;&gt;"",ROW(AE7:AE34)-MIN(ROW(AE7:AE34))+1))),ROW()-ROW(A$37)+1)),"##0"),"|",SUBSTITUTE(SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(AE7:AE34),IF(AE7:AE34&gt;0,IF(AH7:AH34&lt;&gt;"",ROW(AE7:AE34)-MIN(ROW(AE7:AE34))+1))),ROW()-ROW(A$37)+1)),"|",";")," ","_")),"")</f>
         <v>0</v>
       </c>
       <c r="AJ51">
-        <f t="array" ref="AJ51">IFERROR(CONCATENATE(INDEX(AM7:AM35,SMALL(IF(ISNUMBER(AJ7:AJ35),IF(AJ7:AJ35&gt;0,IF(AM7:AM35&lt;&gt;"",ROW(AJ7:AJ35)-MIN(ROW(AJ7:AJ35))+1))),ROW()-ROW(A$38)+1)),",",TEXT(INDEX(AJ7:AJ35,SMALL(IF(ISNUMBER(AJ7:AJ35),IF(AJ7:AJ35&gt;0,IF(AM7:AM35&lt;&gt;"",ROW(AJ7:AJ35)-MIN(ROW(AJ7:AJ35))+1))),ROW()-ROW(A$38)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(AJ7:AJ35),IF(AJ7:AJ35&gt;0,IF(AM7:AM35&lt;&gt;"",ROW(AJ7:AJ35)-MIN(ROW(AJ7:AJ35))+1))),ROW()-ROW(A$38)+1)),",",";")),"")</f>
+        <f t="array" ref="AJ51">IFERROR(CONCATENATE(INDEX(AM7:AM34,SMALL(IF(ISNUMBER(AJ7:AJ34),IF(AJ7:AJ34&gt;0,IF(AM7:AM34&lt;&gt;"",ROW(AJ7:AJ34)-MIN(ROW(AJ7:AJ34))+1))),ROW()-ROW(A$37)+1)),",",TEXT(INDEX(AJ7:AJ34,SMALL(IF(ISNUMBER(AJ7:AJ34),IF(AJ7:AJ34&gt;0,IF(AM7:AM34&lt;&gt;"",ROW(AJ7:AJ34)-MIN(ROW(AJ7:AJ34))+1))),ROW()-ROW(A$37)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(AJ7:AJ34),IF(AJ7:AJ34&gt;0,IF(AM7:AM34&lt;&gt;"",ROW(AJ7:AJ34)-MIN(ROW(AJ7:AJ34))+1))),ROW()-ROW(A$37)+1)),",",";")),"")</f>
         <v>0</v>
       </c>
       <c r="AO51">
-        <f t="array" ref="AO51">IFERROR(CONCATENATE(INDEX(AR7:AR35,SMALL(IF(ISNUMBER(AO7:AO35),IF(AO7:AO35&gt;0,IF(AR7:AR35&lt;&gt;"",ROW(AO7:AO35)-MIN(ROW(AO7:AO35))+1))),ROW()-ROW(A$38)+1))," ",TEXT(INDEX(AO7:AO35,SMALL(IF(ISNUMBER(AO7:AO35),IF(AO7:AO35&gt;0,IF(AR7:AR35&lt;&gt;"",ROW(AO7:AO35)-MIN(ROW(AO7:AO35))+1))),ROW()-ROW(A$38)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(AO7:AO35),IF(AO7:AO35&gt;0,IF(AR7:AR35&lt;&gt;"",ROW(AO7:AO35)-MIN(ROW(AO7:AO35))+1))),ROW()-ROW(A$38)+1))," ",";")),"")</f>
+        <f t="array" ref="AO51">IFERROR(CONCATENATE(INDEX(AR7:AR34,SMALL(IF(ISNUMBER(AO7:AO34),IF(AO7:AO34&gt;0,IF(AR7:AR34&lt;&gt;"",ROW(AO7:AO34)-MIN(ROW(AO7:AO34))+1))),ROW()-ROW(A$37)+1))," ",TEXT(INDEX(AO7:AO34,SMALL(IF(ISNUMBER(AO7:AO34),IF(AO7:AO34&gt;0,IF(AR7:AR34&lt;&gt;"",ROW(AO7:AO34)-MIN(ROW(AO7:AO34))+1))),ROW()-ROW(A$37)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(AO7:AO34),IF(AO7:AO34&gt;0,IF(AR7:AR34&lt;&gt;"",ROW(AO7:AO34)-MIN(ROW(AO7:AO34))+1))),ROW()-ROW(A$37)+1))," ",";")),"")</f>
         <v>0</v>
       </c>
       <c r="AT51">
-        <f t="array" ref="AT51">IFERROR(CONCATENATE(INDEX(AW7:AW35,SMALL(IF(ISNUMBER(AT7:AT35),IF(AT7:AT35&gt;0,IF(AW7:AW35&lt;&gt;"",ROW(AT7:AT35)-MIN(ROW(AT7:AT35))+1))),ROW()-ROW(A$38)+1))," ",TEXT(INDEX(AT7:AT35,SMALL(IF(ISNUMBER(AT7:AT35),IF(AT7:AT35&gt;0,IF(AW7:AW35&lt;&gt;"",ROW(AT7:AT35)-MIN(ROW(AT7:AT35))+1))),ROW()-ROW(A$38)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(AT7:AT35),IF(AT7:AT35&gt;0,IF(AW7:AW35&lt;&gt;"",ROW(AT7:AT35)-MIN(ROW(AT7:AT35))+1))),ROW()-ROW(A$38)+1))," ",";")),"")</f>
+        <f t="array" ref="AT51">IFERROR(CONCATENATE(INDEX(AW7:AW34,SMALL(IF(ISNUMBER(AT7:AT34),IF(AT7:AT34&gt;0,IF(AW7:AW34&lt;&gt;"",ROW(AT7:AT34)-MIN(ROW(AT7:AT34))+1))),ROW()-ROW(A$37)+1))," ",TEXT(INDEX(AT7:AT34,SMALL(IF(ISNUMBER(AT7:AT34),IF(AT7:AT34&gt;0,IF(AW7:AW34&lt;&gt;"",ROW(AT7:AT34)-MIN(ROW(AT7:AT34))+1))),ROW()-ROW(A$37)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(AT7:AT34),IF(AT7:AT34&gt;0,IF(AW7:AW34&lt;&gt;"",ROW(AT7:AT34)-MIN(ROW(AT7:AT34))+1))),ROW()-ROW(A$37)+1))," ",";")),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="11:46">
       <c r="K52">
-        <f t="array" ref="K52">IFERROR(CONCATENATE(INDEX(N7:N35,SMALL(IF(ISNUMBER(K7:K35),IF(K7:K35&gt;0,IF(N7:N35&lt;&gt;"",ROW(K7:K35)-MIN(ROW(K7:K35))+1))),ROW()-ROW(A$38)+1)),",",TEXT(INDEX(K7:K35,SMALL(IF(ISNUMBER(K7:K35),IF(K7:K35&gt;0,IF(N7:N35&lt;&gt;"",ROW(K7:K35)-MIN(ROW(K7:K35))+1))),ROW()-ROW(A$38)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(K7:K35),IF(K7:K35&gt;0,IF(N7:N35&lt;&gt;"",ROW(K7:K35)-MIN(ROW(K7:K35))+1))),ROW()-ROW(A$38)+1)),",",";")),"")</f>
+        <f t="array" ref="K52">IFERROR(CONCATENATE(INDEX(N7:N34,SMALL(IF(ISNUMBER(K7:K34),IF(K7:K34&gt;0,IF(N7:N34&lt;&gt;"",ROW(K7:K34)-MIN(ROW(K7:K34))+1))),ROW()-ROW(A$37)+1)),",",TEXT(INDEX(K7:K34,SMALL(IF(ISNUMBER(K7:K34),IF(K7:K34&gt;0,IF(N7:N34&lt;&gt;"",ROW(K7:K34)-MIN(ROW(K7:K34))+1))),ROW()-ROW(A$37)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(K7:K34),IF(K7:K34&gt;0,IF(N7:N34&lt;&gt;"",ROW(K7:K34)-MIN(ROW(K7:K34))+1))),ROW()-ROW(A$37)+1)),",",";")),"")</f>
         <v>0</v>
       </c>
       <c r="P52">
-        <f t="array" ref="P52">IFERROR(CONCATENATE(TEXT(INDEX(P7:P35,SMALL(IF(ISNUMBER(P7:P35),IF(P7:P35&gt;0,IF(S7:S35&lt;&gt;"",ROW(P7:P35)-MIN(ROW(P7:P35))+1))),ROW()-ROW(A$38)+1)),"##0"),",",INDEX(S7:S35,SMALL(IF(ISNUMBER(P7:P35),IF(P7:P35&gt;0,IF(S7:S35&lt;&gt;"",ROW(P7:P35)-MIN(ROW(P7:P35))+1))),ROW()-ROW(A$38)+1)),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(P7:P35),IF(P7:P35&gt;0,IF(S7:S35&lt;&gt;"",ROW(P7:P35)-MIN(ROW(P7:P35))+1))),ROW()-ROW(A$38)+1)),",",";")),"")</f>
+        <f t="array" ref="P52">IFERROR(CONCATENATE(TEXT(INDEX(P7:P34,SMALL(IF(ISNUMBER(P7:P34),IF(P7:P34&gt;0,IF(S7:S34&lt;&gt;"",ROW(P7:P34)-MIN(ROW(P7:P34))+1))),ROW()-ROW(A$37)+1)),"##0"),",",INDEX(S7:S34,SMALL(IF(ISNUMBER(P7:P34),IF(P7:P34&gt;0,IF(S7:S34&lt;&gt;"",ROW(P7:P34)-MIN(ROW(P7:P34))+1))),ROW()-ROW(A$37)+1)),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(P7:P34),IF(P7:P34&gt;0,IF(S7:S34&lt;&gt;"",ROW(P7:P34)-MIN(ROW(P7:P34))+1))),ROW()-ROW(A$37)+1)),",",";")),"")</f>
         <v>0</v>
       </c>
       <c r="U52">
-        <f t="array" ref="U52">IFERROR(CONCATENATE(INDEX(X7:X35,SMALL(IF(ISNUMBER(U7:U35),IF(U7:U35&gt;0,IF(X7:X35&lt;&gt;"",ROW(U7:U35)-MIN(ROW(U7:U35))+1))),ROW()-ROW(A$38)+1))," ",TEXT(INDEX(U7:U35,SMALL(IF(ISNUMBER(U7:U35),IF(U7:U35&gt;0,IF(X7:X35&lt;&gt;"",ROW(U7:U35)-MIN(ROW(U7:U35))+1))),ROW()-ROW(A$38)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(U7:U35),IF(U7:U35&gt;0,IF(X7:X35&lt;&gt;"",ROW(U7:U35)-MIN(ROW(U7:U35))+1))),ROW()-ROW(A$38)+1))," ",";")),"")</f>
+        <f t="array" ref="U52">IFERROR(CONCATENATE(INDEX(X7:X34,SMALL(IF(ISNUMBER(U7:U34),IF(U7:U34&gt;0,IF(X7:X34&lt;&gt;"",ROW(U7:U34)-MIN(ROW(U7:U34))+1))),ROW()-ROW(A$37)+1))," ",TEXT(INDEX(U7:U34,SMALL(IF(ISNUMBER(U7:U34),IF(U7:U34&gt;0,IF(X7:X34&lt;&gt;"",ROW(U7:U34)-MIN(ROW(U7:U34))+1))),ROW()-ROW(A$37)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(U7:U34),IF(U7:U34&gt;0,IF(X7:X34&lt;&gt;"",ROW(U7:U34)-MIN(ROW(U7:U34))+1))),ROW()-ROW(A$37)+1))," ",";")),"")</f>
         <v>0</v>
       </c>
       <c r="Z52">
-        <f t="array" ref="Z52">IFERROR(CONCATENATE(TEXT(INDEX(Z7:Z35,SMALL(IF(ISNUMBER(Z7:Z35),IF(Z7:Z35&gt;0,IF(AC7:AC35&lt;&gt;"",ROW(Z7:Z35)-MIN(ROW(Z7:Z35))+1))),ROW()-ROW(A$39)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(Z7:Z35),IF(Z7:Z35&gt;0,IF(AC7:AC35&lt;&gt;"",ROW(Z7:Z35)-MIN(ROW(Z7:Z35))+1))),ROW()-ROW(A$39)+1)),",",";"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;D7:D35,SMALL(IF(ISNUMBER(Z7:Z35),IF(Z7:Z35&gt;0,IF(AC7:AC35&lt;&gt;"",ROW(Z7:Z35)-MIN(ROW(Z7:Z35))+1))),ROW()-ROW(A$39)+1)),",",";"),",",INDEX(AC7:AC35,SMALL(IF(ISNUMBER(Z7:Z35),IF(Z7:Z35&gt;0,IF(AC7:AC35&lt;&gt;"",ROW(Z7:Z35)-MIN(ROW(Z7:Z35))+1))),ROW()-ROW(A$39)+1))),"")</f>
+        <f t="array" ref="Z52">IFERROR(CONCATENATE(TEXT(INDEX(Z7:Z34,SMALL(IF(ISNUMBER(Z7:Z34),IF(Z7:Z34&gt;0,IF(AC7:AC34&lt;&gt;"",ROW(Z7:Z34)-MIN(ROW(Z7:Z34))+1))),ROW()-ROW(A$38)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(Z7:Z34),IF(Z7:Z34&gt;0,IF(AC7:AC34&lt;&gt;"",ROW(Z7:Z34)-MIN(ROW(Z7:Z34))+1))),ROW()-ROW(A$38)+1)),",",";"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;D7:D34,SMALL(IF(ISNUMBER(Z7:Z34),IF(Z7:Z34&gt;0,IF(AC7:AC34&lt;&gt;"",ROW(Z7:Z34)-MIN(ROW(Z7:Z34))+1))),ROW()-ROW(A$38)+1)),",",";"),",",INDEX(AC7:AC34,SMALL(IF(ISNUMBER(Z7:Z34),IF(Z7:Z34&gt;0,IF(AC7:AC34&lt;&gt;"",ROW(Z7:Z34)-MIN(ROW(Z7:Z34))+1))),ROW()-ROW(A$38)+1))),"")</f>
         <v>0</v>
       </c>
       <c r="AE52">
-        <f t="array" ref="AE52">IFERROR(CONCATENATE(INDEX(AH7:AH35,SMALL(IF(ISNUMBER(AE7:AE35),IF(AE7:AE35&gt;0,IF(AH7:AH35&lt;&gt;"",ROW(AE7:AE35)-MIN(ROW(AE7:AE35))+1))),ROW()-ROW(A$38)+1)),"|",TEXT(INDEX(AE7:AE35,SMALL(IF(ISNUMBER(AE7:AE35),IF(AE7:AE35&gt;0,IF(AH7:AH35&lt;&gt;"",ROW(AE7:AE35)-MIN(ROW(AE7:AE35))+1))),ROW()-ROW(A$38)+1)),"##0"),"|",SUBSTITUTE(SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(AE7:AE35),IF(AE7:AE35&gt;0,IF(AH7:AH35&lt;&gt;"",ROW(AE7:AE35)-MIN(ROW(AE7:AE35))+1))),ROW()-ROW(A$38)+1)),"|",";")," ","_")),"")</f>
+        <f t="array" ref="AE52">IFERROR(CONCATENATE(INDEX(AH7:AH34,SMALL(IF(ISNUMBER(AE7:AE34),IF(AE7:AE34&gt;0,IF(AH7:AH34&lt;&gt;"",ROW(AE7:AE34)-MIN(ROW(AE7:AE34))+1))),ROW()-ROW(A$37)+1)),"|",TEXT(INDEX(AE7:AE34,SMALL(IF(ISNUMBER(AE7:AE34),IF(AE7:AE34&gt;0,IF(AH7:AH34&lt;&gt;"",ROW(AE7:AE34)-MIN(ROW(AE7:AE34))+1))),ROW()-ROW(A$37)+1)),"##0"),"|",SUBSTITUTE(SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(AE7:AE34),IF(AE7:AE34&gt;0,IF(AH7:AH34&lt;&gt;"",ROW(AE7:AE34)-MIN(ROW(AE7:AE34))+1))),ROW()-ROW(A$37)+1)),"|",";")," ","_")),"")</f>
         <v>0</v>
       </c>
       <c r="AJ52">
-        <f t="array" ref="AJ52">IFERROR(CONCATENATE(INDEX(AM7:AM35,SMALL(IF(ISNUMBER(AJ7:AJ35),IF(AJ7:AJ35&gt;0,IF(AM7:AM35&lt;&gt;"",ROW(AJ7:AJ35)-MIN(ROW(AJ7:AJ35))+1))),ROW()-ROW(A$38)+1)),",",TEXT(INDEX(AJ7:AJ35,SMALL(IF(ISNUMBER(AJ7:AJ35),IF(AJ7:AJ35&gt;0,IF(AM7:AM35&lt;&gt;"",ROW(AJ7:AJ35)-MIN(ROW(AJ7:AJ35))+1))),ROW()-ROW(A$38)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(AJ7:AJ35),IF(AJ7:AJ35&gt;0,IF(AM7:AM35&lt;&gt;"",ROW(AJ7:AJ35)-MIN(ROW(AJ7:AJ35))+1))),ROW()-ROW(A$38)+1)),",",";")),"")</f>
+        <f t="array" ref="AJ52">IFERROR(CONCATENATE(INDEX(AM7:AM34,SMALL(IF(ISNUMBER(AJ7:AJ34),IF(AJ7:AJ34&gt;0,IF(AM7:AM34&lt;&gt;"",ROW(AJ7:AJ34)-MIN(ROW(AJ7:AJ34))+1))),ROW()-ROW(A$37)+1)),",",TEXT(INDEX(AJ7:AJ34,SMALL(IF(ISNUMBER(AJ7:AJ34),IF(AJ7:AJ34&gt;0,IF(AM7:AM34&lt;&gt;"",ROW(AJ7:AJ34)-MIN(ROW(AJ7:AJ34))+1))),ROW()-ROW(A$37)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(AJ7:AJ34),IF(AJ7:AJ34&gt;0,IF(AM7:AM34&lt;&gt;"",ROW(AJ7:AJ34)-MIN(ROW(AJ7:AJ34))+1))),ROW()-ROW(A$37)+1)),",",";")),"")</f>
         <v>0</v>
       </c>
       <c r="AO52">
-        <f t="array" ref="AO52">IFERROR(CONCATENATE(INDEX(AR7:AR35,SMALL(IF(ISNUMBER(AO7:AO35),IF(AO7:AO35&gt;0,IF(AR7:AR35&lt;&gt;"",ROW(AO7:AO35)-MIN(ROW(AO7:AO35))+1))),ROW()-ROW(A$38)+1))," ",TEXT(INDEX(AO7:AO35,SMALL(IF(ISNUMBER(AO7:AO35),IF(AO7:AO35&gt;0,IF(AR7:AR35&lt;&gt;"",ROW(AO7:AO35)-MIN(ROW(AO7:AO35))+1))),ROW()-ROW(A$38)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(AO7:AO35),IF(AO7:AO35&gt;0,IF(AR7:AR35&lt;&gt;"",ROW(AO7:AO35)-MIN(ROW(AO7:AO35))+1))),ROW()-ROW(A$38)+1))," ",";")),"")</f>
+        <f t="array" ref="AO52">IFERROR(CONCATENATE(INDEX(AR7:AR34,SMALL(IF(ISNUMBER(AO7:AO34),IF(AO7:AO34&gt;0,IF(AR7:AR34&lt;&gt;"",ROW(AO7:AO34)-MIN(ROW(AO7:AO34))+1))),ROW()-ROW(A$37)+1))," ",TEXT(INDEX(AO7:AO34,SMALL(IF(ISNUMBER(AO7:AO34),IF(AO7:AO34&gt;0,IF(AR7:AR34&lt;&gt;"",ROW(AO7:AO34)-MIN(ROW(AO7:AO34))+1))),ROW()-ROW(A$37)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(AO7:AO34),IF(AO7:AO34&gt;0,IF(AR7:AR34&lt;&gt;"",ROW(AO7:AO34)-MIN(ROW(AO7:AO34))+1))),ROW()-ROW(A$37)+1))," ",";")),"")</f>
         <v>0</v>
       </c>
       <c r="AT52">
-        <f t="array" ref="AT52">IFERROR(CONCATENATE(INDEX(AW7:AW35,SMALL(IF(ISNUMBER(AT7:AT35),IF(AT7:AT35&gt;0,IF(AW7:AW35&lt;&gt;"",ROW(AT7:AT35)-MIN(ROW(AT7:AT35))+1))),ROW()-ROW(A$38)+1))," ",TEXT(INDEX(AT7:AT35,SMALL(IF(ISNUMBER(AT7:AT35),IF(AT7:AT35&gt;0,IF(AW7:AW35&lt;&gt;"",ROW(AT7:AT35)-MIN(ROW(AT7:AT35))+1))),ROW()-ROW(A$38)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(AT7:AT35),IF(AT7:AT35&gt;0,IF(AW7:AW35&lt;&gt;"",ROW(AT7:AT35)-MIN(ROW(AT7:AT35))+1))),ROW()-ROW(A$38)+1))," ",";")),"")</f>
+        <f t="array" ref="AT52">IFERROR(CONCATENATE(INDEX(AW7:AW34,SMALL(IF(ISNUMBER(AT7:AT34),IF(AT7:AT34&gt;0,IF(AW7:AW34&lt;&gt;"",ROW(AT7:AT34)-MIN(ROW(AT7:AT34))+1))),ROW()-ROW(A$37)+1))," ",TEXT(INDEX(AT7:AT34,SMALL(IF(ISNUMBER(AT7:AT34),IF(AT7:AT34&gt;0,IF(AW7:AW34&lt;&gt;"",ROW(AT7:AT34)-MIN(ROW(AT7:AT34))+1))),ROW()-ROW(A$37)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(AT7:AT34),IF(AT7:AT34&gt;0,IF(AW7:AW34&lt;&gt;"",ROW(AT7:AT34)-MIN(ROW(AT7:AT34))+1))),ROW()-ROW(A$37)+1))," ",";")),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="11:46">
       <c r="K53">
-        <f t="array" ref="K53">IFERROR(CONCATENATE(INDEX(N7:N35,SMALL(IF(ISNUMBER(K7:K35),IF(K7:K35&gt;0,IF(N7:N35&lt;&gt;"",ROW(K7:K35)-MIN(ROW(K7:K35))+1))),ROW()-ROW(A$38)+1)),",",TEXT(INDEX(K7:K35,SMALL(IF(ISNUMBER(K7:K35),IF(K7:K35&gt;0,IF(N7:N35&lt;&gt;"",ROW(K7:K35)-MIN(ROW(K7:K35))+1))),ROW()-ROW(A$38)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(K7:K35),IF(K7:K35&gt;0,IF(N7:N35&lt;&gt;"",ROW(K7:K35)-MIN(ROW(K7:K35))+1))),ROW()-ROW(A$38)+1)),",",";")),"")</f>
+        <f t="array" ref="K53">IFERROR(CONCATENATE(INDEX(N7:N34,SMALL(IF(ISNUMBER(K7:K34),IF(K7:K34&gt;0,IF(N7:N34&lt;&gt;"",ROW(K7:K34)-MIN(ROW(K7:K34))+1))),ROW()-ROW(A$37)+1)),",",TEXT(INDEX(K7:K34,SMALL(IF(ISNUMBER(K7:K34),IF(K7:K34&gt;0,IF(N7:N34&lt;&gt;"",ROW(K7:K34)-MIN(ROW(K7:K34))+1))),ROW()-ROW(A$37)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(K7:K34),IF(K7:K34&gt;0,IF(N7:N34&lt;&gt;"",ROW(K7:K34)-MIN(ROW(K7:K34))+1))),ROW()-ROW(A$37)+1)),",",";")),"")</f>
         <v>0</v>
       </c>
       <c r="P53">
-        <f t="array" ref="P53">IFERROR(CONCATENATE(TEXT(INDEX(P7:P35,SMALL(IF(ISNUMBER(P7:P35),IF(P7:P35&gt;0,IF(S7:S35&lt;&gt;"",ROW(P7:P35)-MIN(ROW(P7:P35))+1))),ROW()-ROW(A$38)+1)),"##0"),",",INDEX(S7:S35,SMALL(IF(ISNUMBER(P7:P35),IF(P7:P35&gt;0,IF(S7:S35&lt;&gt;"",ROW(P7:P35)-MIN(ROW(P7:P35))+1))),ROW()-ROW(A$38)+1)),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(P7:P35),IF(P7:P35&gt;0,IF(S7:S35&lt;&gt;"",ROW(P7:P35)-MIN(ROW(P7:P35))+1))),ROW()-ROW(A$38)+1)),",",";")),"")</f>
+        <f t="array" ref="P53">IFERROR(CONCATENATE(TEXT(INDEX(P7:P34,SMALL(IF(ISNUMBER(P7:P34),IF(P7:P34&gt;0,IF(S7:S34&lt;&gt;"",ROW(P7:P34)-MIN(ROW(P7:P34))+1))),ROW()-ROW(A$37)+1)),"##0"),",",INDEX(S7:S34,SMALL(IF(ISNUMBER(P7:P34),IF(P7:P34&gt;0,IF(S7:S34&lt;&gt;"",ROW(P7:P34)-MIN(ROW(P7:P34))+1))),ROW()-ROW(A$37)+1)),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(P7:P34),IF(P7:P34&gt;0,IF(S7:S34&lt;&gt;"",ROW(P7:P34)-MIN(ROW(P7:P34))+1))),ROW()-ROW(A$37)+1)),",",";")),"")</f>
         <v>0</v>
       </c>
       <c r="U53">
-        <f t="array" ref="U53">IFERROR(CONCATENATE(INDEX(X7:X35,SMALL(IF(ISNUMBER(U7:U35),IF(U7:U35&gt;0,IF(X7:X35&lt;&gt;"",ROW(U7:U35)-MIN(ROW(U7:U35))+1))),ROW()-ROW(A$38)+1))," ",TEXT(INDEX(U7:U35,SMALL(IF(ISNUMBER(U7:U35),IF(U7:U35&gt;0,IF(X7:X35&lt;&gt;"",ROW(U7:U35)-MIN(ROW(U7:U35))+1))),ROW()-ROW(A$38)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(U7:U35),IF(U7:U35&gt;0,IF(X7:X35&lt;&gt;"",ROW(U7:U35)-MIN(ROW(U7:U35))+1))),ROW()-ROW(A$38)+1))," ",";")),"")</f>
+        <f t="array" ref="U53">IFERROR(CONCATENATE(INDEX(X7:X34,SMALL(IF(ISNUMBER(U7:U34),IF(U7:U34&gt;0,IF(X7:X34&lt;&gt;"",ROW(U7:U34)-MIN(ROW(U7:U34))+1))),ROW()-ROW(A$37)+1))," ",TEXT(INDEX(U7:U34,SMALL(IF(ISNUMBER(U7:U34),IF(U7:U34&gt;0,IF(X7:X34&lt;&gt;"",ROW(U7:U34)-MIN(ROW(U7:U34))+1))),ROW()-ROW(A$37)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(U7:U34),IF(U7:U34&gt;0,IF(X7:X34&lt;&gt;"",ROW(U7:U34)-MIN(ROW(U7:U34))+1))),ROW()-ROW(A$37)+1))," ",";")),"")</f>
         <v>0</v>
       </c>
       <c r="Z53">
-        <f t="array" ref="Z53">IFERROR(CONCATENATE(TEXT(INDEX(Z7:Z35,SMALL(IF(ISNUMBER(Z7:Z35),IF(Z7:Z35&gt;0,IF(AC7:AC35&lt;&gt;"",ROW(Z7:Z35)-MIN(ROW(Z7:Z35))+1))),ROW()-ROW(A$39)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(Z7:Z35),IF(Z7:Z35&gt;0,IF(AC7:AC35&lt;&gt;"",ROW(Z7:Z35)-MIN(ROW(Z7:Z35))+1))),ROW()-ROW(A$39)+1)),",",";"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;D7:D35,SMALL(IF(ISNUMBER(Z7:Z35),IF(Z7:Z35&gt;0,IF(AC7:AC35&lt;&gt;"",ROW(Z7:Z35)-MIN(ROW(Z7:Z35))+1))),ROW()-ROW(A$39)+1)),",",";"),",",INDEX(AC7:AC35,SMALL(IF(ISNUMBER(Z7:Z35),IF(Z7:Z35&gt;0,IF(AC7:AC35&lt;&gt;"",ROW(Z7:Z35)-MIN(ROW(Z7:Z35))+1))),ROW()-ROW(A$39)+1))),"")</f>
+        <f t="array" ref="Z53">IFERROR(CONCATENATE(TEXT(INDEX(Z7:Z34,SMALL(IF(ISNUMBER(Z7:Z34),IF(Z7:Z34&gt;0,IF(AC7:AC34&lt;&gt;"",ROW(Z7:Z34)-MIN(ROW(Z7:Z34))+1))),ROW()-ROW(A$38)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(Z7:Z34),IF(Z7:Z34&gt;0,IF(AC7:AC34&lt;&gt;"",ROW(Z7:Z34)-MIN(ROW(Z7:Z34))+1))),ROW()-ROW(A$38)+1)),",",";"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;D7:D34,SMALL(IF(ISNUMBER(Z7:Z34),IF(Z7:Z34&gt;0,IF(AC7:AC34&lt;&gt;"",ROW(Z7:Z34)-MIN(ROW(Z7:Z34))+1))),ROW()-ROW(A$38)+1)),",",";"),",",INDEX(AC7:AC34,SMALL(IF(ISNUMBER(Z7:Z34),IF(Z7:Z34&gt;0,IF(AC7:AC34&lt;&gt;"",ROW(Z7:Z34)-MIN(ROW(Z7:Z34))+1))),ROW()-ROW(A$38)+1))),"")</f>
         <v>0</v>
       </c>
       <c r="AE53">
-        <f t="array" ref="AE53">IFERROR(CONCATENATE(INDEX(AH7:AH35,SMALL(IF(ISNUMBER(AE7:AE35),IF(AE7:AE35&gt;0,IF(AH7:AH35&lt;&gt;"",ROW(AE7:AE35)-MIN(ROW(AE7:AE35))+1))),ROW()-ROW(A$38)+1)),"|",TEXT(INDEX(AE7:AE35,SMALL(IF(ISNUMBER(AE7:AE35),IF(AE7:AE35&gt;0,IF(AH7:AH35&lt;&gt;"",ROW(AE7:AE35)-MIN(ROW(AE7:AE35))+1))),ROW()-ROW(A$38)+1)),"##0"),"|",SUBSTITUTE(SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(AE7:AE35),IF(AE7:AE35&gt;0,IF(AH7:AH35&lt;&gt;"",ROW(AE7:AE35)-MIN(ROW(AE7:AE35))+1))),ROW()-ROW(A$38)+1)),"|",";")," ","_")),"")</f>
+        <f t="array" ref="AE53">IFERROR(CONCATENATE(INDEX(AH7:AH34,SMALL(IF(ISNUMBER(AE7:AE34),IF(AE7:AE34&gt;0,IF(AH7:AH34&lt;&gt;"",ROW(AE7:AE34)-MIN(ROW(AE7:AE34))+1))),ROW()-ROW(A$37)+1)),"|",TEXT(INDEX(AE7:AE34,SMALL(IF(ISNUMBER(AE7:AE34),IF(AE7:AE34&gt;0,IF(AH7:AH34&lt;&gt;"",ROW(AE7:AE34)-MIN(ROW(AE7:AE34))+1))),ROW()-ROW(A$37)+1)),"##0"),"|",SUBSTITUTE(SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(AE7:AE34),IF(AE7:AE34&gt;0,IF(AH7:AH34&lt;&gt;"",ROW(AE7:AE34)-MIN(ROW(AE7:AE34))+1))),ROW()-ROW(A$37)+1)),"|",";")," ","_")),"")</f>
         <v>0</v>
       </c>
       <c r="AJ53">
-        <f t="array" ref="AJ53">IFERROR(CONCATENATE(INDEX(AM7:AM35,SMALL(IF(ISNUMBER(AJ7:AJ35),IF(AJ7:AJ35&gt;0,IF(AM7:AM35&lt;&gt;"",ROW(AJ7:AJ35)-MIN(ROW(AJ7:AJ35))+1))),ROW()-ROW(A$38)+1)),",",TEXT(INDEX(AJ7:AJ35,SMALL(IF(ISNUMBER(AJ7:AJ35),IF(AJ7:AJ35&gt;0,IF(AM7:AM35&lt;&gt;"",ROW(AJ7:AJ35)-MIN(ROW(AJ7:AJ35))+1))),ROW()-ROW(A$38)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(AJ7:AJ35),IF(AJ7:AJ35&gt;0,IF(AM7:AM35&lt;&gt;"",ROW(AJ7:AJ35)-MIN(ROW(AJ7:AJ35))+1))),ROW()-ROW(A$38)+1)),",",";")),"")</f>
+        <f t="array" ref="AJ53">IFERROR(CONCATENATE(INDEX(AM7:AM34,SMALL(IF(ISNUMBER(AJ7:AJ34),IF(AJ7:AJ34&gt;0,IF(AM7:AM34&lt;&gt;"",ROW(AJ7:AJ34)-MIN(ROW(AJ7:AJ34))+1))),ROW()-ROW(A$37)+1)),",",TEXT(INDEX(AJ7:AJ34,SMALL(IF(ISNUMBER(AJ7:AJ34),IF(AJ7:AJ34&gt;0,IF(AM7:AM34&lt;&gt;"",ROW(AJ7:AJ34)-MIN(ROW(AJ7:AJ34))+1))),ROW()-ROW(A$37)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(AJ7:AJ34),IF(AJ7:AJ34&gt;0,IF(AM7:AM34&lt;&gt;"",ROW(AJ7:AJ34)-MIN(ROW(AJ7:AJ34))+1))),ROW()-ROW(A$37)+1)),",",";")),"")</f>
         <v>0</v>
       </c>
       <c r="AO53">
-        <f t="array" ref="AO53">IFERROR(CONCATENATE(INDEX(AR7:AR35,SMALL(IF(ISNUMBER(AO7:AO35),IF(AO7:AO35&gt;0,IF(AR7:AR35&lt;&gt;"",ROW(AO7:AO35)-MIN(ROW(AO7:AO35))+1))),ROW()-ROW(A$38)+1))," ",TEXT(INDEX(AO7:AO35,SMALL(IF(ISNUMBER(AO7:AO35),IF(AO7:AO35&gt;0,IF(AR7:AR35&lt;&gt;"",ROW(AO7:AO35)-MIN(ROW(AO7:AO35))+1))),ROW()-ROW(A$38)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(AO7:AO35),IF(AO7:AO35&gt;0,IF(AR7:AR35&lt;&gt;"",ROW(AO7:AO35)-MIN(ROW(AO7:AO35))+1))),ROW()-ROW(A$38)+1))," ",";")),"")</f>
+        <f t="array" ref="AO53">IFERROR(CONCATENATE(INDEX(AR7:AR34,SMALL(IF(ISNUMBER(AO7:AO34),IF(AO7:AO34&gt;0,IF(AR7:AR34&lt;&gt;"",ROW(AO7:AO34)-MIN(ROW(AO7:AO34))+1))),ROW()-ROW(A$37)+1))," ",TEXT(INDEX(AO7:AO34,SMALL(IF(ISNUMBER(AO7:AO34),IF(AO7:AO34&gt;0,IF(AR7:AR34&lt;&gt;"",ROW(AO7:AO34)-MIN(ROW(AO7:AO34))+1))),ROW()-ROW(A$37)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(AO7:AO34),IF(AO7:AO34&gt;0,IF(AR7:AR34&lt;&gt;"",ROW(AO7:AO34)-MIN(ROW(AO7:AO34))+1))),ROW()-ROW(A$37)+1))," ",";")),"")</f>
         <v>0</v>
       </c>
       <c r="AT53">
-        <f t="array" ref="AT53">IFERROR(CONCATENATE(INDEX(AW7:AW35,SMALL(IF(ISNUMBER(AT7:AT35),IF(AT7:AT35&gt;0,IF(AW7:AW35&lt;&gt;"",ROW(AT7:AT35)-MIN(ROW(AT7:AT35))+1))),ROW()-ROW(A$38)+1))," ",TEXT(INDEX(AT7:AT35,SMALL(IF(ISNUMBER(AT7:AT35),IF(AT7:AT35&gt;0,IF(AW7:AW35&lt;&gt;"",ROW(AT7:AT35)-MIN(ROW(AT7:AT35))+1))),ROW()-ROW(A$38)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(AT7:AT35),IF(AT7:AT35&gt;0,IF(AW7:AW35&lt;&gt;"",ROW(AT7:AT35)-MIN(ROW(AT7:AT35))+1))),ROW()-ROW(A$38)+1))," ",";")),"")</f>
+        <f t="array" ref="AT53">IFERROR(CONCATENATE(INDEX(AW7:AW34,SMALL(IF(ISNUMBER(AT7:AT34),IF(AT7:AT34&gt;0,IF(AW7:AW34&lt;&gt;"",ROW(AT7:AT34)-MIN(ROW(AT7:AT34))+1))),ROW()-ROW(A$37)+1))," ",TEXT(INDEX(AT7:AT34,SMALL(IF(ISNUMBER(AT7:AT34),IF(AT7:AT34&gt;0,IF(AW7:AW34&lt;&gt;"",ROW(AT7:AT34)-MIN(ROW(AT7:AT34))+1))),ROW()-ROW(A$37)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(AT7:AT34),IF(AT7:AT34&gt;0,IF(AW7:AW34&lt;&gt;"",ROW(AT7:AT34)-MIN(ROW(AT7:AT34))+1))),ROW()-ROW(A$37)+1))," ",";")),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="11:46">
       <c r="K54">
-        <f t="array" ref="K54">IFERROR(CONCATENATE(INDEX(N7:N35,SMALL(IF(ISNUMBER(K7:K35),IF(K7:K35&gt;0,IF(N7:N35&lt;&gt;"",ROW(K7:K35)-MIN(ROW(K7:K35))+1))),ROW()-ROW(A$38)+1)),",",TEXT(INDEX(K7:K35,SMALL(IF(ISNUMBER(K7:K35),IF(K7:K35&gt;0,IF(N7:N35&lt;&gt;"",ROW(K7:K35)-MIN(ROW(K7:K35))+1))),ROW()-ROW(A$38)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(K7:K35),IF(K7:K35&gt;0,IF(N7:N35&lt;&gt;"",ROW(K7:K35)-MIN(ROW(K7:K35))+1))),ROW()-ROW(A$38)+1)),",",";")),"")</f>
+        <f t="array" ref="K54">IFERROR(CONCATENATE(INDEX(N7:N34,SMALL(IF(ISNUMBER(K7:K34),IF(K7:K34&gt;0,IF(N7:N34&lt;&gt;"",ROW(K7:K34)-MIN(ROW(K7:K34))+1))),ROW()-ROW(A$37)+1)),",",TEXT(INDEX(K7:K34,SMALL(IF(ISNUMBER(K7:K34),IF(K7:K34&gt;0,IF(N7:N34&lt;&gt;"",ROW(K7:K34)-MIN(ROW(K7:K34))+1))),ROW()-ROW(A$37)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(K7:K34),IF(K7:K34&gt;0,IF(N7:N34&lt;&gt;"",ROW(K7:K34)-MIN(ROW(K7:K34))+1))),ROW()-ROW(A$37)+1)),",",";")),"")</f>
         <v>0</v>
       </c>
       <c r="P54">
-        <f t="array" ref="P54">IFERROR(CONCATENATE(TEXT(INDEX(P7:P35,SMALL(IF(ISNUMBER(P7:P35),IF(P7:P35&gt;0,IF(S7:S35&lt;&gt;"",ROW(P7:P35)-MIN(ROW(P7:P35))+1))),ROW()-ROW(A$38)+1)),"##0"),",",INDEX(S7:S35,SMALL(IF(ISNUMBER(P7:P35),IF(P7:P35&gt;0,IF(S7:S35&lt;&gt;"",ROW(P7:P35)-MIN(ROW(P7:P35))+1))),ROW()-ROW(A$38)+1)),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(P7:P35),IF(P7:P35&gt;0,IF(S7:S35&lt;&gt;"",ROW(P7:P35)-MIN(ROW(P7:P35))+1))),ROW()-ROW(A$38)+1)),",",";")),"")</f>
+        <f t="array" ref="P54">IFERROR(CONCATENATE(TEXT(INDEX(P7:P34,SMALL(IF(ISNUMBER(P7:P34),IF(P7:P34&gt;0,IF(S7:S34&lt;&gt;"",ROW(P7:P34)-MIN(ROW(P7:P34))+1))),ROW()-ROW(A$37)+1)),"##0"),",",INDEX(S7:S34,SMALL(IF(ISNUMBER(P7:P34),IF(P7:P34&gt;0,IF(S7:S34&lt;&gt;"",ROW(P7:P34)-MIN(ROW(P7:P34))+1))),ROW()-ROW(A$37)+1)),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(P7:P34),IF(P7:P34&gt;0,IF(S7:S34&lt;&gt;"",ROW(P7:P34)-MIN(ROW(P7:P34))+1))),ROW()-ROW(A$37)+1)),",",";")),"")</f>
         <v>0</v>
       </c>
       <c r="U54">
-        <f t="array" ref="U54">IFERROR(CONCATENATE(INDEX(X7:X35,SMALL(IF(ISNUMBER(U7:U35),IF(U7:U35&gt;0,IF(X7:X35&lt;&gt;"",ROW(U7:U35)-MIN(ROW(U7:U35))+1))),ROW()-ROW(A$38)+1))," ",TEXT(INDEX(U7:U35,SMALL(IF(ISNUMBER(U7:U35),IF(U7:U35&gt;0,IF(X7:X35&lt;&gt;"",ROW(U7:U35)-MIN(ROW(U7:U35))+1))),ROW()-ROW(A$38)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(U7:U35),IF(U7:U35&gt;0,IF(X7:X35&lt;&gt;"",ROW(U7:U35)-MIN(ROW(U7:U35))+1))),ROW()-ROW(A$38)+1))," ",";")),"")</f>
+        <f t="array" ref="U54">IFERROR(CONCATENATE(INDEX(X7:X34,SMALL(IF(ISNUMBER(U7:U34),IF(U7:U34&gt;0,IF(X7:X34&lt;&gt;"",ROW(U7:U34)-MIN(ROW(U7:U34))+1))),ROW()-ROW(A$37)+1))," ",TEXT(INDEX(U7:U34,SMALL(IF(ISNUMBER(U7:U34),IF(U7:U34&gt;0,IF(X7:X34&lt;&gt;"",ROW(U7:U34)-MIN(ROW(U7:U34))+1))),ROW()-ROW(A$37)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(U7:U34),IF(U7:U34&gt;0,IF(X7:X34&lt;&gt;"",ROW(U7:U34)-MIN(ROW(U7:U34))+1))),ROW()-ROW(A$37)+1))," ",";")),"")</f>
         <v>0</v>
       </c>
       <c r="Z54">
-        <f t="array" ref="Z54">IFERROR(CONCATENATE(TEXT(INDEX(Z7:Z35,SMALL(IF(ISNUMBER(Z7:Z35),IF(Z7:Z35&gt;0,IF(AC7:AC35&lt;&gt;"",ROW(Z7:Z35)-MIN(ROW(Z7:Z35))+1))),ROW()-ROW(A$39)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(Z7:Z35),IF(Z7:Z35&gt;0,IF(AC7:AC35&lt;&gt;"",ROW(Z7:Z35)-MIN(ROW(Z7:Z35))+1))),ROW()-ROW(A$39)+1)),",",";"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;D7:D35,SMALL(IF(ISNUMBER(Z7:Z35),IF(Z7:Z35&gt;0,IF(AC7:AC35&lt;&gt;"",ROW(Z7:Z35)-MIN(ROW(Z7:Z35))+1))),ROW()-ROW(A$39)+1)),",",";"),",",INDEX(AC7:AC35,SMALL(IF(ISNUMBER(Z7:Z35),IF(Z7:Z35&gt;0,IF(AC7:AC35&lt;&gt;"",ROW(Z7:Z35)-MIN(ROW(Z7:Z35))+1))),ROW()-ROW(A$39)+1))),"")</f>
+        <f t="array" ref="Z54">IFERROR(CONCATENATE(TEXT(INDEX(Z7:Z34,SMALL(IF(ISNUMBER(Z7:Z34),IF(Z7:Z34&gt;0,IF(AC7:AC34&lt;&gt;"",ROW(Z7:Z34)-MIN(ROW(Z7:Z34))+1))),ROW()-ROW(A$38)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(Z7:Z34),IF(Z7:Z34&gt;0,IF(AC7:AC34&lt;&gt;"",ROW(Z7:Z34)-MIN(ROW(Z7:Z34))+1))),ROW()-ROW(A$38)+1)),",",";"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;D7:D34,SMALL(IF(ISNUMBER(Z7:Z34),IF(Z7:Z34&gt;0,IF(AC7:AC34&lt;&gt;"",ROW(Z7:Z34)-MIN(ROW(Z7:Z34))+1))),ROW()-ROW(A$38)+1)),",",";"),",",INDEX(AC7:AC34,SMALL(IF(ISNUMBER(Z7:Z34),IF(Z7:Z34&gt;0,IF(AC7:AC34&lt;&gt;"",ROW(Z7:Z34)-MIN(ROW(Z7:Z34))+1))),ROW()-ROW(A$38)+1))),"")</f>
         <v>0</v>
       </c>
       <c r="AE54">
-        <f t="array" ref="AE54">IFERROR(CONCATENATE(INDEX(AH7:AH35,SMALL(IF(ISNUMBER(AE7:AE35),IF(AE7:AE35&gt;0,IF(AH7:AH35&lt;&gt;"",ROW(AE7:AE35)-MIN(ROW(AE7:AE35))+1))),ROW()-ROW(A$38)+1)),"|",TEXT(INDEX(AE7:AE35,SMALL(IF(ISNUMBER(AE7:AE35),IF(AE7:AE35&gt;0,IF(AH7:AH35&lt;&gt;"",ROW(AE7:AE35)-MIN(ROW(AE7:AE35))+1))),ROW()-ROW(A$38)+1)),"##0"),"|",SUBSTITUTE(SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(AE7:AE35),IF(AE7:AE35&gt;0,IF(AH7:AH35&lt;&gt;"",ROW(AE7:AE35)-MIN(ROW(AE7:AE35))+1))),ROW()-ROW(A$38)+1)),"|",";")," ","_")),"")</f>
+        <f t="array" ref="AE54">IFERROR(CONCATENATE(INDEX(AH7:AH34,SMALL(IF(ISNUMBER(AE7:AE34),IF(AE7:AE34&gt;0,IF(AH7:AH34&lt;&gt;"",ROW(AE7:AE34)-MIN(ROW(AE7:AE34))+1))),ROW()-ROW(A$37)+1)),"|",TEXT(INDEX(AE7:AE34,SMALL(IF(ISNUMBER(AE7:AE34),IF(AE7:AE34&gt;0,IF(AH7:AH34&lt;&gt;"",ROW(AE7:AE34)-MIN(ROW(AE7:AE34))+1))),ROW()-ROW(A$37)+1)),"##0"),"|",SUBSTITUTE(SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(AE7:AE34),IF(AE7:AE34&gt;0,IF(AH7:AH34&lt;&gt;"",ROW(AE7:AE34)-MIN(ROW(AE7:AE34))+1))),ROW()-ROW(A$37)+1)),"|",";")," ","_")),"")</f>
         <v>0</v>
       </c>
       <c r="AJ54">
-        <f t="array" ref="AJ54">IFERROR(CONCATENATE(INDEX(AM7:AM35,SMALL(IF(ISNUMBER(AJ7:AJ35),IF(AJ7:AJ35&gt;0,IF(AM7:AM35&lt;&gt;"",ROW(AJ7:AJ35)-MIN(ROW(AJ7:AJ35))+1))),ROW()-ROW(A$38)+1)),",",TEXT(INDEX(AJ7:AJ35,SMALL(IF(ISNUMBER(AJ7:AJ35),IF(AJ7:AJ35&gt;0,IF(AM7:AM35&lt;&gt;"",ROW(AJ7:AJ35)-MIN(ROW(AJ7:AJ35))+1))),ROW()-ROW(A$38)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(AJ7:AJ35),IF(AJ7:AJ35&gt;0,IF(AM7:AM35&lt;&gt;"",ROW(AJ7:AJ35)-MIN(ROW(AJ7:AJ35))+1))),ROW()-ROW(A$38)+1)),",",";")),"")</f>
+        <f t="array" ref="AJ54">IFERROR(CONCATENATE(INDEX(AM7:AM34,SMALL(IF(ISNUMBER(AJ7:AJ34),IF(AJ7:AJ34&gt;0,IF(AM7:AM34&lt;&gt;"",ROW(AJ7:AJ34)-MIN(ROW(AJ7:AJ34))+1))),ROW()-ROW(A$37)+1)),",",TEXT(INDEX(AJ7:AJ34,SMALL(IF(ISNUMBER(AJ7:AJ34),IF(AJ7:AJ34&gt;0,IF(AM7:AM34&lt;&gt;"",ROW(AJ7:AJ34)-MIN(ROW(AJ7:AJ34))+1))),ROW()-ROW(A$37)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(AJ7:AJ34),IF(AJ7:AJ34&gt;0,IF(AM7:AM34&lt;&gt;"",ROW(AJ7:AJ34)-MIN(ROW(AJ7:AJ34))+1))),ROW()-ROW(A$37)+1)),",",";")),"")</f>
         <v>0</v>
       </c>
       <c r="AO54">
-        <f t="array" ref="AO54">IFERROR(CONCATENATE(INDEX(AR7:AR35,SMALL(IF(ISNUMBER(AO7:AO35),IF(AO7:AO35&gt;0,IF(AR7:AR35&lt;&gt;"",ROW(AO7:AO35)-MIN(ROW(AO7:AO35))+1))),ROW()-ROW(A$38)+1))," ",TEXT(INDEX(AO7:AO35,SMALL(IF(ISNUMBER(AO7:AO35),IF(AO7:AO35&gt;0,IF(AR7:AR35&lt;&gt;"",ROW(AO7:AO35)-MIN(ROW(AO7:AO35))+1))),ROW()-ROW(A$38)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(AO7:AO35),IF(AO7:AO35&gt;0,IF(AR7:AR35&lt;&gt;"",ROW(AO7:AO35)-MIN(ROW(AO7:AO35))+1))),ROW()-ROW(A$38)+1))," ",";")),"")</f>
+        <f t="array" ref="AO54">IFERROR(CONCATENATE(INDEX(AR7:AR34,SMALL(IF(ISNUMBER(AO7:AO34),IF(AO7:AO34&gt;0,IF(AR7:AR34&lt;&gt;"",ROW(AO7:AO34)-MIN(ROW(AO7:AO34))+1))),ROW()-ROW(A$37)+1))," ",TEXT(INDEX(AO7:AO34,SMALL(IF(ISNUMBER(AO7:AO34),IF(AO7:AO34&gt;0,IF(AR7:AR34&lt;&gt;"",ROW(AO7:AO34)-MIN(ROW(AO7:AO34))+1))),ROW()-ROW(A$37)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(AO7:AO34),IF(AO7:AO34&gt;0,IF(AR7:AR34&lt;&gt;"",ROW(AO7:AO34)-MIN(ROW(AO7:AO34))+1))),ROW()-ROW(A$37)+1))," ",";")),"")</f>
         <v>0</v>
       </c>
       <c r="AT54">
-        <f t="array" ref="AT54">IFERROR(CONCATENATE(INDEX(AW7:AW35,SMALL(IF(ISNUMBER(AT7:AT35),IF(AT7:AT35&gt;0,IF(AW7:AW35&lt;&gt;"",ROW(AT7:AT35)-MIN(ROW(AT7:AT35))+1))),ROW()-ROW(A$38)+1))," ",TEXT(INDEX(AT7:AT35,SMALL(IF(ISNUMBER(AT7:AT35),IF(AT7:AT35&gt;0,IF(AW7:AW35&lt;&gt;"",ROW(AT7:AT35)-MIN(ROW(AT7:AT35))+1))),ROW()-ROW(A$38)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(AT7:AT35),IF(AT7:AT35&gt;0,IF(AW7:AW35&lt;&gt;"",ROW(AT7:AT35)-MIN(ROW(AT7:AT35))+1))),ROW()-ROW(A$38)+1))," ",";")),"")</f>
+        <f t="array" ref="AT54">IFERROR(CONCATENATE(INDEX(AW7:AW34,SMALL(IF(ISNUMBER(AT7:AT34),IF(AT7:AT34&gt;0,IF(AW7:AW34&lt;&gt;"",ROW(AT7:AT34)-MIN(ROW(AT7:AT34))+1))),ROW()-ROW(A$37)+1))," ",TEXT(INDEX(AT7:AT34,SMALL(IF(ISNUMBER(AT7:AT34),IF(AT7:AT34&gt;0,IF(AW7:AW34&lt;&gt;"",ROW(AT7:AT34)-MIN(ROW(AT7:AT34))+1))),ROW()-ROW(A$37)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(AT7:AT34),IF(AT7:AT34&gt;0,IF(AW7:AW34&lt;&gt;"",ROW(AT7:AT34)-MIN(ROW(AT7:AT34))+1))),ROW()-ROW(A$37)+1))," ",";")),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="11:46">
       <c r="K55">
-        <f t="array" ref="K55">IFERROR(CONCATENATE(INDEX(N7:N35,SMALL(IF(ISNUMBER(K7:K35),IF(K7:K35&gt;0,IF(N7:N35&lt;&gt;"",ROW(K7:K35)-MIN(ROW(K7:K35))+1))),ROW()-ROW(A$38)+1)),",",TEXT(INDEX(K7:K35,SMALL(IF(ISNUMBER(K7:K35),IF(K7:K35&gt;0,IF(N7:N35&lt;&gt;"",ROW(K7:K35)-MIN(ROW(K7:K35))+1))),ROW()-ROW(A$38)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(K7:K35),IF(K7:K35&gt;0,IF(N7:N35&lt;&gt;"",ROW(K7:K35)-MIN(ROW(K7:K35))+1))),ROW()-ROW(A$38)+1)),",",";")),"")</f>
+        <f t="array" ref="K55">IFERROR(CONCATENATE(INDEX(N7:N34,SMALL(IF(ISNUMBER(K7:K34),IF(K7:K34&gt;0,IF(N7:N34&lt;&gt;"",ROW(K7:K34)-MIN(ROW(K7:K34))+1))),ROW()-ROW(A$37)+1)),",",TEXT(INDEX(K7:K34,SMALL(IF(ISNUMBER(K7:K34),IF(K7:K34&gt;0,IF(N7:N34&lt;&gt;"",ROW(K7:K34)-MIN(ROW(K7:K34))+1))),ROW()-ROW(A$37)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(K7:K34),IF(K7:K34&gt;0,IF(N7:N34&lt;&gt;"",ROW(K7:K34)-MIN(ROW(K7:K34))+1))),ROW()-ROW(A$37)+1)),",",";")),"")</f>
         <v>0</v>
       </c>
       <c r="P55">
-        <f t="array" ref="P55">IFERROR(CONCATENATE(TEXT(INDEX(P7:P35,SMALL(IF(ISNUMBER(P7:P35),IF(P7:P35&gt;0,IF(S7:S35&lt;&gt;"",ROW(P7:P35)-MIN(ROW(P7:P35))+1))),ROW()-ROW(A$38)+1)),"##0"),",",INDEX(S7:S35,SMALL(IF(ISNUMBER(P7:P35),IF(P7:P35&gt;0,IF(S7:S35&lt;&gt;"",ROW(P7:P35)-MIN(ROW(P7:P35))+1))),ROW()-ROW(A$38)+1)),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(P7:P35),IF(P7:P35&gt;0,IF(S7:S35&lt;&gt;"",ROW(P7:P35)-MIN(ROW(P7:P35))+1))),ROW()-ROW(A$38)+1)),",",";")),"")</f>
+        <f t="array" ref="P55">IFERROR(CONCATENATE(TEXT(INDEX(P7:P34,SMALL(IF(ISNUMBER(P7:P34),IF(P7:P34&gt;0,IF(S7:S34&lt;&gt;"",ROW(P7:P34)-MIN(ROW(P7:P34))+1))),ROW()-ROW(A$37)+1)),"##0"),",",INDEX(S7:S34,SMALL(IF(ISNUMBER(P7:P34),IF(P7:P34&gt;0,IF(S7:S34&lt;&gt;"",ROW(P7:P34)-MIN(ROW(P7:P34))+1))),ROW()-ROW(A$37)+1)),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(P7:P34),IF(P7:P34&gt;0,IF(S7:S34&lt;&gt;"",ROW(P7:P34)-MIN(ROW(P7:P34))+1))),ROW()-ROW(A$37)+1)),",",";")),"")</f>
         <v>0</v>
       </c>
       <c r="U55">
-        <f t="array" ref="U55">IFERROR(CONCATENATE(INDEX(X7:X35,SMALL(IF(ISNUMBER(U7:U35),IF(U7:U35&gt;0,IF(X7:X35&lt;&gt;"",ROW(U7:U35)-MIN(ROW(U7:U35))+1))),ROW()-ROW(A$38)+1))," ",TEXT(INDEX(U7:U35,SMALL(IF(ISNUMBER(U7:U35),IF(U7:U35&gt;0,IF(X7:X35&lt;&gt;"",ROW(U7:U35)-MIN(ROW(U7:U35))+1))),ROW()-ROW(A$38)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(U7:U35),IF(U7:U35&gt;0,IF(X7:X35&lt;&gt;"",ROW(U7:U35)-MIN(ROW(U7:U35))+1))),ROW()-ROW(A$38)+1))," ",";")),"")</f>
+        <f t="array" ref="U55">IFERROR(CONCATENATE(INDEX(X7:X34,SMALL(IF(ISNUMBER(U7:U34),IF(U7:U34&gt;0,IF(X7:X34&lt;&gt;"",ROW(U7:U34)-MIN(ROW(U7:U34))+1))),ROW()-ROW(A$37)+1))," ",TEXT(INDEX(U7:U34,SMALL(IF(ISNUMBER(U7:U34),IF(U7:U34&gt;0,IF(X7:X34&lt;&gt;"",ROW(U7:U34)-MIN(ROW(U7:U34))+1))),ROW()-ROW(A$37)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(U7:U34),IF(U7:U34&gt;0,IF(X7:X34&lt;&gt;"",ROW(U7:U34)-MIN(ROW(U7:U34))+1))),ROW()-ROW(A$37)+1))," ",";")),"")</f>
         <v>0</v>
       </c>
       <c r="Z55">
-        <f t="array" ref="Z55">IFERROR(CONCATENATE(TEXT(INDEX(Z7:Z35,SMALL(IF(ISNUMBER(Z7:Z35),IF(Z7:Z35&gt;0,IF(AC7:AC35&lt;&gt;"",ROW(Z7:Z35)-MIN(ROW(Z7:Z35))+1))),ROW()-ROW(A$39)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(Z7:Z35),IF(Z7:Z35&gt;0,IF(AC7:AC35&lt;&gt;"",ROW(Z7:Z35)-MIN(ROW(Z7:Z35))+1))),ROW()-ROW(A$39)+1)),",",";"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;D7:D35,SMALL(IF(ISNUMBER(Z7:Z35),IF(Z7:Z35&gt;0,IF(AC7:AC35&lt;&gt;"",ROW(Z7:Z35)-MIN(ROW(Z7:Z35))+1))),ROW()-ROW(A$39)+1)),",",";"),",",INDEX(AC7:AC35,SMALL(IF(ISNUMBER(Z7:Z35),IF(Z7:Z35&gt;0,IF(AC7:AC35&lt;&gt;"",ROW(Z7:Z35)-MIN(ROW(Z7:Z35))+1))),ROW()-ROW(A$39)+1))),"")</f>
+        <f t="array" ref="Z55">IFERROR(CONCATENATE(TEXT(INDEX(Z7:Z34,SMALL(IF(ISNUMBER(Z7:Z34),IF(Z7:Z34&gt;0,IF(AC7:AC34&lt;&gt;"",ROW(Z7:Z34)-MIN(ROW(Z7:Z34))+1))),ROW()-ROW(A$38)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(Z7:Z34),IF(Z7:Z34&gt;0,IF(AC7:AC34&lt;&gt;"",ROW(Z7:Z34)-MIN(ROW(Z7:Z34))+1))),ROW()-ROW(A$38)+1)),",",";"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;D7:D34,SMALL(IF(ISNUMBER(Z7:Z34),IF(Z7:Z34&gt;0,IF(AC7:AC34&lt;&gt;"",ROW(Z7:Z34)-MIN(ROW(Z7:Z34))+1))),ROW()-ROW(A$38)+1)),",",";"),",",INDEX(AC7:AC34,SMALL(IF(ISNUMBER(Z7:Z34),IF(Z7:Z34&gt;0,IF(AC7:AC34&lt;&gt;"",ROW(Z7:Z34)-MIN(ROW(Z7:Z34))+1))),ROW()-ROW(A$38)+1))),"")</f>
         <v>0</v>
       </c>
       <c r="AE55">
-        <f t="array" ref="AE55">IFERROR(CONCATENATE(INDEX(AH7:AH35,SMALL(IF(ISNUMBER(AE7:AE35),IF(AE7:AE35&gt;0,IF(AH7:AH35&lt;&gt;"",ROW(AE7:AE35)-MIN(ROW(AE7:AE35))+1))),ROW()-ROW(A$38)+1)),"|",TEXT(INDEX(AE7:AE35,SMALL(IF(ISNUMBER(AE7:AE35),IF(AE7:AE35&gt;0,IF(AH7:AH35&lt;&gt;"",ROW(AE7:AE35)-MIN(ROW(AE7:AE35))+1))),ROW()-ROW(A$38)+1)),"##0"),"|",SUBSTITUTE(SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(AE7:AE35),IF(AE7:AE35&gt;0,IF(AH7:AH35&lt;&gt;"",ROW(AE7:AE35)-MIN(ROW(AE7:AE35))+1))),ROW()-ROW(A$38)+1)),"|",";")," ","_")),"")</f>
+        <f t="array" ref="AE55">IFERROR(CONCATENATE(INDEX(AH7:AH34,SMALL(IF(ISNUMBER(AE7:AE34),IF(AE7:AE34&gt;0,IF(AH7:AH34&lt;&gt;"",ROW(AE7:AE34)-MIN(ROW(AE7:AE34))+1))),ROW()-ROW(A$37)+1)),"|",TEXT(INDEX(AE7:AE34,SMALL(IF(ISNUMBER(AE7:AE34),IF(AE7:AE34&gt;0,IF(AH7:AH34&lt;&gt;"",ROW(AE7:AE34)-MIN(ROW(AE7:AE34))+1))),ROW()-ROW(A$37)+1)),"##0"),"|",SUBSTITUTE(SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(AE7:AE34),IF(AE7:AE34&gt;0,IF(AH7:AH34&lt;&gt;"",ROW(AE7:AE34)-MIN(ROW(AE7:AE34))+1))),ROW()-ROW(A$37)+1)),"|",";")," ","_")),"")</f>
         <v>0</v>
       </c>
       <c r="AJ55">
-        <f t="array" ref="AJ55">IFERROR(CONCATENATE(INDEX(AM7:AM35,SMALL(IF(ISNUMBER(AJ7:AJ35),IF(AJ7:AJ35&gt;0,IF(AM7:AM35&lt;&gt;"",ROW(AJ7:AJ35)-MIN(ROW(AJ7:AJ35))+1))),ROW()-ROW(A$38)+1)),",",TEXT(INDEX(AJ7:AJ35,SMALL(IF(ISNUMBER(AJ7:AJ35),IF(AJ7:AJ35&gt;0,IF(AM7:AM35&lt;&gt;"",ROW(AJ7:AJ35)-MIN(ROW(AJ7:AJ35))+1))),ROW()-ROW(A$38)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(AJ7:AJ35),IF(AJ7:AJ35&gt;0,IF(AM7:AM35&lt;&gt;"",ROW(AJ7:AJ35)-MIN(ROW(AJ7:AJ35))+1))),ROW()-ROW(A$38)+1)),",",";")),"")</f>
+        <f t="array" ref="AJ55">IFERROR(CONCATENATE(INDEX(AM7:AM34,SMALL(IF(ISNUMBER(AJ7:AJ34),IF(AJ7:AJ34&gt;0,IF(AM7:AM34&lt;&gt;"",ROW(AJ7:AJ34)-MIN(ROW(AJ7:AJ34))+1))),ROW()-ROW(A$37)+1)),",",TEXT(INDEX(AJ7:AJ34,SMALL(IF(ISNUMBER(AJ7:AJ34),IF(AJ7:AJ34&gt;0,IF(AM7:AM34&lt;&gt;"",ROW(AJ7:AJ34)-MIN(ROW(AJ7:AJ34))+1))),ROW()-ROW(A$37)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(AJ7:AJ34),IF(AJ7:AJ34&gt;0,IF(AM7:AM34&lt;&gt;"",ROW(AJ7:AJ34)-MIN(ROW(AJ7:AJ34))+1))),ROW()-ROW(A$37)+1)),",",";")),"")</f>
         <v>0</v>
       </c>
       <c r="AO55">
-        <f t="array" ref="AO55">IFERROR(CONCATENATE(INDEX(AR7:AR35,SMALL(IF(ISNUMBER(AO7:AO35),IF(AO7:AO35&gt;0,IF(AR7:AR35&lt;&gt;"",ROW(AO7:AO35)-MIN(ROW(AO7:AO35))+1))),ROW()-ROW(A$38)+1))," ",TEXT(INDEX(AO7:AO35,SMALL(IF(ISNUMBER(AO7:AO35),IF(AO7:AO35&gt;0,IF(AR7:AR35&lt;&gt;"",ROW(AO7:AO35)-MIN(ROW(AO7:AO35))+1))),ROW()-ROW(A$38)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(AO7:AO35),IF(AO7:AO35&gt;0,IF(AR7:AR35&lt;&gt;"",ROW(AO7:AO35)-MIN(ROW(AO7:AO35))+1))),ROW()-ROW(A$38)+1))," ",";")),"")</f>
+        <f t="array" ref="AO55">IFERROR(CONCATENATE(INDEX(AR7:AR34,SMALL(IF(ISNUMBER(AO7:AO34),IF(AO7:AO34&gt;0,IF(AR7:AR34&lt;&gt;"",ROW(AO7:AO34)-MIN(ROW(AO7:AO34))+1))),ROW()-ROW(A$37)+1))," ",TEXT(INDEX(AO7:AO34,SMALL(IF(ISNUMBER(AO7:AO34),IF(AO7:AO34&gt;0,IF(AR7:AR34&lt;&gt;"",ROW(AO7:AO34)-MIN(ROW(AO7:AO34))+1))),ROW()-ROW(A$37)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(AO7:AO34),IF(AO7:AO34&gt;0,IF(AR7:AR34&lt;&gt;"",ROW(AO7:AO34)-MIN(ROW(AO7:AO34))+1))),ROW()-ROW(A$37)+1))," ",";")),"")</f>
         <v>0</v>
       </c>
       <c r="AT55">
-        <f t="array" ref="AT55">IFERROR(CONCATENATE(INDEX(AW7:AW35,SMALL(IF(ISNUMBER(AT7:AT35),IF(AT7:AT35&gt;0,IF(AW7:AW35&lt;&gt;"",ROW(AT7:AT35)-MIN(ROW(AT7:AT35))+1))),ROW()-ROW(A$38)+1))," ",TEXT(INDEX(AT7:AT35,SMALL(IF(ISNUMBER(AT7:AT35),IF(AT7:AT35&gt;0,IF(AW7:AW35&lt;&gt;"",ROW(AT7:AT35)-MIN(ROW(AT7:AT35))+1))),ROW()-ROW(A$38)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(AT7:AT35),IF(AT7:AT35&gt;0,IF(AW7:AW35&lt;&gt;"",ROW(AT7:AT35)-MIN(ROW(AT7:AT35))+1))),ROW()-ROW(A$38)+1))," ",";")),"")</f>
+        <f t="array" ref="AT55">IFERROR(CONCATENATE(INDEX(AW7:AW34,SMALL(IF(ISNUMBER(AT7:AT34),IF(AT7:AT34&gt;0,IF(AW7:AW34&lt;&gt;"",ROW(AT7:AT34)-MIN(ROW(AT7:AT34))+1))),ROW()-ROW(A$37)+1))," ",TEXT(INDEX(AT7:AT34,SMALL(IF(ISNUMBER(AT7:AT34),IF(AT7:AT34&gt;0,IF(AW7:AW34&lt;&gt;"",ROW(AT7:AT34)-MIN(ROW(AT7:AT34))+1))),ROW()-ROW(A$37)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(AT7:AT34),IF(AT7:AT34&gt;0,IF(AW7:AW34&lt;&gt;"",ROW(AT7:AT34)-MIN(ROW(AT7:AT34))+1))),ROW()-ROW(A$37)+1))," ",";")),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="11:46">
       <c r="K56">
-        <f t="array" ref="K56">IFERROR(CONCATENATE(INDEX(N7:N35,SMALL(IF(ISNUMBER(K7:K35),IF(K7:K35&gt;0,IF(N7:N35&lt;&gt;"",ROW(K7:K35)-MIN(ROW(K7:K35))+1))),ROW()-ROW(A$38)+1)),",",TEXT(INDEX(K7:K35,SMALL(IF(ISNUMBER(K7:K35),IF(K7:K35&gt;0,IF(N7:N35&lt;&gt;"",ROW(K7:K35)-MIN(ROW(K7:K35))+1))),ROW()-ROW(A$38)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(K7:K35),IF(K7:K35&gt;0,IF(N7:N35&lt;&gt;"",ROW(K7:K35)-MIN(ROW(K7:K35))+1))),ROW()-ROW(A$38)+1)),",",";")),"")</f>
+        <f t="array" ref="K56">IFERROR(CONCATENATE(INDEX(N7:N34,SMALL(IF(ISNUMBER(K7:K34),IF(K7:K34&gt;0,IF(N7:N34&lt;&gt;"",ROW(K7:K34)-MIN(ROW(K7:K34))+1))),ROW()-ROW(A$37)+1)),",",TEXT(INDEX(K7:K34,SMALL(IF(ISNUMBER(K7:K34),IF(K7:K34&gt;0,IF(N7:N34&lt;&gt;"",ROW(K7:K34)-MIN(ROW(K7:K34))+1))),ROW()-ROW(A$37)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(K7:K34),IF(K7:K34&gt;0,IF(N7:N34&lt;&gt;"",ROW(K7:K34)-MIN(ROW(K7:K34))+1))),ROW()-ROW(A$37)+1)),",",";")),"")</f>
         <v>0</v>
       </c>
       <c r="P56">
-        <f t="array" ref="P56">IFERROR(CONCATENATE(TEXT(INDEX(P7:P35,SMALL(IF(ISNUMBER(P7:P35),IF(P7:P35&gt;0,IF(S7:S35&lt;&gt;"",ROW(P7:P35)-MIN(ROW(P7:P35))+1))),ROW()-ROW(A$38)+1)),"##0"),",",INDEX(S7:S35,SMALL(IF(ISNUMBER(P7:P35),IF(P7:P35&gt;0,IF(S7:S35&lt;&gt;"",ROW(P7:P35)-MIN(ROW(P7:P35))+1))),ROW()-ROW(A$38)+1)),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(P7:P35),IF(P7:P35&gt;0,IF(S7:S35&lt;&gt;"",ROW(P7:P35)-MIN(ROW(P7:P35))+1))),ROW()-ROW(A$38)+1)),",",";")),"")</f>
+        <f t="array" ref="P56">IFERROR(CONCATENATE(TEXT(INDEX(P7:P34,SMALL(IF(ISNUMBER(P7:P34),IF(P7:P34&gt;0,IF(S7:S34&lt;&gt;"",ROW(P7:P34)-MIN(ROW(P7:P34))+1))),ROW()-ROW(A$37)+1)),"##0"),",",INDEX(S7:S34,SMALL(IF(ISNUMBER(P7:P34),IF(P7:P34&gt;0,IF(S7:S34&lt;&gt;"",ROW(P7:P34)-MIN(ROW(P7:P34))+1))),ROW()-ROW(A$37)+1)),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(P7:P34),IF(P7:P34&gt;0,IF(S7:S34&lt;&gt;"",ROW(P7:P34)-MIN(ROW(P7:P34))+1))),ROW()-ROW(A$37)+1)),",",";")),"")</f>
         <v>0</v>
       </c>
       <c r="U56">
-        <f t="array" ref="U56">IFERROR(CONCATENATE(INDEX(X7:X35,SMALL(IF(ISNUMBER(U7:U35),IF(U7:U35&gt;0,IF(X7:X35&lt;&gt;"",ROW(U7:U35)-MIN(ROW(U7:U35))+1))),ROW()-ROW(A$38)+1))," ",TEXT(INDEX(U7:U35,SMALL(IF(ISNUMBER(U7:U35),IF(U7:U35&gt;0,IF(X7:X35&lt;&gt;"",ROW(U7:U35)-MIN(ROW(U7:U35))+1))),ROW()-ROW(A$38)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(U7:U35),IF(U7:U35&gt;0,IF(X7:X35&lt;&gt;"",ROW(U7:U35)-MIN(ROW(U7:U35))+1))),ROW()-ROW(A$38)+1))," ",";")),"")</f>
+        <f t="array" ref="U56">IFERROR(CONCATENATE(INDEX(X7:X34,SMALL(IF(ISNUMBER(U7:U34),IF(U7:U34&gt;0,IF(X7:X34&lt;&gt;"",ROW(U7:U34)-MIN(ROW(U7:U34))+1))),ROW()-ROW(A$37)+1))," ",TEXT(INDEX(U7:U34,SMALL(IF(ISNUMBER(U7:U34),IF(U7:U34&gt;0,IF(X7:X34&lt;&gt;"",ROW(U7:U34)-MIN(ROW(U7:U34))+1))),ROW()-ROW(A$37)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(U7:U34),IF(U7:U34&gt;0,IF(X7:X34&lt;&gt;"",ROW(U7:U34)-MIN(ROW(U7:U34))+1))),ROW()-ROW(A$37)+1))," ",";")),"")</f>
         <v>0</v>
       </c>
       <c r="Z56">
-        <f t="array" ref="Z56">IFERROR(CONCATENATE(TEXT(INDEX(Z7:Z35,SMALL(IF(ISNUMBER(Z7:Z35),IF(Z7:Z35&gt;0,IF(AC7:AC35&lt;&gt;"",ROW(Z7:Z35)-MIN(ROW(Z7:Z35))+1))),ROW()-ROW(A$39)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(Z7:Z35),IF(Z7:Z35&gt;0,IF(AC7:AC35&lt;&gt;"",ROW(Z7:Z35)-MIN(ROW(Z7:Z35))+1))),ROW()-ROW(A$39)+1)),",",";"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;D7:D35,SMALL(IF(ISNUMBER(Z7:Z35),IF(Z7:Z35&gt;0,IF(AC7:AC35&lt;&gt;"",ROW(Z7:Z35)-MIN(ROW(Z7:Z35))+1))),ROW()-ROW(A$39)+1)),",",";"),",",INDEX(AC7:AC35,SMALL(IF(ISNUMBER(Z7:Z35),IF(Z7:Z35&gt;0,IF(AC7:AC35&lt;&gt;"",ROW(Z7:Z35)-MIN(ROW(Z7:Z35))+1))),ROW()-ROW(A$39)+1))),"")</f>
+        <f t="array" ref="Z56">IFERROR(CONCATENATE(TEXT(INDEX(Z7:Z34,SMALL(IF(ISNUMBER(Z7:Z34),IF(Z7:Z34&gt;0,IF(AC7:AC34&lt;&gt;"",ROW(Z7:Z34)-MIN(ROW(Z7:Z34))+1))),ROW()-ROW(A$38)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(Z7:Z34),IF(Z7:Z34&gt;0,IF(AC7:AC34&lt;&gt;"",ROW(Z7:Z34)-MIN(ROW(Z7:Z34))+1))),ROW()-ROW(A$38)+1)),",",";"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;D7:D34,SMALL(IF(ISNUMBER(Z7:Z34),IF(Z7:Z34&gt;0,IF(AC7:AC34&lt;&gt;"",ROW(Z7:Z34)-MIN(ROW(Z7:Z34))+1))),ROW()-ROW(A$38)+1)),",",";"),",",INDEX(AC7:AC34,SMALL(IF(ISNUMBER(Z7:Z34),IF(Z7:Z34&gt;0,IF(AC7:AC34&lt;&gt;"",ROW(Z7:Z34)-MIN(ROW(Z7:Z34))+1))),ROW()-ROW(A$38)+1))),"")</f>
         <v>0</v>
       </c>
       <c r="AE56">
-        <f t="array" ref="AE56">IFERROR(CONCATENATE(INDEX(AH7:AH35,SMALL(IF(ISNUMBER(AE7:AE35),IF(AE7:AE35&gt;0,IF(AH7:AH35&lt;&gt;"",ROW(AE7:AE35)-MIN(ROW(AE7:AE35))+1))),ROW()-ROW(A$38)+1)),"|",TEXT(INDEX(AE7:AE35,SMALL(IF(ISNUMBER(AE7:AE35),IF(AE7:AE35&gt;0,IF(AH7:AH35&lt;&gt;"",ROW(AE7:AE35)-MIN(ROW(AE7:AE35))+1))),ROW()-ROW(A$38)+1)),"##0"),"|",SUBSTITUTE(SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(AE7:AE35),IF(AE7:AE35&gt;0,IF(AH7:AH35&lt;&gt;"",ROW(AE7:AE35)-MIN(ROW(AE7:AE35))+1))),ROW()-ROW(A$38)+1)),"|",";")," ","_")),"")</f>
+        <f t="array" ref="AE56">IFERROR(CONCATENATE(INDEX(AH7:AH34,SMALL(IF(ISNUMBER(AE7:AE34),IF(AE7:AE34&gt;0,IF(AH7:AH34&lt;&gt;"",ROW(AE7:AE34)-MIN(ROW(AE7:AE34))+1))),ROW()-ROW(A$37)+1)),"|",TEXT(INDEX(AE7:AE34,SMALL(IF(ISNUMBER(AE7:AE34),IF(AE7:AE34&gt;0,IF(AH7:AH34&lt;&gt;"",ROW(AE7:AE34)-MIN(ROW(AE7:AE34))+1))),ROW()-ROW(A$37)+1)),"##0"),"|",SUBSTITUTE(SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(AE7:AE34),IF(AE7:AE34&gt;0,IF(AH7:AH34&lt;&gt;"",ROW(AE7:AE34)-MIN(ROW(AE7:AE34))+1))),ROW()-ROW(A$37)+1)),"|",";")," ","_")),"")</f>
         <v>0</v>
       </c>
       <c r="AJ56">
-        <f t="array" ref="AJ56">IFERROR(CONCATENATE(INDEX(AM7:AM35,SMALL(IF(ISNUMBER(AJ7:AJ35),IF(AJ7:AJ35&gt;0,IF(AM7:AM35&lt;&gt;"",ROW(AJ7:AJ35)-MIN(ROW(AJ7:AJ35))+1))),ROW()-ROW(A$38)+1)),",",TEXT(INDEX(AJ7:AJ35,SMALL(IF(ISNUMBER(AJ7:AJ35),IF(AJ7:AJ35&gt;0,IF(AM7:AM35&lt;&gt;"",ROW(AJ7:AJ35)-MIN(ROW(AJ7:AJ35))+1))),ROW()-ROW(A$38)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(AJ7:AJ35),IF(AJ7:AJ35&gt;0,IF(AM7:AM35&lt;&gt;"",ROW(AJ7:AJ35)-MIN(ROW(AJ7:AJ35))+1))),ROW()-ROW(A$38)+1)),",",";")),"")</f>
+        <f t="array" ref="AJ56">IFERROR(CONCATENATE(INDEX(AM7:AM34,SMALL(IF(ISNUMBER(AJ7:AJ34),IF(AJ7:AJ34&gt;0,IF(AM7:AM34&lt;&gt;"",ROW(AJ7:AJ34)-MIN(ROW(AJ7:AJ34))+1))),ROW()-ROW(A$37)+1)),",",TEXT(INDEX(AJ7:AJ34,SMALL(IF(ISNUMBER(AJ7:AJ34),IF(AJ7:AJ34&gt;0,IF(AM7:AM34&lt;&gt;"",ROW(AJ7:AJ34)-MIN(ROW(AJ7:AJ34))+1))),ROW()-ROW(A$37)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(AJ7:AJ34),IF(AJ7:AJ34&gt;0,IF(AM7:AM34&lt;&gt;"",ROW(AJ7:AJ34)-MIN(ROW(AJ7:AJ34))+1))),ROW()-ROW(A$37)+1)),",",";")),"")</f>
         <v>0</v>
       </c>
       <c r="AO56">
-        <f t="array" ref="AO56">IFERROR(CONCATENATE(INDEX(AR7:AR35,SMALL(IF(ISNUMBER(AO7:AO35),IF(AO7:AO35&gt;0,IF(AR7:AR35&lt;&gt;"",ROW(AO7:AO35)-MIN(ROW(AO7:AO35))+1))),ROW()-ROW(A$38)+1))," ",TEXT(INDEX(AO7:AO35,SMALL(IF(ISNUMBER(AO7:AO35),IF(AO7:AO35&gt;0,IF(AR7:AR35&lt;&gt;"",ROW(AO7:AO35)-MIN(ROW(AO7:AO35))+1))),ROW()-ROW(A$38)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(AO7:AO35),IF(AO7:AO35&gt;0,IF(AR7:AR35&lt;&gt;"",ROW(AO7:AO35)-MIN(ROW(AO7:AO35))+1))),ROW()-ROW(A$38)+1))," ",";")),"")</f>
+        <f t="array" ref="AO56">IFERROR(CONCATENATE(INDEX(AR7:AR34,SMALL(IF(ISNUMBER(AO7:AO34),IF(AO7:AO34&gt;0,IF(AR7:AR34&lt;&gt;"",ROW(AO7:AO34)-MIN(ROW(AO7:AO34))+1))),ROW()-ROW(A$37)+1))," ",TEXT(INDEX(AO7:AO34,SMALL(IF(ISNUMBER(AO7:AO34),IF(AO7:AO34&gt;0,IF(AR7:AR34&lt;&gt;"",ROW(AO7:AO34)-MIN(ROW(AO7:AO34))+1))),ROW()-ROW(A$37)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(AO7:AO34),IF(AO7:AO34&gt;0,IF(AR7:AR34&lt;&gt;"",ROW(AO7:AO34)-MIN(ROW(AO7:AO34))+1))),ROW()-ROW(A$37)+1))," ",";")),"")</f>
         <v>0</v>
       </c>
       <c r="AT56">
-        <f t="array" ref="AT56">IFERROR(CONCATENATE(INDEX(AW7:AW35,SMALL(IF(ISNUMBER(AT7:AT35),IF(AT7:AT35&gt;0,IF(AW7:AW35&lt;&gt;"",ROW(AT7:AT35)-MIN(ROW(AT7:AT35))+1))),ROW()-ROW(A$38)+1))," ",TEXT(INDEX(AT7:AT35,SMALL(IF(ISNUMBER(AT7:AT35),IF(AT7:AT35&gt;0,IF(AW7:AW35&lt;&gt;"",ROW(AT7:AT35)-MIN(ROW(AT7:AT35))+1))),ROW()-ROW(A$38)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(AT7:AT35),IF(AT7:AT35&gt;0,IF(AW7:AW35&lt;&gt;"",ROW(AT7:AT35)-MIN(ROW(AT7:AT35))+1))),ROW()-ROW(A$38)+1))," ",";")),"")</f>
+        <f t="array" ref="AT56">IFERROR(CONCATENATE(INDEX(AW7:AW34,SMALL(IF(ISNUMBER(AT7:AT34),IF(AT7:AT34&gt;0,IF(AW7:AW34&lt;&gt;"",ROW(AT7:AT34)-MIN(ROW(AT7:AT34))+1))),ROW()-ROW(A$37)+1))," ",TEXT(INDEX(AT7:AT34,SMALL(IF(ISNUMBER(AT7:AT34),IF(AT7:AT34&gt;0,IF(AW7:AW34&lt;&gt;"",ROW(AT7:AT34)-MIN(ROW(AT7:AT34))+1))),ROW()-ROW(A$37)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(AT7:AT34),IF(AT7:AT34&gt;0,IF(AW7:AW34&lt;&gt;"",ROW(AT7:AT34)-MIN(ROW(AT7:AT34))+1))),ROW()-ROW(A$37)+1))," ",";")),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="11:46">
       <c r="K57">
-        <f t="array" ref="K57">IFERROR(CONCATENATE(INDEX(N7:N35,SMALL(IF(ISNUMBER(K7:K35),IF(K7:K35&gt;0,IF(N7:N35&lt;&gt;"",ROW(K7:K35)-MIN(ROW(K7:K35))+1))),ROW()-ROW(A$38)+1)),",",TEXT(INDEX(K7:K35,SMALL(IF(ISNUMBER(K7:K35),IF(K7:K35&gt;0,IF(N7:N35&lt;&gt;"",ROW(K7:K35)-MIN(ROW(K7:K35))+1))),ROW()-ROW(A$38)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(K7:K35),IF(K7:K35&gt;0,IF(N7:N35&lt;&gt;"",ROW(K7:K35)-MIN(ROW(K7:K35))+1))),ROW()-ROW(A$38)+1)),",",";")),"")</f>
+        <f t="array" ref="K57">IFERROR(CONCATENATE(INDEX(N7:N34,SMALL(IF(ISNUMBER(K7:K34),IF(K7:K34&gt;0,IF(N7:N34&lt;&gt;"",ROW(K7:K34)-MIN(ROW(K7:K34))+1))),ROW()-ROW(A$37)+1)),",",TEXT(INDEX(K7:K34,SMALL(IF(ISNUMBER(K7:K34),IF(K7:K34&gt;0,IF(N7:N34&lt;&gt;"",ROW(K7:K34)-MIN(ROW(K7:K34))+1))),ROW()-ROW(A$37)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(K7:K34),IF(K7:K34&gt;0,IF(N7:N34&lt;&gt;"",ROW(K7:K34)-MIN(ROW(K7:K34))+1))),ROW()-ROW(A$37)+1)),",",";")),"")</f>
         <v>0</v>
       </c>
       <c r="P57">
-        <f t="array" ref="P57">IFERROR(CONCATENATE(TEXT(INDEX(P7:P35,SMALL(IF(ISNUMBER(P7:P35),IF(P7:P35&gt;0,IF(S7:S35&lt;&gt;"",ROW(P7:P35)-MIN(ROW(P7:P35))+1))),ROW()-ROW(A$38)+1)),"##0"),",",INDEX(S7:S35,SMALL(IF(ISNUMBER(P7:P35),IF(P7:P35&gt;0,IF(S7:S35&lt;&gt;"",ROW(P7:P35)-MIN(ROW(P7:P35))+1))),ROW()-ROW(A$38)+1)),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(P7:P35),IF(P7:P35&gt;0,IF(S7:S35&lt;&gt;"",ROW(P7:P35)-MIN(ROW(P7:P35))+1))),ROW()-ROW(A$38)+1)),",",";")),"")</f>
+        <f t="array" ref="P57">IFERROR(CONCATENATE(TEXT(INDEX(P7:P34,SMALL(IF(ISNUMBER(P7:P34),IF(P7:P34&gt;0,IF(S7:S34&lt;&gt;"",ROW(P7:P34)-MIN(ROW(P7:P34))+1))),ROW()-ROW(A$37)+1)),"##0"),",",INDEX(S7:S34,SMALL(IF(ISNUMBER(P7:P34),IF(P7:P34&gt;0,IF(S7:S34&lt;&gt;"",ROW(P7:P34)-MIN(ROW(P7:P34))+1))),ROW()-ROW(A$37)+1)),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(P7:P34),IF(P7:P34&gt;0,IF(S7:S34&lt;&gt;"",ROW(P7:P34)-MIN(ROW(P7:P34))+1))),ROW()-ROW(A$37)+1)),",",";")),"")</f>
         <v>0</v>
       </c>
       <c r="U57">
-        <f t="array" ref="U57">IFERROR(CONCATENATE(INDEX(X7:X35,SMALL(IF(ISNUMBER(U7:U35),IF(U7:U35&gt;0,IF(X7:X35&lt;&gt;"",ROW(U7:U35)-MIN(ROW(U7:U35))+1))),ROW()-ROW(A$38)+1))," ",TEXT(INDEX(U7:U35,SMALL(IF(ISNUMBER(U7:U35),IF(U7:U35&gt;0,IF(X7:X35&lt;&gt;"",ROW(U7:U35)-MIN(ROW(U7:U35))+1))),ROW()-ROW(A$38)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(U7:U35),IF(U7:U35&gt;0,IF(X7:X35&lt;&gt;"",ROW(U7:U35)-MIN(ROW(U7:U35))+1))),ROW()-ROW(A$38)+1))," ",";")),"")</f>
+        <f t="array" ref="U57">IFERROR(CONCATENATE(INDEX(X7:X34,SMALL(IF(ISNUMBER(U7:U34),IF(U7:U34&gt;0,IF(X7:X34&lt;&gt;"",ROW(U7:U34)-MIN(ROW(U7:U34))+1))),ROW()-ROW(A$37)+1))," ",TEXT(INDEX(U7:U34,SMALL(IF(ISNUMBER(U7:U34),IF(U7:U34&gt;0,IF(X7:X34&lt;&gt;"",ROW(U7:U34)-MIN(ROW(U7:U34))+1))),ROW()-ROW(A$37)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(U7:U34),IF(U7:U34&gt;0,IF(X7:X34&lt;&gt;"",ROW(U7:U34)-MIN(ROW(U7:U34))+1))),ROW()-ROW(A$37)+1))," ",";")),"")</f>
         <v>0</v>
       </c>
       <c r="Z57">
-        <f t="array" ref="Z57">IFERROR(CONCATENATE(TEXT(INDEX(Z7:Z35,SMALL(IF(ISNUMBER(Z7:Z35),IF(Z7:Z35&gt;0,IF(AC7:AC35&lt;&gt;"",ROW(Z7:Z35)-MIN(ROW(Z7:Z35))+1))),ROW()-ROW(A$39)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(Z7:Z35),IF(Z7:Z35&gt;0,IF(AC7:AC35&lt;&gt;"",ROW(Z7:Z35)-MIN(ROW(Z7:Z35))+1))),ROW()-ROW(A$39)+1)),",",";"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;D7:D35,SMALL(IF(ISNUMBER(Z7:Z35),IF(Z7:Z35&gt;0,IF(AC7:AC35&lt;&gt;"",ROW(Z7:Z35)-MIN(ROW(Z7:Z35))+1))),ROW()-ROW(A$39)+1)),",",";"),",",INDEX(AC7:AC35,SMALL(IF(ISNUMBER(Z7:Z35),IF(Z7:Z35&gt;0,IF(AC7:AC35&lt;&gt;"",ROW(Z7:Z35)-MIN(ROW(Z7:Z35))+1))),ROW()-ROW(A$39)+1))),"")</f>
+        <f t="array" ref="Z57">IFERROR(CONCATENATE(TEXT(INDEX(Z7:Z34,SMALL(IF(ISNUMBER(Z7:Z34),IF(Z7:Z34&gt;0,IF(AC7:AC34&lt;&gt;"",ROW(Z7:Z34)-MIN(ROW(Z7:Z34))+1))),ROW()-ROW(A$38)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(Z7:Z34),IF(Z7:Z34&gt;0,IF(AC7:AC34&lt;&gt;"",ROW(Z7:Z34)-MIN(ROW(Z7:Z34))+1))),ROW()-ROW(A$38)+1)),",",";"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;D7:D34,SMALL(IF(ISNUMBER(Z7:Z34),IF(Z7:Z34&gt;0,IF(AC7:AC34&lt;&gt;"",ROW(Z7:Z34)-MIN(ROW(Z7:Z34))+1))),ROW()-ROW(A$38)+1)),",",";"),",",INDEX(AC7:AC34,SMALL(IF(ISNUMBER(Z7:Z34),IF(Z7:Z34&gt;0,IF(AC7:AC34&lt;&gt;"",ROW(Z7:Z34)-MIN(ROW(Z7:Z34))+1))),ROW()-ROW(A$38)+1))),"")</f>
         <v>0</v>
       </c>
       <c r="AE57">
-        <f t="array" ref="AE57">IFERROR(CONCATENATE(INDEX(AH7:AH35,SMALL(IF(ISNUMBER(AE7:AE35),IF(AE7:AE35&gt;0,IF(AH7:AH35&lt;&gt;"",ROW(AE7:AE35)-MIN(ROW(AE7:AE35))+1))),ROW()-ROW(A$38)+1)),"|",TEXT(INDEX(AE7:AE35,SMALL(IF(ISNUMBER(AE7:AE35),IF(AE7:AE35&gt;0,IF(AH7:AH35&lt;&gt;"",ROW(AE7:AE35)-MIN(ROW(AE7:AE35))+1))),ROW()-ROW(A$38)+1)),"##0"),"|",SUBSTITUTE(SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(AE7:AE35),IF(AE7:AE35&gt;0,IF(AH7:AH35&lt;&gt;"",ROW(AE7:AE35)-MIN(ROW(AE7:AE35))+1))),ROW()-ROW(A$38)+1)),"|",";")," ","_")),"")</f>
+        <f t="array" ref="AE57">IFERROR(CONCATENATE(INDEX(AH7:AH34,SMALL(IF(ISNUMBER(AE7:AE34),IF(AE7:AE34&gt;0,IF(AH7:AH34&lt;&gt;"",ROW(AE7:AE34)-MIN(ROW(AE7:AE34))+1))),ROW()-ROW(A$37)+1)),"|",TEXT(INDEX(AE7:AE34,SMALL(IF(ISNUMBER(AE7:AE34),IF(AE7:AE34&gt;0,IF(AH7:AH34&lt;&gt;"",ROW(AE7:AE34)-MIN(ROW(AE7:AE34))+1))),ROW()-ROW(A$37)+1)),"##0"),"|",SUBSTITUTE(SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(AE7:AE34),IF(AE7:AE34&gt;0,IF(AH7:AH34&lt;&gt;"",ROW(AE7:AE34)-MIN(ROW(AE7:AE34))+1))),ROW()-ROW(A$37)+1)),"|",";")," ","_")),"")</f>
         <v>0</v>
       </c>
       <c r="AJ57">
-        <f t="array" ref="AJ57">IFERROR(CONCATENATE(INDEX(AM7:AM35,SMALL(IF(ISNUMBER(AJ7:AJ35),IF(AJ7:AJ35&gt;0,IF(AM7:AM35&lt;&gt;"",ROW(AJ7:AJ35)-MIN(ROW(AJ7:AJ35))+1))),ROW()-ROW(A$38)+1)),",",TEXT(INDEX(AJ7:AJ35,SMALL(IF(ISNUMBER(AJ7:AJ35),IF(AJ7:AJ35&gt;0,IF(AM7:AM35&lt;&gt;"",ROW(AJ7:AJ35)-MIN(ROW(AJ7:AJ35))+1))),ROW()-ROW(A$38)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(AJ7:AJ35),IF(AJ7:AJ35&gt;0,IF(AM7:AM35&lt;&gt;"",ROW(AJ7:AJ35)-MIN(ROW(AJ7:AJ35))+1))),ROW()-ROW(A$38)+1)),",",";")),"")</f>
+        <f t="array" ref="AJ57">IFERROR(CONCATENATE(INDEX(AM7:AM34,SMALL(IF(ISNUMBER(AJ7:AJ34),IF(AJ7:AJ34&gt;0,IF(AM7:AM34&lt;&gt;"",ROW(AJ7:AJ34)-MIN(ROW(AJ7:AJ34))+1))),ROW()-ROW(A$37)+1)),",",TEXT(INDEX(AJ7:AJ34,SMALL(IF(ISNUMBER(AJ7:AJ34),IF(AJ7:AJ34&gt;0,IF(AM7:AM34&lt;&gt;"",ROW(AJ7:AJ34)-MIN(ROW(AJ7:AJ34))+1))),ROW()-ROW(A$37)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(AJ7:AJ34),IF(AJ7:AJ34&gt;0,IF(AM7:AM34&lt;&gt;"",ROW(AJ7:AJ34)-MIN(ROW(AJ7:AJ34))+1))),ROW()-ROW(A$37)+1)),",",";")),"")</f>
         <v>0</v>
       </c>
       <c r="AO57">
-        <f t="array" ref="AO57">IFERROR(CONCATENATE(INDEX(AR7:AR35,SMALL(IF(ISNUMBER(AO7:AO35),IF(AO7:AO35&gt;0,IF(AR7:AR35&lt;&gt;"",ROW(AO7:AO35)-MIN(ROW(AO7:AO35))+1))),ROW()-ROW(A$38)+1))," ",TEXT(INDEX(AO7:AO35,SMALL(IF(ISNUMBER(AO7:AO35),IF(AO7:AO35&gt;0,IF(AR7:AR35&lt;&gt;"",ROW(AO7:AO35)-MIN(ROW(AO7:AO35))+1))),ROW()-ROW(A$38)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(AO7:AO35),IF(AO7:AO35&gt;0,IF(AR7:AR35&lt;&gt;"",ROW(AO7:AO35)-MIN(ROW(AO7:AO35))+1))),ROW()-ROW(A$38)+1))," ",";")),"")</f>
+        <f t="array" ref="AO57">IFERROR(CONCATENATE(INDEX(AR7:AR34,SMALL(IF(ISNUMBER(AO7:AO34),IF(AO7:AO34&gt;0,IF(AR7:AR34&lt;&gt;"",ROW(AO7:AO34)-MIN(ROW(AO7:AO34))+1))),ROW()-ROW(A$37)+1))," ",TEXT(INDEX(AO7:AO34,SMALL(IF(ISNUMBER(AO7:AO34),IF(AO7:AO34&gt;0,IF(AR7:AR34&lt;&gt;"",ROW(AO7:AO34)-MIN(ROW(AO7:AO34))+1))),ROW()-ROW(A$37)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(AO7:AO34),IF(AO7:AO34&gt;0,IF(AR7:AR34&lt;&gt;"",ROW(AO7:AO34)-MIN(ROW(AO7:AO34))+1))),ROW()-ROW(A$37)+1))," ",";")),"")</f>
         <v>0</v>
       </c>
       <c r="AT57">
-        <f t="array" ref="AT57">IFERROR(CONCATENATE(INDEX(AW7:AW35,SMALL(IF(ISNUMBER(AT7:AT35),IF(AT7:AT35&gt;0,IF(AW7:AW35&lt;&gt;"",ROW(AT7:AT35)-MIN(ROW(AT7:AT35))+1))),ROW()-ROW(A$38)+1))," ",TEXT(INDEX(AT7:AT35,SMALL(IF(ISNUMBER(AT7:AT35),IF(AT7:AT35&gt;0,IF(AW7:AW35&lt;&gt;"",ROW(AT7:AT35)-MIN(ROW(AT7:AT35))+1))),ROW()-ROW(A$38)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(AT7:AT35),IF(AT7:AT35&gt;0,IF(AW7:AW35&lt;&gt;"",ROW(AT7:AT35)-MIN(ROW(AT7:AT35))+1))),ROW()-ROW(A$38)+1))," ",";")),"")</f>
+        <f t="array" ref="AT57">IFERROR(CONCATENATE(INDEX(AW7:AW34,SMALL(IF(ISNUMBER(AT7:AT34),IF(AT7:AT34&gt;0,IF(AW7:AW34&lt;&gt;"",ROW(AT7:AT34)-MIN(ROW(AT7:AT34))+1))),ROW()-ROW(A$37)+1))," ",TEXT(INDEX(AT7:AT34,SMALL(IF(ISNUMBER(AT7:AT34),IF(AT7:AT34&gt;0,IF(AW7:AW34&lt;&gt;"",ROW(AT7:AT34)-MIN(ROW(AT7:AT34))+1))),ROW()-ROW(A$37)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(AT7:AT34),IF(AT7:AT34&gt;0,IF(AW7:AW34&lt;&gt;"",ROW(AT7:AT34)-MIN(ROW(AT7:AT34))+1))),ROW()-ROW(A$37)+1))," ",";")),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="11:46">
       <c r="K58">
-        <f t="array" ref="K58">IFERROR(CONCATENATE(INDEX(N7:N35,SMALL(IF(ISNUMBER(K7:K35),IF(K7:K35&gt;0,IF(N7:N35&lt;&gt;"",ROW(K7:K35)-MIN(ROW(K7:K35))+1))),ROW()-ROW(A$38)+1)),",",TEXT(INDEX(K7:K35,SMALL(IF(ISNUMBER(K7:K35),IF(K7:K35&gt;0,IF(N7:N35&lt;&gt;"",ROW(K7:K35)-MIN(ROW(K7:K35))+1))),ROW()-ROW(A$38)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(K7:K35),IF(K7:K35&gt;0,IF(N7:N35&lt;&gt;"",ROW(K7:K35)-MIN(ROW(K7:K35))+1))),ROW()-ROW(A$38)+1)),",",";")),"")</f>
+        <f t="array" ref="K58">IFERROR(CONCATENATE(INDEX(N7:N34,SMALL(IF(ISNUMBER(K7:K34),IF(K7:K34&gt;0,IF(N7:N34&lt;&gt;"",ROW(K7:K34)-MIN(ROW(K7:K34))+1))),ROW()-ROW(A$37)+1)),",",TEXT(INDEX(K7:K34,SMALL(IF(ISNUMBER(K7:K34),IF(K7:K34&gt;0,IF(N7:N34&lt;&gt;"",ROW(K7:K34)-MIN(ROW(K7:K34))+1))),ROW()-ROW(A$37)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(K7:K34),IF(K7:K34&gt;0,IF(N7:N34&lt;&gt;"",ROW(K7:K34)-MIN(ROW(K7:K34))+1))),ROW()-ROW(A$37)+1)),",",";")),"")</f>
         <v>0</v>
       </c>
       <c r="P58">
-        <f t="array" ref="P58">IFERROR(CONCATENATE(TEXT(INDEX(P7:P35,SMALL(IF(ISNUMBER(P7:P35),IF(P7:P35&gt;0,IF(S7:S35&lt;&gt;"",ROW(P7:P35)-MIN(ROW(P7:P35))+1))),ROW()-ROW(A$38)+1)),"##0"),",",INDEX(S7:S35,SMALL(IF(ISNUMBER(P7:P35),IF(P7:P35&gt;0,IF(S7:S35&lt;&gt;"",ROW(P7:P35)-MIN(ROW(P7:P35))+1))),ROW()-ROW(A$38)+1)),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(P7:P35),IF(P7:P35&gt;0,IF(S7:S35&lt;&gt;"",ROW(P7:P35)-MIN(ROW(P7:P35))+1))),ROW()-ROW(A$38)+1)),",",";")),"")</f>
+        <f t="array" ref="P58">IFERROR(CONCATENATE(TEXT(INDEX(P7:P34,SMALL(IF(ISNUMBER(P7:P34),IF(P7:P34&gt;0,IF(S7:S34&lt;&gt;"",ROW(P7:P34)-MIN(ROW(P7:P34))+1))),ROW()-ROW(A$37)+1)),"##0"),",",INDEX(S7:S34,SMALL(IF(ISNUMBER(P7:P34),IF(P7:P34&gt;0,IF(S7:S34&lt;&gt;"",ROW(P7:P34)-MIN(ROW(P7:P34))+1))),ROW()-ROW(A$37)+1)),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(P7:P34),IF(P7:P34&gt;0,IF(S7:S34&lt;&gt;"",ROW(P7:P34)-MIN(ROW(P7:P34))+1))),ROW()-ROW(A$37)+1)),",",";")),"")</f>
         <v>0</v>
       </c>
       <c r="U58">
-        <f t="array" ref="U58">IFERROR(CONCATENATE(INDEX(X7:X35,SMALL(IF(ISNUMBER(U7:U35),IF(U7:U35&gt;0,IF(X7:X35&lt;&gt;"",ROW(U7:U35)-MIN(ROW(U7:U35))+1))),ROW()-ROW(A$38)+1))," ",TEXT(INDEX(U7:U35,SMALL(IF(ISNUMBER(U7:U35),IF(U7:U35&gt;0,IF(X7:X35&lt;&gt;"",ROW(U7:U35)-MIN(ROW(U7:U35))+1))),ROW()-ROW(A$38)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(U7:U35),IF(U7:U35&gt;0,IF(X7:X35&lt;&gt;"",ROW(U7:U35)-MIN(ROW(U7:U35))+1))),ROW()-ROW(A$38)+1))," ",";")),"")</f>
+        <f t="array" ref="U58">IFERROR(CONCATENATE(INDEX(X7:X34,SMALL(IF(ISNUMBER(U7:U34),IF(U7:U34&gt;0,IF(X7:X34&lt;&gt;"",ROW(U7:U34)-MIN(ROW(U7:U34))+1))),ROW()-ROW(A$37)+1))," ",TEXT(INDEX(U7:U34,SMALL(IF(ISNUMBER(U7:U34),IF(U7:U34&gt;0,IF(X7:X34&lt;&gt;"",ROW(U7:U34)-MIN(ROW(U7:U34))+1))),ROW()-ROW(A$37)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(U7:U34),IF(U7:U34&gt;0,IF(X7:X34&lt;&gt;"",ROW(U7:U34)-MIN(ROW(U7:U34))+1))),ROW()-ROW(A$37)+1))," ",";")),"")</f>
         <v>0</v>
       </c>
       <c r="Z58">
-        <f t="array" ref="Z58">IFERROR(CONCATENATE(TEXT(INDEX(Z7:Z35,SMALL(IF(ISNUMBER(Z7:Z35),IF(Z7:Z35&gt;0,IF(AC7:AC35&lt;&gt;"",ROW(Z7:Z35)-MIN(ROW(Z7:Z35))+1))),ROW()-ROW(A$39)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(Z7:Z35),IF(Z7:Z35&gt;0,IF(AC7:AC35&lt;&gt;"",ROW(Z7:Z35)-MIN(ROW(Z7:Z35))+1))),ROW()-ROW(A$39)+1)),",",";"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;D7:D35,SMALL(IF(ISNUMBER(Z7:Z35),IF(Z7:Z35&gt;0,IF(AC7:AC35&lt;&gt;"",ROW(Z7:Z35)-MIN(ROW(Z7:Z35))+1))),ROW()-ROW(A$39)+1)),",",";"),",",INDEX(AC7:AC35,SMALL(IF(ISNUMBER(Z7:Z35),IF(Z7:Z35&gt;0,IF(AC7:AC35&lt;&gt;"",ROW(Z7:Z35)-MIN(ROW(Z7:Z35))+1))),ROW()-ROW(A$39)+1))),"")</f>
+        <f t="array" ref="Z58">IFERROR(CONCATENATE(TEXT(INDEX(Z7:Z34,SMALL(IF(ISNUMBER(Z7:Z34),IF(Z7:Z34&gt;0,IF(AC7:AC34&lt;&gt;"",ROW(Z7:Z34)-MIN(ROW(Z7:Z34))+1))),ROW()-ROW(A$38)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(Z7:Z34),IF(Z7:Z34&gt;0,IF(AC7:AC34&lt;&gt;"",ROW(Z7:Z34)-MIN(ROW(Z7:Z34))+1))),ROW()-ROW(A$38)+1)),",",";"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;D7:D34,SMALL(IF(ISNUMBER(Z7:Z34),IF(Z7:Z34&gt;0,IF(AC7:AC34&lt;&gt;"",ROW(Z7:Z34)-MIN(ROW(Z7:Z34))+1))),ROW()-ROW(A$38)+1)),",",";"),",",INDEX(AC7:AC34,SMALL(IF(ISNUMBER(Z7:Z34),IF(Z7:Z34&gt;0,IF(AC7:AC34&lt;&gt;"",ROW(Z7:Z34)-MIN(ROW(Z7:Z34))+1))),ROW()-ROW(A$38)+1))),"")</f>
         <v>0</v>
       </c>
       <c r="AE58">
-        <f t="array" ref="AE58">IFERROR(CONCATENATE(INDEX(AH7:AH35,SMALL(IF(ISNUMBER(AE7:AE35),IF(AE7:AE35&gt;0,IF(AH7:AH35&lt;&gt;"",ROW(AE7:AE35)-MIN(ROW(AE7:AE35))+1))),ROW()-ROW(A$38)+1)),"|",TEXT(INDEX(AE7:AE35,SMALL(IF(ISNUMBER(AE7:AE35),IF(AE7:AE35&gt;0,IF(AH7:AH35&lt;&gt;"",ROW(AE7:AE35)-MIN(ROW(AE7:AE35))+1))),ROW()-ROW(A$38)+1)),"##0"),"|",SUBSTITUTE(SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(AE7:AE35),IF(AE7:AE35&gt;0,IF(AH7:AH35&lt;&gt;"",ROW(AE7:AE35)-MIN(ROW(AE7:AE35))+1))),ROW()-ROW(A$38)+1)),"|",";")," ","_")),"")</f>
+        <f t="array" ref="AE58">IFERROR(CONCATENATE(INDEX(AH7:AH34,SMALL(IF(ISNUMBER(AE7:AE34),IF(AE7:AE34&gt;0,IF(AH7:AH34&lt;&gt;"",ROW(AE7:AE34)-MIN(ROW(AE7:AE34))+1))),ROW()-ROW(A$37)+1)),"|",TEXT(INDEX(AE7:AE34,SMALL(IF(ISNUMBER(AE7:AE34),IF(AE7:AE34&gt;0,IF(AH7:AH34&lt;&gt;"",ROW(AE7:AE34)-MIN(ROW(AE7:AE34))+1))),ROW()-ROW(A$37)+1)),"##0"),"|",SUBSTITUTE(SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(AE7:AE34),IF(AE7:AE34&gt;0,IF(AH7:AH34&lt;&gt;"",ROW(AE7:AE34)-MIN(ROW(AE7:AE34))+1))),ROW()-ROW(A$37)+1)),"|",";")," ","_")),"")</f>
         <v>0</v>
       </c>
       <c r="AJ58">
-        <f t="array" ref="AJ58">IFERROR(CONCATENATE(INDEX(AM7:AM35,SMALL(IF(ISNUMBER(AJ7:AJ35),IF(AJ7:AJ35&gt;0,IF(AM7:AM35&lt;&gt;"",ROW(AJ7:AJ35)-MIN(ROW(AJ7:AJ35))+1))),ROW()-ROW(A$38)+1)),",",TEXT(INDEX(AJ7:AJ35,SMALL(IF(ISNUMBER(AJ7:AJ35),IF(AJ7:AJ35&gt;0,IF(AM7:AM35&lt;&gt;"",ROW(AJ7:AJ35)-MIN(ROW(AJ7:AJ35))+1))),ROW()-ROW(A$38)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(AJ7:AJ35),IF(AJ7:AJ35&gt;0,IF(AM7:AM35&lt;&gt;"",ROW(AJ7:AJ35)-MIN(ROW(AJ7:AJ35))+1))),ROW()-ROW(A$38)+1)),",",";")),"")</f>
+        <f t="array" ref="AJ58">IFERROR(CONCATENATE(INDEX(AM7:AM34,SMALL(IF(ISNUMBER(AJ7:AJ34),IF(AJ7:AJ34&gt;0,IF(AM7:AM34&lt;&gt;"",ROW(AJ7:AJ34)-MIN(ROW(AJ7:AJ34))+1))),ROW()-ROW(A$37)+1)),",",TEXT(INDEX(AJ7:AJ34,SMALL(IF(ISNUMBER(AJ7:AJ34),IF(AJ7:AJ34&gt;0,IF(AM7:AM34&lt;&gt;"",ROW(AJ7:AJ34)-MIN(ROW(AJ7:AJ34))+1))),ROW()-ROW(A$37)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(AJ7:AJ34),IF(AJ7:AJ34&gt;0,IF(AM7:AM34&lt;&gt;"",ROW(AJ7:AJ34)-MIN(ROW(AJ7:AJ34))+1))),ROW()-ROW(A$37)+1)),",",";")),"")</f>
         <v>0</v>
       </c>
       <c r="AO58">
-        <f t="array" ref="AO58">IFERROR(CONCATENATE(INDEX(AR7:AR35,SMALL(IF(ISNUMBER(AO7:AO35),IF(AO7:AO35&gt;0,IF(AR7:AR35&lt;&gt;"",ROW(AO7:AO35)-MIN(ROW(AO7:AO35))+1))),ROW()-ROW(A$38)+1))," ",TEXT(INDEX(AO7:AO35,SMALL(IF(ISNUMBER(AO7:AO35),IF(AO7:AO35&gt;0,IF(AR7:AR35&lt;&gt;"",ROW(AO7:AO35)-MIN(ROW(AO7:AO35))+1))),ROW()-ROW(A$38)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(AO7:AO35),IF(AO7:AO35&gt;0,IF(AR7:AR35&lt;&gt;"",ROW(AO7:AO35)-MIN(ROW(AO7:AO35))+1))),ROW()-ROW(A$38)+1))," ",";")),"")</f>
+        <f t="array" ref="AO58">IFERROR(CONCATENATE(INDEX(AR7:AR34,SMALL(IF(ISNUMBER(AO7:AO34),IF(AO7:AO34&gt;0,IF(AR7:AR34&lt;&gt;"",ROW(AO7:AO34)-MIN(ROW(AO7:AO34))+1))),ROW()-ROW(A$37)+1))," ",TEXT(INDEX(AO7:AO34,SMALL(IF(ISNUMBER(AO7:AO34),IF(AO7:AO34&gt;0,IF(AR7:AR34&lt;&gt;"",ROW(AO7:AO34)-MIN(ROW(AO7:AO34))+1))),ROW()-ROW(A$37)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(AO7:AO34),IF(AO7:AO34&gt;0,IF(AR7:AR34&lt;&gt;"",ROW(AO7:AO34)-MIN(ROW(AO7:AO34))+1))),ROW()-ROW(A$37)+1))," ",";")),"")</f>
         <v>0</v>
       </c>
       <c r="AT58">
-        <f t="array" ref="AT58">IFERROR(CONCATENATE(INDEX(AW7:AW35,SMALL(IF(ISNUMBER(AT7:AT35),IF(AT7:AT35&gt;0,IF(AW7:AW35&lt;&gt;"",ROW(AT7:AT35)-MIN(ROW(AT7:AT35))+1))),ROW()-ROW(A$38)+1))," ",TEXT(INDEX(AT7:AT35,SMALL(IF(ISNUMBER(AT7:AT35),IF(AT7:AT35&gt;0,IF(AW7:AW35&lt;&gt;"",ROW(AT7:AT35)-MIN(ROW(AT7:AT35))+1))),ROW()-ROW(A$38)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(AT7:AT35),IF(AT7:AT35&gt;0,IF(AW7:AW35&lt;&gt;"",ROW(AT7:AT35)-MIN(ROW(AT7:AT35))+1))),ROW()-ROW(A$38)+1))," ",";")),"")</f>
+        <f t="array" ref="AT58">IFERROR(CONCATENATE(INDEX(AW7:AW34,SMALL(IF(ISNUMBER(AT7:AT34),IF(AT7:AT34&gt;0,IF(AW7:AW34&lt;&gt;"",ROW(AT7:AT34)-MIN(ROW(AT7:AT34))+1))),ROW()-ROW(A$37)+1))," ",TEXT(INDEX(AT7:AT34,SMALL(IF(ISNUMBER(AT7:AT34),IF(AT7:AT34&gt;0,IF(AW7:AW34&lt;&gt;"",ROW(AT7:AT34)-MIN(ROW(AT7:AT34))+1))),ROW()-ROW(A$37)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(AT7:AT34),IF(AT7:AT34&gt;0,IF(AW7:AW34&lt;&gt;"",ROW(AT7:AT34)-MIN(ROW(AT7:AT34))+1))),ROW()-ROW(A$37)+1))," ",";")),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="11:46">
       <c r="K59">
-        <f t="array" ref="K59">IFERROR(CONCATENATE(INDEX(N7:N35,SMALL(IF(ISNUMBER(K7:K35),IF(K7:K35&gt;0,IF(N7:N35&lt;&gt;"",ROW(K7:K35)-MIN(ROW(K7:K35))+1))),ROW()-ROW(A$38)+1)),",",TEXT(INDEX(K7:K35,SMALL(IF(ISNUMBER(K7:K35),IF(K7:K35&gt;0,IF(N7:N35&lt;&gt;"",ROW(K7:K35)-MIN(ROW(K7:K35))+1))),ROW()-ROW(A$38)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(K7:K35),IF(K7:K35&gt;0,IF(N7:N35&lt;&gt;"",ROW(K7:K35)-MIN(ROW(K7:K35))+1))),ROW()-ROW(A$38)+1)),",",";")),"")</f>
+        <f t="array" ref="K59">IFERROR(CONCATENATE(INDEX(N7:N34,SMALL(IF(ISNUMBER(K7:K34),IF(K7:K34&gt;0,IF(N7:N34&lt;&gt;"",ROW(K7:K34)-MIN(ROW(K7:K34))+1))),ROW()-ROW(A$37)+1)),",",TEXT(INDEX(K7:K34,SMALL(IF(ISNUMBER(K7:K34),IF(K7:K34&gt;0,IF(N7:N34&lt;&gt;"",ROW(K7:K34)-MIN(ROW(K7:K34))+1))),ROW()-ROW(A$37)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(K7:K34),IF(K7:K34&gt;0,IF(N7:N34&lt;&gt;"",ROW(K7:K34)-MIN(ROW(K7:K34))+1))),ROW()-ROW(A$37)+1)),",",";")),"")</f>
         <v>0</v>
       </c>
       <c r="P59">
-        <f t="array" ref="P59">IFERROR(CONCATENATE(TEXT(INDEX(P7:P35,SMALL(IF(ISNUMBER(P7:P35),IF(P7:P35&gt;0,IF(S7:S35&lt;&gt;"",ROW(P7:P35)-MIN(ROW(P7:P35))+1))),ROW()-ROW(A$38)+1)),"##0"),",",INDEX(S7:S35,SMALL(IF(ISNUMBER(P7:P35),IF(P7:P35&gt;0,IF(S7:S35&lt;&gt;"",ROW(P7:P35)-MIN(ROW(P7:P35))+1))),ROW()-ROW(A$38)+1)),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(P7:P35),IF(P7:P35&gt;0,IF(S7:S35&lt;&gt;"",ROW(P7:P35)-MIN(ROW(P7:P35))+1))),ROW()-ROW(A$38)+1)),",",";")),"")</f>
+        <f t="array" ref="P59">IFERROR(CONCATENATE(TEXT(INDEX(P7:P34,SMALL(IF(ISNUMBER(P7:P34),IF(P7:P34&gt;0,IF(S7:S34&lt;&gt;"",ROW(P7:P34)-MIN(ROW(P7:P34))+1))),ROW()-ROW(A$37)+1)),"##0"),",",INDEX(S7:S34,SMALL(IF(ISNUMBER(P7:P34),IF(P7:P34&gt;0,IF(S7:S34&lt;&gt;"",ROW(P7:P34)-MIN(ROW(P7:P34))+1))),ROW()-ROW(A$37)+1)),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(P7:P34),IF(P7:P34&gt;0,IF(S7:S34&lt;&gt;"",ROW(P7:P34)-MIN(ROW(P7:P34))+1))),ROW()-ROW(A$37)+1)),",",";")),"")</f>
         <v>0</v>
       </c>
       <c r="U59">
-        <f t="array" ref="U59">IFERROR(CONCATENATE(INDEX(X7:X35,SMALL(IF(ISNUMBER(U7:U35),IF(U7:U35&gt;0,IF(X7:X35&lt;&gt;"",ROW(U7:U35)-MIN(ROW(U7:U35))+1))),ROW()-ROW(A$38)+1))," ",TEXT(INDEX(U7:U35,SMALL(IF(ISNUMBER(U7:U35),IF(U7:U35&gt;0,IF(X7:X35&lt;&gt;"",ROW(U7:U35)-MIN(ROW(U7:U35))+1))),ROW()-ROW(A$38)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(U7:U35),IF(U7:U35&gt;0,IF(X7:X35&lt;&gt;"",ROW(U7:U35)-MIN(ROW(U7:U35))+1))),ROW()-ROW(A$38)+1))," ",";")),"")</f>
+        <f t="array" ref="U59">IFERROR(CONCATENATE(INDEX(X7:X34,SMALL(IF(ISNUMBER(U7:U34),IF(U7:U34&gt;0,IF(X7:X34&lt;&gt;"",ROW(U7:U34)-MIN(ROW(U7:U34))+1))),ROW()-ROW(A$37)+1))," ",TEXT(INDEX(U7:U34,SMALL(IF(ISNUMBER(U7:U34),IF(U7:U34&gt;0,IF(X7:X34&lt;&gt;"",ROW(U7:U34)-MIN(ROW(U7:U34))+1))),ROW()-ROW(A$37)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(U7:U34),IF(U7:U34&gt;0,IF(X7:X34&lt;&gt;"",ROW(U7:U34)-MIN(ROW(U7:U34))+1))),ROW()-ROW(A$37)+1))," ",";")),"")</f>
         <v>0</v>
       </c>
       <c r="Z59">
-        <f t="array" ref="Z59">IFERROR(CONCATENATE(TEXT(INDEX(Z7:Z35,SMALL(IF(ISNUMBER(Z7:Z35),IF(Z7:Z35&gt;0,IF(AC7:AC35&lt;&gt;"",ROW(Z7:Z35)-MIN(ROW(Z7:Z35))+1))),ROW()-ROW(A$39)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(Z7:Z35),IF(Z7:Z35&gt;0,IF(AC7:AC35&lt;&gt;"",ROW(Z7:Z35)-MIN(ROW(Z7:Z35))+1))),ROW()-ROW(A$39)+1)),",",";"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;D7:D35,SMALL(IF(ISNUMBER(Z7:Z35),IF(Z7:Z35&gt;0,IF(AC7:AC35&lt;&gt;"",ROW(Z7:Z35)-MIN(ROW(Z7:Z35))+1))),ROW()-ROW(A$39)+1)),",",";"),",",INDEX(AC7:AC35,SMALL(IF(ISNUMBER(Z7:Z35),IF(Z7:Z35&gt;0,IF(AC7:AC35&lt;&gt;"",ROW(Z7:Z35)-MIN(ROW(Z7:Z35))+1))),ROW()-ROW(A$39)+1))),"")</f>
+        <f t="array" ref="Z59">IFERROR(CONCATENATE(TEXT(INDEX(Z7:Z34,SMALL(IF(ISNUMBER(Z7:Z34),IF(Z7:Z34&gt;0,IF(AC7:AC34&lt;&gt;"",ROW(Z7:Z34)-MIN(ROW(Z7:Z34))+1))),ROW()-ROW(A$38)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(Z7:Z34),IF(Z7:Z34&gt;0,IF(AC7:AC34&lt;&gt;"",ROW(Z7:Z34)-MIN(ROW(Z7:Z34))+1))),ROW()-ROW(A$38)+1)),",",";"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;D7:D34,SMALL(IF(ISNUMBER(Z7:Z34),IF(Z7:Z34&gt;0,IF(AC7:AC34&lt;&gt;"",ROW(Z7:Z34)-MIN(ROW(Z7:Z34))+1))),ROW()-ROW(A$38)+1)),",",";"),",",INDEX(AC7:AC34,SMALL(IF(ISNUMBER(Z7:Z34),IF(Z7:Z34&gt;0,IF(AC7:AC34&lt;&gt;"",ROW(Z7:Z34)-MIN(ROW(Z7:Z34))+1))),ROW()-ROW(A$38)+1))),"")</f>
         <v>0</v>
       </c>
       <c r="AE59">
-        <f t="array" ref="AE59">IFERROR(CONCATENATE(INDEX(AH7:AH35,SMALL(IF(ISNUMBER(AE7:AE35),IF(AE7:AE35&gt;0,IF(AH7:AH35&lt;&gt;"",ROW(AE7:AE35)-MIN(ROW(AE7:AE35))+1))),ROW()-ROW(A$38)+1)),"|",TEXT(INDEX(AE7:AE35,SMALL(IF(ISNUMBER(AE7:AE35),IF(AE7:AE35&gt;0,IF(AH7:AH35&lt;&gt;"",ROW(AE7:AE35)-MIN(ROW(AE7:AE35))+1))),ROW()-ROW(A$38)+1)),"##0"),"|",SUBSTITUTE(SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(AE7:AE35),IF(AE7:AE35&gt;0,IF(AH7:AH35&lt;&gt;"",ROW(AE7:AE35)-MIN(ROW(AE7:AE35))+1))),ROW()-ROW(A$38)+1)),"|",";")," ","_")),"")</f>
+        <f t="array" ref="AE59">IFERROR(CONCATENATE(INDEX(AH7:AH34,SMALL(IF(ISNUMBER(AE7:AE34),IF(AE7:AE34&gt;0,IF(AH7:AH34&lt;&gt;"",ROW(AE7:AE34)-MIN(ROW(AE7:AE34))+1))),ROW()-ROW(A$37)+1)),"|",TEXT(INDEX(AE7:AE34,SMALL(IF(ISNUMBER(AE7:AE34),IF(AE7:AE34&gt;0,IF(AH7:AH34&lt;&gt;"",ROW(AE7:AE34)-MIN(ROW(AE7:AE34))+1))),ROW()-ROW(A$37)+1)),"##0"),"|",SUBSTITUTE(SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(AE7:AE34),IF(AE7:AE34&gt;0,IF(AH7:AH34&lt;&gt;"",ROW(AE7:AE34)-MIN(ROW(AE7:AE34))+1))),ROW()-ROW(A$37)+1)),"|",";")," ","_")),"")</f>
         <v>0</v>
       </c>
       <c r="AJ59">
-        <f t="array" ref="AJ59">IFERROR(CONCATENATE(INDEX(AM7:AM35,SMALL(IF(ISNUMBER(AJ7:AJ35),IF(AJ7:AJ35&gt;0,IF(AM7:AM35&lt;&gt;"",ROW(AJ7:AJ35)-MIN(ROW(AJ7:AJ35))+1))),ROW()-ROW(A$38)+1)),",",TEXT(INDEX(AJ7:AJ35,SMALL(IF(ISNUMBER(AJ7:AJ35),IF(AJ7:AJ35&gt;0,IF(AM7:AM35&lt;&gt;"",ROW(AJ7:AJ35)-MIN(ROW(AJ7:AJ35))+1))),ROW()-ROW(A$38)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(AJ7:AJ35),IF(AJ7:AJ35&gt;0,IF(AM7:AM35&lt;&gt;"",ROW(AJ7:AJ35)-MIN(ROW(AJ7:AJ35))+1))),ROW()-ROW(A$38)+1)),",",";")),"")</f>
+        <f t="array" ref="AJ59">IFERROR(CONCATENATE(INDEX(AM7:AM34,SMALL(IF(ISNUMBER(AJ7:AJ34),IF(AJ7:AJ34&gt;0,IF(AM7:AM34&lt;&gt;"",ROW(AJ7:AJ34)-MIN(ROW(AJ7:AJ34))+1))),ROW()-ROW(A$37)+1)),",",TEXT(INDEX(AJ7:AJ34,SMALL(IF(ISNUMBER(AJ7:AJ34),IF(AJ7:AJ34&gt;0,IF(AM7:AM34&lt;&gt;"",ROW(AJ7:AJ34)-MIN(ROW(AJ7:AJ34))+1))),ROW()-ROW(A$37)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(AJ7:AJ34),IF(AJ7:AJ34&gt;0,IF(AM7:AM34&lt;&gt;"",ROW(AJ7:AJ34)-MIN(ROW(AJ7:AJ34))+1))),ROW()-ROW(A$37)+1)),",",";")),"")</f>
         <v>0</v>
       </c>
       <c r="AO59">
-        <f t="array" ref="AO59">IFERROR(CONCATENATE(INDEX(AR7:AR35,SMALL(IF(ISNUMBER(AO7:AO35),IF(AO7:AO35&gt;0,IF(AR7:AR35&lt;&gt;"",ROW(AO7:AO35)-MIN(ROW(AO7:AO35))+1))),ROW()-ROW(A$38)+1))," ",TEXT(INDEX(AO7:AO35,SMALL(IF(ISNUMBER(AO7:AO35),IF(AO7:AO35&gt;0,IF(AR7:AR35&lt;&gt;"",ROW(AO7:AO35)-MIN(ROW(AO7:AO35))+1))),ROW()-ROW(A$38)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(AO7:AO35),IF(AO7:AO35&gt;0,IF(AR7:AR35&lt;&gt;"",ROW(AO7:AO35)-MIN(ROW(AO7:AO35))+1))),ROW()-ROW(A$38)+1))," ",";")),"")</f>
+        <f t="array" ref="AO59">IFERROR(CONCATENATE(INDEX(AR7:AR34,SMALL(IF(ISNUMBER(AO7:AO34),IF(AO7:AO34&gt;0,IF(AR7:AR34&lt;&gt;"",ROW(AO7:AO34)-MIN(ROW(AO7:AO34))+1))),ROW()-ROW(A$37)+1))," ",TEXT(INDEX(AO7:AO34,SMALL(IF(ISNUMBER(AO7:AO34),IF(AO7:AO34&gt;0,IF(AR7:AR34&lt;&gt;"",ROW(AO7:AO34)-MIN(ROW(AO7:AO34))+1))),ROW()-ROW(A$37)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(AO7:AO34),IF(AO7:AO34&gt;0,IF(AR7:AR34&lt;&gt;"",ROW(AO7:AO34)-MIN(ROW(AO7:AO34))+1))),ROW()-ROW(A$37)+1))," ",";")),"")</f>
         <v>0</v>
       </c>
       <c r="AT59">
-        <f t="array" ref="AT59">IFERROR(CONCATENATE(INDEX(AW7:AW35,SMALL(IF(ISNUMBER(AT7:AT35),IF(AT7:AT35&gt;0,IF(AW7:AW35&lt;&gt;"",ROW(AT7:AT35)-MIN(ROW(AT7:AT35))+1))),ROW()-ROW(A$38)+1))," ",TEXT(INDEX(AT7:AT35,SMALL(IF(ISNUMBER(AT7:AT35),IF(AT7:AT35&gt;0,IF(AW7:AW35&lt;&gt;"",ROW(AT7:AT35)-MIN(ROW(AT7:AT35))+1))),ROW()-ROW(A$38)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(AT7:AT35),IF(AT7:AT35&gt;0,IF(AW7:AW35&lt;&gt;"",ROW(AT7:AT35)-MIN(ROW(AT7:AT35))+1))),ROW()-ROW(A$38)+1))," ",";")),"")</f>
+        <f t="array" ref="AT59">IFERROR(CONCATENATE(INDEX(AW7:AW34,SMALL(IF(ISNUMBER(AT7:AT34),IF(AT7:AT34&gt;0,IF(AW7:AW34&lt;&gt;"",ROW(AT7:AT34)-MIN(ROW(AT7:AT34))+1))),ROW()-ROW(A$37)+1))," ",TEXT(INDEX(AT7:AT34,SMALL(IF(ISNUMBER(AT7:AT34),IF(AT7:AT34&gt;0,IF(AW7:AW34&lt;&gt;"",ROW(AT7:AT34)-MIN(ROW(AT7:AT34))+1))),ROW()-ROW(A$37)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(AT7:AT34),IF(AT7:AT34&gt;0,IF(AW7:AW34&lt;&gt;"",ROW(AT7:AT34)-MIN(ROW(AT7:AT34))+1))),ROW()-ROW(A$37)+1))," ",";")),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="11:46">
       <c r="K60">
-        <f t="array" ref="K60">IFERROR(CONCATENATE(INDEX(N7:N35,SMALL(IF(ISNUMBER(K7:K35),IF(K7:K35&gt;0,IF(N7:N35&lt;&gt;"",ROW(K7:K35)-MIN(ROW(K7:K35))+1))),ROW()-ROW(A$38)+1)),",",TEXT(INDEX(K7:K35,SMALL(IF(ISNUMBER(K7:K35),IF(K7:K35&gt;0,IF(N7:N35&lt;&gt;"",ROW(K7:K35)-MIN(ROW(K7:K35))+1))),ROW()-ROW(A$38)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(K7:K35),IF(K7:K35&gt;0,IF(N7:N35&lt;&gt;"",ROW(K7:K35)-MIN(ROW(K7:K35))+1))),ROW()-ROW(A$38)+1)),",",";")),"")</f>
+        <f t="array" ref="K60">IFERROR(CONCATENATE(INDEX(N7:N34,SMALL(IF(ISNUMBER(K7:K34),IF(K7:K34&gt;0,IF(N7:N34&lt;&gt;"",ROW(K7:K34)-MIN(ROW(K7:K34))+1))),ROW()-ROW(A$37)+1)),",",TEXT(INDEX(K7:K34,SMALL(IF(ISNUMBER(K7:K34),IF(K7:K34&gt;0,IF(N7:N34&lt;&gt;"",ROW(K7:K34)-MIN(ROW(K7:K34))+1))),ROW()-ROW(A$37)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(K7:K34),IF(K7:K34&gt;0,IF(N7:N34&lt;&gt;"",ROW(K7:K34)-MIN(ROW(K7:K34))+1))),ROW()-ROW(A$37)+1)),",",";")),"")</f>
         <v>0</v>
       </c>
       <c r="P60">
-        <f t="array" ref="P60">IFERROR(CONCATENATE(TEXT(INDEX(P7:P35,SMALL(IF(ISNUMBER(P7:P35),IF(P7:P35&gt;0,IF(S7:S35&lt;&gt;"",ROW(P7:P35)-MIN(ROW(P7:P35))+1))),ROW()-ROW(A$38)+1)),"##0"),",",INDEX(S7:S35,SMALL(IF(ISNUMBER(P7:P35),IF(P7:P35&gt;0,IF(S7:S35&lt;&gt;"",ROW(P7:P35)-MIN(ROW(P7:P35))+1))),ROW()-ROW(A$38)+1)),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(P7:P35),IF(P7:P35&gt;0,IF(S7:S35&lt;&gt;"",ROW(P7:P35)-MIN(ROW(P7:P35))+1))),ROW()-ROW(A$38)+1)),",",";")),"")</f>
+        <f t="array" ref="P60">IFERROR(CONCATENATE(TEXT(INDEX(P7:P34,SMALL(IF(ISNUMBER(P7:P34),IF(P7:P34&gt;0,IF(S7:S34&lt;&gt;"",ROW(P7:P34)-MIN(ROW(P7:P34))+1))),ROW()-ROW(A$37)+1)),"##0"),",",INDEX(S7:S34,SMALL(IF(ISNUMBER(P7:P34),IF(P7:P34&gt;0,IF(S7:S34&lt;&gt;"",ROW(P7:P34)-MIN(ROW(P7:P34))+1))),ROW()-ROW(A$37)+1)),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(P7:P34),IF(P7:P34&gt;0,IF(S7:S34&lt;&gt;"",ROW(P7:P34)-MIN(ROW(P7:P34))+1))),ROW()-ROW(A$37)+1)),",",";")),"")</f>
         <v>0</v>
       </c>
       <c r="U60">
-        <f t="array" ref="U60">IFERROR(CONCATENATE(INDEX(X7:X35,SMALL(IF(ISNUMBER(U7:U35),IF(U7:U35&gt;0,IF(X7:X35&lt;&gt;"",ROW(U7:U35)-MIN(ROW(U7:U35))+1))),ROW()-ROW(A$38)+1))," ",TEXT(INDEX(U7:U35,SMALL(IF(ISNUMBER(U7:U35),IF(U7:U35&gt;0,IF(X7:X35&lt;&gt;"",ROW(U7:U35)-MIN(ROW(U7:U35))+1))),ROW()-ROW(A$38)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(U7:U35),IF(U7:U35&gt;0,IF(X7:X35&lt;&gt;"",ROW(U7:U35)-MIN(ROW(U7:U35))+1))),ROW()-ROW(A$38)+1))," ",";")),"")</f>
+        <f t="array" ref="U60">IFERROR(CONCATENATE(INDEX(X7:X34,SMALL(IF(ISNUMBER(U7:U34),IF(U7:U34&gt;0,IF(X7:X34&lt;&gt;"",ROW(U7:U34)-MIN(ROW(U7:U34))+1))),ROW()-ROW(A$37)+1))," ",TEXT(INDEX(U7:U34,SMALL(IF(ISNUMBER(U7:U34),IF(U7:U34&gt;0,IF(X7:X34&lt;&gt;"",ROW(U7:U34)-MIN(ROW(U7:U34))+1))),ROW()-ROW(A$37)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(U7:U34),IF(U7:U34&gt;0,IF(X7:X34&lt;&gt;"",ROW(U7:U34)-MIN(ROW(U7:U34))+1))),ROW()-ROW(A$37)+1))," ",";")),"")</f>
         <v>0</v>
       </c>
       <c r="Z60">
-        <f t="array" ref="Z60">IFERROR(CONCATENATE(TEXT(INDEX(Z7:Z35,SMALL(IF(ISNUMBER(Z7:Z35),IF(Z7:Z35&gt;0,IF(AC7:AC35&lt;&gt;"",ROW(Z7:Z35)-MIN(ROW(Z7:Z35))+1))),ROW()-ROW(A$39)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(Z7:Z35),IF(Z7:Z35&gt;0,IF(AC7:AC35&lt;&gt;"",ROW(Z7:Z35)-MIN(ROW(Z7:Z35))+1))),ROW()-ROW(A$39)+1)),",",";"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;D7:D35,SMALL(IF(ISNUMBER(Z7:Z35),IF(Z7:Z35&gt;0,IF(AC7:AC35&lt;&gt;"",ROW(Z7:Z35)-MIN(ROW(Z7:Z35))+1))),ROW()-ROW(A$39)+1)),",",";"),",",INDEX(AC7:AC35,SMALL(IF(ISNUMBER(Z7:Z35),IF(Z7:Z35&gt;0,IF(AC7:AC35&lt;&gt;"",ROW(Z7:Z35)-MIN(ROW(Z7:Z35))+1))),ROW()-ROW(A$39)+1))),"")</f>
+        <f t="array" ref="Z60">IFERROR(CONCATENATE(TEXT(INDEX(Z7:Z34,SMALL(IF(ISNUMBER(Z7:Z34),IF(Z7:Z34&gt;0,IF(AC7:AC34&lt;&gt;"",ROW(Z7:Z34)-MIN(ROW(Z7:Z34))+1))),ROW()-ROW(A$38)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(Z7:Z34),IF(Z7:Z34&gt;0,IF(AC7:AC34&lt;&gt;"",ROW(Z7:Z34)-MIN(ROW(Z7:Z34))+1))),ROW()-ROW(A$38)+1)),",",";"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;D7:D34,SMALL(IF(ISNUMBER(Z7:Z34),IF(Z7:Z34&gt;0,IF(AC7:AC34&lt;&gt;"",ROW(Z7:Z34)-MIN(ROW(Z7:Z34))+1))),ROW()-ROW(A$38)+1)),",",";"),",",INDEX(AC7:AC34,SMALL(IF(ISNUMBER(Z7:Z34),IF(Z7:Z34&gt;0,IF(AC7:AC34&lt;&gt;"",ROW(Z7:Z34)-MIN(ROW(Z7:Z34))+1))),ROW()-ROW(A$38)+1))),"")</f>
         <v>0</v>
       </c>
       <c r="AE60">
-        <f t="array" ref="AE60">IFERROR(CONCATENATE(INDEX(AH7:AH35,SMALL(IF(ISNUMBER(AE7:AE35),IF(AE7:AE35&gt;0,IF(AH7:AH35&lt;&gt;"",ROW(AE7:AE35)-MIN(ROW(AE7:AE35))+1))),ROW()-ROW(A$38)+1)),"|",TEXT(INDEX(AE7:AE35,SMALL(IF(ISNUMBER(AE7:AE35),IF(AE7:AE35&gt;0,IF(AH7:AH35&lt;&gt;"",ROW(AE7:AE35)-MIN(ROW(AE7:AE35))+1))),ROW()-ROW(A$38)+1)),"##0"),"|",SUBSTITUTE(SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(AE7:AE35),IF(AE7:AE35&gt;0,IF(AH7:AH35&lt;&gt;"",ROW(AE7:AE35)-MIN(ROW(AE7:AE35))+1))),ROW()-ROW(A$38)+1)),"|",";")," ","_")),"")</f>
+        <f t="array" ref="AE60">IFERROR(CONCATENATE(INDEX(AH7:AH34,SMALL(IF(ISNUMBER(AE7:AE34),IF(AE7:AE34&gt;0,IF(AH7:AH34&lt;&gt;"",ROW(AE7:AE34)-MIN(ROW(AE7:AE34))+1))),ROW()-ROW(A$37)+1)),"|",TEXT(INDEX(AE7:AE34,SMALL(IF(ISNUMBER(AE7:AE34),IF(AE7:AE34&gt;0,IF(AH7:AH34&lt;&gt;"",ROW(AE7:AE34)-MIN(ROW(AE7:AE34))+1))),ROW()-ROW(A$37)+1)),"##0"),"|",SUBSTITUTE(SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(AE7:AE34),IF(AE7:AE34&gt;0,IF(AH7:AH34&lt;&gt;"",ROW(AE7:AE34)-MIN(ROW(AE7:AE34))+1))),ROW()-ROW(A$37)+1)),"|",";")," ","_")),"")</f>
         <v>0</v>
       </c>
       <c r="AJ60">
-        <f t="array" ref="AJ60">IFERROR(CONCATENATE(INDEX(AM7:AM35,SMALL(IF(ISNUMBER(AJ7:AJ35),IF(AJ7:AJ35&gt;0,IF(AM7:AM35&lt;&gt;"",ROW(AJ7:AJ35)-MIN(ROW(AJ7:AJ35))+1))),ROW()-ROW(A$38)+1)),",",TEXT(INDEX(AJ7:AJ35,SMALL(IF(ISNUMBER(AJ7:AJ35),IF(AJ7:AJ35&gt;0,IF(AM7:AM35&lt;&gt;"",ROW(AJ7:AJ35)-MIN(ROW(AJ7:AJ35))+1))),ROW()-ROW(A$38)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(AJ7:AJ35),IF(AJ7:AJ35&gt;0,IF(AM7:AM35&lt;&gt;"",ROW(AJ7:AJ35)-MIN(ROW(AJ7:AJ35))+1))),ROW()-ROW(A$38)+1)),",",";")),"")</f>
+        <f t="array" ref="AJ60">IFERROR(CONCATENATE(INDEX(AM7:AM34,SMALL(IF(ISNUMBER(AJ7:AJ34),IF(AJ7:AJ34&gt;0,IF(AM7:AM34&lt;&gt;"",ROW(AJ7:AJ34)-MIN(ROW(AJ7:AJ34))+1))),ROW()-ROW(A$37)+1)),",",TEXT(INDEX(AJ7:AJ34,SMALL(IF(ISNUMBER(AJ7:AJ34),IF(AJ7:AJ34&gt;0,IF(AM7:AM34&lt;&gt;"",ROW(AJ7:AJ34)-MIN(ROW(AJ7:AJ34))+1))),ROW()-ROW(A$37)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(AJ7:AJ34),IF(AJ7:AJ34&gt;0,IF(AM7:AM34&lt;&gt;"",ROW(AJ7:AJ34)-MIN(ROW(AJ7:AJ34))+1))),ROW()-ROW(A$37)+1)),",",";")),"")</f>
         <v>0</v>
       </c>
       <c r="AO60">
-        <f t="array" ref="AO60">IFERROR(CONCATENATE(INDEX(AR7:AR35,SMALL(IF(ISNUMBER(AO7:AO35),IF(AO7:AO35&gt;0,IF(AR7:AR35&lt;&gt;"",ROW(AO7:AO35)-MIN(ROW(AO7:AO35))+1))),ROW()-ROW(A$38)+1))," ",TEXT(INDEX(AO7:AO35,SMALL(IF(ISNUMBER(AO7:AO35),IF(AO7:AO35&gt;0,IF(AR7:AR35&lt;&gt;"",ROW(AO7:AO35)-MIN(ROW(AO7:AO35))+1))),ROW()-ROW(A$38)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(AO7:AO35),IF(AO7:AO35&gt;0,IF(AR7:AR35&lt;&gt;"",ROW(AO7:AO35)-MIN(ROW(AO7:AO35))+1))),ROW()-ROW(A$38)+1))," ",";")),"")</f>
+        <f t="array" ref="AO60">IFERROR(CONCATENATE(INDEX(AR7:AR34,SMALL(IF(ISNUMBER(AO7:AO34),IF(AO7:AO34&gt;0,IF(AR7:AR34&lt;&gt;"",ROW(AO7:AO34)-MIN(ROW(AO7:AO34))+1))),ROW()-ROW(A$37)+1))," ",TEXT(INDEX(AO7:AO34,SMALL(IF(ISNUMBER(AO7:AO34),IF(AO7:AO34&gt;0,IF(AR7:AR34&lt;&gt;"",ROW(AO7:AO34)-MIN(ROW(AO7:AO34))+1))),ROW()-ROW(A$37)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(AO7:AO34),IF(AO7:AO34&gt;0,IF(AR7:AR34&lt;&gt;"",ROW(AO7:AO34)-MIN(ROW(AO7:AO34))+1))),ROW()-ROW(A$37)+1))," ",";")),"")</f>
         <v>0</v>
       </c>
       <c r="AT60">
-        <f t="array" ref="AT60">IFERROR(CONCATENATE(INDEX(AW7:AW35,SMALL(IF(ISNUMBER(AT7:AT35),IF(AT7:AT35&gt;0,IF(AW7:AW35&lt;&gt;"",ROW(AT7:AT35)-MIN(ROW(AT7:AT35))+1))),ROW()-ROW(A$38)+1))," ",TEXT(INDEX(AT7:AT35,SMALL(IF(ISNUMBER(AT7:AT35),IF(AT7:AT35&gt;0,IF(AW7:AW35&lt;&gt;"",ROW(AT7:AT35)-MIN(ROW(AT7:AT35))+1))),ROW()-ROW(A$38)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(AT7:AT35),IF(AT7:AT35&gt;0,IF(AW7:AW35&lt;&gt;"",ROW(AT7:AT35)-MIN(ROW(AT7:AT35))+1))),ROW()-ROW(A$38)+1))," ",";")),"")</f>
+        <f t="array" ref="AT60">IFERROR(CONCATENATE(INDEX(AW7:AW34,SMALL(IF(ISNUMBER(AT7:AT34),IF(AT7:AT34&gt;0,IF(AW7:AW34&lt;&gt;"",ROW(AT7:AT34)-MIN(ROW(AT7:AT34))+1))),ROW()-ROW(A$37)+1))," ",TEXT(INDEX(AT7:AT34,SMALL(IF(ISNUMBER(AT7:AT34),IF(AT7:AT34&gt;0,IF(AW7:AW34&lt;&gt;"",ROW(AT7:AT34)-MIN(ROW(AT7:AT34))+1))),ROW()-ROW(A$37)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(AT7:AT34),IF(AT7:AT34&gt;0,IF(AW7:AW34&lt;&gt;"",ROW(AT7:AT34)-MIN(ROW(AT7:AT34))+1))),ROW()-ROW(A$37)+1))," ",";")),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="11:46">
       <c r="K61">
-        <f t="array" ref="K61">IFERROR(CONCATENATE(INDEX(N7:N35,SMALL(IF(ISNUMBER(K7:K35),IF(K7:K35&gt;0,IF(N7:N35&lt;&gt;"",ROW(K7:K35)-MIN(ROW(K7:K35))+1))),ROW()-ROW(A$38)+1)),",",TEXT(INDEX(K7:K35,SMALL(IF(ISNUMBER(K7:K35),IF(K7:K35&gt;0,IF(N7:N35&lt;&gt;"",ROW(K7:K35)-MIN(ROW(K7:K35))+1))),ROW()-ROW(A$38)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(K7:K35),IF(K7:K35&gt;0,IF(N7:N35&lt;&gt;"",ROW(K7:K35)-MIN(ROW(K7:K35))+1))),ROW()-ROW(A$38)+1)),",",";")),"")</f>
+        <f t="array" ref="K61">IFERROR(CONCATENATE(INDEX(N7:N34,SMALL(IF(ISNUMBER(K7:K34),IF(K7:K34&gt;0,IF(N7:N34&lt;&gt;"",ROW(K7:K34)-MIN(ROW(K7:K34))+1))),ROW()-ROW(A$37)+1)),",",TEXT(INDEX(K7:K34,SMALL(IF(ISNUMBER(K7:K34),IF(K7:K34&gt;0,IF(N7:N34&lt;&gt;"",ROW(K7:K34)-MIN(ROW(K7:K34))+1))),ROW()-ROW(A$37)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(K7:K34),IF(K7:K34&gt;0,IF(N7:N34&lt;&gt;"",ROW(K7:K34)-MIN(ROW(K7:K34))+1))),ROW()-ROW(A$37)+1)),",",";")),"")</f>
         <v>0</v>
       </c>
       <c r="P61">
-        <f t="array" ref="P61">IFERROR(CONCATENATE(TEXT(INDEX(P7:P35,SMALL(IF(ISNUMBER(P7:P35),IF(P7:P35&gt;0,IF(S7:S35&lt;&gt;"",ROW(P7:P35)-MIN(ROW(P7:P35))+1))),ROW()-ROW(A$38)+1)),"##0"),",",INDEX(S7:S35,SMALL(IF(ISNUMBER(P7:P35),IF(P7:P35&gt;0,IF(S7:S35&lt;&gt;"",ROW(P7:P35)-MIN(ROW(P7:P35))+1))),ROW()-ROW(A$38)+1)),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(P7:P35),IF(P7:P35&gt;0,IF(S7:S35&lt;&gt;"",ROW(P7:P35)-MIN(ROW(P7:P35))+1))),ROW()-ROW(A$38)+1)),",",";")),"")</f>
+        <f t="array" ref="P61">IFERROR(CONCATENATE(TEXT(INDEX(P7:P34,SMALL(IF(ISNUMBER(P7:P34),IF(P7:P34&gt;0,IF(S7:S34&lt;&gt;"",ROW(P7:P34)-MIN(ROW(P7:P34))+1))),ROW()-ROW(A$37)+1)),"##0"),",",INDEX(S7:S34,SMALL(IF(ISNUMBER(P7:P34),IF(P7:P34&gt;0,IF(S7:S34&lt;&gt;"",ROW(P7:P34)-MIN(ROW(P7:P34))+1))),ROW()-ROW(A$37)+1)),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(P7:P34),IF(P7:P34&gt;0,IF(S7:S34&lt;&gt;"",ROW(P7:P34)-MIN(ROW(P7:P34))+1))),ROW()-ROW(A$37)+1)),",",";")),"")</f>
         <v>0</v>
       </c>
       <c r="U61">
-        <f t="array" ref="U61">IFERROR(CONCATENATE(INDEX(X7:X35,SMALL(IF(ISNUMBER(U7:U35),IF(U7:U35&gt;0,IF(X7:X35&lt;&gt;"",ROW(U7:U35)-MIN(ROW(U7:U35))+1))),ROW()-ROW(A$38)+1))," ",TEXT(INDEX(U7:U35,SMALL(IF(ISNUMBER(U7:U35),IF(U7:U35&gt;0,IF(X7:X35&lt;&gt;"",ROW(U7:U35)-MIN(ROW(U7:U35))+1))),ROW()-ROW(A$38)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(U7:U35),IF(U7:U35&gt;0,IF(X7:X35&lt;&gt;"",ROW(U7:U35)-MIN(ROW(U7:U35))+1))),ROW()-ROW(A$38)+1))," ",";")),"")</f>
+        <f t="array" ref="U61">IFERROR(CONCATENATE(INDEX(X7:X34,SMALL(IF(ISNUMBER(U7:U34),IF(U7:U34&gt;0,IF(X7:X34&lt;&gt;"",ROW(U7:U34)-MIN(ROW(U7:U34))+1))),ROW()-ROW(A$37)+1))," ",TEXT(INDEX(U7:U34,SMALL(IF(ISNUMBER(U7:U34),IF(U7:U34&gt;0,IF(X7:X34&lt;&gt;"",ROW(U7:U34)-MIN(ROW(U7:U34))+1))),ROW()-ROW(A$37)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(U7:U34),IF(U7:U34&gt;0,IF(X7:X34&lt;&gt;"",ROW(U7:U34)-MIN(ROW(U7:U34))+1))),ROW()-ROW(A$37)+1))," ",";")),"")</f>
         <v>0</v>
       </c>
       <c r="Z61">
-        <f t="array" ref="Z61">IFERROR(CONCATENATE(TEXT(INDEX(Z7:Z35,SMALL(IF(ISNUMBER(Z7:Z35),IF(Z7:Z35&gt;0,IF(AC7:AC35&lt;&gt;"",ROW(Z7:Z35)-MIN(ROW(Z7:Z35))+1))),ROW()-ROW(A$39)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(Z7:Z35),IF(Z7:Z35&gt;0,IF(AC7:AC35&lt;&gt;"",ROW(Z7:Z35)-MIN(ROW(Z7:Z35))+1))),ROW()-ROW(A$39)+1)),",",";"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;D7:D35,SMALL(IF(ISNUMBER(Z7:Z35),IF(Z7:Z35&gt;0,IF(AC7:AC35&lt;&gt;"",ROW(Z7:Z35)-MIN(ROW(Z7:Z35))+1))),ROW()-ROW(A$39)+1)),",",";"),",",INDEX(AC7:AC35,SMALL(IF(ISNUMBER(Z7:Z35),IF(Z7:Z35&gt;0,IF(AC7:AC35&lt;&gt;"",ROW(Z7:Z35)-MIN(ROW(Z7:Z35))+1))),ROW()-ROW(A$39)+1))),"")</f>
+        <f t="array" ref="Z61">IFERROR(CONCATENATE(TEXT(INDEX(Z7:Z34,SMALL(IF(ISNUMBER(Z7:Z34),IF(Z7:Z34&gt;0,IF(AC7:AC34&lt;&gt;"",ROW(Z7:Z34)-MIN(ROW(Z7:Z34))+1))),ROW()-ROW(A$38)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(Z7:Z34),IF(Z7:Z34&gt;0,IF(AC7:AC34&lt;&gt;"",ROW(Z7:Z34)-MIN(ROW(Z7:Z34))+1))),ROW()-ROW(A$38)+1)),",",";"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;D7:D34,SMALL(IF(ISNUMBER(Z7:Z34),IF(Z7:Z34&gt;0,IF(AC7:AC34&lt;&gt;"",ROW(Z7:Z34)-MIN(ROW(Z7:Z34))+1))),ROW()-ROW(A$38)+1)),",",";"),",",INDEX(AC7:AC34,SMALL(IF(ISNUMBER(Z7:Z34),IF(Z7:Z34&gt;0,IF(AC7:AC34&lt;&gt;"",ROW(Z7:Z34)-MIN(ROW(Z7:Z34))+1))),ROW()-ROW(A$38)+1))),"")</f>
         <v>0</v>
       </c>
       <c r="AE61">
-        <f t="array" ref="AE61">IFERROR(CONCATENATE(INDEX(AH7:AH35,SMALL(IF(ISNUMBER(AE7:AE35),IF(AE7:AE35&gt;0,IF(AH7:AH35&lt;&gt;"",ROW(AE7:AE35)-MIN(ROW(AE7:AE35))+1))),ROW()-ROW(A$38)+1)),"|",TEXT(INDEX(AE7:AE35,SMALL(IF(ISNUMBER(AE7:AE35),IF(AE7:AE35&gt;0,IF(AH7:AH35&lt;&gt;"",ROW(AE7:AE35)-MIN(ROW(AE7:AE35))+1))),ROW()-ROW(A$38)+1)),"##0"),"|",SUBSTITUTE(SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(AE7:AE35),IF(AE7:AE35&gt;0,IF(AH7:AH35&lt;&gt;"",ROW(AE7:AE35)-MIN(ROW(AE7:AE35))+1))),ROW()-ROW(A$38)+1)),"|",";")," ","_")),"")</f>
+        <f t="array" ref="AE61">IFERROR(CONCATENATE(INDEX(AH7:AH34,SMALL(IF(ISNUMBER(AE7:AE34),IF(AE7:AE34&gt;0,IF(AH7:AH34&lt;&gt;"",ROW(AE7:AE34)-MIN(ROW(AE7:AE34))+1))),ROW()-ROW(A$37)+1)),"|",TEXT(INDEX(AE7:AE34,SMALL(IF(ISNUMBER(AE7:AE34),IF(AE7:AE34&gt;0,IF(AH7:AH34&lt;&gt;"",ROW(AE7:AE34)-MIN(ROW(AE7:AE34))+1))),ROW()-ROW(A$37)+1)),"##0"),"|",SUBSTITUTE(SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(AE7:AE34),IF(AE7:AE34&gt;0,IF(AH7:AH34&lt;&gt;"",ROW(AE7:AE34)-MIN(ROW(AE7:AE34))+1))),ROW()-ROW(A$37)+1)),"|",";")," ","_")),"")</f>
         <v>0</v>
       </c>
       <c r="AJ61">
-        <f t="array" ref="AJ61">IFERROR(CONCATENATE(INDEX(AM7:AM35,SMALL(IF(ISNUMBER(AJ7:AJ35),IF(AJ7:AJ35&gt;0,IF(AM7:AM35&lt;&gt;"",ROW(AJ7:AJ35)-MIN(ROW(AJ7:AJ35))+1))),ROW()-ROW(A$38)+1)),",",TEXT(INDEX(AJ7:AJ35,SMALL(IF(ISNUMBER(AJ7:AJ35),IF(AJ7:AJ35&gt;0,IF(AM7:AM35&lt;&gt;"",ROW(AJ7:AJ35)-MIN(ROW(AJ7:AJ35))+1))),ROW()-ROW(A$38)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(AJ7:AJ35),IF(AJ7:AJ35&gt;0,IF(AM7:AM35&lt;&gt;"",ROW(AJ7:AJ35)-MIN(ROW(AJ7:AJ35))+1))),ROW()-ROW(A$38)+1)),",",";")),"")</f>
+        <f t="array" ref="AJ61">IFERROR(CONCATENATE(INDEX(AM7:AM34,SMALL(IF(ISNUMBER(AJ7:AJ34),IF(AJ7:AJ34&gt;0,IF(AM7:AM34&lt;&gt;"",ROW(AJ7:AJ34)-MIN(ROW(AJ7:AJ34))+1))),ROW()-ROW(A$37)+1)),",",TEXT(INDEX(AJ7:AJ34,SMALL(IF(ISNUMBER(AJ7:AJ34),IF(AJ7:AJ34&gt;0,IF(AM7:AM34&lt;&gt;"",ROW(AJ7:AJ34)-MIN(ROW(AJ7:AJ34))+1))),ROW()-ROW(A$37)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(AJ7:AJ34),IF(AJ7:AJ34&gt;0,IF(AM7:AM34&lt;&gt;"",ROW(AJ7:AJ34)-MIN(ROW(AJ7:AJ34))+1))),ROW()-ROW(A$37)+1)),",",";")),"")</f>
         <v>0</v>
       </c>
       <c r="AO61">
-        <f t="array" ref="AO61">IFERROR(CONCATENATE(INDEX(AR7:AR35,SMALL(IF(ISNUMBER(AO7:AO35),IF(AO7:AO35&gt;0,IF(AR7:AR35&lt;&gt;"",ROW(AO7:AO35)-MIN(ROW(AO7:AO35))+1))),ROW()-ROW(A$38)+1))," ",TEXT(INDEX(AO7:AO35,SMALL(IF(ISNUMBER(AO7:AO35),IF(AO7:AO35&gt;0,IF(AR7:AR35&lt;&gt;"",ROW(AO7:AO35)-MIN(ROW(AO7:AO35))+1))),ROW()-ROW(A$38)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(AO7:AO35),IF(AO7:AO35&gt;0,IF(AR7:AR35&lt;&gt;"",ROW(AO7:AO35)-MIN(ROW(AO7:AO35))+1))),ROW()-ROW(A$38)+1))," ",";")),"")</f>
+        <f t="array" ref="AO61">IFERROR(CONCATENATE(INDEX(AR7:AR34,SMALL(IF(ISNUMBER(AO7:AO34),IF(AO7:AO34&gt;0,IF(AR7:AR34&lt;&gt;"",ROW(AO7:AO34)-MIN(ROW(AO7:AO34))+1))),ROW()-ROW(A$37)+1))," ",TEXT(INDEX(AO7:AO34,SMALL(IF(ISNUMBER(AO7:AO34),IF(AO7:AO34&gt;0,IF(AR7:AR34&lt;&gt;"",ROW(AO7:AO34)-MIN(ROW(AO7:AO34))+1))),ROW()-ROW(A$37)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(AO7:AO34),IF(AO7:AO34&gt;0,IF(AR7:AR34&lt;&gt;"",ROW(AO7:AO34)-MIN(ROW(AO7:AO34))+1))),ROW()-ROW(A$37)+1))," ",";")),"")</f>
         <v>0</v>
       </c>
       <c r="AT61">
-        <f t="array" ref="AT61">IFERROR(CONCATENATE(INDEX(AW7:AW35,SMALL(IF(ISNUMBER(AT7:AT35),IF(AT7:AT35&gt;0,IF(AW7:AW35&lt;&gt;"",ROW(AT7:AT35)-MIN(ROW(AT7:AT35))+1))),ROW()-ROW(A$38)+1))," ",TEXT(INDEX(AT7:AT35,SMALL(IF(ISNUMBER(AT7:AT35),IF(AT7:AT35&gt;0,IF(AW7:AW35&lt;&gt;"",ROW(AT7:AT35)-MIN(ROW(AT7:AT35))+1))),ROW()-ROW(A$38)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(AT7:AT35),IF(AT7:AT35&gt;0,IF(AW7:AW35&lt;&gt;"",ROW(AT7:AT35)-MIN(ROW(AT7:AT35))+1))),ROW()-ROW(A$38)+1))," ",";")),"")</f>
+        <f t="array" ref="AT61">IFERROR(CONCATENATE(INDEX(AW7:AW34,SMALL(IF(ISNUMBER(AT7:AT34),IF(AT7:AT34&gt;0,IF(AW7:AW34&lt;&gt;"",ROW(AT7:AT34)-MIN(ROW(AT7:AT34))+1))),ROW()-ROW(A$37)+1))," ",TEXT(INDEX(AT7:AT34,SMALL(IF(ISNUMBER(AT7:AT34),IF(AT7:AT34&gt;0,IF(AW7:AW34&lt;&gt;"",ROW(AT7:AT34)-MIN(ROW(AT7:AT34))+1))),ROW()-ROW(A$37)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(AT7:AT34),IF(AT7:AT34&gt;0,IF(AW7:AW34&lt;&gt;"",ROW(AT7:AT34)-MIN(ROW(AT7:AT34))+1))),ROW()-ROW(A$37)+1))," ",";")),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="11:46">
       <c r="K62">
-        <f t="array" ref="K62">IFERROR(CONCATENATE(INDEX(N7:N35,SMALL(IF(ISNUMBER(K7:K35),IF(K7:K35&gt;0,IF(N7:N35&lt;&gt;"",ROW(K7:K35)-MIN(ROW(K7:K35))+1))),ROW()-ROW(A$38)+1)),",",TEXT(INDEX(K7:K35,SMALL(IF(ISNUMBER(K7:K35),IF(K7:K35&gt;0,IF(N7:N35&lt;&gt;"",ROW(K7:K35)-MIN(ROW(K7:K35))+1))),ROW()-ROW(A$38)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(K7:K35),IF(K7:K35&gt;0,IF(N7:N35&lt;&gt;"",ROW(K7:K35)-MIN(ROW(K7:K35))+1))),ROW()-ROW(A$38)+1)),",",";")),"")</f>
+        <f t="array" ref="K62">IFERROR(CONCATENATE(INDEX(N7:N34,SMALL(IF(ISNUMBER(K7:K34),IF(K7:K34&gt;0,IF(N7:N34&lt;&gt;"",ROW(K7:K34)-MIN(ROW(K7:K34))+1))),ROW()-ROW(A$37)+1)),",",TEXT(INDEX(K7:K34,SMALL(IF(ISNUMBER(K7:K34),IF(K7:K34&gt;0,IF(N7:N34&lt;&gt;"",ROW(K7:K34)-MIN(ROW(K7:K34))+1))),ROW()-ROW(A$37)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(K7:K34),IF(K7:K34&gt;0,IF(N7:N34&lt;&gt;"",ROW(K7:K34)-MIN(ROW(K7:K34))+1))),ROW()-ROW(A$37)+1)),",",";")),"")</f>
         <v>0</v>
       </c>
       <c r="P62">
-        <f t="array" ref="P62">IFERROR(CONCATENATE(TEXT(INDEX(P7:P35,SMALL(IF(ISNUMBER(P7:P35),IF(P7:P35&gt;0,IF(S7:S35&lt;&gt;"",ROW(P7:P35)-MIN(ROW(P7:P35))+1))),ROW()-ROW(A$38)+1)),"##0"),",",INDEX(S7:S35,SMALL(IF(ISNUMBER(P7:P35),IF(P7:P35&gt;0,IF(S7:S35&lt;&gt;"",ROW(P7:P35)-MIN(ROW(P7:P35))+1))),ROW()-ROW(A$38)+1)),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(P7:P35),IF(P7:P35&gt;0,IF(S7:S35&lt;&gt;"",ROW(P7:P35)-MIN(ROW(P7:P35))+1))),ROW()-ROW(A$38)+1)),",",";")),"")</f>
+        <f t="array" ref="P62">IFERROR(CONCATENATE(TEXT(INDEX(P7:P34,SMALL(IF(ISNUMBER(P7:P34),IF(P7:P34&gt;0,IF(S7:S34&lt;&gt;"",ROW(P7:P34)-MIN(ROW(P7:P34))+1))),ROW()-ROW(A$37)+1)),"##0"),",",INDEX(S7:S34,SMALL(IF(ISNUMBER(P7:P34),IF(P7:P34&gt;0,IF(S7:S34&lt;&gt;"",ROW(P7:P34)-MIN(ROW(P7:P34))+1))),ROW()-ROW(A$37)+1)),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(P7:P34),IF(P7:P34&gt;0,IF(S7:S34&lt;&gt;"",ROW(P7:P34)-MIN(ROW(P7:P34))+1))),ROW()-ROW(A$37)+1)),",",";")),"")</f>
         <v>0</v>
       </c>
       <c r="U62">
-        <f t="array" ref="U62">IFERROR(CONCATENATE(INDEX(X7:X35,SMALL(IF(ISNUMBER(U7:U35),IF(U7:U35&gt;0,IF(X7:X35&lt;&gt;"",ROW(U7:U35)-MIN(ROW(U7:U35))+1))),ROW()-ROW(A$38)+1))," ",TEXT(INDEX(U7:U35,SMALL(IF(ISNUMBER(U7:U35),IF(U7:U35&gt;0,IF(X7:X35&lt;&gt;"",ROW(U7:U35)-MIN(ROW(U7:U35))+1))),ROW()-ROW(A$38)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(U7:U35),IF(U7:U35&gt;0,IF(X7:X35&lt;&gt;"",ROW(U7:U35)-MIN(ROW(U7:U35))+1))),ROW()-ROW(A$38)+1))," ",";")),"")</f>
+        <f t="array" ref="U62">IFERROR(CONCATENATE(INDEX(X7:X34,SMALL(IF(ISNUMBER(U7:U34),IF(U7:U34&gt;0,IF(X7:X34&lt;&gt;"",ROW(U7:U34)-MIN(ROW(U7:U34))+1))),ROW()-ROW(A$37)+1))," ",TEXT(INDEX(U7:U34,SMALL(IF(ISNUMBER(U7:U34),IF(U7:U34&gt;0,IF(X7:X34&lt;&gt;"",ROW(U7:U34)-MIN(ROW(U7:U34))+1))),ROW()-ROW(A$37)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(U7:U34),IF(U7:U34&gt;0,IF(X7:X34&lt;&gt;"",ROW(U7:U34)-MIN(ROW(U7:U34))+1))),ROW()-ROW(A$37)+1))," ",";")),"")</f>
         <v>0</v>
       </c>
       <c r="Z62">
-        <f t="array" ref="Z62">IFERROR(CONCATENATE(TEXT(INDEX(Z7:Z35,SMALL(IF(ISNUMBER(Z7:Z35),IF(Z7:Z35&gt;0,IF(AC7:AC35&lt;&gt;"",ROW(Z7:Z35)-MIN(ROW(Z7:Z35))+1))),ROW()-ROW(A$39)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(Z7:Z35),IF(Z7:Z35&gt;0,IF(AC7:AC35&lt;&gt;"",ROW(Z7:Z35)-MIN(ROW(Z7:Z35))+1))),ROW()-ROW(A$39)+1)),",",";"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;D7:D35,SMALL(IF(ISNUMBER(Z7:Z35),IF(Z7:Z35&gt;0,IF(AC7:AC35&lt;&gt;"",ROW(Z7:Z35)-MIN(ROW(Z7:Z35))+1))),ROW()-ROW(A$39)+1)),",",";"),",",INDEX(AC7:AC35,SMALL(IF(ISNUMBER(Z7:Z35),IF(Z7:Z35&gt;0,IF(AC7:AC35&lt;&gt;"",ROW(Z7:Z35)-MIN(ROW(Z7:Z35))+1))),ROW()-ROW(A$39)+1))),"")</f>
+        <f t="array" ref="Z62">IFERROR(CONCATENATE(TEXT(INDEX(Z7:Z34,SMALL(IF(ISNUMBER(Z7:Z34),IF(Z7:Z34&gt;0,IF(AC7:AC34&lt;&gt;"",ROW(Z7:Z34)-MIN(ROW(Z7:Z34))+1))),ROW()-ROW(A$38)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(Z7:Z34),IF(Z7:Z34&gt;0,IF(AC7:AC34&lt;&gt;"",ROW(Z7:Z34)-MIN(ROW(Z7:Z34))+1))),ROW()-ROW(A$38)+1)),",",";"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;D7:D34,SMALL(IF(ISNUMBER(Z7:Z34),IF(Z7:Z34&gt;0,IF(AC7:AC34&lt;&gt;"",ROW(Z7:Z34)-MIN(ROW(Z7:Z34))+1))),ROW()-ROW(A$38)+1)),",",";"),",",INDEX(AC7:AC34,SMALL(IF(ISNUMBER(Z7:Z34),IF(Z7:Z34&gt;0,IF(AC7:AC34&lt;&gt;"",ROW(Z7:Z34)-MIN(ROW(Z7:Z34))+1))),ROW()-ROW(A$38)+1))),"")</f>
         <v>0</v>
       </c>
       <c r="AE62">
-        <f t="array" ref="AE62">IFERROR(CONCATENATE(INDEX(AH7:AH35,SMALL(IF(ISNUMBER(AE7:AE35),IF(AE7:AE35&gt;0,IF(AH7:AH35&lt;&gt;"",ROW(AE7:AE35)-MIN(ROW(AE7:AE35))+1))),ROW()-ROW(A$38)+1)),"|",TEXT(INDEX(AE7:AE35,SMALL(IF(ISNUMBER(AE7:AE35),IF(AE7:AE35&gt;0,IF(AH7:AH35&lt;&gt;"",ROW(AE7:AE35)-MIN(ROW(AE7:AE35))+1))),ROW()-ROW(A$38)+1)),"##0"),"|",SUBSTITUTE(SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(AE7:AE35),IF(AE7:AE35&gt;0,IF(AH7:AH35&lt;&gt;"",ROW(AE7:AE35)-MIN(ROW(AE7:AE35))+1))),ROW()-ROW(A$38)+1)),"|",";")," ","_")),"")</f>
+        <f t="array" ref="AE62">IFERROR(CONCATENATE(INDEX(AH7:AH34,SMALL(IF(ISNUMBER(AE7:AE34),IF(AE7:AE34&gt;0,IF(AH7:AH34&lt;&gt;"",ROW(AE7:AE34)-MIN(ROW(AE7:AE34))+1))),ROW()-ROW(A$37)+1)),"|",TEXT(INDEX(AE7:AE34,SMALL(IF(ISNUMBER(AE7:AE34),IF(AE7:AE34&gt;0,IF(AH7:AH34&lt;&gt;"",ROW(AE7:AE34)-MIN(ROW(AE7:AE34))+1))),ROW()-ROW(A$37)+1)),"##0"),"|",SUBSTITUTE(SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(AE7:AE34),IF(AE7:AE34&gt;0,IF(AH7:AH34&lt;&gt;"",ROW(AE7:AE34)-MIN(ROW(AE7:AE34))+1))),ROW()-ROW(A$37)+1)),"|",";")," ","_")),"")</f>
         <v>0</v>
       </c>
       <c r="AJ62">
-        <f t="array" ref="AJ62">IFERROR(CONCATENATE(INDEX(AM7:AM35,SMALL(IF(ISNUMBER(AJ7:AJ35),IF(AJ7:AJ35&gt;0,IF(AM7:AM35&lt;&gt;"",ROW(AJ7:AJ35)-MIN(ROW(AJ7:AJ35))+1))),ROW()-ROW(A$38)+1)),",",TEXT(INDEX(AJ7:AJ35,SMALL(IF(ISNUMBER(AJ7:AJ35),IF(AJ7:AJ35&gt;0,IF(AM7:AM35&lt;&gt;"",ROW(AJ7:AJ35)-MIN(ROW(AJ7:AJ35))+1))),ROW()-ROW(A$38)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(AJ7:AJ35),IF(AJ7:AJ35&gt;0,IF(AM7:AM35&lt;&gt;"",ROW(AJ7:AJ35)-MIN(ROW(AJ7:AJ35))+1))),ROW()-ROW(A$38)+1)),",",";")),"")</f>
+        <f t="array" ref="AJ62">IFERROR(CONCATENATE(INDEX(AM7:AM34,SMALL(IF(ISNUMBER(AJ7:AJ34),IF(AJ7:AJ34&gt;0,IF(AM7:AM34&lt;&gt;"",ROW(AJ7:AJ34)-MIN(ROW(AJ7:AJ34))+1))),ROW()-ROW(A$37)+1)),",",TEXT(INDEX(AJ7:AJ34,SMALL(IF(ISNUMBER(AJ7:AJ34),IF(AJ7:AJ34&gt;0,IF(AM7:AM34&lt;&gt;"",ROW(AJ7:AJ34)-MIN(ROW(AJ7:AJ34))+1))),ROW()-ROW(A$37)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(AJ7:AJ34),IF(AJ7:AJ34&gt;0,IF(AM7:AM34&lt;&gt;"",ROW(AJ7:AJ34)-MIN(ROW(AJ7:AJ34))+1))),ROW()-ROW(A$37)+1)),",",";")),"")</f>
         <v>0</v>
       </c>
       <c r="AO62">
-        <f t="array" ref="AO62">IFERROR(CONCATENATE(INDEX(AR7:AR35,SMALL(IF(ISNUMBER(AO7:AO35),IF(AO7:AO35&gt;0,IF(AR7:AR35&lt;&gt;"",ROW(AO7:AO35)-MIN(ROW(AO7:AO35))+1))),ROW()-ROW(A$38)+1))," ",TEXT(INDEX(AO7:AO35,SMALL(IF(ISNUMBER(AO7:AO35),IF(AO7:AO35&gt;0,IF(AR7:AR35&lt;&gt;"",ROW(AO7:AO35)-MIN(ROW(AO7:AO35))+1))),ROW()-ROW(A$38)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(AO7:AO35),IF(AO7:AO35&gt;0,IF(AR7:AR35&lt;&gt;"",ROW(AO7:AO35)-MIN(ROW(AO7:AO35))+1))),ROW()-ROW(A$38)+1))," ",";")),"")</f>
+        <f t="array" ref="AO62">IFERROR(CONCATENATE(INDEX(AR7:AR34,SMALL(IF(ISNUMBER(AO7:AO34),IF(AO7:AO34&gt;0,IF(AR7:AR34&lt;&gt;"",ROW(AO7:AO34)-MIN(ROW(AO7:AO34))+1))),ROW()-ROW(A$37)+1))," ",TEXT(INDEX(AO7:AO34,SMALL(IF(ISNUMBER(AO7:AO34),IF(AO7:AO34&gt;0,IF(AR7:AR34&lt;&gt;"",ROW(AO7:AO34)-MIN(ROW(AO7:AO34))+1))),ROW()-ROW(A$37)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(AO7:AO34),IF(AO7:AO34&gt;0,IF(AR7:AR34&lt;&gt;"",ROW(AO7:AO34)-MIN(ROW(AO7:AO34))+1))),ROW()-ROW(A$37)+1))," ",";")),"")</f>
         <v>0</v>
       </c>
       <c r="AT62">
-        <f t="array" ref="AT62">IFERROR(CONCATENATE(INDEX(AW7:AW35,SMALL(IF(ISNUMBER(AT7:AT35),IF(AT7:AT35&gt;0,IF(AW7:AW35&lt;&gt;"",ROW(AT7:AT35)-MIN(ROW(AT7:AT35))+1))),ROW()-ROW(A$38)+1))," ",TEXT(INDEX(AT7:AT35,SMALL(IF(ISNUMBER(AT7:AT35),IF(AT7:AT35&gt;0,IF(AW7:AW35&lt;&gt;"",ROW(AT7:AT35)-MIN(ROW(AT7:AT35))+1))),ROW()-ROW(A$38)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(AT7:AT35),IF(AT7:AT35&gt;0,IF(AW7:AW35&lt;&gt;"",ROW(AT7:AT35)-MIN(ROW(AT7:AT35))+1))),ROW()-ROW(A$38)+1))," ",";")),"")</f>
+        <f t="array" ref="AT62">IFERROR(CONCATENATE(INDEX(AW7:AW34,SMALL(IF(ISNUMBER(AT7:AT34),IF(AT7:AT34&gt;0,IF(AW7:AW34&lt;&gt;"",ROW(AT7:AT34)-MIN(ROW(AT7:AT34))+1))),ROW()-ROW(A$37)+1))," ",TEXT(INDEX(AT7:AT34,SMALL(IF(ISNUMBER(AT7:AT34),IF(AT7:AT34&gt;0,IF(AW7:AW34&lt;&gt;"",ROW(AT7:AT34)-MIN(ROW(AT7:AT34))+1))),ROW()-ROW(A$37)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(AT7:AT34),IF(AT7:AT34&gt;0,IF(AW7:AW34&lt;&gt;"",ROW(AT7:AT34)-MIN(ROW(AT7:AT34))+1))),ROW()-ROW(A$37)+1))," ",";")),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="11:46">
       <c r="K63">
-        <f t="array" ref="K63">IFERROR(CONCATENATE(INDEX(N7:N35,SMALL(IF(ISNUMBER(K7:K35),IF(K7:K35&gt;0,IF(N7:N35&lt;&gt;"",ROW(K7:K35)-MIN(ROW(K7:K35))+1))),ROW()-ROW(A$38)+1)),",",TEXT(INDEX(K7:K35,SMALL(IF(ISNUMBER(K7:K35),IF(K7:K35&gt;0,IF(N7:N35&lt;&gt;"",ROW(K7:K35)-MIN(ROW(K7:K35))+1))),ROW()-ROW(A$38)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(K7:K35),IF(K7:K35&gt;0,IF(N7:N35&lt;&gt;"",ROW(K7:K35)-MIN(ROW(K7:K35))+1))),ROW()-ROW(A$38)+1)),",",";")),"")</f>
+        <f t="array" ref="K63">IFERROR(CONCATENATE(INDEX(N7:N34,SMALL(IF(ISNUMBER(K7:K34),IF(K7:K34&gt;0,IF(N7:N34&lt;&gt;"",ROW(K7:K34)-MIN(ROW(K7:K34))+1))),ROW()-ROW(A$37)+1)),",",TEXT(INDEX(K7:K34,SMALL(IF(ISNUMBER(K7:K34),IF(K7:K34&gt;0,IF(N7:N34&lt;&gt;"",ROW(K7:K34)-MIN(ROW(K7:K34))+1))),ROW()-ROW(A$37)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(K7:K34),IF(K7:K34&gt;0,IF(N7:N34&lt;&gt;"",ROW(K7:K34)-MIN(ROW(K7:K34))+1))),ROW()-ROW(A$37)+1)),",",";")),"")</f>
         <v>0</v>
       </c>
       <c r="P63">
-        <f t="array" ref="P63">IFERROR(CONCATENATE(TEXT(INDEX(P7:P35,SMALL(IF(ISNUMBER(P7:P35),IF(P7:P35&gt;0,IF(S7:S35&lt;&gt;"",ROW(P7:P35)-MIN(ROW(P7:P35))+1))),ROW()-ROW(A$38)+1)),"##0"),",",INDEX(S7:S35,SMALL(IF(ISNUMBER(P7:P35),IF(P7:P35&gt;0,IF(S7:S35&lt;&gt;"",ROW(P7:P35)-MIN(ROW(P7:P35))+1))),ROW()-ROW(A$38)+1)),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(P7:P35),IF(P7:P35&gt;0,IF(S7:S35&lt;&gt;"",ROW(P7:P35)-MIN(ROW(P7:P35))+1))),ROW()-ROW(A$38)+1)),",",";")),"")</f>
+        <f t="array" ref="P63">IFERROR(CONCATENATE(TEXT(INDEX(P7:P34,SMALL(IF(ISNUMBER(P7:P34),IF(P7:P34&gt;0,IF(S7:S34&lt;&gt;"",ROW(P7:P34)-MIN(ROW(P7:P34))+1))),ROW()-ROW(A$37)+1)),"##0"),",",INDEX(S7:S34,SMALL(IF(ISNUMBER(P7:P34),IF(P7:P34&gt;0,IF(S7:S34&lt;&gt;"",ROW(P7:P34)-MIN(ROW(P7:P34))+1))),ROW()-ROW(A$37)+1)),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(P7:P34),IF(P7:P34&gt;0,IF(S7:S34&lt;&gt;"",ROW(P7:P34)-MIN(ROW(P7:P34))+1))),ROW()-ROW(A$37)+1)),",",";")),"")</f>
         <v>0</v>
       </c>
       <c r="U63">
-        <f t="array" ref="U63">IFERROR(CONCATENATE(INDEX(X7:X35,SMALL(IF(ISNUMBER(U7:U35),IF(U7:U35&gt;0,IF(X7:X35&lt;&gt;"",ROW(U7:U35)-MIN(ROW(U7:U35))+1))),ROW()-ROW(A$38)+1))," ",TEXT(INDEX(U7:U35,SMALL(IF(ISNUMBER(U7:U35),IF(U7:U35&gt;0,IF(X7:X35&lt;&gt;"",ROW(U7:U35)-MIN(ROW(U7:U35))+1))),ROW()-ROW(A$38)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(U7:U35),IF(U7:U35&gt;0,IF(X7:X35&lt;&gt;"",ROW(U7:U35)-MIN(ROW(U7:U35))+1))),ROW()-ROW(A$38)+1))," ",";")),"")</f>
+        <f t="array" ref="U63">IFERROR(CONCATENATE(INDEX(X7:X34,SMALL(IF(ISNUMBER(U7:U34),IF(U7:U34&gt;0,IF(X7:X34&lt;&gt;"",ROW(U7:U34)-MIN(ROW(U7:U34))+1))),ROW()-ROW(A$37)+1))," ",TEXT(INDEX(U7:U34,SMALL(IF(ISNUMBER(U7:U34),IF(U7:U34&gt;0,IF(X7:X34&lt;&gt;"",ROW(U7:U34)-MIN(ROW(U7:U34))+1))),ROW()-ROW(A$37)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(U7:U34),IF(U7:U34&gt;0,IF(X7:X34&lt;&gt;"",ROW(U7:U34)-MIN(ROW(U7:U34))+1))),ROW()-ROW(A$37)+1))," ",";")),"")</f>
         <v>0</v>
       </c>
       <c r="Z63">
-        <f t="array" ref="Z63">IFERROR(CONCATENATE(TEXT(INDEX(Z7:Z35,SMALL(IF(ISNUMBER(Z7:Z35),IF(Z7:Z35&gt;0,IF(AC7:AC35&lt;&gt;"",ROW(Z7:Z35)-MIN(ROW(Z7:Z35))+1))),ROW()-ROW(A$39)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(Z7:Z35),IF(Z7:Z35&gt;0,IF(AC7:AC35&lt;&gt;"",ROW(Z7:Z35)-MIN(ROW(Z7:Z35))+1))),ROW()-ROW(A$39)+1)),",",";"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;D7:D35,SMALL(IF(ISNUMBER(Z7:Z35),IF(Z7:Z35&gt;0,IF(AC7:AC35&lt;&gt;"",ROW(Z7:Z35)-MIN(ROW(Z7:Z35))+1))),ROW()-ROW(A$39)+1)),",",";"),",",INDEX(AC7:AC35,SMALL(IF(ISNUMBER(Z7:Z35),IF(Z7:Z35&gt;0,IF(AC7:AC35&lt;&gt;"",ROW(Z7:Z35)-MIN(ROW(Z7:Z35))+1))),ROW()-ROW(A$39)+1))),"")</f>
+        <f t="array" ref="Z63">IFERROR(CONCATENATE(TEXT(INDEX(Z7:Z34,SMALL(IF(ISNUMBER(Z7:Z34),IF(Z7:Z34&gt;0,IF(AC7:AC34&lt;&gt;"",ROW(Z7:Z34)-MIN(ROW(Z7:Z34))+1))),ROW()-ROW(A$38)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(Z7:Z34),IF(Z7:Z34&gt;0,IF(AC7:AC34&lt;&gt;"",ROW(Z7:Z34)-MIN(ROW(Z7:Z34))+1))),ROW()-ROW(A$38)+1)),",",";"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;D7:D34,SMALL(IF(ISNUMBER(Z7:Z34),IF(Z7:Z34&gt;0,IF(AC7:AC34&lt;&gt;"",ROW(Z7:Z34)-MIN(ROW(Z7:Z34))+1))),ROW()-ROW(A$38)+1)),",",";"),",",INDEX(AC7:AC34,SMALL(IF(ISNUMBER(Z7:Z34),IF(Z7:Z34&gt;0,IF(AC7:AC34&lt;&gt;"",ROW(Z7:Z34)-MIN(ROW(Z7:Z34))+1))),ROW()-ROW(A$38)+1))),"")</f>
         <v>0</v>
       </c>
       <c r="AE63">
-        <f t="array" ref="AE63">IFERROR(CONCATENATE(INDEX(AH7:AH35,SMALL(IF(ISNUMBER(AE7:AE35),IF(AE7:AE35&gt;0,IF(AH7:AH35&lt;&gt;"",ROW(AE7:AE35)-MIN(ROW(AE7:AE35))+1))),ROW()-ROW(A$38)+1)),"|",TEXT(INDEX(AE7:AE35,SMALL(IF(ISNUMBER(AE7:AE35),IF(AE7:AE35&gt;0,IF(AH7:AH35&lt;&gt;"",ROW(AE7:AE35)-MIN(ROW(AE7:AE35))+1))),ROW()-ROW(A$38)+1)),"##0"),"|",SUBSTITUTE(SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(AE7:AE35),IF(AE7:AE35&gt;0,IF(AH7:AH35&lt;&gt;"",ROW(AE7:AE35)-MIN(ROW(AE7:AE35))+1))),ROW()-ROW(A$38)+1)),"|",";")," ","_")),"")</f>
+        <f t="array" ref="AE63">IFERROR(CONCATENATE(INDEX(AH7:AH34,SMALL(IF(ISNUMBER(AE7:AE34),IF(AE7:AE34&gt;0,IF(AH7:AH34&lt;&gt;"",ROW(AE7:AE34)-MIN(ROW(AE7:AE34))+1))),ROW()-ROW(A$37)+1)),"|",TEXT(INDEX(AE7:AE34,SMALL(IF(ISNUMBER(AE7:AE34),IF(AE7:AE34&gt;0,IF(AH7:AH34&lt;&gt;"",ROW(AE7:AE34)-MIN(ROW(AE7:AE34))+1))),ROW()-ROW(A$37)+1)),"##0"),"|",SUBSTITUTE(SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(AE7:AE34),IF(AE7:AE34&gt;0,IF(AH7:AH34&lt;&gt;"",ROW(AE7:AE34)-MIN(ROW(AE7:AE34))+1))),ROW()-ROW(A$37)+1)),"|",";")," ","_")),"")</f>
         <v>0</v>
       </c>
       <c r="AJ63">
-        <f t="array" ref="AJ63">IFERROR(CONCATENATE(INDEX(AM7:AM35,SMALL(IF(ISNUMBER(AJ7:AJ35),IF(AJ7:AJ35&gt;0,IF(AM7:AM35&lt;&gt;"",ROW(AJ7:AJ35)-MIN(ROW(AJ7:AJ35))+1))),ROW()-ROW(A$38)+1)),",",TEXT(INDEX(AJ7:AJ35,SMALL(IF(ISNUMBER(AJ7:AJ35),IF(AJ7:AJ35&gt;0,IF(AM7:AM35&lt;&gt;"",ROW(AJ7:AJ35)-MIN(ROW(AJ7:AJ35))+1))),ROW()-ROW(A$38)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(AJ7:AJ35),IF(AJ7:AJ35&gt;0,IF(AM7:AM35&lt;&gt;"",ROW(AJ7:AJ35)-MIN(ROW(AJ7:AJ35))+1))),ROW()-ROW(A$38)+1)),",",";")),"")</f>
+        <f t="array" ref="AJ63">IFERROR(CONCATENATE(INDEX(AM7:AM34,SMALL(IF(ISNUMBER(AJ7:AJ34),IF(AJ7:AJ34&gt;0,IF(AM7:AM34&lt;&gt;"",ROW(AJ7:AJ34)-MIN(ROW(AJ7:AJ34))+1))),ROW()-ROW(A$37)+1)),",",TEXT(INDEX(AJ7:AJ34,SMALL(IF(ISNUMBER(AJ7:AJ34),IF(AJ7:AJ34&gt;0,IF(AM7:AM34&lt;&gt;"",ROW(AJ7:AJ34)-MIN(ROW(AJ7:AJ34))+1))),ROW()-ROW(A$37)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(AJ7:AJ34),IF(AJ7:AJ34&gt;0,IF(AM7:AM34&lt;&gt;"",ROW(AJ7:AJ34)-MIN(ROW(AJ7:AJ34))+1))),ROW()-ROW(A$37)+1)),",",";")),"")</f>
         <v>0</v>
       </c>
       <c r="AO63">
-        <f t="array" ref="AO63">IFERROR(CONCATENATE(INDEX(AR7:AR35,SMALL(IF(ISNUMBER(AO7:AO35),IF(AO7:AO35&gt;0,IF(AR7:AR35&lt;&gt;"",ROW(AO7:AO35)-MIN(ROW(AO7:AO35))+1))),ROW()-ROW(A$38)+1))," ",TEXT(INDEX(AO7:AO35,SMALL(IF(ISNUMBER(AO7:AO35),IF(AO7:AO35&gt;0,IF(AR7:AR35&lt;&gt;"",ROW(AO7:AO35)-MIN(ROW(AO7:AO35))+1))),ROW()-ROW(A$38)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(AO7:AO35),IF(AO7:AO35&gt;0,IF(AR7:AR35&lt;&gt;"",ROW(AO7:AO35)-MIN(ROW(AO7:AO35))+1))),ROW()-ROW(A$38)+1))," ",";")),"")</f>
+        <f t="array" ref="AO63">IFERROR(CONCATENATE(INDEX(AR7:AR34,SMALL(IF(ISNUMBER(AO7:AO34),IF(AO7:AO34&gt;0,IF(AR7:AR34&lt;&gt;"",ROW(AO7:AO34)-MIN(ROW(AO7:AO34))+1))),ROW()-ROW(A$37)+1))," ",TEXT(INDEX(AO7:AO34,SMALL(IF(ISNUMBER(AO7:AO34),IF(AO7:AO34&gt;0,IF(AR7:AR34&lt;&gt;"",ROW(AO7:AO34)-MIN(ROW(AO7:AO34))+1))),ROW()-ROW(A$37)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(AO7:AO34),IF(AO7:AO34&gt;0,IF(AR7:AR34&lt;&gt;"",ROW(AO7:AO34)-MIN(ROW(AO7:AO34))+1))),ROW()-ROW(A$37)+1))," ",";")),"")</f>
         <v>0</v>
       </c>
       <c r="AT63">
-        <f t="array" ref="AT63">IFERROR(CONCATENATE(INDEX(AW7:AW35,SMALL(IF(ISNUMBER(AT7:AT35),IF(AT7:AT35&gt;0,IF(AW7:AW35&lt;&gt;"",ROW(AT7:AT35)-MIN(ROW(AT7:AT35))+1))),ROW()-ROW(A$38)+1))," ",TEXT(INDEX(AT7:AT35,SMALL(IF(ISNUMBER(AT7:AT35),IF(AT7:AT35&gt;0,IF(AW7:AW35&lt;&gt;"",ROW(AT7:AT35)-MIN(ROW(AT7:AT35))+1))),ROW()-ROW(A$38)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(AT7:AT35),IF(AT7:AT35&gt;0,IF(AW7:AW35&lt;&gt;"",ROW(AT7:AT35)-MIN(ROW(AT7:AT35))+1))),ROW()-ROW(A$38)+1))," ",";")),"")</f>
+        <f t="array" ref="AT63">IFERROR(CONCATENATE(INDEX(AW7:AW34,SMALL(IF(ISNUMBER(AT7:AT34),IF(AT7:AT34&gt;0,IF(AW7:AW34&lt;&gt;"",ROW(AT7:AT34)-MIN(ROW(AT7:AT34))+1))),ROW()-ROW(A$37)+1))," ",TEXT(INDEX(AT7:AT34,SMALL(IF(ISNUMBER(AT7:AT34),IF(AT7:AT34&gt;0,IF(AW7:AW34&lt;&gt;"",ROW(AT7:AT34)-MIN(ROW(AT7:AT34))+1))),ROW()-ROW(A$37)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(AT7:AT34),IF(AT7:AT34&gt;0,IF(AW7:AW34&lt;&gt;"",ROW(AT7:AT34)-MIN(ROW(AT7:AT34))+1))),ROW()-ROW(A$37)+1))," ",";")),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="11:46">
       <c r="K64">
-        <f t="array" ref="K64">IFERROR(CONCATENATE(INDEX(N7:N35,SMALL(IF(ISNUMBER(K7:K35),IF(K7:K35&gt;0,IF(N7:N35&lt;&gt;"",ROW(K7:K35)-MIN(ROW(K7:K35))+1))),ROW()-ROW(A$38)+1)),",",TEXT(INDEX(K7:K35,SMALL(IF(ISNUMBER(K7:K35),IF(K7:K35&gt;0,IF(N7:N35&lt;&gt;"",ROW(K7:K35)-MIN(ROW(K7:K35))+1))),ROW()-ROW(A$38)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(K7:K35),IF(K7:K35&gt;0,IF(N7:N35&lt;&gt;"",ROW(K7:K35)-MIN(ROW(K7:K35))+1))),ROW()-ROW(A$38)+1)),",",";")),"")</f>
+        <f t="array" ref="K64">IFERROR(CONCATENATE(INDEX(N7:N34,SMALL(IF(ISNUMBER(K7:K34),IF(K7:K34&gt;0,IF(N7:N34&lt;&gt;"",ROW(K7:K34)-MIN(ROW(K7:K34))+1))),ROW()-ROW(A$37)+1)),",",TEXT(INDEX(K7:K34,SMALL(IF(ISNUMBER(K7:K34),IF(K7:K34&gt;0,IF(N7:N34&lt;&gt;"",ROW(K7:K34)-MIN(ROW(K7:K34))+1))),ROW()-ROW(A$37)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(K7:K34),IF(K7:K34&gt;0,IF(N7:N34&lt;&gt;"",ROW(K7:K34)-MIN(ROW(K7:K34))+1))),ROW()-ROW(A$37)+1)),",",";")),"")</f>
         <v>0</v>
       </c>
       <c r="P64">
-        <f t="array" ref="P64">IFERROR(CONCATENATE(TEXT(INDEX(P7:P35,SMALL(IF(ISNUMBER(P7:P35),IF(P7:P35&gt;0,IF(S7:S35&lt;&gt;"",ROW(P7:P35)-MIN(ROW(P7:P35))+1))),ROW()-ROW(A$38)+1)),"##0"),",",INDEX(S7:S35,SMALL(IF(ISNUMBER(P7:P35),IF(P7:P35&gt;0,IF(S7:S35&lt;&gt;"",ROW(P7:P35)-MIN(ROW(P7:P35))+1))),ROW()-ROW(A$38)+1)),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(P7:P35),IF(P7:P35&gt;0,IF(S7:S35&lt;&gt;"",ROW(P7:P35)-MIN(ROW(P7:P35))+1))),ROW()-ROW(A$38)+1)),",",";")),"")</f>
+        <f t="array" ref="P64">IFERROR(CONCATENATE(TEXT(INDEX(P7:P34,SMALL(IF(ISNUMBER(P7:P34),IF(P7:P34&gt;0,IF(S7:S34&lt;&gt;"",ROW(P7:P34)-MIN(ROW(P7:P34))+1))),ROW()-ROW(A$37)+1)),"##0"),",",INDEX(S7:S34,SMALL(IF(ISNUMBER(P7:P34),IF(P7:P34&gt;0,IF(S7:S34&lt;&gt;"",ROW(P7:P34)-MIN(ROW(P7:P34))+1))),ROW()-ROW(A$37)+1)),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(P7:P34),IF(P7:P34&gt;0,IF(S7:S34&lt;&gt;"",ROW(P7:P34)-MIN(ROW(P7:P34))+1))),ROW()-ROW(A$37)+1)),",",";")),"")</f>
         <v>0</v>
       </c>
       <c r="U64">
-        <f t="array" ref="U64">IFERROR(CONCATENATE(INDEX(X7:X35,SMALL(IF(ISNUMBER(U7:U35),IF(U7:U35&gt;0,IF(X7:X35&lt;&gt;"",ROW(U7:U35)-MIN(ROW(U7:U35))+1))),ROW()-ROW(A$38)+1))," ",TEXT(INDEX(U7:U35,SMALL(IF(ISNUMBER(U7:U35),IF(U7:U35&gt;0,IF(X7:X35&lt;&gt;"",ROW(U7:U35)-MIN(ROW(U7:U35))+1))),ROW()-ROW(A$38)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(U7:U35),IF(U7:U35&gt;0,IF(X7:X35&lt;&gt;"",ROW(U7:U35)-MIN(ROW(U7:U35))+1))),ROW()-ROW(A$38)+1))," ",";")),"")</f>
+        <f t="array" ref="U64">IFERROR(CONCATENATE(INDEX(X7:X34,SMALL(IF(ISNUMBER(U7:U34),IF(U7:U34&gt;0,IF(X7:X34&lt;&gt;"",ROW(U7:U34)-MIN(ROW(U7:U34))+1))),ROW()-ROW(A$37)+1))," ",TEXT(INDEX(U7:U34,SMALL(IF(ISNUMBER(U7:U34),IF(U7:U34&gt;0,IF(X7:X34&lt;&gt;"",ROW(U7:U34)-MIN(ROW(U7:U34))+1))),ROW()-ROW(A$37)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(U7:U34),IF(U7:U34&gt;0,IF(X7:X34&lt;&gt;"",ROW(U7:U34)-MIN(ROW(U7:U34))+1))),ROW()-ROW(A$37)+1))," ",";")),"")</f>
         <v>0</v>
       </c>
       <c r="Z64">
-        <f t="array" ref="Z64">IFERROR(CONCATENATE(TEXT(INDEX(Z7:Z35,SMALL(IF(ISNUMBER(Z7:Z35),IF(Z7:Z35&gt;0,IF(AC7:AC35&lt;&gt;"",ROW(Z7:Z35)-MIN(ROW(Z7:Z35))+1))),ROW()-ROW(A$39)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(Z7:Z35),IF(Z7:Z35&gt;0,IF(AC7:AC35&lt;&gt;"",ROW(Z7:Z35)-MIN(ROW(Z7:Z35))+1))),ROW()-ROW(A$39)+1)),",",";"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;D7:D35,SMALL(IF(ISNUMBER(Z7:Z35),IF(Z7:Z35&gt;0,IF(AC7:AC35&lt;&gt;"",ROW(Z7:Z35)-MIN(ROW(Z7:Z35))+1))),ROW()-ROW(A$39)+1)),",",";"),",",INDEX(AC7:AC35,SMALL(IF(ISNUMBER(Z7:Z35),IF(Z7:Z35&gt;0,IF(AC7:AC35&lt;&gt;"",ROW(Z7:Z35)-MIN(ROW(Z7:Z35))+1))),ROW()-ROW(A$39)+1))),"")</f>
+        <f t="array" ref="Z64">IFERROR(CONCATENATE(TEXT(INDEX(Z7:Z34,SMALL(IF(ISNUMBER(Z7:Z34),IF(Z7:Z34&gt;0,IF(AC7:AC34&lt;&gt;"",ROW(Z7:Z34)-MIN(ROW(Z7:Z34))+1))),ROW()-ROW(A$38)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(Z7:Z34),IF(Z7:Z34&gt;0,IF(AC7:AC34&lt;&gt;"",ROW(Z7:Z34)-MIN(ROW(Z7:Z34))+1))),ROW()-ROW(A$38)+1)),",",";"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;D7:D34,SMALL(IF(ISNUMBER(Z7:Z34),IF(Z7:Z34&gt;0,IF(AC7:AC34&lt;&gt;"",ROW(Z7:Z34)-MIN(ROW(Z7:Z34))+1))),ROW()-ROW(A$38)+1)),",",";"),",",INDEX(AC7:AC34,SMALL(IF(ISNUMBER(Z7:Z34),IF(Z7:Z34&gt;0,IF(AC7:AC34&lt;&gt;"",ROW(Z7:Z34)-MIN(ROW(Z7:Z34))+1))),ROW()-ROW(A$38)+1))),"")</f>
         <v>0</v>
       </c>
       <c r="AE64">
-        <f t="array" ref="AE64">IFERROR(CONCATENATE(INDEX(AH7:AH35,SMALL(IF(ISNUMBER(AE7:AE35),IF(AE7:AE35&gt;0,IF(AH7:AH35&lt;&gt;"",ROW(AE7:AE35)-MIN(ROW(AE7:AE35))+1))),ROW()-ROW(A$38)+1)),"|",TEXT(INDEX(AE7:AE35,SMALL(IF(ISNUMBER(AE7:AE35),IF(AE7:AE35&gt;0,IF(AH7:AH35&lt;&gt;"",ROW(AE7:AE35)-MIN(ROW(AE7:AE35))+1))),ROW()-ROW(A$38)+1)),"##0"),"|",SUBSTITUTE(SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(AE7:AE35),IF(AE7:AE35&gt;0,IF(AH7:AH35&lt;&gt;"",ROW(AE7:AE35)-MIN(ROW(AE7:AE35))+1))),ROW()-ROW(A$38)+1)),"|",";")," ","_")),"")</f>
+        <f t="array" ref="AE64">IFERROR(CONCATENATE(INDEX(AH7:AH34,SMALL(IF(ISNUMBER(AE7:AE34),IF(AE7:AE34&gt;0,IF(AH7:AH34&lt;&gt;"",ROW(AE7:AE34)-MIN(ROW(AE7:AE34))+1))),ROW()-ROW(A$37)+1)),"|",TEXT(INDEX(AE7:AE34,SMALL(IF(ISNUMBER(AE7:AE34),IF(AE7:AE34&gt;0,IF(AH7:AH34&lt;&gt;"",ROW(AE7:AE34)-MIN(ROW(AE7:AE34))+1))),ROW()-ROW(A$37)+1)),"##0"),"|",SUBSTITUTE(SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(AE7:AE34),IF(AE7:AE34&gt;0,IF(AH7:AH34&lt;&gt;"",ROW(AE7:AE34)-MIN(ROW(AE7:AE34))+1))),ROW()-ROW(A$37)+1)),"|",";")," ","_")),"")</f>
         <v>0</v>
       </c>
       <c r="AJ64">
-        <f t="array" ref="AJ64">IFERROR(CONCATENATE(INDEX(AM7:AM35,SMALL(IF(ISNUMBER(AJ7:AJ35),IF(AJ7:AJ35&gt;0,IF(AM7:AM35&lt;&gt;"",ROW(AJ7:AJ35)-MIN(ROW(AJ7:AJ35))+1))),ROW()-ROW(A$38)+1)),",",TEXT(INDEX(AJ7:AJ35,SMALL(IF(ISNUMBER(AJ7:AJ35),IF(AJ7:AJ35&gt;0,IF(AM7:AM35&lt;&gt;"",ROW(AJ7:AJ35)-MIN(ROW(AJ7:AJ35))+1))),ROW()-ROW(A$38)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(AJ7:AJ35),IF(AJ7:AJ35&gt;0,IF(AM7:AM35&lt;&gt;"",ROW(AJ7:AJ35)-MIN(ROW(AJ7:AJ35))+1))),ROW()-ROW(A$38)+1)),",",";")),"")</f>
+        <f t="array" ref="AJ64">IFERROR(CONCATENATE(INDEX(AM7:AM34,SMALL(IF(ISNUMBER(AJ7:AJ34),IF(AJ7:AJ34&gt;0,IF(AM7:AM34&lt;&gt;"",ROW(AJ7:AJ34)-MIN(ROW(AJ7:AJ34))+1))),ROW()-ROW(A$37)+1)),",",TEXT(INDEX(AJ7:AJ34,SMALL(IF(ISNUMBER(AJ7:AJ34),IF(AJ7:AJ34&gt;0,IF(AM7:AM34&lt;&gt;"",ROW(AJ7:AJ34)-MIN(ROW(AJ7:AJ34))+1))),ROW()-ROW(A$37)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(AJ7:AJ34),IF(AJ7:AJ34&gt;0,IF(AM7:AM34&lt;&gt;"",ROW(AJ7:AJ34)-MIN(ROW(AJ7:AJ34))+1))),ROW()-ROW(A$37)+1)),",",";")),"")</f>
         <v>0</v>
       </c>
       <c r="AO64">
-        <f t="array" ref="AO64">IFERROR(CONCATENATE(INDEX(AR7:AR35,SMALL(IF(ISNUMBER(AO7:AO35),IF(AO7:AO35&gt;0,IF(AR7:AR35&lt;&gt;"",ROW(AO7:AO35)-MIN(ROW(AO7:AO35))+1))),ROW()-ROW(A$38)+1))," ",TEXT(INDEX(AO7:AO35,SMALL(IF(ISNUMBER(AO7:AO35),IF(AO7:AO35&gt;0,IF(AR7:AR35&lt;&gt;"",ROW(AO7:AO35)-MIN(ROW(AO7:AO35))+1))),ROW()-ROW(A$38)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(AO7:AO35),IF(AO7:AO35&gt;0,IF(AR7:AR35&lt;&gt;"",ROW(AO7:AO35)-MIN(ROW(AO7:AO35))+1))),ROW()-ROW(A$38)+1))," ",";")),"")</f>
+        <f t="array" ref="AO64">IFERROR(CONCATENATE(INDEX(AR7:AR34,SMALL(IF(ISNUMBER(AO7:AO34),IF(AO7:AO34&gt;0,IF(AR7:AR34&lt;&gt;"",ROW(AO7:AO34)-MIN(ROW(AO7:AO34))+1))),ROW()-ROW(A$37)+1))," ",TEXT(INDEX(AO7:AO34,SMALL(IF(ISNUMBER(AO7:AO34),IF(AO7:AO34&gt;0,IF(AR7:AR34&lt;&gt;"",ROW(AO7:AO34)-MIN(ROW(AO7:AO34))+1))),ROW()-ROW(A$37)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(AO7:AO34),IF(AO7:AO34&gt;0,IF(AR7:AR34&lt;&gt;"",ROW(AO7:AO34)-MIN(ROW(AO7:AO34))+1))),ROW()-ROW(A$37)+1))," ",";")),"")</f>
         <v>0</v>
       </c>
       <c r="AT64">
-        <f t="array" ref="AT64">IFERROR(CONCATENATE(INDEX(AW7:AW35,SMALL(IF(ISNUMBER(AT7:AT35),IF(AT7:AT35&gt;0,IF(AW7:AW35&lt;&gt;"",ROW(AT7:AT35)-MIN(ROW(AT7:AT35))+1))),ROW()-ROW(A$38)+1))," ",TEXT(INDEX(AT7:AT35,SMALL(IF(ISNUMBER(AT7:AT35),IF(AT7:AT35&gt;0,IF(AW7:AW35&lt;&gt;"",ROW(AT7:AT35)-MIN(ROW(AT7:AT35))+1))),ROW()-ROW(A$38)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(AT7:AT35),IF(AT7:AT35&gt;0,IF(AW7:AW35&lt;&gt;"",ROW(AT7:AT35)-MIN(ROW(AT7:AT35))+1))),ROW()-ROW(A$38)+1))," ",";")),"")</f>
+        <f t="array" ref="AT64">IFERROR(CONCATENATE(INDEX(AW7:AW34,SMALL(IF(ISNUMBER(AT7:AT34),IF(AT7:AT34&gt;0,IF(AW7:AW34&lt;&gt;"",ROW(AT7:AT34)-MIN(ROW(AT7:AT34))+1))),ROW()-ROW(A$37)+1))," ",TEXT(INDEX(AT7:AT34,SMALL(IF(ISNUMBER(AT7:AT34),IF(AT7:AT34&gt;0,IF(AW7:AW34&lt;&gt;"",ROW(AT7:AT34)-MIN(ROW(AT7:AT34))+1))),ROW()-ROW(A$37)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(AT7:AT34),IF(AT7:AT34&gt;0,IF(AW7:AW34&lt;&gt;"",ROW(AT7:AT34)-MIN(ROW(AT7:AT34))+1))),ROW()-ROW(A$37)+1))," ",";")),"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="11:46">
-      <c r="K65">
-        <f t="array" ref="K65">IFERROR(CONCATENATE(INDEX(N7:N35,SMALL(IF(ISNUMBER(K7:K35),IF(K7:K35&gt;0,IF(N7:N35&lt;&gt;"",ROW(K7:K35)-MIN(ROW(K7:K35))+1))),ROW()-ROW(A$38)+1)),",",TEXT(INDEX(K7:K35,SMALL(IF(ISNUMBER(K7:K35),IF(K7:K35&gt;0,IF(N7:N35&lt;&gt;"",ROW(K7:K35)-MIN(ROW(K7:K35))+1))),ROW()-ROW(A$38)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(K7:K35),IF(K7:K35&gt;0,IF(N7:N35&lt;&gt;"",ROW(K7:K35)-MIN(ROW(K7:K35))+1))),ROW()-ROW(A$38)+1)),",",";")),"")</f>
-        <v>0</v>
-      </c>
-      <c r="P65">
-        <f t="array" ref="P65">IFERROR(CONCATENATE(TEXT(INDEX(P7:P35,SMALL(IF(ISNUMBER(P7:P35),IF(P7:P35&gt;0,IF(S7:S35&lt;&gt;"",ROW(P7:P35)-MIN(ROW(P7:P35))+1))),ROW()-ROW(A$38)+1)),"##0"),",",INDEX(S7:S35,SMALL(IF(ISNUMBER(P7:P35),IF(P7:P35&gt;0,IF(S7:S35&lt;&gt;"",ROW(P7:P35)-MIN(ROW(P7:P35))+1))),ROW()-ROW(A$38)+1)),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(P7:P35),IF(P7:P35&gt;0,IF(S7:S35&lt;&gt;"",ROW(P7:P35)-MIN(ROW(P7:P35))+1))),ROW()-ROW(A$38)+1)),",",";")),"")</f>
-        <v>0</v>
-      </c>
-      <c r="U65">
-        <f t="array" ref="U65">IFERROR(CONCATENATE(INDEX(X7:X35,SMALL(IF(ISNUMBER(U7:U35),IF(U7:U35&gt;0,IF(X7:X35&lt;&gt;"",ROW(U7:U35)-MIN(ROW(U7:U35))+1))),ROW()-ROW(A$38)+1))," ",TEXT(INDEX(U7:U35,SMALL(IF(ISNUMBER(U7:U35),IF(U7:U35&gt;0,IF(X7:X35&lt;&gt;"",ROW(U7:U35)-MIN(ROW(U7:U35))+1))),ROW()-ROW(A$38)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(U7:U35),IF(U7:U35&gt;0,IF(X7:X35&lt;&gt;"",ROW(U7:U35)-MIN(ROW(U7:U35))+1))),ROW()-ROW(A$38)+1))," ",";")),"")</f>
-        <v>0</v>
-      </c>
+    <row r="65" spans="26:26">
       <c r="Z65">
-        <f t="array" ref="Z65">IFERROR(CONCATENATE(TEXT(INDEX(Z7:Z35,SMALL(IF(ISNUMBER(Z7:Z35),IF(Z7:Z35&gt;0,IF(AC7:AC35&lt;&gt;"",ROW(Z7:Z35)-MIN(ROW(Z7:Z35))+1))),ROW()-ROW(A$39)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(Z7:Z35),IF(Z7:Z35&gt;0,IF(AC7:AC35&lt;&gt;"",ROW(Z7:Z35)-MIN(ROW(Z7:Z35))+1))),ROW()-ROW(A$39)+1)),",",";"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;D7:D35,SMALL(IF(ISNUMBER(Z7:Z35),IF(Z7:Z35&gt;0,IF(AC7:AC35&lt;&gt;"",ROW(Z7:Z35)-MIN(ROW(Z7:Z35))+1))),ROW()-ROW(A$39)+1)),",",";"),",",INDEX(AC7:AC35,SMALL(IF(ISNUMBER(Z7:Z35),IF(Z7:Z35&gt;0,IF(AC7:AC35&lt;&gt;"",ROW(Z7:Z35)-MIN(ROW(Z7:Z35))+1))),ROW()-ROW(A$39)+1))),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AE65">
-        <f t="array" ref="AE65">IFERROR(CONCATENATE(INDEX(AH7:AH35,SMALL(IF(ISNUMBER(AE7:AE35),IF(AE7:AE35&gt;0,IF(AH7:AH35&lt;&gt;"",ROW(AE7:AE35)-MIN(ROW(AE7:AE35))+1))),ROW()-ROW(A$38)+1)),"|",TEXT(INDEX(AE7:AE35,SMALL(IF(ISNUMBER(AE7:AE35),IF(AE7:AE35&gt;0,IF(AH7:AH35&lt;&gt;"",ROW(AE7:AE35)-MIN(ROW(AE7:AE35))+1))),ROW()-ROW(A$38)+1)),"##0"),"|",SUBSTITUTE(SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(AE7:AE35),IF(AE7:AE35&gt;0,IF(AH7:AH35&lt;&gt;"",ROW(AE7:AE35)-MIN(ROW(AE7:AE35))+1))),ROW()-ROW(A$38)+1)),"|",";")," ","_")),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AJ65">
-        <f t="array" ref="AJ65">IFERROR(CONCATENATE(INDEX(AM7:AM35,SMALL(IF(ISNUMBER(AJ7:AJ35),IF(AJ7:AJ35&gt;0,IF(AM7:AM35&lt;&gt;"",ROW(AJ7:AJ35)-MIN(ROW(AJ7:AJ35))+1))),ROW()-ROW(A$38)+1)),",",TEXT(INDEX(AJ7:AJ35,SMALL(IF(ISNUMBER(AJ7:AJ35),IF(AJ7:AJ35&gt;0,IF(AM7:AM35&lt;&gt;"",ROW(AJ7:AJ35)-MIN(ROW(AJ7:AJ35))+1))),ROW()-ROW(A$38)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(AJ7:AJ35),IF(AJ7:AJ35&gt;0,IF(AM7:AM35&lt;&gt;"",ROW(AJ7:AJ35)-MIN(ROW(AJ7:AJ35))+1))),ROW()-ROW(A$38)+1)),",",";")),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AO65">
-        <f t="array" ref="AO65">IFERROR(CONCATENATE(INDEX(AR7:AR35,SMALL(IF(ISNUMBER(AO7:AO35),IF(AO7:AO35&gt;0,IF(AR7:AR35&lt;&gt;"",ROW(AO7:AO35)-MIN(ROW(AO7:AO35))+1))),ROW()-ROW(A$38)+1))," ",TEXT(INDEX(AO7:AO35,SMALL(IF(ISNUMBER(AO7:AO35),IF(AO7:AO35&gt;0,IF(AR7:AR35&lt;&gt;"",ROW(AO7:AO35)-MIN(ROW(AO7:AO35))+1))),ROW()-ROW(A$38)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(AO7:AO35),IF(AO7:AO35&gt;0,IF(AR7:AR35&lt;&gt;"",ROW(AO7:AO35)-MIN(ROW(AO7:AO35))+1))),ROW()-ROW(A$38)+1))," ",";")),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AT65">
-        <f t="array" ref="AT65">IFERROR(CONCATENATE(INDEX(AW7:AW35,SMALL(IF(ISNUMBER(AT7:AT35),IF(AT7:AT35&gt;0,IF(AW7:AW35&lt;&gt;"",ROW(AT7:AT35)-MIN(ROW(AT7:AT35))+1))),ROW()-ROW(A$38)+1))," ",TEXT(INDEX(AT7:AT35,SMALL(IF(ISNUMBER(AT7:AT35),IF(AT7:AT35&gt;0,IF(AW7:AW35&lt;&gt;"",ROW(AT7:AT35)-MIN(ROW(AT7:AT35))+1))),ROW()-ROW(A$38)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(AT7:AT35),IF(AT7:AT35&gt;0,IF(AW7:AW35&lt;&gt;"",ROW(AT7:AT35)-MIN(ROW(AT7:AT35))+1))),ROW()-ROW(A$38)+1))," ",";")),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="11:46">
-      <c r="K66">
-        <f t="array" ref="K66">IFERROR(CONCATENATE(INDEX(N7:N35,SMALL(IF(ISNUMBER(K7:K35),IF(K7:K35&gt;0,IF(N7:N35&lt;&gt;"",ROW(K7:K35)-MIN(ROW(K7:K35))+1))),ROW()-ROW(A$38)+1)),",",TEXT(INDEX(K7:K35,SMALL(IF(ISNUMBER(K7:K35),IF(K7:K35&gt;0,IF(N7:N35&lt;&gt;"",ROW(K7:K35)-MIN(ROW(K7:K35))+1))),ROW()-ROW(A$38)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(K7:K35),IF(K7:K35&gt;0,IF(N7:N35&lt;&gt;"",ROW(K7:K35)-MIN(ROW(K7:K35))+1))),ROW()-ROW(A$38)+1)),",",";")),"")</f>
-        <v>0</v>
-      </c>
-      <c r="P66">
-        <f t="array" ref="P66">IFERROR(CONCATENATE(TEXT(INDEX(P7:P35,SMALL(IF(ISNUMBER(P7:P35),IF(P7:P35&gt;0,IF(S7:S35&lt;&gt;"",ROW(P7:P35)-MIN(ROW(P7:P35))+1))),ROW()-ROW(A$38)+1)),"##0"),",",INDEX(S7:S35,SMALL(IF(ISNUMBER(P7:P35),IF(P7:P35&gt;0,IF(S7:S35&lt;&gt;"",ROW(P7:P35)-MIN(ROW(P7:P35))+1))),ROW()-ROW(A$38)+1)),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(P7:P35),IF(P7:P35&gt;0,IF(S7:S35&lt;&gt;"",ROW(P7:P35)-MIN(ROW(P7:P35))+1))),ROW()-ROW(A$38)+1)),",",";")),"")</f>
-        <v>0</v>
-      </c>
-      <c r="U66">
-        <f t="array" ref="U66">IFERROR(CONCATENATE(INDEX(X7:X35,SMALL(IF(ISNUMBER(U7:U35),IF(U7:U35&gt;0,IF(X7:X35&lt;&gt;"",ROW(U7:U35)-MIN(ROW(U7:U35))+1))),ROW()-ROW(A$38)+1))," ",TEXT(INDEX(U7:U35,SMALL(IF(ISNUMBER(U7:U35),IF(U7:U35&gt;0,IF(X7:X35&lt;&gt;"",ROW(U7:U35)-MIN(ROW(U7:U35))+1))),ROW()-ROW(A$38)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(U7:U35),IF(U7:U35&gt;0,IF(X7:X35&lt;&gt;"",ROW(U7:U35)-MIN(ROW(U7:U35))+1))),ROW()-ROW(A$38)+1))," ",";")),"")</f>
-        <v>0</v>
-      </c>
-      <c r="Z66">
-        <f t="array" ref="Z66">IFERROR(CONCATENATE(TEXT(INDEX(Z7:Z35,SMALL(IF(ISNUMBER(Z7:Z35),IF(Z7:Z35&gt;0,IF(AC7:AC35&lt;&gt;"",ROW(Z7:Z35)-MIN(ROW(Z7:Z35))+1))),ROW()-ROW(A$39)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(Z7:Z35),IF(Z7:Z35&gt;0,IF(AC7:AC35&lt;&gt;"",ROW(Z7:Z35)-MIN(ROW(Z7:Z35))+1))),ROW()-ROW(A$39)+1)),",",";"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;D7:D35,SMALL(IF(ISNUMBER(Z7:Z35),IF(Z7:Z35&gt;0,IF(AC7:AC35&lt;&gt;"",ROW(Z7:Z35)-MIN(ROW(Z7:Z35))+1))),ROW()-ROW(A$39)+1)),",",";"),",",INDEX(AC7:AC35,SMALL(IF(ISNUMBER(Z7:Z35),IF(Z7:Z35&gt;0,IF(AC7:AC35&lt;&gt;"",ROW(Z7:Z35)-MIN(ROW(Z7:Z35))+1))),ROW()-ROW(A$39)+1))),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AE66">
-        <f t="array" ref="AE66">IFERROR(CONCATENATE(INDEX(AH7:AH35,SMALL(IF(ISNUMBER(AE7:AE35),IF(AE7:AE35&gt;0,IF(AH7:AH35&lt;&gt;"",ROW(AE7:AE35)-MIN(ROW(AE7:AE35))+1))),ROW()-ROW(A$38)+1)),"|",TEXT(INDEX(AE7:AE35,SMALL(IF(ISNUMBER(AE7:AE35),IF(AE7:AE35&gt;0,IF(AH7:AH35&lt;&gt;"",ROW(AE7:AE35)-MIN(ROW(AE7:AE35))+1))),ROW()-ROW(A$38)+1)),"##0"),"|",SUBSTITUTE(SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(AE7:AE35),IF(AE7:AE35&gt;0,IF(AH7:AH35&lt;&gt;"",ROW(AE7:AE35)-MIN(ROW(AE7:AE35))+1))),ROW()-ROW(A$38)+1)),"|",";")," ","_")),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AJ66">
-        <f t="array" ref="AJ66">IFERROR(CONCATENATE(INDEX(AM7:AM35,SMALL(IF(ISNUMBER(AJ7:AJ35),IF(AJ7:AJ35&gt;0,IF(AM7:AM35&lt;&gt;"",ROW(AJ7:AJ35)-MIN(ROW(AJ7:AJ35))+1))),ROW()-ROW(A$38)+1)),",",TEXT(INDEX(AJ7:AJ35,SMALL(IF(ISNUMBER(AJ7:AJ35),IF(AJ7:AJ35&gt;0,IF(AM7:AM35&lt;&gt;"",ROW(AJ7:AJ35)-MIN(ROW(AJ7:AJ35))+1))),ROW()-ROW(A$38)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(AJ7:AJ35),IF(AJ7:AJ35&gt;0,IF(AM7:AM35&lt;&gt;"",ROW(AJ7:AJ35)-MIN(ROW(AJ7:AJ35))+1))),ROW()-ROW(A$38)+1)),",",";")),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AO66">
-        <f t="array" ref="AO66">IFERROR(CONCATENATE(INDEX(AR7:AR35,SMALL(IF(ISNUMBER(AO7:AO35),IF(AO7:AO35&gt;0,IF(AR7:AR35&lt;&gt;"",ROW(AO7:AO35)-MIN(ROW(AO7:AO35))+1))),ROW()-ROW(A$38)+1))," ",TEXT(INDEX(AO7:AO35,SMALL(IF(ISNUMBER(AO7:AO35),IF(AO7:AO35&gt;0,IF(AR7:AR35&lt;&gt;"",ROW(AO7:AO35)-MIN(ROW(AO7:AO35))+1))),ROW()-ROW(A$38)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(AO7:AO35),IF(AO7:AO35&gt;0,IF(AR7:AR35&lt;&gt;"",ROW(AO7:AO35)-MIN(ROW(AO7:AO35))+1))),ROW()-ROW(A$38)+1))," ",";")),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AT66">
-        <f t="array" ref="AT66">IFERROR(CONCATENATE(INDEX(AW7:AW35,SMALL(IF(ISNUMBER(AT7:AT35),IF(AT7:AT35&gt;0,IF(AW7:AW35&lt;&gt;"",ROW(AT7:AT35)-MIN(ROW(AT7:AT35))+1))),ROW()-ROW(A$38)+1))," ",TEXT(INDEX(AT7:AT35,SMALL(IF(ISNUMBER(AT7:AT35),IF(AT7:AT35&gt;0,IF(AW7:AW35&lt;&gt;"",ROW(AT7:AT35)-MIN(ROW(AT7:AT35))+1))),ROW()-ROW(A$38)+1)),"##0")," ",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(AT7:AT35),IF(AT7:AT35&gt;0,IF(AW7:AW35&lt;&gt;"",ROW(AT7:AT35)-MIN(ROW(AT7:AT35))+1))),ROW()-ROW(A$38)+1))," ",";")),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="11:46">
-      <c r="Z67">
-        <f t="array" ref="Z67">IFERROR(CONCATENATE(TEXT(INDEX(Z7:Z35,SMALL(IF(ISNUMBER(Z7:Z35),IF(Z7:Z35&gt;0,IF(AC7:AC35&lt;&gt;"",ROW(Z7:Z35)-MIN(ROW(Z7:Z35))+1))),ROW()-ROW(A$39)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(Z7:Z35),IF(Z7:Z35&gt;0,IF(AC7:AC35&lt;&gt;"",ROW(Z7:Z35)-MIN(ROW(Z7:Z35))+1))),ROW()-ROW(A$39)+1)),",",";"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;D7:D35,SMALL(IF(ISNUMBER(Z7:Z35),IF(Z7:Z35&gt;0,IF(AC7:AC35&lt;&gt;"",ROW(Z7:Z35)-MIN(ROW(Z7:Z35))+1))),ROW()-ROW(A$39)+1)),",",";"),",",INDEX(AC7:AC35,SMALL(IF(ISNUMBER(Z7:Z35),IF(Z7:Z35&gt;0,IF(AC7:AC35&lt;&gt;"",ROW(Z7:Z35)-MIN(ROW(Z7:Z35))+1))),ROW()-ROW(A$39)+1))),"")</f>
+        <f t="array" ref="Z65">IFERROR(CONCATENATE(TEXT(INDEX(Z7:Z34,SMALL(IF(ISNUMBER(Z7:Z34),IF(Z7:Z34&gt;0,IF(AC7:AC34&lt;&gt;"",ROW(Z7:Z34)-MIN(ROW(Z7:Z34))+1))),ROW()-ROW(A$38)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A34,SMALL(IF(ISNUMBER(Z7:Z34),IF(Z7:Z34&gt;0,IF(AC7:AC34&lt;&gt;"",ROW(Z7:Z34)-MIN(ROW(Z7:Z34))+1))),ROW()-ROW(A$38)+1)),",",";"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;D7:D34,SMALL(IF(ISNUMBER(Z7:Z34),IF(Z7:Z34&gt;0,IF(AC7:AC34&lt;&gt;"",ROW(Z7:Z34)-MIN(ROW(Z7:Z34))+1))),ROW()-ROW(A$38)+1)),",",";"),",",INDEX(AC7:AC34,SMALL(IF(ISNUMBER(Z7:Z34),IF(Z7:Z34&gt;0,IF(AC7:AC34&lt;&gt;"",ROW(Z7:Z34)-MIN(ROW(Z7:Z34))+1))),ROW()-ROW(A$38)+1))),"")</f>
         <v>0</v>
       </c>
     </row>
@@ -4301,76 +6668,751 @@
     <mergeCell ref="AN5:AR5"/>
     <mergeCell ref="AS5:AW5"/>
   </mergeCells>
+  <conditionalFormatting sqref="AA14">
+    <cfRule type="cellIs" dxfId="4" priority="268" operator="lessThanOrEqual">
+      <formula>H14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB14">
+    <cfRule type="cellIs" dxfId="4" priority="267" operator="lessThanOrEqual">
+      <formula>I14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD10">
+    <cfRule type="cellIs" dxfId="1" priority="279" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="280" operator="lessThan">
+      <formula>G10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD12">
+    <cfRule type="cellIs" dxfId="1" priority="284" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="285" operator="lessThan">
+      <formula>G12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD13">
+    <cfRule type="cellIs" dxfId="1" priority="289" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="290" operator="lessThan">
+      <formula>G13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD14">
+    <cfRule type="cellIs" dxfId="1" priority="294" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="295" operator="lessThan">
+      <formula>G14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD15">
+    <cfRule type="cellIs" dxfId="1" priority="299" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="300" operator="lessThan">
+      <formula>G15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD16">
+    <cfRule type="cellIs" dxfId="1" priority="304" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="305" operator="lessThan">
+      <formula>G16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD18">
+    <cfRule type="cellIs" dxfId="1" priority="309" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="310" operator="lessThan">
+      <formula>G18</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="AD22">
-    <cfRule type="cellIs" dxfId="1" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="314" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="129" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="315" operator="lessThan">
       <formula>G22</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="AD23">
+    <cfRule type="cellIs" dxfId="1" priority="319" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="320" operator="lessThan">
+      <formula>G23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD24">
+    <cfRule type="cellIs" dxfId="1" priority="324" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="325" operator="lessThan">
+      <formula>G24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD31">
+    <cfRule type="cellIs" dxfId="1" priority="329" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="330" operator="lessThan">
+      <formula>G31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD33">
+    <cfRule type="cellIs" dxfId="1" priority="334" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="335" operator="lessThan">
+      <formula>G33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD8">
+    <cfRule type="cellIs" dxfId="1" priority="269" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="270" operator="lessThan">
+      <formula>G8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD9">
+    <cfRule type="cellIs" dxfId="1" priority="274" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="275" operator="lessThan">
+      <formula>G9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE10">
+    <cfRule type="cellIs" dxfId="1" priority="281" operator="greaterThan">
+      <formula>AD10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE12">
+    <cfRule type="cellIs" dxfId="1" priority="286" operator="greaterThan">
+      <formula>AD12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE13">
+    <cfRule type="cellIs" dxfId="1" priority="291" operator="greaterThan">
+      <formula>AD13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE14">
+    <cfRule type="cellIs" dxfId="1" priority="296" operator="greaterThan">
+      <formula>AD14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE15">
+    <cfRule type="cellIs" dxfId="1" priority="301" operator="greaterThan">
+      <formula>AD15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE16">
+    <cfRule type="cellIs" dxfId="1" priority="306" operator="greaterThan">
+      <formula>AD16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE18">
+    <cfRule type="cellIs" dxfId="1" priority="311" operator="greaterThan">
+      <formula>AD18</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="AE22">
-    <cfRule type="cellIs" dxfId="1" priority="130" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="316" operator="greaterThan">
       <formula>AD22</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="AE23">
+    <cfRule type="cellIs" dxfId="1" priority="321" operator="greaterThan">
+      <formula>AD23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE24">
+    <cfRule type="cellIs" dxfId="1" priority="326" operator="greaterThan">
+      <formula>AD24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE31">
+    <cfRule type="cellIs" dxfId="1" priority="331" operator="greaterThan">
+      <formula>AD31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE33">
+    <cfRule type="cellIs" dxfId="1" priority="336" operator="greaterThan">
+      <formula>AD33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE8">
+    <cfRule type="cellIs" dxfId="1" priority="271" operator="greaterThan">
+      <formula>AD8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE9">
+    <cfRule type="cellIs" dxfId="1" priority="276" operator="greaterThan">
+      <formula>AD9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF10">
+    <cfRule type="cellIs" dxfId="4" priority="283" operator="lessThanOrEqual">
+      <formula>H10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF12">
+    <cfRule type="cellIs" dxfId="4" priority="288" operator="lessThanOrEqual">
+      <formula>H12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF13">
+    <cfRule type="cellIs" dxfId="4" priority="293" operator="lessThanOrEqual">
+      <formula>H13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF14">
+    <cfRule type="cellIs" dxfId="4" priority="298" operator="lessThanOrEqual">
+      <formula>H14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF15">
+    <cfRule type="cellIs" dxfId="4" priority="303" operator="lessThanOrEqual">
+      <formula>H15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF16">
+    <cfRule type="cellIs" dxfId="4" priority="308" operator="lessThanOrEqual">
+      <formula>H16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF18">
+    <cfRule type="cellIs" dxfId="4" priority="313" operator="lessThanOrEqual">
+      <formula>H18</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="AF22">
-    <cfRule type="cellIs" dxfId="4" priority="132" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="318" operator="lessThanOrEqual">
       <formula>H22</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="AF23">
+    <cfRule type="cellIs" dxfId="4" priority="323" operator="lessThanOrEqual">
+      <formula>H23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF24">
+    <cfRule type="cellIs" dxfId="4" priority="328" operator="lessThanOrEqual">
+      <formula>H24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF31">
+    <cfRule type="cellIs" dxfId="4" priority="333" operator="lessThanOrEqual">
+      <formula>H31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF33">
+    <cfRule type="cellIs" dxfId="4" priority="338" operator="lessThanOrEqual">
+      <formula>H33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF8">
+    <cfRule type="cellIs" dxfId="4" priority="273" operator="lessThanOrEqual">
+      <formula>H8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF9">
+    <cfRule type="cellIs" dxfId="4" priority="278" operator="lessThanOrEqual">
+      <formula>H9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG10">
+    <cfRule type="cellIs" dxfId="4" priority="282" operator="lessThanOrEqual">
+      <formula>I10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG12">
+    <cfRule type="cellIs" dxfId="4" priority="287" operator="lessThanOrEqual">
+      <formula>I12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG13">
+    <cfRule type="cellIs" dxfId="4" priority="292" operator="lessThanOrEqual">
+      <formula>I13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG14">
+    <cfRule type="cellIs" dxfId="4" priority="297" operator="lessThanOrEqual">
+      <formula>I14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG15">
+    <cfRule type="cellIs" dxfId="4" priority="302" operator="lessThanOrEqual">
+      <formula>I15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG16">
+    <cfRule type="cellIs" dxfId="4" priority="307" operator="lessThanOrEqual">
+      <formula>I16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG18">
+    <cfRule type="cellIs" dxfId="4" priority="312" operator="lessThanOrEqual">
+      <formula>I18</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="AG22">
-    <cfRule type="cellIs" dxfId="4" priority="131" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="317" operator="lessThanOrEqual">
       <formula>I22</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="AG23">
+    <cfRule type="cellIs" dxfId="4" priority="322" operator="lessThanOrEqual">
+      <formula>I23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG24">
+    <cfRule type="cellIs" dxfId="4" priority="327" operator="lessThanOrEqual">
+      <formula>I24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG31">
+    <cfRule type="cellIs" dxfId="4" priority="332" operator="lessThanOrEqual">
+      <formula>I31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG33">
+    <cfRule type="cellIs" dxfId="4" priority="337" operator="lessThanOrEqual">
+      <formula>I33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG8">
+    <cfRule type="cellIs" dxfId="4" priority="272" operator="lessThanOrEqual">
+      <formula>I8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG9">
+    <cfRule type="cellIs" dxfId="4" priority="277" operator="lessThanOrEqual">
+      <formula>I9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI10">
+    <cfRule type="cellIs" dxfId="1" priority="344" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="345" operator="lessThan">
+      <formula>G10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI12">
+    <cfRule type="cellIs" dxfId="1" priority="349" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="350" operator="lessThan">
+      <formula>G12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI13">
+    <cfRule type="cellIs" dxfId="1" priority="354" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="355" operator="lessThan">
+      <formula>G13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI15">
+    <cfRule type="cellIs" dxfId="1" priority="360" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="361" operator="lessThan">
+      <formula>G15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI16">
+    <cfRule type="cellIs" dxfId="1" priority="366" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="367" operator="lessThan">
+      <formula>G16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI18">
+    <cfRule type="cellIs" dxfId="1" priority="371" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="372" operator="lessThan">
+      <formula>G18</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="AI22">
-    <cfRule type="cellIs" dxfId="1" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="376" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="134" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="377" operator="lessThan">
       <formula>G22</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="AI23">
+    <cfRule type="cellIs" dxfId="1" priority="381" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="382" operator="lessThan">
+      <formula>G23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI24">
+    <cfRule type="cellIs" dxfId="1" priority="386" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="387" operator="lessThan">
+      <formula>G24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI29">
+    <cfRule type="cellIs" dxfId="1" priority="392" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="393" operator="lessThan">
+      <formula>G29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI31">
+    <cfRule type="cellIs" dxfId="1" priority="398" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="399" operator="lessThan">
+      <formula>G31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI33">
+    <cfRule type="cellIs" dxfId="1" priority="403" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="404" operator="lessThan">
+      <formula>G33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI9">
+    <cfRule type="cellIs" dxfId="1" priority="339" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="340" operator="lessThan">
+      <formula>G9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ10">
+    <cfRule type="cellIs" dxfId="1" priority="346" operator="greaterThan">
+      <formula>AI10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ12">
+    <cfRule type="cellIs" dxfId="1" priority="351" operator="greaterThan">
+      <formula>AI12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ13">
+    <cfRule type="expression" dxfId="3" priority="356">
+      <formula>AND(AJ13&gt;0,AJ13&lt;10)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="357" operator="greaterThan">
+      <formula>AI13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ15">
+    <cfRule type="expression" dxfId="3" priority="362">
+      <formula>AND(AJ15&gt;0,AJ15&lt;15000)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="363" operator="greaterThan">
+      <formula>AI15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ16">
+    <cfRule type="cellIs" dxfId="1" priority="368" operator="greaterThan">
+      <formula>AI16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ18">
+    <cfRule type="cellIs" dxfId="1" priority="373" operator="greaterThan">
+      <formula>AI18</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="AJ22">
-    <cfRule type="cellIs" dxfId="1" priority="135" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="378" operator="greaterThan">
       <formula>AI22</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="AJ23">
+    <cfRule type="cellIs" dxfId="1" priority="383" operator="greaterThan">
+      <formula>AI23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ24">
+    <cfRule type="expression" dxfId="3" priority="388">
+      <formula>AND(AJ24&gt;0,AJ24&lt;10)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="389" operator="greaterThan">
+      <formula>AI24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ29">
+    <cfRule type="expression" dxfId="3" priority="394">
+      <formula>AND(AJ29&gt;0,AJ29&lt;10000)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="395" operator="greaterThan">
+      <formula>AI29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ31">
+    <cfRule type="cellIs" dxfId="1" priority="400" operator="greaterThan">
+      <formula>AI31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ33">
+    <cfRule type="cellIs" dxfId="1" priority="405" operator="greaterThan">
+      <formula>AI33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ9">
+    <cfRule type="cellIs" dxfId="1" priority="341" operator="greaterThan">
+      <formula>AI9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK10">
+    <cfRule type="cellIs" dxfId="4" priority="348" operator="lessThanOrEqual">
+      <formula>H10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK12">
+    <cfRule type="cellIs" dxfId="4" priority="353" operator="lessThanOrEqual">
+      <formula>H12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK13">
+    <cfRule type="cellIs" dxfId="4" priority="359" operator="lessThanOrEqual">
+      <formula>H13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK15">
+    <cfRule type="cellIs" dxfId="4" priority="365" operator="lessThanOrEqual">
+      <formula>H15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK16">
+    <cfRule type="cellIs" dxfId="4" priority="370" operator="lessThanOrEqual">
+      <formula>H16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK18">
+    <cfRule type="cellIs" dxfId="4" priority="375" operator="lessThanOrEqual">
+      <formula>H18</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="AK22">
-    <cfRule type="cellIs" dxfId="4" priority="137" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="380" operator="lessThanOrEqual">
       <formula>H22</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="AK23">
+    <cfRule type="cellIs" dxfId="4" priority="385" operator="lessThanOrEqual">
+      <formula>H23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK24">
+    <cfRule type="cellIs" dxfId="4" priority="391" operator="lessThanOrEqual">
+      <formula>H24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK29">
+    <cfRule type="cellIs" dxfId="4" priority="397" operator="lessThanOrEqual">
+      <formula>H29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK31">
+    <cfRule type="cellIs" dxfId="4" priority="402" operator="lessThanOrEqual">
+      <formula>H31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK33">
+    <cfRule type="cellIs" dxfId="4" priority="407" operator="lessThanOrEqual">
+      <formula>H33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK9">
+    <cfRule type="cellIs" dxfId="4" priority="343" operator="lessThanOrEqual">
+      <formula>H9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL10">
+    <cfRule type="cellIs" dxfId="4" priority="347" operator="lessThanOrEqual">
+      <formula>I10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL12">
+    <cfRule type="cellIs" dxfId="4" priority="352" operator="lessThanOrEqual">
+      <formula>I12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL13">
+    <cfRule type="cellIs" dxfId="4" priority="358" operator="lessThanOrEqual">
+      <formula>I13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL15">
+    <cfRule type="cellIs" dxfId="4" priority="364" operator="lessThanOrEqual">
+      <formula>I15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL16">
+    <cfRule type="cellIs" dxfId="4" priority="369" operator="lessThanOrEqual">
+      <formula>I16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL18">
+    <cfRule type="cellIs" dxfId="4" priority="374" operator="lessThanOrEqual">
+      <formula>I18</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="AL22">
-    <cfRule type="cellIs" dxfId="4" priority="136" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="379" operator="lessThanOrEqual">
       <formula>I22</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS22">
-    <cfRule type="cellIs" dxfId="1" priority="138" operator="equal">
+  <conditionalFormatting sqref="AL23">
+    <cfRule type="cellIs" dxfId="4" priority="384" operator="lessThanOrEqual">
+      <formula>I23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL24">
+    <cfRule type="cellIs" dxfId="4" priority="390" operator="lessThanOrEqual">
+      <formula>I24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL29">
+    <cfRule type="cellIs" dxfId="4" priority="396" operator="lessThanOrEqual">
+      <formula>I29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL31">
+    <cfRule type="cellIs" dxfId="4" priority="401" operator="lessThanOrEqual">
+      <formula>I31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL33">
+    <cfRule type="cellIs" dxfId="4" priority="406" operator="lessThanOrEqual">
+      <formula>I33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL9">
+    <cfRule type="cellIs" dxfId="4" priority="342" operator="lessThanOrEqual">
+      <formula>I9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN12">
+    <cfRule type="cellIs" dxfId="1" priority="408" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="139" operator="lessThan">
-      <formula>G22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AT22">
-    <cfRule type="expression" dxfId="3" priority="140">
-      <formula>AND(AT22&gt;0,AT22&lt;10)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="141" operator="greaterThan">
-      <formula>AS22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AU22">
-    <cfRule type="cellIs" dxfId="4" priority="143" operator="lessThanOrEqual">
-      <formula>H22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AV22">
-    <cfRule type="cellIs" dxfId="4" priority="142" operator="lessThanOrEqual">
-      <formula>I22</formula>
+    <cfRule type="cellIs" dxfId="2" priority="409" operator="lessThan">
+      <formula>G12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO12">
+    <cfRule type="expression" dxfId="3" priority="410">
+      <formula>AND(AO12&gt;0,AO12&lt;15000)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="411" operator="greaterThan">
+      <formula>AN12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP12">
+    <cfRule type="cellIs" dxfId="4" priority="413" operator="lessThanOrEqual">
+      <formula>H12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ12">
+    <cfRule type="cellIs" dxfId="4" priority="412" operator="lessThanOrEqual">
+      <formula>I12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AS14">
+    <cfRule type="cellIs" dxfId="1" priority="414" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="415" operator="lessThan">
+      <formula>G14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AS16">
+    <cfRule type="cellIs" dxfId="1" priority="420" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="421" operator="lessThan">
+      <formula>G16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AS18">
+    <cfRule type="cellIs" dxfId="1" priority="426" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="427" operator="lessThan">
+      <formula>G18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT14">
+    <cfRule type="expression" dxfId="3" priority="416">
+      <formula>AND(AT14&gt;0,AT14&lt;10)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="417" operator="greaterThan">
+      <formula>AS14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT16">
+    <cfRule type="expression" dxfId="3" priority="422">
+      <formula>AND(AT16&gt;0,AT16&lt;30)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="423" operator="greaterThan">
+      <formula>AS16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT18">
+    <cfRule type="expression" dxfId="3" priority="428">
+      <formula>AND(AT18&gt;0,AT18&lt;3)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="429" operator="greaterThan">
+      <formula>AS18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AU14">
+    <cfRule type="cellIs" dxfId="4" priority="419" operator="lessThanOrEqual">
+      <formula>H14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AU16">
+    <cfRule type="cellIs" dxfId="4" priority="425" operator="lessThanOrEqual">
+      <formula>H16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AU18">
+    <cfRule type="cellIs" dxfId="4" priority="431" operator="lessThanOrEqual">
+      <formula>H18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AV14">
+    <cfRule type="cellIs" dxfId="4" priority="418" operator="lessThanOrEqual">
+      <formula>I14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AV16">
+    <cfRule type="cellIs" dxfId="4" priority="424" operator="lessThanOrEqual">
+      <formula>I16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AV18">
+    <cfRule type="cellIs" dxfId="4" priority="430" operator="lessThanOrEqual">
+      <formula>I18</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
@@ -4723,20 +7765,6 @@
       <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(arrow_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(arrow_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(lcsc_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(lcsc_part_data)+1)),0))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G35">
-    <cfRule type="expression" dxfId="0" priority="113">
-      <formula>AND(ISBLANK(F35),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(arrow_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(lcsc_part_data)+4))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="114">
-      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(arrow_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(lcsc_part_data)+0)))=0,1,0)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="115" operator="greaterThan">
-      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(arrow_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(lcsc_part_data)+0)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="116" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(arrow_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(arrow_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(lcsc_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(lcsc_part_data)+1)),0))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="G7">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>AND(ISBLANK(F7),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(arrow_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(lcsc_part_data)+4))))</formula>
@@ -4779,67 +7807,771 @@
       <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(arrow_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(arrow_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(lcsc_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(lcsc_part_data)+1)),0))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="O10">
+    <cfRule type="cellIs" dxfId="1" priority="123" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="124" operator="lessThan">
+      <formula>G10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O12">
+    <cfRule type="cellIs" dxfId="1" priority="128" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="129" operator="lessThan">
+      <formula>G12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O13">
+    <cfRule type="cellIs" dxfId="1" priority="133" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="134" operator="lessThan">
+      <formula>G13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O14">
+    <cfRule type="cellIs" dxfId="1" priority="138" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="139" operator="lessThan">
+      <formula>G14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O15">
+    <cfRule type="cellIs" dxfId="1" priority="143" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="144" operator="lessThan">
+      <formula>G15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O16">
+    <cfRule type="cellIs" dxfId="1" priority="148" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="149" operator="lessThan">
+      <formula>G16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O18">
+    <cfRule type="cellIs" dxfId="1" priority="153" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="154" operator="lessThan">
+      <formula>G18</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="O22">
-    <cfRule type="cellIs" dxfId="1" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="158" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="118" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="159" operator="lessThan">
       <formula>G22</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="O23">
+    <cfRule type="cellIs" dxfId="1" priority="163" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="164" operator="lessThan">
+      <formula>G23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O24">
+    <cfRule type="cellIs" dxfId="1" priority="168" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="169" operator="lessThan">
+      <formula>G24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O26">
+    <cfRule type="cellIs" dxfId="1" priority="173" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="174" operator="lessThan">
+      <formula>G26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O29">
+    <cfRule type="cellIs" dxfId="1" priority="179" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="180" operator="lessThan">
+      <formula>G29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O31">
+    <cfRule type="cellIs" dxfId="1" priority="184" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="185" operator="lessThan">
+      <formula>G31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O32">
+    <cfRule type="cellIs" dxfId="1" priority="189" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="190" operator="lessThan">
+      <formula>G32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O33">
+    <cfRule type="cellIs" dxfId="1" priority="194" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="195" operator="lessThan">
+      <formula>G33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O8">
+    <cfRule type="cellIs" dxfId="1" priority="113" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="114" operator="lessThan">
+      <formula>G8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O9">
+    <cfRule type="cellIs" dxfId="1" priority="118" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="119" operator="lessThan">
+      <formula>G9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P10">
+    <cfRule type="cellIs" dxfId="1" priority="125" operator="greaterThan">
+      <formula>O10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P12">
+    <cfRule type="cellIs" dxfId="1" priority="130" operator="greaterThan">
+      <formula>O12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P13">
+    <cfRule type="cellIs" dxfId="1" priority="135" operator="greaterThan">
+      <formula>O13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P14">
+    <cfRule type="cellIs" dxfId="1" priority="140" operator="greaterThan">
+      <formula>O14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P15">
+    <cfRule type="cellIs" dxfId="1" priority="145" operator="greaterThan">
+      <formula>O15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P16">
+    <cfRule type="cellIs" dxfId="1" priority="150" operator="greaterThan">
+      <formula>O16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P18">
+    <cfRule type="cellIs" dxfId="1" priority="155" operator="greaterThan">
+      <formula>O18</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="P22">
-    <cfRule type="cellIs" dxfId="1" priority="119" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="160" operator="greaterThan">
       <formula>O22</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="P23">
+    <cfRule type="cellIs" dxfId="1" priority="165" operator="greaterThan">
+      <formula>O23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P24">
+    <cfRule type="cellIs" dxfId="1" priority="170" operator="greaterThan">
+      <formula>O24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P26">
+    <cfRule type="expression" dxfId="3" priority="175">
+      <formula>AND(P26&gt;0,P26&lt;1000)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="176" operator="greaterThan">
+      <formula>O26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P29">
+    <cfRule type="cellIs" dxfId="1" priority="181" operator="greaterThan">
+      <formula>O29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P31">
+    <cfRule type="cellIs" dxfId="1" priority="186" operator="greaterThan">
+      <formula>O31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P32">
+    <cfRule type="cellIs" dxfId="1" priority="191" operator="greaterThan">
+      <formula>O32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P33">
+    <cfRule type="cellIs" dxfId="1" priority="196" operator="greaterThan">
+      <formula>O33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P8">
+    <cfRule type="cellIs" dxfId="1" priority="115" operator="greaterThan">
+      <formula>O8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P9">
+    <cfRule type="cellIs" dxfId="1" priority="120" operator="greaterThan">
+      <formula>O9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q10">
+    <cfRule type="cellIs" dxfId="4" priority="127" operator="lessThanOrEqual">
+      <formula>H10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q12">
+    <cfRule type="cellIs" dxfId="4" priority="132" operator="lessThanOrEqual">
+      <formula>H12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q13">
+    <cfRule type="cellIs" dxfId="4" priority="137" operator="lessThanOrEqual">
+      <formula>H13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q14">
+    <cfRule type="cellIs" dxfId="4" priority="142" operator="lessThanOrEqual">
+      <formula>H14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q15">
+    <cfRule type="cellIs" dxfId="4" priority="147" operator="lessThanOrEqual">
+      <formula>H15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q16">
+    <cfRule type="cellIs" dxfId="4" priority="152" operator="lessThanOrEqual">
+      <formula>H16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q18">
+    <cfRule type="cellIs" dxfId="4" priority="157" operator="lessThanOrEqual">
+      <formula>H18</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="Q22">
+    <cfRule type="cellIs" dxfId="4" priority="162" operator="lessThanOrEqual">
+      <formula>H22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q23">
+    <cfRule type="cellIs" dxfId="4" priority="167" operator="lessThanOrEqual">
+      <formula>H23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q24">
+    <cfRule type="cellIs" dxfId="4" priority="172" operator="lessThanOrEqual">
+      <formula>H24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q26">
+    <cfRule type="cellIs" dxfId="4" priority="178" operator="lessThanOrEqual">
+      <formula>H26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q29">
+    <cfRule type="cellIs" dxfId="4" priority="183" operator="lessThanOrEqual">
+      <formula>H29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q31">
+    <cfRule type="cellIs" dxfId="4" priority="188" operator="lessThanOrEqual">
+      <formula>H31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q32">
+    <cfRule type="cellIs" dxfId="4" priority="193" operator="lessThanOrEqual">
+      <formula>H32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q33">
+    <cfRule type="cellIs" dxfId="4" priority="198" operator="lessThanOrEqual">
+      <formula>H33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q8">
+    <cfRule type="cellIs" dxfId="4" priority="117" operator="lessThanOrEqual">
+      <formula>H8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q9">
+    <cfRule type="cellIs" dxfId="4" priority="122" operator="lessThanOrEqual">
+      <formula>H9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R10">
+    <cfRule type="cellIs" dxfId="4" priority="126" operator="lessThanOrEqual">
+      <formula>I10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R12">
+    <cfRule type="cellIs" dxfId="4" priority="131" operator="lessThanOrEqual">
+      <formula>I12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R13">
+    <cfRule type="cellIs" dxfId="4" priority="136" operator="lessThanOrEqual">
+      <formula>I13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R14">
+    <cfRule type="cellIs" dxfId="4" priority="141" operator="lessThanOrEqual">
+      <formula>I14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R15">
+    <cfRule type="cellIs" dxfId="4" priority="146" operator="lessThanOrEqual">
+      <formula>I15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R16">
+    <cfRule type="cellIs" dxfId="4" priority="151" operator="lessThanOrEqual">
+      <formula>I16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R18">
+    <cfRule type="cellIs" dxfId="4" priority="156" operator="lessThanOrEqual">
+      <formula>I18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R22">
+    <cfRule type="cellIs" dxfId="4" priority="161" operator="lessThanOrEqual">
+      <formula>I22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R23">
+    <cfRule type="cellIs" dxfId="4" priority="166" operator="lessThanOrEqual">
+      <formula>I23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R24">
+    <cfRule type="cellIs" dxfId="4" priority="171" operator="lessThanOrEqual">
+      <formula>I24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R26">
+    <cfRule type="cellIs" dxfId="4" priority="177" operator="lessThanOrEqual">
+      <formula>I26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R29">
+    <cfRule type="cellIs" dxfId="4" priority="182" operator="lessThanOrEqual">
+      <formula>I29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R31">
+    <cfRule type="cellIs" dxfId="4" priority="187" operator="lessThanOrEqual">
+      <formula>I31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R32">
+    <cfRule type="cellIs" dxfId="4" priority="192" operator="lessThanOrEqual">
+      <formula>I32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R33">
+    <cfRule type="cellIs" dxfId="4" priority="197" operator="lessThanOrEqual">
+      <formula>I33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R8">
+    <cfRule type="cellIs" dxfId="4" priority="116" operator="lessThanOrEqual">
+      <formula>I8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R9">
     <cfRule type="cellIs" dxfId="4" priority="121" operator="lessThanOrEqual">
+      <formula>I9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T12">
+    <cfRule type="cellIs" dxfId="1" priority="205" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="206" operator="lessThan">
+      <formula>G12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T13">
+    <cfRule type="cellIs" dxfId="1" priority="211" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="212" operator="lessThan">
+      <formula>G13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T16">
+    <cfRule type="cellIs" dxfId="1" priority="217" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="218" operator="lessThan">
+      <formula>G16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T18">
+    <cfRule type="cellIs" dxfId="1" priority="223" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="224" operator="lessThan">
+      <formula>G18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T22">
+    <cfRule type="cellIs" dxfId="1" priority="228" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="229" operator="lessThan">
+      <formula>G22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T23">
+    <cfRule type="cellIs" dxfId="1" priority="234" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="235" operator="lessThan">
+      <formula>G23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T24">
+    <cfRule type="cellIs" dxfId="1" priority="240" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="241" operator="lessThan">
+      <formula>G24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T29">
+    <cfRule type="cellIs" dxfId="1" priority="246" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="247" operator="lessThan">
+      <formula>G29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T31">
+    <cfRule type="cellIs" dxfId="1" priority="252" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="253" operator="lessThan">
+      <formula>G31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T33">
+    <cfRule type="cellIs" dxfId="1" priority="258" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="259" operator="lessThan">
+      <formula>G33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T9">
+    <cfRule type="cellIs" dxfId="1" priority="199" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="200" operator="lessThan">
+      <formula>G9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U12">
+    <cfRule type="expression" dxfId="3" priority="207">
+      <formula>AND(U12&gt;0,U12&lt;10)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="208" operator="greaterThan">
+      <formula>T12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U13">
+    <cfRule type="expression" dxfId="3" priority="213">
+      <formula>AND(U13&gt;0,U13&lt;10)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="214" operator="greaterThan">
+      <formula>T13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U16">
+    <cfRule type="expression" dxfId="3" priority="219">
+      <formula>AND(U16&gt;0,U16&lt;5)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="220" operator="greaterThan">
+      <formula>T16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U18">
+    <cfRule type="cellIs" dxfId="1" priority="225" operator="greaterThan">
+      <formula>T18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U22">
+    <cfRule type="expression" dxfId="3" priority="230">
+      <formula>AND(U22&gt;0,U22&lt;10)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="231" operator="greaterThan">
+      <formula>T22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U23">
+    <cfRule type="expression" dxfId="3" priority="236">
+      <formula>AND(U23&gt;0,U23&lt;10)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="237" operator="greaterThan">
+      <formula>T23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U24">
+    <cfRule type="expression" dxfId="3" priority="242">
+      <formula>AND(U24&gt;0,U24&lt;10)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="243" operator="greaterThan">
+      <formula>T24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U29">
+    <cfRule type="expression" dxfId="3" priority="248">
+      <formula>AND(U29&gt;0,U29&lt;10000)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="249" operator="greaterThan">
+      <formula>T29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U31">
+    <cfRule type="expression" dxfId="3" priority="254">
+      <formula>AND(U31&gt;0,U31&lt;10)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="255" operator="greaterThan">
+      <formula>T31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U33">
+    <cfRule type="cellIs" dxfId="1" priority="260" operator="greaterThan">
+      <formula>T33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U9">
+    <cfRule type="expression" dxfId="3" priority="201">
+      <formula>AND(U9&gt;0,U9&lt;10)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="202" operator="greaterThan">
+      <formula>T9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V12">
+    <cfRule type="cellIs" dxfId="4" priority="210" operator="lessThanOrEqual">
+      <formula>H12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V13">
+    <cfRule type="cellIs" dxfId="4" priority="216" operator="lessThanOrEqual">
+      <formula>H13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V16">
+    <cfRule type="cellIs" dxfId="4" priority="222" operator="lessThanOrEqual">
+      <formula>H16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V18">
+    <cfRule type="cellIs" dxfId="4" priority="227" operator="lessThanOrEqual">
+      <formula>H18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V22">
+    <cfRule type="cellIs" dxfId="4" priority="233" operator="lessThanOrEqual">
       <formula>H22</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R22">
-    <cfRule type="cellIs" dxfId="4" priority="120" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="V23">
+    <cfRule type="cellIs" dxfId="4" priority="239" operator="lessThanOrEqual">
+      <formula>H23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V24">
+    <cfRule type="cellIs" dxfId="4" priority="245" operator="lessThanOrEqual">
+      <formula>H24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V29">
+    <cfRule type="cellIs" dxfId="4" priority="251" operator="lessThanOrEqual">
+      <formula>H29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V31">
+    <cfRule type="cellIs" dxfId="4" priority="257" operator="lessThanOrEqual">
+      <formula>H31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V33">
+    <cfRule type="cellIs" dxfId="4" priority="262" operator="lessThanOrEqual">
+      <formula>H33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V9">
+    <cfRule type="cellIs" dxfId="4" priority="204" operator="lessThanOrEqual">
+      <formula>H9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W12">
+    <cfRule type="cellIs" dxfId="4" priority="209" operator="lessThanOrEqual">
+      <formula>I12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W13">
+    <cfRule type="cellIs" dxfId="4" priority="215" operator="lessThanOrEqual">
+      <formula>I13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W16">
+    <cfRule type="cellIs" dxfId="4" priority="221" operator="lessThanOrEqual">
+      <formula>I16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W18">
+    <cfRule type="cellIs" dxfId="4" priority="226" operator="lessThanOrEqual">
+      <formula>I18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W22">
+    <cfRule type="cellIs" dxfId="4" priority="232" operator="lessThanOrEqual">
       <formula>I22</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T22">
-    <cfRule type="cellIs" dxfId="1" priority="122" operator="equal">
+  <conditionalFormatting sqref="W23">
+    <cfRule type="cellIs" dxfId="4" priority="238" operator="lessThanOrEqual">
+      <formula>I23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W24">
+    <cfRule type="cellIs" dxfId="4" priority="244" operator="lessThanOrEqual">
+      <formula>I24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W29">
+    <cfRule type="cellIs" dxfId="4" priority="250" operator="lessThanOrEqual">
+      <formula>I29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W31">
+    <cfRule type="cellIs" dxfId="4" priority="256" operator="lessThanOrEqual">
+      <formula>I31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W33">
+    <cfRule type="cellIs" dxfId="4" priority="261" operator="lessThanOrEqual">
+      <formula>I33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W9">
+    <cfRule type="cellIs" dxfId="4" priority="203" operator="lessThanOrEqual">
+      <formula>I9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y14">
+    <cfRule type="cellIs" dxfId="1" priority="263" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="123" operator="lessThan">
-      <formula>G22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U22">
-    <cfRule type="expression" dxfId="3" priority="124">
-      <formula>AND(U22&gt;0,U22&lt;5)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="125" operator="greaterThan">
-      <formula>T22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V22">
-    <cfRule type="cellIs" dxfId="4" priority="127" operator="lessThanOrEqual">
-      <formula>H22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W22">
-    <cfRule type="cellIs" dxfId="4" priority="126" operator="lessThanOrEqual">
-      <formula>I22</formula>
+    <cfRule type="cellIs" dxfId="2" priority="264" operator="lessThan">
+      <formula>G14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z14">
+    <cfRule type="expression" dxfId="3" priority="265">
+      <formula>AND(Z14&gt;0,Z14&lt;5)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="266" operator="greaterThan">
+      <formula>Y14</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="F17" r:id="rId1"/>
-    <hyperlink ref="F19" r:id="rId2"/>
-    <hyperlink ref="F21" r:id="rId3"/>
-    <hyperlink ref="F22" r:id="rId4"/>
-    <hyperlink ref="S22" r:id="rId5"/>
-    <hyperlink ref="X22" r:id="rId6"/>
-    <hyperlink ref="AH22" r:id="rId7"/>
-    <hyperlink ref="AM22" r:id="rId8"/>
-    <hyperlink ref="AW22" r:id="rId9"/>
+    <hyperlink ref="F8" r:id="rId1"/>
+    <hyperlink ref="S8" r:id="rId2"/>
+    <hyperlink ref="AH8" r:id="rId3"/>
+    <hyperlink ref="F9" r:id="rId4"/>
+    <hyperlink ref="S9" r:id="rId5"/>
+    <hyperlink ref="X9" r:id="rId6"/>
+    <hyperlink ref="AH9" r:id="rId7"/>
+    <hyperlink ref="AM9" r:id="rId8"/>
+    <hyperlink ref="F10" r:id="rId9"/>
+    <hyperlink ref="S10" r:id="rId10"/>
+    <hyperlink ref="AH10" r:id="rId11"/>
+    <hyperlink ref="AM10" r:id="rId12"/>
+    <hyperlink ref="F12" r:id="rId13"/>
+    <hyperlink ref="S12" r:id="rId14"/>
+    <hyperlink ref="X12" r:id="rId15"/>
+    <hyperlink ref="AH12" r:id="rId16"/>
+    <hyperlink ref="AM12" r:id="rId17"/>
+    <hyperlink ref="AR12" r:id="rId18"/>
+    <hyperlink ref="S13" r:id="rId19"/>
+    <hyperlink ref="X13" r:id="rId20"/>
+    <hyperlink ref="AH13" r:id="rId21"/>
+    <hyperlink ref="AM13" r:id="rId22"/>
+    <hyperlink ref="F14" r:id="rId23"/>
+    <hyperlink ref="S14" r:id="rId24"/>
+    <hyperlink ref="AC14" r:id="rId25"/>
+    <hyperlink ref="AH14" r:id="rId26"/>
+    <hyperlink ref="AW14" r:id="rId27"/>
+    <hyperlink ref="F15" r:id="rId28"/>
+    <hyperlink ref="S15" r:id="rId29"/>
+    <hyperlink ref="AH15" r:id="rId30"/>
+    <hyperlink ref="AM15" r:id="rId31"/>
+    <hyperlink ref="F16" r:id="rId32"/>
+    <hyperlink ref="S16" r:id="rId33"/>
+    <hyperlink ref="X16" r:id="rId34"/>
+    <hyperlink ref="AH16" r:id="rId35"/>
+    <hyperlink ref="AM16" r:id="rId36"/>
+    <hyperlink ref="AW16" r:id="rId37"/>
+    <hyperlink ref="F18" r:id="rId38"/>
+    <hyperlink ref="S18" r:id="rId39"/>
+    <hyperlink ref="X18" r:id="rId40"/>
+    <hyperlink ref="AH18" r:id="rId41"/>
+    <hyperlink ref="AM18" r:id="rId42"/>
+    <hyperlink ref="AW18" r:id="rId43"/>
+    <hyperlink ref="F20" r:id="rId44"/>
+    <hyperlink ref="F21" r:id="rId45"/>
+    <hyperlink ref="S22" r:id="rId46"/>
+    <hyperlink ref="X22" r:id="rId47"/>
+    <hyperlink ref="AH22" r:id="rId48"/>
+    <hyperlink ref="AM22" r:id="rId49"/>
+    <hyperlink ref="S23" r:id="rId50"/>
+    <hyperlink ref="X23" r:id="rId51"/>
+    <hyperlink ref="AH23" r:id="rId52"/>
+    <hyperlink ref="AM23" r:id="rId53"/>
+    <hyperlink ref="F24" r:id="rId54"/>
+    <hyperlink ref="S24" r:id="rId55"/>
+    <hyperlink ref="X24" r:id="rId56"/>
+    <hyperlink ref="AH24" r:id="rId57"/>
+    <hyperlink ref="AM24" r:id="rId58"/>
+    <hyperlink ref="S26" r:id="rId59"/>
+    <hyperlink ref="F29" r:id="rId60"/>
+    <hyperlink ref="S29" r:id="rId61"/>
+    <hyperlink ref="X29" r:id="rId62"/>
+    <hyperlink ref="AM29" r:id="rId63"/>
+    <hyperlink ref="S31" r:id="rId64"/>
+    <hyperlink ref="X31" r:id="rId65"/>
+    <hyperlink ref="AH31" r:id="rId66"/>
+    <hyperlink ref="AM31" r:id="rId67"/>
+    <hyperlink ref="S32" r:id="rId68"/>
+    <hyperlink ref="S33" r:id="rId69"/>
+    <hyperlink ref="X33" r:id="rId70"/>
+    <hyperlink ref="AH33" r:id="rId71"/>
+    <hyperlink ref="AM33" r:id="rId72"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId10"/>
+  <legacyDrawing r:id="rId73"/>
 </worksheet>
 </file>